--- a/langchain_study/korea_bank/2021_korea_bank.xlsx
+++ b/langchain_study/korea_bank/2021_korea_bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
   <si>
     <t>chunk_num</t>
   </si>
@@ -33,10 +33,10 @@
     <t>content</t>
   </si>
   <si>
-    <t>한국은행이 통화신용정책 수단으로 수행하는 증권업무는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>통화안정증권 발행, 증권 매매 및 대차 업무</t>
+    <t>한국은행이 통화신용정책 수단으로 수행하는 업무는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>한국은행이 통화신용정책 수단으로 수행하는 업무는 공개시장에서 통화안정증권 발행, 증권 매매 및 대차 업무입니다.</t>
   </si>
   <si>
     <t>한국은행의 증권업무 해설 한국은행의 증권업무 해설
@@ -147,7 +147,10 @@
       제1절 원천징수제도 개요 166</t>
   </si>
   <si>
-    <t>****</t>
+    <t>증권대차거래 제도의 개요는 몇 절에 설명되어 있나요?</t>
+  </si>
+  <si>
+    <t>증권대차거래 제도의 개요는 제1절에 설명되어 있습니다.</t>
   </si>
   <si>
     <t>제1절 증권대차거래 제도의 개요 157
@@ -262,6 +265,9 @@
 &lt;표 Ⅰ-24&gt; 국고채권 발행·상환 관련 업무현황 88</t>
   </si>
   <si>
+    <t>****</t>
+  </si>
+  <si>
     <t>&lt;표 Ⅰ-17&gt; 신규발행 국고채권의 종목관리코드 부여 방법(예시) 48
 &lt;표 Ⅰ-18&gt; 국고채권 수익률 체계 개편 내용(2013. 6월 개편 당시) 49
 &lt;표 Ⅰ-19&gt; 물가연동국고채 사례 50
@@ -461,10 +467,10 @@
 □정부는 1950년에 부족한 조세수입을 보전하고 재정수요를 충당하기 위해</t>
   </si>
   <si>
-    <t>국채 발행 계획안은 누가 작성합니까?</t>
-  </si>
-  <si>
-    <t>기획재정부장관</t>
+    <t>국채는 누가 발행 계획안을 작성하나요?</t>
+  </si>
+  <si>
+    <t>국채 발행 계획안은 기획재정부장관이 작성합니다.</t>
   </si>
   <si>
     <t>1.발행절차
@@ -567,10 +573,10 @@
 2018년 5월  물가채 선매출 실시</t>
   </si>
   <si>
-    <t>재정증권(Treasury Bill)은 어떤 목적으로 발행되는가?</t>
-  </si>
-  <si>
-    <t>정부가 회계연도 중 일시적인 재정부족자금을 보전하기 위해 발행</t>
+    <t>재정증권(Treasury Bill)은 무엇을 위해 발행되나요?</t>
+  </si>
+  <si>
+    <t>재정증권(Treasury Bill)은 정부가 회계연도 중 일시적인 재정부족자금을 보전하기 위해 발행됩니다.</t>
   </si>
   <si>
     <t>4월 물가연동국고채 일반인 입찰 허용
@@ -670,10 +676,10 @@
 주 :1)무기명 할인발행 ,이자소득세 (당시 세율 20%)면제 ,국내거주자 및 비거주자를 대상으로 발행</t>
   </si>
   <si>
-    <t>보상채권은 어떤 법률에 따라 발행되었나요?</t>
-  </si>
-  <si>
-    <t>공익사업을 위한 토지 등의 취득 및 보상에 관한 법률</t>
+    <t>외환위기 직후 국내에서 발행된 달러화 외국환평형기금채권의 발행일은 언제인가요?</t>
+  </si>
+  <si>
+    <t>외환위기 직후 국내에서 발행된 달러화 외국환평형기금채권의 발행일은 1998년 3월 30일입니다.</t>
   </si>
   <si>
     <t>외환보유액 확충을 위해 &lt;표Ⅰ-4&gt;와 같이 외화표시로 발행된 바 있음
@@ -771,10 +777,10 @@
 1983. 5.23제2종채권 최초 발행 (서울시 개포동 현대아파트 )</t>
   </si>
   <si>
-    <t>1972년 12월 30일에 제정 및 시행된 법의 이름은 무엇인가?</t>
-  </si>
-  <si>
-    <t>주택건설촉진법</t>
+    <t>국민주택채권의 최초 발행 시기는 언제인가요?</t>
+  </si>
+  <si>
+    <t>국민주택채권의 최초 발행 시기는 1973년 3월 2일입니다.</t>
   </si>
   <si>
     <t>자료 :국토교통부
@@ -877,10 +883,10 @@
 (현재 발행되고 있는</t>
   </si>
   <si>
-    <t>도로국채는 몇 회에 걸쳐 발행되었으며, 총 발행 금액은 얼마인가요?</t>
-  </si>
-  <si>
-    <t>9회, 360억원</t>
+    <t>도로국채는 몇 회 발행되었으며, 총 발행 금액은 얼마인가요?</t>
+  </si>
+  <si>
+    <t>도로국채는 9회 발행되었으며, 총 발행 금액은 360억원입니다.</t>
   </si>
   <si>
     <t>도로국채
@@ -1015,7 +1021,7 @@
     <t>국고채권의 입찰시간은 언제인가요?</t>
   </si>
   <si>
-    <t>경쟁입찰일 오전 10:40~11:00, 선매출 09:40~10:00</t>
+    <t>국고채권의 입찰시간은 경쟁입찰일 오전 10:40~11:00입니다.</t>
   </si>
   <si>
     <t>⑥ BOK-Wire+를 통해 낙찰결과를 국고채 
@@ -1133,7 +1139,7 @@
     <t>차등가격 낙찰방식이 도입된 이유는 무엇인가요?</t>
   </si>
   <si>
-    <t>응찰자가 적정 금리로 응찰하려는 유인을 제공하고, 동일 그룹 내에서는 최고 낙찰금리를 적용하여 국고채권을 인수하는 딜러들의 부담을 완화하기 위해서입니다.</t>
+    <t>차등가격 낙찰방식이 도입된 이유는 국고채전문딜러가 적정 금리로 응찰하려는 유인을 제공하고, 동일 그룹 내에서는 최고 낙찰금리를 적용함으로써 국고채권을 인수하는 딜러들의 부담을 완화하기 위해서입니다.</t>
   </si>
   <si>
     <t>응찰현황단일가격낙찰방식 차등가격낙찰방식
@@ -1237,10 +1243,10 @@
 □당해 경쟁입찰에서 국고채권을 인수한 국고채전문딜러가 경쟁입찰에서 결</t>
   </si>
   <si>
-    <t>국고채 전문딜러가 모집방식으로 국고채를 인수할 수 있도록 하는 제도는 언제 신설되었나요?</t>
-  </si>
-  <si>
-    <t>2021년</t>
+    <t>일반인이 낙찰 받은 국고채권은 누구의 명의로 배정되나요?</t>
+  </si>
+  <si>
+    <t>일반인이 낙찰 받은 국고채권은 입찰대행기관(국고채전문딜러)의 명의로 배정됩니다.</t>
   </si>
   <si>
     <t>하는 금액에 대해서는 10만원 단위로 증액
@@ -1323,10 +1329,10 @@
 &lt;표Ⅰ-16&gt;국고채권 통합발행 기간</t>
   </si>
   <si>
-    <t>2년물 국고채권의 통합발행 기간은 몇 개월인가요?</t>
-  </si>
-  <si>
-    <t>3개월</t>
+    <t>2년물 국고채권의 통합발행 기간은 얼마인가요?</t>
+  </si>
+  <si>
+    <t>2년물 국고채권의 통합발행 기간은 3개월입니다.</t>
   </si>
   <si>
     <t>- 47 - 2.통합발행 기간
@@ -1432,10 +1438,10 @@
 우편 ,서면입찰 방식으로도 응찰 가능</t>
   </si>
   <si>
-    <t>물가연동국고채의 경쟁입찰방식은 어떤 시스템을 통해 이루어지나요?</t>
-  </si>
-  <si>
-    <t>한은망 (BOK-Wire+)</t>
+    <t>물가연동국고채의 경쟁입찰방식은 무엇을 통해 이루어지나요?</t>
+  </si>
+  <si>
+    <t>물가연동국고채의 경쟁입찰방식은 한은망 (BOK-Wire+)을 통한 전자입찰방식으로 이루어집니다.</t>
   </si>
   <si>
     <t>의 수요부족 및 유동성 부족 등으로 2008년 8월 발행을 일시 중단
@@ -1567,10 +1573,10 @@
 특정일의물가지수×</t>
   </si>
   <si>
-    <t>물가연동국고채의 연동 지수는 무엇을 사용합니까?</t>
-  </si>
-  <si>
-    <t>소비자물가지수 (CPI)</t>
+    <t>물가연동국고채의 연동 지수는 무엇을 사용하나요?</t>
+  </si>
+  <si>
+    <t>물가연동국고채의 연동 지수는 소비자물가지수(CPI)를 사용합니다.</t>
   </si>
   <si>
     <t>□물가연동국고채의 연동 지수는 소비자물가지수 (CPI, Consumer Price Index)를 
@@ -1679,10 +1685,10 @@
 환매대금 ={매매대금×(1+환매이자율*×거래기간일수 /365)}</t>
   </si>
   <si>
-    <t>국고채전문딜러가 신청할 수 있는 최소 및 최대 금액은 얼마인가?</t>
-  </si>
-  <si>
-    <t>최소 10억원, 최대 500억원</t>
+    <t>국고채전문딜러가 신청할 수 있는 최소 및 최대 금액은 얼마인가요?</t>
+  </si>
+  <si>
+    <t>국고채전문딜러는 종목당 최소 10억원에서 최대 500억원을 신청할 수 있습니다.</t>
   </si>
   <si>
     <t>ㅇ발행대상채권은 지표종목 및 경과종목 모두 가능
@@ -1779,7 +1785,7 @@
     <t>변동금리부 국고채권의 표면금리는 어떻게 결정되나요?</t>
   </si>
   <si>
-    <t>기준금리와 낙찰된 최고가산금리의 합으로 결정됩니다.</t>
+    <t>변동금리부 국고채권의 표면금리는 기준금리와 낙찰된 최고가산금리의 합으로 결정됩니다.</t>
   </si>
   <si>
     <t>□변동금리부 국고채권의 표면금리는 기준금리와 낙찰된 최고가산금리의 합으로 
@@ -1887,10 +1893,10 @@
 증권원금통합계정 기획재정부 국고과</t>
   </si>
   <si>
-    <t>국채의 소멸시효는 원금과 이자 모두 만기일로부터 몇 년인가요?</t>
-  </si>
-  <si>
-    <t>5년</t>
+    <t>국채의 소멸시효는 원금과 이자 모두 몇 년인가요?</t>
+  </si>
+  <si>
+    <t>국채의 소멸시효는 원금과 이자 모두 만기일로부터 5년입니다.</t>
   </si>
   <si>
     <t>하고 상환 전일까지 수령하여 국고채권은 국고채권상환자금 (778국고계정 ),
@@ -1988,10 +1994,10 @@
 딜러를대상으로 국고채권을 신규로 발행하여 경과물 국고채권과 교환해</t>
   </si>
   <si>
-    <t>국고채권 교환제도는 무엇을 방지할 수 있습니까?</t>
-  </si>
-  <si>
-    <t>국고채권 만기가 일시에 집중되는 것을 방지할 수 있습니다.</t>
+    <t>국고채권 교환제도는 언제 도입되었나요?</t>
+  </si>
+  <si>
+    <t>국고채권 교환제도는 2009년 5월에 도입되었습니다.</t>
   </si>
   <si>
     <t>
@@ -2088,10 +2094,10 @@
 발행단가식 &lt;참고 I-15&gt;에 대입하고 ,경과물 상환대금은 각자의 낙찰금</t>
   </si>
   <si>
-    <t>국고채권 교환시 차액 정산 방법은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>정산액 = 신규물 발행대금 - 경과물 상환대금</t>
+    <t>국고채권 교환시 정산액이 0보다 클 경우 누가 정산액을 납입해야 하나요?</t>
+  </si>
+  <si>
+    <t>국고채권 교환시 정산액이 0보다 클 경우 PD가 정산액을 납입해야 합니다.</t>
   </si>
   <si>
     <t>련한 자세한 내용은 &lt;Ⅳ.채권 관련 원천징수 업무 &gt;참고
@@ -2191,10 +2197,10 @@
 지표종목</t>
   </si>
   <si>
-    <t>국고채권 딜링 업무를 전담하는 딜러의 최소 근무 경력은 몇 년 이상이어야 합니까?</t>
-  </si>
-  <si>
-    <t>3년</t>
+    <t>국고채권 딜링 업무를 전담하는 딜러의 최소 근무 경력은 몇 년인가요?</t>
+  </si>
+  <si>
+    <t>국고채권 딜링 업무를 전담하는 딜러의 최소 근무 경력은 3년입니다.</t>
   </si>
   <si>
     <t>ㅇ 국고채권 딜링 업무를 전담하는 딜러로 채권 딜링이나 중개업무에 3
@@ -2301,10 +2307,10 @@
 □이자분리채권의 경우 원본채권이 달라도 만기일이 동일하면 동일한 종목임</t>
   </si>
   <si>
-    <t>국고채권 스트립이 최초로 시행된 연도와 대상 채권은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>2007년 4월, 20년 만기 국고채권</t>
+    <t>국고채권 스트립이 처음 도입된 시기는 언제인가요?</t>
+  </si>
+  <si>
+    <t>국고채권 스트립은 2006년 3월에 처음 도입되었습니다.</t>
   </si>
   <si>
     <t>장기 무이표채권에 대한 수요 대응 및 채권시장의 국제화 등을 위하여 2006년 
@@ -2411,10 +2417,10 @@
 -STRIPS</t>
   </si>
   <si>
-    <t>공고문 게시 의뢰는 매월 언제 이루어지나요?</t>
-  </si>
-  <si>
-    <t>매월 하순</t>
+    <t>국고채권의 입찰일에는 어떤 절차를 거쳐 상장신청을 해야 하나요?</t>
+  </si>
+  <si>
+    <t>국고채권 입찰일에는 낙찰 내역에 기초하여 한국거래소 채권상장시스템에 접속하여 신청내역을 입력하고, 별도로 작성한 채권상장의뢰서에 한국은행 증권팀 관인을 날인하여 한국거래소 채권상장공시팀 앞으로 팩스를 송부한 후 처리 완료 여부를 확인해야 합니다.</t>
   </si>
   <si>
     <t>‧
@@ -2533,10 +2539,10 @@
 2013 883,826 10.9 505,830 -11.0 4,006,930 10.4</t>
   </si>
   <si>
-    <t>2010년부터 2011년까지 국고채권 발행 증감률은 얼마였습니까?</t>
-  </si>
-  <si>
-    <t>4.6%</t>
+    <t>국고채권 발행과 관련된 입찰 및 낙찰정보는 언제부터 전자방식으로 송수신되었나요?</t>
+  </si>
+  <si>
+    <t>국고채권 발행과 관련된 입찰 및 낙찰정보는 2010년 12월부터 전자방식으로 송수신되었습니다.</t>
   </si>
   <si>
     <t>(억원 ,%)
@@ -2633,10 +2639,10 @@
  1996년 12월2년 만기 통화안정증권 발행 개시</t>
   </si>
   <si>
-    <t>통화안정증권의 발행 및 상환 업무는 어디에서 취급합니까?</t>
-  </si>
-  <si>
-    <t>한국은행 본부 국고증권실</t>
+    <t>통화안정증권의 발행한도는 어떻게 정해지나요?</t>
+  </si>
+  <si>
+    <t>통화안정증권의 발행한도는 금융통화위원회가 금융시장 여건과 시중 유동성 사정 등을 감안하여 6개월마다 분기별 발행한도를 정합니다.</t>
   </si>
   <si>
     <t>1972년 12월통화안정증권 발행방식 변경(공개시장에서의 일반공모방식 추가)
@@ -2732,7 +2738,7 @@
     <t>통화안정증권의 경쟁입찰은 어떤 방식으로 이루어지나요?</t>
   </si>
   <si>
-    <t>전자입찰방식으로 한은금융망(BOK-Wire+)을 통해 실시됩니다.</t>
+    <t>통화안정증권의 경쟁입찰은 전자입찰방식으로 한은금융망(BOK-Wire+)을 통해 이루어집니다.</t>
   </si>
   <si>
     <t>부기등록 신청     
@@ -2846,10 +2852,10 @@
 (예: DC017-0822-0140)</t>
   </si>
   <si>
-    <t>이표채의 표면금리 표기 방식은 2017년 11월 이후 어떻게 변경되었나요?</t>
-  </si>
-  <si>
-    <t>4자리에서 5자리로 변경</t>
+    <t>통화안정증권의 발행수익률 단위는 어떻게 변경되었나요?</t>
+  </si>
+  <si>
+    <t>통화안정증권의 발행수익률 단위는 0.01%에서 0.005%로 변경되었습니다.</t>
   </si>
   <si>
     <t>안정증권의 표면금리로 사용- 108 - 제5절발행 종목명 표기
@@ -2948,10 +2954,10 @@
 등록액 175.0 193.3 191.5 161.1 163.7 159.8 142.1 144.1 55.9</t>
   </si>
   <si>
-    <t>통화안정증권의 등록변경을 위해 필요한 서류는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>통화안정증권등록변경청구서와 변경 사실을 입증하는 서류</t>
+    <t>통화안정증권의 등록사항을 변경하려면 어떤 서류를 제출해야 하나요?</t>
+  </si>
+  <si>
+    <t>통화안정증권의 등록사항을 변경하려면 '통화안정증권등록변경청구서'와 변경 사실을 입증하는 서류를 한국은행에 제출해야 합니다.</t>
   </si>
   <si>
     <t>1.「국채법」에 따른 국고채권
@@ -3042,6 +3048,9 @@
   </si>
   <si>
     <t>통화안정증권의 소멸시효는 몇 년인가요?</t>
+  </si>
+  <si>
+    <t>통화안정증권의 소멸시효는 만기상환일이 지난 날로부터 3년입니다.</t>
   </si>
   <si>
     <t>서 또는 현물을 접수하여 현금 지급 또는 한국은행에 개설된 금융기관의 
@@ -3134,10 +3143,10 @@
 수익률이 다를 때 발생하며 ,동 기간 중 시장이자율 변동에 따른 가격 차이</t>
   </si>
   <si>
-    <t>할인(할증)차금은 언제 발생합니까?</t>
-  </si>
-  <si>
-    <t>발행일과 실제 매출일, 표면금리와 낙찰수익률이 다를 때 발생합니다.</t>
+    <t>할인차금과 할증차금은 언제 발생하나요?</t>
+  </si>
+  <si>
+    <t>할인차금과 할증차금은 발행일과 실제 매출일, 표면금리와 낙찰수익률이 다를 때 발생합니다.</t>
   </si>
   <si>
     <t>할인채  통화안정증권발행 XXX 원화본지점 (지급액 ) XXX
@@ -3252,10 +3261,10 @@
 발행 통화안정증권발행 XXX 원화본지점 (지급액 ) XXX</t>
   </si>
   <si>
-    <t>통화안정증권의 중도환매 회계처리는 어떤 기준으로 산정된 금액을 기준으로 하나요?</t>
-  </si>
-  <si>
-    <t>환매수익률을 적용하여 산정한 환매가액</t>
+    <t>통화안정증권의 중도환매 회계처리는 어떤 기준을 적용하나요?</t>
+  </si>
+  <si>
+    <t>통화안정증권의 중도환매 회계처리는 환매수익률을 적용하여 산정한 환매가액을 기준으로 합니다.</t>
   </si>
   <si>
     <t>통화안정증권이자
@@ -3385,10 +3394,10 @@
 투자매매업자 , 투자중개업자, 집합투자업자, 신탁업자, 증권금융회사, 종합</t>
   </si>
   <si>
-    <t>국공채 매매는 어떤 두 가지 종류로 구분되나요?</t>
-  </si>
-  <si>
-    <t>단순매매와 환매조건부채권(RP) 매매</t>
+    <t>국공채 매매는 어떤 종류로 구분되나요?</t>
+  </si>
+  <si>
+    <t>국공채 매매는 단순매매와 환매조건부채권 (RP) 매매로 구분됩니다.</t>
   </si>
   <si>
     <t>개시장에서 국공채를 매매
@@ -3484,10 +3493,10 @@
 산정하였으나 이를 당사자간 합의한 방법으로 산정하도록 변경</t>
   </si>
   <si>
-    <t>2008년 3월 금융통화위원회는 정책금리를 무엇에서 무엇으로 변경했나요?</t>
-  </si>
-  <si>
-    <t>익일물 콜금리에서 7일물 RP금리로</t>
+    <t>한국은행의 RP매매방식이 채권매매 방식으로 변경된 이유는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>한국은행의 RP매매방식이 채권매매 방식으로 변경된 이유는 2006년 4월부터 '채무자 회생 및 파산에 관한 법률'의 시행으로 법적 문제점이 해소되었기 때문입니다.</t>
   </si>
   <si>
     <t>대상에서 제외되고 ,한국은행 RP거래방식이 담보부 자금대차에
@@ -3609,10 +3618,10 @@
   XXX</t>
   </si>
   <si>
-    <t>RP매매 체결일의 매매유가증권의 시장가격을 매매가로 나누어 산출된 비율을 무엇이라고 하나요?</t>
-  </si>
-  <si>
-    <t>증거금률</t>
+    <t>증거금률이란 무엇인가요?</t>
+  </si>
+  <si>
+    <t>증거금률은 RP매매 체결일의 매매유가증권의 시장가격을 매매가로 나누어 산출된 비율을 말합니다.</t>
   </si>
   <si>
     <t>(채권 소유권 불변 ) (채권 소유권 이전 )&lt;그림Ⅲ-3&gt;RP매매 방식 변경
@@ -3718,7 +3727,7 @@
     <t>국고금 RP대상증권은 무엇인가요?</t>
   </si>
   <si>
-    <t>국공채 및 통화안정증권</t>
+    <t>국고금 RP대상증권은 국공채 및 통화안정증권에 한합니다.</t>
   </si>
   <si>
     <t>상기관
@@ -3816,10 +3825,10 @@
 원리금분배내역을 기준으로 하여 회계결제시스템을 통해 한국은행에 개</t>
   </si>
   <si>
-    <t>이자수취 1영업일 전에는 어떤 시스템에서 원리금분배내역을 출력해야 하나요?</t>
-  </si>
-  <si>
-    <t>한국예탁결제원 e-SAFE 시스템</t>
+    <t>이자수취일에 한국예탁결제원 e-SAFE 시스템에서 출력한 내역을 기준으로 이자를 수취하는 방식은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>이자수취일에 한국예탁결제원 e-SAFE 시스템에서 출력한 원리금분배내역을 기준으로 하여 회계결제시스템을 통해 한국은행에 개설된 한국예탁결제원 당좌계정에서 해당 금액을 차기하는 방식으로 이자를 수취합니다.</t>
   </si>
   <si>
     <t>10일에 이자를 수취하는 경우
@@ -3934,7 +3943,7 @@
     <t>채권투자에서 발생하는 수익의 원천은 무엇인가요?</t>
   </si>
   <si>
-    <t>채권이자와 자본차익</t>
+    <t>채권투자에서 발생하는 수익의 원천은 약정이자율에 의한 채권이자와 보유기간 중에 채권을 매도하는 경우 발생하는 자본차익(양도차익)으로 이루어집니다.</t>
   </si>
   <si>
     <t>향을 미치지 않고 ,주석으로 표시
@@ -4023,10 +4032,10 @@
 도로서 이때부터 원천징수제도는 ‘보유기간별 원천징수제도 ’로 변경</t>
   </si>
   <si>
-    <t>1996년 이전의 원천징수방식의 문제점은 무엇이었나요?</t>
-  </si>
-  <si>
-    <t>최종이자수령자가 모든 세금을 부담하여 과세 형평성 문제를 내포하고 있었다.</t>
+    <t>1996년 이전의 원천징수방식은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>1996년 이전의 원천징수방식은 채권이자를 지급받는 자가 지급받은 전체 이자에 대한 담세자가 되는 방식입니다.</t>
   </si>
   <si>
     <t>ㅇ1996년 이전의 원천징수방식은 채권이자를 지급받는 자가 지급받은 전체
@@ -4123,10 +4132,10 @@
 경우에는 표면금리에 할인·할증률을 감안한 수익률이 적용 이자율이 됨</t>
   </si>
   <si>
-    <t>채권이자에 대한 원천징수세율은 개인과 법인 모두에게 몇 %가 적용되나요?</t>
-  </si>
-  <si>
-    <t>14%</t>
+    <t>채권이자에 대한 원천징수세율은 몇 %인가요?</t>
+  </si>
+  <si>
+    <t>채권이자에 대한 원천징수세율은 14%입니다.</t>
   </si>
   <si>
     <t>:거주자 등이 원천징수기간 중 채권 등을 보유한 기간을 입증하지 못하는
@@ -4214,10 +4223,10 @@
 ㅇ또한 법인이 채권에서 발생하는 이자 및 할인액의 계산기간 중에 당해 채권을</t>
   </si>
   <si>
-    <t>법인에 대한 원천징수 방식은 개인에 대한 과세방식과 어떤 점에서 동일한가요?</t>
-  </si>
-  <si>
-    <t>기본구조가 동일하여 이자 지급시 또는 채권거래시마다 원천징수함</t>
+    <t>법인이 채권에서 발생하는 이자 및 할인액의 계산기간 중에 당해 채권을 개인에게 매도하는 경우, 원천징수의무자는 누구인가요?</t>
+  </si>
+  <si>
+    <t>법인이 채권에서 발생하는 이자 및 할인액의 계산기간 중에 당해 채권을 개인에게 매도하는 경우, 당해 법인이 원천징수의무자를 대리하여 원천징수하여야 합니다.</t>
   </si>
   <si>
     <t>이 종합과세 대상인 경우 일종의 선납세액에 해당하므로 산출세액에서 공제
@@ -4306,10 +4315,10 @@
 뉴질랜드 ,베트남 ,스위스 ,싱가폴 ,</t>
   </si>
   <si>
-    <t>해당국가와 조세조약이 체결되지 않은 경우 이자소득의 적용이율은 얼마인가요?</t>
-  </si>
-  <si>
-    <t>20%</t>
+    <t>해당국가와 조세조약이 체결되지 않은 경우 이자소득의 적용이율은 몇 %인가요?</t>
+  </si>
+  <si>
+    <t>해당국가와 조세조약이 체결되지 않은 경우 이자소득의 적용이율은 20%입니다.</t>
   </si>
   <si>
     <t>ㅇ주사무소 :비영리법인의 사업상 본거지
@@ -4398,10 +4407,10 @@
 29)「법인세법」제73조 제2항,「법인세법시행령」제111조 제2항 제5호- 183 - 제2절원천징수세액 납부 및 지급명세서 제출</t>
   </si>
   <si>
-    <t>소득세 및 법인세 원천징수세액은 언제까지 납부해야 합니까?</t>
-  </si>
-  <si>
-    <t>익월 10일</t>
+    <t>소득세 및 법인세 원천징수세액은 언제까지 납부해야 하나요?</t>
+  </si>
+  <si>
+    <t>소득세 및 법인세 원천징수세액은 익월 10일(공휴일 또는 토요휴무일의 경우에는 익영업일)까지 납부해야 합니다.</t>
   </si>
   <si>
     <t>「대한지방행정공제회법 」에 따른 대한지방행정공제회 ,「새마을금고법」에 따른 새
@@ -4486,10 +4495,10 @@
 In:동일한 세율 적용기간의 이자</t>
   </si>
   <si>
-    <t>국채 발행자가 부담하는 세액을 환급받을 수 있는 조건은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>대통령령이 정하는 채권을 공개시장에서 발행한 후 동일한 조건의 채권을 추가로 발행하는 경우</t>
+    <t>국고채권 최초 발행조건의 표면금리는 얼마인가요?</t>
+  </si>
+  <si>
+    <t>국고채권 최초 발행조건의 표면금리는 연 5.00%입니다.</t>
   </si>
   <si>
     <t>이 경우 기간별 원천징수 대상 이자소득은 아래와 같이 복리를 적용한 해당기간
@@ -4619,6 +4628,12 @@
  주 : 1)  (  ) 내는 비중
 &lt;참고Ⅴ-2&gt;수입인지를 첨부하여 납부하는 수수료
 수  수  료    종  류</t>
+  </si>
+  <si>
+    <t>수입인지를 첨부하여 납부하는 수수료의 종류는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>수입인지를 첨부하여 납부하는 수수료의 종류는 국가기관 시행 검정·인정·확인·검인·감정·시험 또는 검사 수수료, 국가기관 허가·인가·면허·특허 또는 등록 수수료, 국가기관 공증 또는 증명, 수리 수수료, 공부의 등본 또는 초본 발급 수수료, 형사판결의 정본·등본 또는 초본 발급 수수료, 공부 열람 또는 계약서 정본 발급 수수료, 공무원의 징수 수수료입니다.</t>
   </si>
   <si>
     <t>(93.5)5,024.6
@@ -4755,7 +4770,7 @@
     <t>수입인지의 발행을 담당하는 기관은 어디인가요?</t>
   </si>
   <si>
-    <t>기획재정부</t>
+    <t>수입인지의 발행을 담당하는 기관은 기획재정부입니다.</t>
   </si>
   <si>
     <t>&lt;표Ⅴ-3&gt;수입인지 수급 업무별 담당 기관
@@ -4883,10 +4898,10 @@
 ․교환인수량과 교환공급량의 금액 환산액 일치 여부</t>
   </si>
   <si>
-    <t>국고증권실의 수입인지 판매대금 납입 경로는 무엇을 통해 이루어지나요?</t>
-  </si>
-  <si>
-    <t>한은금융망 (BOK-Wire+)</t>
+    <t>수입인지 판매보고서의 전산 심사사항 중 금월말 재고량을 계산하는 공식은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>수입인지 판매보고서의 전산 심사사항 중 금월말 재고량을 계산하는 공식은 전월말재고 + 본월중 인수량 + 교환인수 - 교환공급 - 일반판매 - 할인판매 + 환매 입니다.</t>
   </si>
   <si>
     <t>ㅇ 국고증권실의 경우 관할 판매기관 결제모점이 한은금융망 (BOK-Wire+)을 
@@ -5092,10 +5107,10 @@
 -주민등록번호 뒤 7자리는 알아볼 수 없도록 지운 후 접수</t>
   </si>
   <si>
-    <t>수입인지 판매계약서 2부 중 1부는 어디에 보관해야 합니까?</t>
-  </si>
-  <si>
-    <t>통할점</t>
+    <t>수입인지 판매계약서 몇 부를 작성해야 하나요?</t>
+  </si>
+  <si>
+    <t>수입인지 판매계약서는 2부를 작성해야 합니다.</t>
   </si>
   <si>
     <t>ㅇ판매계약을 체결하기로 결정한 경우 판매계약서 2부에 각각 기명날인한 
@@ -5191,10 +5206,10 @@
 ㅇ통할점 :국고수납대리점을 관할하는 한국은행 국고증권실 또는 지역본부</t>
   </si>
   <si>
-    <t>정부소유유가증권과 정부보관유가증권의 차이점은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>정부소유유가증권은 정부에 귀속된 유가증권이고, 정부보관유가증권은 정부가 일시적으로 보관하는 유가증권으로 소유권은 제출자에게 귀속됩니다.</t>
+    <t>정부유가증권은 어떤 증권을 포함하나요?</t>
+  </si>
+  <si>
+    <t>정부유가증권은 정부 소유 또는 정부가 일시 보관하는 증권을 포함합니다.</t>
   </si>
   <si>
     <t>□정부유가증권 :정부소유유가증권 및 정부보관유가증권
@@ -5295,10 +5310,10 @@
 대리인이 기탁하며 유가증권 실물과 함께 다음의 서류를 제출</t>
   </si>
   <si>
-    <t>취급관서 명칭 변경 시 변경 전 인감명판(서명)신고서는 어떻게 처리해야 하나요?</t>
-  </si>
-  <si>
-    <t>폐기표시 후 별도 보관</t>
+    <t>정부소유유가증권 기탁 시 필요한 서류는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>정부소유유가증권 기탁 시 필요한 서류는 정부소유유가증권 기탁서, 위임장(유가증권취급공무원이 지정한 대리인이 제출 시), 신분증입니다.</t>
   </si>
   <si>
     <t>ㅇ신임 취급공무원 인감명판 (서명 )신고서 인감부 편철
@@ -5437,10 +5452,10 @@
 *상장증권 ,집합투자증권 ,한국예탁결제원 또는 한국은행을 등록기관으로 하여</t>
   </si>
   <si>
-    <t>정부소유유가증권 환부청구서 제출 시 필요한 서류는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>정부소유유가증권 환부청구서, 수탁증서, 위임장, 신분증</t>
+    <t>정부소유유가증권 환부청구서 작성 시 필요한 서류는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>정부소유유가증권 환부청구서 작성 시 필요한 서류는 정부소유유가증권 환부청구서, 수탁증서, 위임장(대리인이 수령 시), 신분증입니다.</t>
   </si>
   <si>
     <t>증권
@@ -5553,10 +5568,10 @@
 □정부유가증권 월계대사는 유가증권 수탁기관인 각 통할점과 대리점이 유가</t>
   </si>
   <si>
-    <t>정부유가증권 월계대사 절차의 첫 번째 단계는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>통할점·대리점—유가증권취급공무원간 전월중 거래내역 확인</t>
+    <t>정부유가증권 월계대사는 무엇을 의미하나요?</t>
+  </si>
+  <si>
+    <t>정부유가증권 월계대사는 유가증권 수탁기관인 각 통할점과 대리점이 유가증권취급공무원 앞으로 월중 유가증권 수탁․환부내역 및 월별 유가증권 보관내역을 송부하여 이에 대한 유가증권취급공무원의 확인을 받는 것을 말합니다.</t>
   </si>
   <si>
     <t>감과 한국은행에 등록된 인감과의 일치 여부
@@ -5657,10 +5672,10 @@
 해주는 문서로 유가증권취급공무원 교체시 한국은행 앞으로 발급을 의뢰</t>
   </si>
   <si>
-    <t>정부유가증권 현재액증명서는 어떤 상황에서 발급을 의뢰하나요?</t>
-  </si>
-  <si>
-    <t>유가증권취급공무원 교체 시</t>
+    <t>정부유가증권 현재액증명서는 어떤 문서인가요?</t>
+  </si>
+  <si>
+    <t>정부유가증권 현재액증명서는 해당 계좌의 정부유가증권 종류 및 잔액을 증명해주는 문서입니다.</t>
   </si>
   <si>
     <t>급공무원으로부터 환부청구가 없는 경우에는 기획재정부장관이 지정하는 
@@ -5750,10 +5765,10 @@
 □그러나 한국은행이 매수대금 공탁시 명시한 “당해 재산의 등기부등본 (발행</t>
   </si>
   <si>
-    <t>한국은행의 징발보상증권 관련 공탁업무는 언제 사실상 종료되었나요?</t>
-  </si>
-  <si>
-    <t>1992년 11월말</t>
+    <t>징발보상증권의 발행은 언제 종료되었나요?</t>
+  </si>
+  <si>
+    <t>징발보상증권의 발행은 1977년 12월 1일에 종료되었습니다.</t>
   </si>
   <si>
     <t>부속공탁을 실시하였음
@@ -5997,10 +6012,10 @@
 ·공탁자의 등기부초본 및 인감증명서</t>
   </si>
   <si>
-    <t>공탁 정정 신청 시 필요한 문서는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>공탁서 정정신청서, 공탁자의 등기부초본 및 인감증명서, 원공탁서, 대․부속공탁서, 발행대장정정표</t>
+    <t>공탁 정정이란 무엇인가요?</t>
+  </si>
+  <si>
+    <t>공탁 정정은 공탁서의 착오기재가 발견된 경우 공탁의 동일성을 유지하는 범위 내에서 공탁서를 정정하는 절차를 말합니다.</t>
   </si>
   <si>
     <t>당해 이자 또는 배당금 공탁까지 부속시키도록 하기 위한 것임- 253 -2.공탁 정정
@@ -6108,10 +6123,10 @@
 ․대리인 :위임자 및 대리인 인감증명서 ,위임장</t>
   </si>
   <si>
-    <t>공탁금 및 공탁금 이자의 소멸시효는 몇 년인가요?</t>
-  </si>
-  <si>
-    <t>10년</t>
+    <t>공탁금 및 공탁금 이자의 출급 및 회수청구권의 소멸시효는 몇 년인가요?</t>
+  </si>
+  <si>
+    <t>공탁금 및 공탁금 이자의 출급 및 회수청구권의 소멸시효는 10년입니다.</t>
   </si>
   <si>
     <t>다는 내용임
@@ -6204,10 +6219,10 @@
 징발자 또는 그 상속인은 동조 제2항에 따라 환매대금을 국고에 납부하여야 하</t>
   </si>
   <si>
-    <t>국방부장관이 환매에 관한 통지 또는 공고를 하도록 한 법령은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>특별조치령</t>
+    <t>국방부장관이 환매에 관한 통지 또는 공고를 하도록 한 기한은 언제인가요?</t>
+  </si>
+  <si>
+    <t>국방부장관이 환매에 관한 통지 또는 공고를 하도록 한 기한은 1998년 말까지입니다.</t>
   </si>
   <si>
     <t>환매에 관한 통지 또는 공고를 하도록 하였음
@@ -6303,10 +6318,10 @@
 ―수납점이 증권 등 수령증을 발송점앞으로 각각 제출</t>
   </si>
   <si>
-    <t>수입인지 및 증권 등의 현송은 원칙적으로 어디에서 주관합니까?</t>
-  </si>
-  <si>
-    <t>본부 국고증권실</t>
+    <t>수입인지 및 증권 등의 현송은 원칙적으로 어디에서 주관하나요?</t>
+  </si>
+  <si>
+    <t>수입인지 및 증권 등의 현송은 원칙적으로 본부 국고증권실에서 주관합니다.</t>
   </si>
   <si>
     <t>통할점장이 폐기 처분하고 그 내용을 본부에 통보
@@ -6407,10 +6422,10 @@
 2012년7월 부서장 및 실무책임자 회의를 통한 관련 부서 의견 수렴</t>
   </si>
   <si>
-    <t>한국은행의 증권 커스터디 업무 제공 추진방안이 마련된 연도와 월은?</t>
-  </si>
-  <si>
-    <t>2011년 10월</t>
+    <t>한국은행의 증권 커스터디 업무는 어떤 기관들에게 신뢰할 수 있는 자금결제 인프라를 제공하나요?</t>
+  </si>
+  <si>
+    <t>한국은행의 증권 커스터디 업무는 국채 및 통화안정증권에 투자하는 외국 중앙은행 등에게 신뢰할 수 있는 자금결제 인프라를 제공합니다.</t>
   </si>
   <si>
     <t>다양한 채널을 통해 소개 활동을 수행하였으며 다수의 외국 중앙은행 및 국
@@ -6513,10 +6528,10 @@
   ①한국은행이 제공하는 증권 커스터디 서비스의 범위와 영업시간 (제2조)</t>
   </si>
   <si>
-    <t>한국은행이 제공하는 증권 커스터디 서비스의 범위와 영업시간은 약정서의 몇 조에 규정되어 있습니까?</t>
-  </si>
-  <si>
-    <t>제2조</t>
+    <t>증권 커스터디 약정서의 주요 내용은 몇 개의 조항으로 구성되어 있나요?</t>
+  </si>
+  <si>
+    <t>증권 커스터디 약정서의 주요 내용은 15개의 조항으로 구성되어 있습니다.</t>
   </si>
   <si>
     <t>재 거래기관 요청 시 거래기관의 문화와 제도적 특수성 등을 감안하여 증권
@@ -6610,10 +6625,10 @@
 □거래기관의 원화 당좌예금계좌의 잔액 변동은 한국은행의 지준관리에 장애요</t>
   </si>
   <si>
-    <t>거래기관이 한국은행에 개설하는 원화 당좌예금계좌는 어떤 목적으로 사용되나요?</t>
-  </si>
-  <si>
-    <t>국내 채권투자와 관련한 투자자금 등을 관리하는 계좌</t>
+    <t>거래기관이 한국은행에 개설할 수 있는 원화 당좌예금계좌의 개수는 몇 개인가요?</t>
+  </si>
+  <si>
+    <t>거래기관이 한국은행에 개설할 수 있는 원화 당좌예금계좌의 개수는 1개입니다.</t>
   </si>
   <si>
     <t>□약정체결 직후 증권 커스터디 시스템 (BOK-CS) 내에 거래기관 명의의 원화
@@ -6712,7 +6727,7 @@
     <t>채권 결제 과정의 첫 번째 단계는 무엇인가요?</t>
   </si>
   <si>
-    <t>투자중개업자 등을 통한 채권매매 계약 체결</t>
+    <t>채권 결제 과정의 첫 번째 단계는 투자중개업자 등을 통한 채권매매 계약 체결입니다.</t>
   </si>
   <si>
     <t>결제전용계좌 사이에 자금이체가 이루어짐 (동시결제 ,DVP :Delivery Versus
@@ -6813,10 +6828,10 @@
 수하여 증권 커스터디 시스템에 등록해야 함 - 291 -□한국은행은 거래기관으로부터 통보받은 자금수취예정내역 혹은 지급지시서</t>
   </si>
   <si>
-    <t>금을 지급하고자 할 경우 어떤 시스템을 통해 자금수취예정내역 혹은 지급지시서를 통보해야 합니까?</t>
-  </si>
-  <si>
-    <t>SWIFT</t>
+    <t>금 지급을 위해 한국은행에 통보해야 하는 서류는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>금 지급을 위해 한국은행에 통보해야 하는 서류는 자금수취예정내역 혹은 지급지시서입니다.</t>
   </si>
   <si>
     <t>금을 지급하고자 할 경우 SWIFT를 통해 자금수취예정내역 혹은 지급지시
@@ -6934,10 +6949,10 @@
 에 입금하며 원천징수한 금액은 한국은행 재무운영팀에 익월 10일 이전에</t>
   </si>
   <si>
-    <t>증권 커스터디 약정 체결 시 미리 확인해야 할 사항은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>거래기관의 이자소득에 대한 과세여부 및 적용세율</t>
+    <t>물가연동국고채의 원금 증가분에 대해 어떻게 과세하나요?</t>
+  </si>
+  <si>
+    <t>물가연동국고채의 원금 증가분은 이자소득에 준하여 원천징수합니다.</t>
   </si>
   <si>
     <t>ㅇ 이에 따라 ,증권 커스터디 약정 체결 시 미리 거래기관의 이자소득에 대
@@ -7025,10 +7040,10 @@
 ㅇ거래기관의 원화 당좌예금계좌에서 자금 입금 혹은 출금이 발생한 경우</t>
   </si>
   <si>
-    <t>한국은행은 거래기관의 원화 당좌예금계좌 잔액 변동을 어떻게 보고합니까?</t>
-  </si>
-  <si>
-    <t>SWIFT를 통해 일중 및 업무마감 이후 결제 및 잔고 내역을 보고합니다.</t>
+    <t>거래기관의 원화 당좌예금계좌에서 자금 입금이 발생한 경우 어떤 SWIFT 메시지 유형을 사용하나요?</t>
+  </si>
+  <si>
+    <t>거래기관의 원화 당좌예금계좌에서 자금 입금이 발생한 경우 입금거래내역 (MT910)을 사용합니다.</t>
   </si>
   <si>
     <t>ㅇ주변기기 유지비용은 SWIFT전문 정보를 변환하여 증권 커스터디 시스템
@@ -7136,10 +7151,10 @@
 리행사 외에도 외국인투자등록 신청 ,거래기관 명의의 매매위탁계좌 개설 ,</t>
   </si>
   <si>
-    <t>상임대리인은 어떤 역할을 수행하는 자를 말합니까?</t>
-  </si>
-  <si>
-    <t>취득증권의 권리행사 등을 대리 또는 대행하는 자</t>
+    <t>상임대리인은 무엇을 하는 사람인가요?</t>
+  </si>
+  <si>
+    <t>상임대리인은 외국인 투자자의 취득증권을 보관하는 기관 중에서 계약을 통해 취득증권의 권리행사 등을 대리 또는 대행하는 사람을 말합니다.</t>
   </si>
   <si>
     <t>(증권매각대금의 외국으로 송금을 포함한다 )하거나 인정된 증권대차거래 및 환매조건부
@@ -7226,10 +7241,10 @@
 주:1)지점코드는 선택적 입력사항으로 본점 (Primary office)의 경우 ‘XXX’로 표기- 308 -□RMA(Relationship Management Application) 는 SWIFT에서 제공하는 거래</t>
   </si>
   <si>
-    <t>BIC 코드에서 지점코드는 본점의 경우 어떻게 표기되나요?</t>
-  </si>
-  <si>
-    <t>XXX</t>
+    <t>BIC의 지점코드는 어떻게 표기되나요?</t>
+  </si>
+  <si>
+    <t>BIC의 지점코드는 본점의 경우 'XXX'로 표기됩니다.</t>
   </si>
   <si>
     <t>11자리로 구성
@@ -7336,10 +7351,10 @@
 □외국환평형기금채권은 외환수급 조절을 통한 외환거래의 원활화 목적으로</t>
   </si>
   <si>
-    <t>외국환평형기금채권의 발행 목적은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>외환수급 조절을 통한 외환거래의 원활화</t>
+    <t>외국환평형기금채권은 어떤 목적으로 발행되었나요?</t>
+  </si>
+  <si>
+    <t>외국환평형기금채권은 외환수급 조절을 통한 외환거래의 원활화 목적으로 발행되었습니다.</t>
   </si>
   <si>
     <t>과열지구내의 신규건설 아파트 입주예정자 선정시 채권입찰제를 실시하여 
@@ -7449,7 +7464,7 @@
     <t>증권표준코드(ISIN)의 가장 중요한 특징은 무엇인가요?</t>
   </si>
   <si>
-    <t>유일성</t>
+    <t>증권표준코드(ISIN)의 가장 중요한 특징은 유일성입니다.</t>
   </si>
   <si>
     <t>*보증채는 정부가 지급을 보증하는 정부보증채 (부실채권정리기금채권 ,예금보험
@@ -7541,10 +7556,10 @@
 □발행기관 코드를 발급받은 후 발행사 혹은 증권발행의 주관사는 발행될 증권</t>
   </si>
   <si>
-    <t>증권의 표준코드를 부여받기 위해서는 먼저 무엇을 발급받아야 합니까?</t>
-  </si>
-  <si>
-    <t>발행기관 코드</t>
+    <t>증권의 표준코드를 부여받기 위해서는 무엇을 먼저 발급받아야 하나요?</t>
+  </si>
+  <si>
+    <t>증권의 표준코드를 부여받기 위해서는 먼저 발행기관 코드(발행체 고유코드)를 한국거래소에서 발급받아야 합니다.</t>
   </si>
   <si>
     <t>가.발행기관 등록
@@ -7644,10 +7659,10 @@
 사무는 기존에 담당하였던 기관이 각각 수행- 327 -ㅇ 발행 절차는 한국은행의 채권등록부에 전자등록기관 (한국예탁결제원 )명의</t>
   </si>
   <si>
-    <t>전자증권제도 시행 이후 채권의 전자등록업무는 어느 기관에서 수행합니까?</t>
-  </si>
-  <si>
-    <t>한국예탁결제원</t>
+    <t>전자증권제도 시행 이후 채권의 전자등록업무는 어디에서 수행하나요?</t>
+  </si>
+  <si>
+    <t>전자증권제도 시행 이후 채권의 전자등록업무는 전자등록기관인 한국예탁결제원에서 수행하고 있습니다.</t>
   </si>
   <si>
     <t>―소유권 자체는 변동이 없이 주등록금액 범위내에서 질권 ,전질 ,기타 담보
@@ -7735,2103 +7750,6 @@
 국채법 [시행 2015.7.1, 2014.12.30 일부개정 ]
 제8조(국채의 등록 및 등록의 말소 )①제5조에 따라 발행된 국채는 증권 (證券 )을 발
 행하지 아니하고 전산정보처리조직을 이용하여 국채등록부에 전자적인 방식에 의하</t>
-  </si>
-  <si>
-    <t>고객관리계좌는 무엇을 관리하기 위해 개설되는 계좌인가?</t>
-  </si>
-  <si>
-    <t>고객계좌부 등록 증권</t>
-  </si>
-  <si>
-    <t>□고객관리계좌는 계좌관리기관이 고객계좌부 등록 증권을 관리하기 위해 전자
-등록기관에 개설하는 계좌이며 ,계좌부 기재에 법적효력은 없음
-- 331 -&lt;그림Ⅹ-1&gt;채권 전자등록발행 절차
-&lt;그림Ⅹ-2&gt; 채권의 전자등록 발행 흐름도
-- 332 -&lt;표Ⅹ-9&gt;채권별 등록과 관련된 법률
-국채법 [시행 2015.7.1, 2014.12.30 일부개정 ]
-제8조(국채의 등록 및 등록의 말소 )①제5조에 따라 발행된 국채는 증권 (證券 )을 발
-행하지 아니하고 전산정보처리조직을 이용하여 국채등록부에 전자적인 방식에 의하
-여 기명식 (記名式 )또는 무기명식 (無記名式 )으로 등록한다 .다만 ,전시·사변이나 이
-에 준하는 국가비상사태 등의 경우에는 기명식 또는 무기명식 증권을 발행할 수 있다.
-②제1항에 따라 등록한 국채는 원금의 상환 ,제13조에 따른 매입·교환 ,시효로 인
-한 소멸 등으로 국채에 대한 권리가 소멸된 경우에는 그 등록을 말소한다 .
-③제1항과 제2항에 따른 등록 및 등록의 말소 업무를 수행하는 기관은 「한국은행
-법」에 따른 한국은행 (이하 "한국은행 "이라 한다 )으로 한다 .
-④제1항과 제2항에 따른 국채의 등록 ,등록 사항의 변경 및 등록의 말소와 증권의 
-발행 등에 필요한 사항은 대통령령으로 정한다 .
-제9조(등록국채의 이전 등)①제8조에 따라 등록한 국채 (이하 "등록국채 "라 한다 )를 
-이전 (移轉 )하거나 등록국채에 질권 (質權 )을 설정한 경우에는 그 이전 사실 또는 질
-권 설정 사실을 등록하지 아니하면 정부나 그 밖의 제3자에게 대항할 수 없다 .
-②등록국채를 법령에 따라 담보로 제공하기 위하여 공탁 (供託 )하거나 임치 (任置 )하
-는 경우에는 그 공탁 또는 임치 사실을 등록함으로써 등록국채의 담보 제공을 대신
-할 수 있다 .
-③제1항과 제2항에 따른 등록국채의 이전 또는 질권의 설정 및 담보 제공의 절차
-와 등록의 말소에 관하여 필요한 사항은 대통령령으로 정한다 .
-제10조(국채 등록의 정지 )①기획재정부장관은 권리 이전을 원인으로 하여 제9조에 
-따른 등록을 할 때에는 국채의 상환기일 또는 국채에 대한 이자 지급기일이 되기 전 
-1개월 이내의 기간 동안 대통령령으로 정하는 바에 따라 그 등록을 정지할 수 있다 .
-다만 ,상속 ,유증 (遺贈 )및 강제집행의 경우에는 그러하지 아니하다 .
-②제9조제 3항에 따른 등록의 말소를 정지하는 경우에는 제1항을 준용한다 .- 333 -주식ㆍ사채 등의 전자등록에 관한 법률 [시행 2019. 9.16,2016. 3.22,제정 ]
-제2조(정의 )이 법에서 사용하는 용어의 뜻은 다음과 같다 .
-1.“주식등 ”이란 다음 각 목의 어느 하나에 해당하는 것을 말한다 .
-가.주식
-나.사채 (「신탁법」에 따른 신탁사채 및 「자본시장과 금융투자업에 관한 법률」
-에 따른 조건부자본증권을 포함한다 )
-다.국채
-라.지방채
-마.법률에 따라 직접 설립된 법인이 발행하는 채무증권에 표시되어야 할 권리
-바~거.&lt;생 략&gt;
-2.“전자등록 ”이란 주식등의 종류 ,종목 ,금액 ,권리자 및 권리 내용 등 주식등에 관
-한 권리의 발생ㆍ변경ㆍ소멸에 관한 정보를 전자등록계좌부에 전자적 방식으로 
-기재하는 것을 말한다 .
-3.“전자등록계좌부 ”란 주식등에 관한 권리의 발생ㆍ변경ㆍ소멸에 대한 정보를 전자
-적 방식으로 편성한 장부로서 다음 각 목의 장부를 말한다 .
-가.제22조제 2항에 따라 작성되는 고객계좌부 (이하 “고객계좌부 ”라 한다 )
-나.제23조제 2항에 따라 작성되는 계좌관리기관등 자기계좌부 (自己計座簿 )(이하 
-“계좌관리기관등 자기계좌부 ”라 한다 )
-4.“전자등록주식등 ”이란 전자등록계좌부에 전자등록된 주식등을 말한다 .
-5.“권리자 ”란 전자등록주식등의 소유자 또는 질권자 ,그 밖에 전자등록주식등에 이
-해관계가 있는 자로서 대통령령으로 정하는 자를 말한다 .
-6.“전자등록기관 ”이란 주식등의 전자등록에 관한 제도의 운영을 위하여 제5조제 1항
-에 따라 허가를 받은 자를 말한다 .
-7.“계좌관리기관 ”이란 제19조 각 호의 어느 하나에 해당하는 자로서 제22조제 1항에 
-따른 고객계좌를 관리하는 자를 말한다 .
-제5조(전자등록업의 허가 )①전자등록업을 하려는 자는 전자등록의 대상이 되는 주
-식등의 범위를 구성요소로 하여 대통령령으로 정하는 업무 단위 (이하 “전자등록업 
-허가업무 단위 ”라 한다 )의 전부 또는 일부를 선택하여 금융위원회 및 법무부장관으
-로부터 하나의 전자등록업허가를 받아야 한다 .&lt;이하생략 &gt;
-제19조(계좌관리기관 )다음 각 호의 어느 하나에 해당하는 자는 계좌관리기관이 될 수 
-있다 .
-1~2. &lt;생 략&gt;
-3.「한국은행법」에 따른 한국은행 (이하 “한국은행 ”이라 한다 )
-&lt;이하생략 &gt;- 334 -제21조(발행인관리계좌의 개설 등)①다음 각 호의 어느 하나에 해당하는 자는 전
-자등록기관에 발행인관리계좌를 개설하여야 한다 .
-1.주식등을 전자등록의 방법으로 새로 발행하려는 자
-2.이미 주권 (株券 ),그 밖에 대통령령으로 정하는 증권 또는 증서 (이하 “주권등 ”이
-라 한다 )가 발행된 주식등의 권리자에게 전자등록의 방법으로 주식등을 보유하
-게 하거나 취득하게 하려는 자
-3.그 밖에 제1호 및 제2호에 준하는 자로서 대통령령으로 정하는 자
-②제1항에 따라 발행인관리계좌가 개설된 경우 전자등록기관은 다음 각 호의 사항
-을 기록하여 발행인 (제1항 각 호의 어느 하나에 해당하는 자로서 같은 항에 따라 발
-행인관리계좌를 개설한 자를 말한다 .이하 같다 )별로 발행인관리계좌부를 작성하여야 
-한다 .
-1.발행인의 명칭 및 사업자등록번호 ,그 밖에 발행인을 식별할 수 있는 정보로서 
-대통령령으로 정하는 정보
-2.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
-3.그 밖에 발행인관리계좌부에 기록할 필요가 있는 사항으로서 대통령령으로 정하는 
-사항
-③제2항에 따라 작성된 발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 
-또는 금액이 다음 각 호의 어느 하나에 해당하는 장부에 기재된 주식등의 종목별 수
-량 또는 금액과 다른 경우에는 그 장부에 기재된 수량 또는 금액을 기준으로 한다 .
-1.주주명부</t>
-  </si>
-  <si>
-    <t>발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 또는 금액이 다른 장부와 다를 경우 기준이 되는 장부는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>주주명부, 수익자명부, 등록부, 그 밖에 주식등의 권리자에 관한 장부</t>
-  </si>
-  <si>
-    <t>한다 .
-1.발행인의 명칭 및 사업자등록번호 ,그 밖에 발행인을 식별할 수 있는 정보로서 
-대통령령으로 정하는 정보
-2.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
-3.그 밖에 발행인관리계좌부에 기록할 필요가 있는 사항으로서 대통령령으로 정하는 
-사항
-③제2항에 따라 작성된 발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 
-또는 금액이 다음 각 호의 어느 하나에 해당하는 장부에 기재된 주식등의 종목별 수
-량 또는 금액과 다른 경우에는 그 장부에 기재된 수량 또는 금액을 기준으로 한다 .
-1.주주명부
-2.수익자명부 (「신탁법」제79조에 따른 수익자명부 또는 「자본시장과 금융투자업
-에 관한 법률」제189조에 따른 수익자명부를 말한다 )
-3.「국채법」,「국고금 관리법」또는 「한국은행 통화안정증권법」에 따른 등록부
-4.그 밖에 주식등의 권리자에 관한 장부로서 대통령령으로 정하는 장부
-④발행인은 제2항 각 호의 사항이 변경된 경우에는 지체 없이 그 내용을 전자등록
-기관에 통지하여야 하고 ,전자등록기관은 그 통지 내용에 따라 지체 없이 발행인관
-리계좌부의 기록을 변경하여야 한다 .
-⑤전자등록기관은 제4항에 따라 발행인관리계좌부의 기록이 변경된 경우에는 지체 
-없이 다음 각 호의 조치를 하여야 한다 .
-1.변경 내용의 계좌관리기관에 대한 통지
-2.고객관리계좌부의 기록 및 계좌관리기관등 자기계좌부의 전자등록의 변경
-⑥계좌관리기관은 제5항 제1호의 통지를 받으면 지체 없이 그 통지 내용에 따라 고
-객계좌부의 전자등록을 변경하여야 한다 .- 335 -제22조(고객계좌 및 고객관리계좌의 개설 등)①전자등록주식등의 권리자가 되려는 
-자는 계좌관리기관에 고객계좌를 개설하여야 한다 .
-②제1항에 따라 고객계좌가 개설된 경우 계좌관리기관은 다음 각 호의 사항을 전자
-등록하여 권리자별로 고객계좌부를 작성하여야 한다 .
-1.권리자의 성명 또는 명칭 및 주소
-2.발행인의 명칭
-3.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
-4.전자등록주식등에 질권이 설정된 경우에는 그 사실
-5.전자등록주식등이 신탁재산인 경우에는 그 사실
-6.전자등록주식등의 처분이 제한되는 경우에는 그에 관한 사항
-7.그 밖에 고객계좌부에 등록할 필요가 있는 사항으로서 대통령령으로 정하는 사항
-③계좌관리기관은 제2항의 고객계좌부에 전자등록된 전자등록주식등의 총수량 또는 
-총금액을 관리하기 위하여 전자등록기관에 고객관리계좌를 개설하여야 한다 .
-④제3항에 따라 고객관리계좌가 개설된 경우 전자등록기관은 다음 각 호의 사항을 
-기록하여 계좌관리기관별로 고객관리계좌부를 작성하여야 한다 .
-1.계좌관리기관의 명칭 및 주소
-2.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
-3.그 밖에 고객관리계좌부에 등록할 필요가 있는 사항으로서 대통령령으로 정하는 
-사항
-제23조(계좌관리기관등 자기계좌의 개설 등)①제22조 제1항에도 불구하고 계좌관리
-기관 ,법률에 따라 설립된 기금 ,그 밖에 전자등록기관에 주식등을 전자등록할 필요
-가 있는 자로서 대통령령으로 정하는 자(이하 “계좌관리기관등 ”이라 한다 )가 전자등
-록주식등의 권리자가 되려는 경우에는 전자등록기관에 계좌관리기관등 자기계좌를 
-개설할 수 있다 .
-②제1항에 따라 계좌관리기관등 자기계좌가 개설된 경우 전자등록기관은 다음 각 
-호의 사항을 전자등록하여 계좌관리기관등 자기계좌부를 작성하여야 한다 .
-1.계좌관리기관등의 성명 또는 명칭 및 주소
-2.제22조 제2항 제2호부터 제6호까지의 규정에 따른 사항
-3.그 밖에 계좌관리기관등 자기계좌부에 등록할 필요가 있는 사항으로서 대통령령
-으로 정하는 사항- 336 -제24조(전자등록의 신청 등)①주식등의 전자등록은 발행인이나 권리자의 신청 또
-는 관공서의 촉탁에 따라 한다 .다만 ,이 법에 다른 규정이 있는 경우에는 전자등록
-기관 또는 계좌관리기관이 직권으로 할 수 있다 .
-②주식등의 전자등록은 이 법에 다른 규정이 없으면 발행인이나 권리자 단독으로 
-신청한다 .
-③관공서의 촉탁에 따라 전자등록을 하는 경우에 대해서는 신청에 따른 전자등록에 
-관한 규정을 준용한다 .
-제30조(계좌간 대체의 전자등록 )①전자등록주식등의 양도 (다음 각 호의 어느 하나에 
-해당하는 경우를 포함한다 )를 위하여 계좌간 대체를 하려는 자는 해당 전자등록주식
-등이 전자등록된 전자등록기관 또는 계좌관리기관에 계좌간 대체의 전자등록을 신청
-하여야 한다 .
-1.제29조 제2항 제1호부터 제3호까지의 어느 하나에 해당하는 경우
-2.상속ㆍ합병 등을 원인으로 전자등록주식등의 포괄승계를 받은 자가 자기의 전자
-등록계좌로 그 전자등록주식등을 이전하는 경우
-3.그 밖에 계좌간 대체가 필요하다고 인정되는 경우로서 대통령령으로 정하는 경우
-②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
-이 전자등록계좌부에 해당 전자등록주식등의 계좌간 대체의 전자등록을 하여야 한다 .
-&lt;이하생략 &gt;
-제31조(질권 설정 및 말소의 전자등록 )①전자등록주식등에 질권을 설정하거나 말소
-하려는 자는 해당 전자등록주식등이 전자등록된 전자등록기관 또는 계좌관리기관에 
-질권 설정 또는 말소의 전자등록을 신청하여야 한다 .
-②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
-이 해당 전자등록주식등이 질물 (質物 )이라는 사실과 질권자를 질권설정자의 전자등
-록계좌부에 전자등록하는 방법으로 해당 전자등록주식등에 질권 설정 또는 말소의 
-전자등록을 하여야 한다 .
-&lt;이하생략 &gt;
-제32조(신탁재산이라는 사실의 표시 및 말소의 전자등록 )①전자등록주식등에 대하
-여 신탁재산이라는 사실을 표시하거나 그 표시를 말소하려는 자는 해당 전자등록주
-식등이 전자등록된 전자등록기관 또는 계좌관리기관에 신탁재산이라는 사실의 표시 
-또는 말소의 전자등록을 신청하여야 한다 .
-②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
-이 해당 전자등록주식등이 신탁재산이라는 사실을 전자등록계좌부에 표시하거나 말
-소하는 전자등록을 하여야 한다 .</t>
-  </si>
-  <si>
-    <t>전자등록주식등에 대해 신탁재산이라는 사실을 표시하거나 말소하려는 자는 어디에 전자등록을 신청해야 합니까?</t>
-  </si>
-  <si>
-    <t>전자등록기관 또는 계좌관리기관</t>
-  </si>
-  <si>
-    <t>전자등록을 하여야 한다 .
-&lt;이하생략 &gt;
-제32조(신탁재산이라는 사실의 표시 및 말소의 전자등록 )①전자등록주식등에 대하
-여 신탁재산이라는 사실을 표시하거나 그 표시를 말소하려는 자는 해당 전자등록주
-식등이 전자등록된 전자등록기관 또는 계좌관리기관에 신탁재산이라는 사실의 표시 
-또는 말소의 전자등록을 신청하여야 한다 .
-②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
-이 해당 전자등록주식등이 신탁재산이라는 사실을 전자등록계좌부에 표시하거나 말
-소하는 전자등록을 하여야 한다 .
-&lt;이하생략 &gt;- 337 -제33조(권리의 소멸 등에 따른 변경·말소의 전자등록 )①다음 각 호의 어느 하나에 
-해당하는 사유로 제25조부터 제27조까지의 규정에 따른 신규 전자등록을 변경하거
-나 말소하려는 자는 해당 전자등록주식등이 전자등록된 전자등록기관 또는 계좌관
-리기관에 신규 전자등록의 변경ㆍ말소의 전자등록을 신청하여야 한다 .
-1.원리금ㆍ상환금 지급 등으로 인한 전자등록주식등에 관한 권리의 전부 또는 일
-부의 소멸
-2~5. &lt;생 략&gt;
-②제1항에 따른 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
-이 전자등록주식등에 관한 권리 내용을 변경하거나 말소하는 전자등록을 하여야 한
-다.
-&lt;이하생략 &gt;
-제35조(전자등록의 효력 )①전자등록계좌부에 전자등록된 자는 해당 전자등록주식등
-에 대하여 전자등록된 권리를 적법하게 가지는 것으로 추정한다 .
-②전자등록주식등을 양도하는 경우에는 제30조에 따른 계좌간 대체의 전자등록을 
-하여야 그 효력이 발생한다 .
-③전자등록주식등을 질권의 목적으로 하는 경우에는 제31조에 따른 질권 설정의 전
-자등록을 하여야 입질의 효력이 발생한다 .이 경우「상법」제340조 제1항에 따른 주
-식의 등록질 (登錄質 )의 경우 질권자의 성명을 주권에 기재하는 것에 대해서는 그 성
-명을 전자등록계좌부에 전자등록하는 것으로 갈음한다 .
-④전자등록주식등의 신탁은 제32조에 따라 해당 전자등록주식등이 신탁재산이라는 
-사실을 전자등록함으로써 제3자에게 대항할 수 있다 .
-⑤선의 (善意 )로 중대한 과실 없이 전자등록계좌부의 권리 내용을 신뢰하고 소유자 
-또는 질권자로 전자등록된 자는 해당 전자등록주식등에 대한 권리를 적법하게 취득
-한다 .
-제38조(전자등록기관을 통한 권리 행사 )①전자등록주식등의 권리자는 전자등록기관
-을 통하여 배당금ㆍ원리금ㆍ상환금 등의 수령 ,그 밖에 주식등에 관한 권리를 행사
-할 수 있다 .
-②제1항에 따라 권리를 행사하려는 전자등록주식등의 권리자는 전자등록기관을 통
-하여 권리를 행사한다는 뜻과 권리 행사의 내용을 구체적으로 밝혀 전자등록기관에 
-신청하여야 한다 .이 경우 고객계좌부에 전자등록된 권리자는 계좌관리기관을 통하
-여 신청하여야 한다 .
-③전자등록주식등의 발행인은 제1항에 따른 전자등록기관을 통한 권리 행사를 위하
-여 대통령령으로 정하는 사항을 지체 없이 전자등록기관에 통지하여야 한다 .
-④&lt;생 략&gt;- 338 -제42조(초과분에 대한 해소 의무 등)①계좌관리기관은 제1호의 총수량 또는 총금
-액이 제2호의 총수량 또는 총금액을 초과하는 경우에는 대통령령으로 정하는 바에 
-따라 지체 없이 그 초과분을 해소하여야 한다 .
-1.고객계좌부에 전자등록된 주식등의 종목별 총수량 또는 총금액
-2.고객관리계좌부에 기록된 전자등록주식등의 종목별 총수량 또는 총금액
-②전자등록기관은 제1호의 총수량 또는 총금액이 제2호의 총수량 또는 총금액을 초
-과하는 경우에는 대통령령으로 정하는 바에 따라 지체 없이 그 초과분을 해소하여야 
-한다 .
-1.계좌관리기관등 자기계좌부에 전자등록된 주식등의 종목별 총수량 또는 총금액
-과 고객관리계좌부에 기록된 전자등록주식등의 종목별 총수량 또는 총금액의 합
-2.발행인관리계좌부에 기록된 전자등록주식등의 종목별 총수량 또는 총금액
-③제1항 또는 제2항에 따른 초과분에 대한 해소 의무의 전부 또는 일부를 이행하지 
-아니한 경우에는 계좌관리기관과 전자등록기관은 대통령령으로 정하는 방법 및 절차
-에 따라 그 초과분을 해소하여야 한다 .
-④제1항부터 제3항까지의 규정에 따른 초과분에 대한 해소 의무의 전부 또는 일부
-를 이행하지 아니한 경우에는 제1항 또는 제2항에 따라 해소 의무가 있는 계좌관리
-기관 또는 전자등록기관이 대통령령으로 정하는 바에 따라 해소되지 아니한 초과분
-에 해당하는 전자등록주식등에 대하여 지급되는 원리금 ,배당금 ,그 밖에 대통령령으
-로 정하는 금액을 지급할 의무를 진다 .
-⑤제1항부터 제4항까지의 규정에 따른 의무를 이행한 계좌관리기관 또는 전자등록
-기관은 각각 해당 초과분 발생에 책임이 있는 자에게 구상권 (求償權 )을 행사할 수 
-있다 .
-⑥계좌관리기관은 전자등록기관에 개설한 계좌를 폐쇄한 이후에도 제3항에 따른 해
-소 의무를 부담한다 .다만 ,계좌를 폐쇄한 때부터 5년이 지난 경우에는 해당 의무가 
-소멸한다 .
-제43조(초과분에 대한 권리 행사의 제한 )①제42조 제1항에 따른 초과분이 발생한 
-경우에는 같은 항에 따른 의무가 이행될 때까지 그 의무가 발생한 계좌관리기관의 
-고객계좌부에 해당 전자등록주식등의 권리자로 전자등록된 자로서 대통령령으로 정
-하는 자는 대통령령으로 정하는 바에 따라 산정된 수량 또는 금액에 대한 권리를 발
-행인에게 주장할 수 없다 .
-②제42조 제2항에 따른 초과분이 발생한 경우에는 같은 항에 따른 의무가 이행될 
-때까지 해당 전자등록주식등의 권리자로 전자등록된 자로서 대통령령으로 정하는 자
-는 대통령령으로 정하는 바에 따라 산정된 수량 또는 금액에 대한 권리를 발행인에
-게 주장할 수 없다 .- 339 -③제1항 또는 제2항에 따른 권리 행사의 제한으로 해당 전자등록주식등의 권리자
-에게 손해가 발생한 경우 제42조제 1항 또는 제2항에 따른 해소 의무를 부담하는 자
-는 해당 손해를 배상하여야 한다 .
-④제3항에 따른 손해배상 의무의 전부 또는 일부가 이행되지 아니한 경우에는 계좌
-관리기관 및 전자등록기관은 연대하여 배상할 책임이 있다 .이 경우 제42조제 5항 
-및 제6항을 준용한다 .</t>
-  </si>
-  <si>
-    <t>제47조에 따르면 전자등록기관이 계좌간 대체의 전자등록을 제한할 수 있는 경우는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>계좌관리기관의 파산ㆍ해산 등 대통령령으로 정하는 사유가 발생한 경우</t>
-  </si>
-  <si>
-    <t>는 대통령령으로 정하는 바에 따라 산정된 수량 또는 금액에 대한 권리를 발행인에
-게 주장할 수 없다 .- 339 -③제1항 또는 제2항에 따른 권리 행사의 제한으로 해당 전자등록주식등의 권리자
-에게 손해가 발생한 경우 제42조제 1항 또는 제2항에 따른 해소 의무를 부담하는 자
-는 해당 손해를 배상하여야 한다 .
-④제3항에 따른 손해배상 의무의 전부 또는 일부가 이행되지 아니한 경우에는 계좌
-관리기관 및 전자등록기관은 연대하여 배상할 책임이 있다 .이 경우 제42조제 5항 
-및 제6항을 준용한다 .
-제47조(계좌간 대체의 전자등록 제한 )전자등록기관은 계좌관리기관의 파산ㆍ해산 ,그 
-밖에 대통령령으로 정하는 사유가 발생한 경우 대통령령으로 정하는 기준 및 방법에 
-따라 고객계좌부에 전자등록된 전자등록주식등의 계좌간 대체의 전자등록을 제한할 
-수 있다 .
-제72조(한국은행에 관한 특례 )①한국은행은 다음 각 호의 어느 하나에 해당하는 것
-(이하 이 조에서 “국채등 ”이라 한다 )의 소유자가 되려는 자가 국채등의 발행을 청구
-하는 경우에는 그 소유자가 되려는 자의 신청으로 이들을 갈음하여 전자등록기관을 
-명의인으로 하는 국채등의 등록 (「국채법」,「국고금 관리법」또는 「한국은행 통
-화안정증권법」에 따른 등록을 말한다 )을 할 수 있다 .
-1.「국채법」에 따른 국고채권
-2.「국고금 관리법」에 따른 재정증권
-3.「한국은행 통화안정증권법」에 따른 통화안정증권
-②한국은행은 제1항에 따라 전자등록기관의 명의로 등록된 국채등이 이 법에 따라 
-소유자의 명의로 전자등록될 수 있도록 제1항의 등록 내용을 전자등록기관에 통
-지하여야 한다 .이 경우 제25조 및 제26조를 준용한다 .
-부칙 &lt;제14096호,2016. 3.22.&gt;
-제2조(다른 법률의 폐지 )①「공사채 등록법」은 폐지한다 .
-②「전자단기사채등의 발행 및 유통에 관한 법률」은 폐지한다 .
-한국은행통화안정증권법 [시행 2016.6.3, 2016.3.2 일부개정 ]
-제3조(무기명증권과 등록증권 )②제2조에 따라 발행된 통화안정증권은 증권 (證券 )을 
-발행하지 아니하고 전산정보처리조직을 이용하여 통화안정증권등록부에 전자적인 방
-식에 의하여 기명식 (記名式 )또는 무기명식 (無記名式 )으로 등록한다 .다만 ,전시ㆍ사변
-이나 이에 준하는 국가비상사태 등의 경우에는 기명식 또는 무기명식 증권을 발행할 
-수 있다 .
-④제2항에 따른 등록 업무를 수행하는 기관은 한국은행으로 한다 .- 340 -&lt;표Ⅹ-10&gt;예탁결제제도 관련 용어 정리
-(1)예탁
-□대체성이 있는 유가증권을 예탁받아 혼합보관하고 ,예탁유가증권에 대한 권리 이
-전을 계좌간 대체방식에 의해 처리하는 것으로 혼장임치 83)와 위임의 혼합계약임
-(2)계좌대체
-□증권의 권리이전 ,질권 설정 등을 실물 이동 없이 계좌부상 대체기재로 완료하는 
-것을 의미
-□「자본시장과 금융투자업에 관한 법률」에 따라 계좌대체만으로도 증권의 권리가 
-실제로 이전하는 효력이 발생
-(3)반환
-□예탁자나 고객은 언제든지 예탁증권을 반환 청구할 수 있으나 ,이는 예탁했던 증
-권의 반환을 청구하는 것이 아니라 동종 ,동량의 증권을 반환 청구하는 것임
-□반환이 완료되면 반환된 증권은 예탁된 해당 유가증권 물량에서 차감되며 예탁
-유가증권에 대한 공유지분 보유도 소멸됨
-(4)공유권
-□예탁기관이 예탁받은 유가증권을 혼합보관함에 따라 예탁자 (예탁자의 고객 포함 )
-는 예탁유가증권의 종류 ,종목 ,수량에 따라 공유지분을 가지는 것으로 추정
-83)증권을 예탁 받음에 있어 동종의 증권을 혼합하여 보관하고 반환할 때에도 동종,동량의 유
-가증권을 반환하는 것을 의미(예탁자는 예탁유가증권에 대해 공유지분 보유)- 341 -&lt;표Ⅹ-11&gt;예탁결제제도의 변천
-시행연월 내   용
-1973. 2「증권거래법」제127조의 2(대체결제업무의 허가 )신설
-1974.12「증권거래법」제127조의 2(대체결제업무의 허가 )개정
-집중예탁제도 신설 및 집중예탁을 통한 대체결제를 할 수 있는  
-‘대체결제회사 ’설립의 근거 마련
-1974.12. ‘한국증권대체결제 (주)’(현 ‘한국예탁결제원 ’의 전신 )설립
-1994. 4.「증권거래법」제173조(설립 )개정으로 증권예탁원을 법인으로  
-설립하도록 별도의 조항 신설
-1995. 9.「유가증권의 장외거래에 관한 규정」제21조(결제방법 )제3항   
-신설로 기관투자자들의 장외거래시 증권예탁원으로의 집중예탁  
-을 유도
-1995.12.증권예탁원 ,한국은행 원화당좌예금 계좌개설 및 금융결제망   
-가입
-1999. 4.「증권거래법」제44조의 4(고객예탁유가증권 등의 예탁 )신설
-증권회사에서 보유하게 되는 고객 또는 보유자산의 유가증권  
-등을 모두 증권예탁원에 예탁하도록 강제
-1999.12「유가증권의 장외거래에 관한 규정」제5조(결제방법 )제3항에
-채권과 대금의 동시결제 (DVP)규정
-2009. 2「자본시장과 금융투자업에 관한 법률」을 제정하여 금융투자  
-업자의 고유재산 또는 투자자 소유의 증권을 한국예탁결제원에
-집중 예탁하도록 규정
-2012. 2.장내외 국채결제를 위한 일중 RP제도 도입
-2013. 1.전자단기사채업무 개시
-2013. 7.코넥스 (KONEX) 시장 결제서비스 개시
-2016. 4.외국통화의 원활한 결제를 위하여 「외국환거래규정」제11조의
-21제1항의 청산은행을 대금결제은행으로 추가 지정
-2016. 9.한국예탁결제원을 전자증권등록기관으로 허가
-2017. 9.청산결제리스크관리시스템 구축 사업 완료 
-2019. 9.「전자증권법」시행- 342 -&lt;표Ⅹ-12&gt;예탁 관련 법률
-자본시장과 금융투자업에 관한 법률 [시행 2021.4.6, 2021.1.5 일부개정]  
-제61조(소유증권의 예탁 )①금융투자업자 (겸영금융투자업자를 제외한다 .이하 이 조
-에서 같다 )는 그 고유재산을 운용함에 따라 소유하게 되는 증권 (대통령령으로 정하
-는 것을 포함한다 )을 예탁결제원에 지체 없이 예탁하여야 한다 .다만 ,해당 증권의 
-유통 가능성 ,다른 법령에 따른 유통방법이 있는지 여부 ,예탁의 실행 가능성 등을 
-고려하여 대통령령으로 정하는 경우에는 예탁결제원에 예탁하지 아니할 수 있다 .
-&lt;개정 2013.5.28.&gt;</t>
-  </si>
-  <si>
-    <t>금융투자업자가 소유한 증권을 예탁결제원에 예탁하지 않아도 되는 경우는 무엇인가요?</t>
-  </si>
-  <si>
-    <t>해당 증권의 유통 가능성, 다른 법령에 따른 유통방법이 있는지 여부, 예탁의 실행 가능성 등을 고려하여 대통령령으로 정하는 경우</t>
-  </si>
-  <si>
-    <t>자본시장과 금융투자업에 관한 법률 [시행 2021.4.6, 2021.1.5 일부개정]  
-제61조(소유증권의 예탁 )①금융투자업자 (겸영금융투자업자를 제외한다 .이하 이 조
-에서 같다 )는 그 고유재산을 운용함에 따라 소유하게 되는 증권 (대통령령으로 정하
-는 것을 포함한다 )을 예탁결제원에 지체 없이 예탁하여야 한다 .다만 ,해당 증권의 
-유통 가능성 ,다른 법령에 따른 유통방법이 있는지 여부 ,예탁의 실행 가능성 등을 
-고려하여 대통령령으로 정하는 경우에는 예탁결제원에 예탁하지 아니할 수 있다 .
-&lt;개정 2013.5.28.&gt;
-②금융투자업자가 제1항 본문에 따라 외화증권 (「외국환거래법」제3조 제1항 제8
-호의 외화증권을 말한다 .이하 같다 )을 예탁결제원에 예탁하는 경우에는 대통령령
-으로 정하는 방법에 따라 예탁하여야 한다 .&lt;신설 2013.5.28.&gt;
-제75조(투자자 예탁증권의 예탁 )①투자매매업자 또는 투자중개업자는 금융투자상품
-의 매매 ,그 밖의 거래에 따라 보관하게 되는 투자자 소유의 증권 (대통령령으로 정
-하는 것을 포함한다 )을 예탁결제원에 지체 없이 예탁하여야 한다 .다만 ,해당 증권
-의 유통 가능성 ,다른 법령에 따른 유통방법이 있는지 여부 ,예탁의 실행 가능성 등
-을 고려하여 대통령령으로 정하는 경우에는 예탁결제원에 예탁하지 아니할 수 있다 .
-&lt;개정 2013.5.28.&gt;
-②투자매매업자 또는 투자중개업자가 제1항 본문에 따라 외화증권을 예탁결제원에 
-예탁하는 경우에는 대통령령으로 정하는 방법에 따라 예탁하여야 한다.&lt;신설 2013.5.28.&gt;- 343 -  증권업무 이자소득세 원천징수 관련 세법조항 제3장
-1.국세기본법
-제21조 (납세의무의 성립시기 )①②&lt;생략 &gt;
-③다음 각 호의 국세를 납부할 의무의 성립시기는 제2항에도 불구하고 다음 각 
-호의 구분에 따른다 .
-1.원천징수하는 소득세ㆍ법인세 :소득금액 또는 수입금액을 지급하는 때
-2.~4.&lt;생략 &gt;[전문개정 2018. 12.31.]
-제47조(가산세 부과 )①정부는 세법에서 규정한 의무를 위반한 자에게 이 법 또
-는 세법에서 정하는 바에 따라 가산세를 부과할 수 있다 .
-②가산세는 해당 의무가 규정된 세법의 해당 국세의 세목 (稅目 )으로 한다 .다만 ,
-해당 국세를 감면하는 경우에는 가산세는 그 감면대상에 포함시키지 아니하는 
-것으로 한다.
-③가산세는 납부할 세액에 가산하거나 환급받을 세액에서 공제한다 .&lt;신설 2011.
-12.31.&gt; [전문개정 2010. 1.1.]
-제47조의 5(원천징수 등 납부지연가산세 )①국세를 징수하여 납부할 의무를 지는 
-자가 징수하여야 할 세액 (제2항 제2호의 경우에는 징수한 세액 )을 법정납부기한
-까지 납부하지 아니하거나 과소납부한 경우에는 납부하지 아니한 세액 또는 과
-소납부분 세액의 100분의 50(제1호의 금액과 제2호 중 법정납부기한의 다음 날
-부터 납부고지일까지의 기간에 해당하는 금액을 합한 금액은 100분의 10)에 상
-당하는 금액을 한도로 하여 다음 각 호의 금액을 합한 금액을 가산세로 한다 .
-&lt;개정 2013. 1.1.,2019. 12.31., 2020. 12.29.&gt;
-1.납부하지 아니한 세액 또는 과소납부분 세액의 100분의 3에 상당하는 금액
-2.납부하지 아니한 세액 또는 과소납부분 세액 ×법정납부기한의 다음 날부터 
-납부일까지의 기간 (납부고지일부터 납부고지서에 따른 납부기한까지의 기간은 
-제외한다 )×금융회사 등이 연체대출금에 대하여 적용하는 이자율 등을 고려
-하여 대통령령으로 정하는 이자율
-②제1항에서 “국세를 징수하여 납부할 의무 ”란 다음 각 호의 어느 하나에 해당
-하는 의무를 말한다 .&lt;개정 2013. 6.7.&gt;- 344 -1.「소득세법」또는 「법인세법」에 따라 소득세 또는 법인세를 원천징수하여 
-납부할 의무
-2.~3.&lt;생략 &gt;
-③제1항에도 불구하고 다음 각 호의 어느 하나에 해당하는 경우에는 제1항을 
-적용하지 아니한다 .&lt;개정 2013. 1.1.&gt;
-1.~2.&lt;생략 &gt;
-3.「소득세법」또는 「법인세법」에 따라 소득세 또는 법인세를 원천징수하여
-야 할 자가 국가 ,지방자치단체 또는 지방자치단체조합인 경우 (「소득세법」
-제128조의 2에 해당하는 경우는 제외한다 )
-④제1항을 적용할 때 납부고지서에 따른 납부기한의 다음 날부터 납부일까지의 
-기간 (「국세징수법」제13조에 따라 지정납부기한과 독촉장에서 정하는 기한을 
-연장한 경우에는 그 연장기간은 제외한다 )이 5년을 초과하는 경우에는 그 기간
-은 5년으로 한다 .&lt;신설 2019. 12.31., 2020. 12.29.&gt;
-⑤체납된 국세의 납부고지서별ㆍ세목별 세액이 100만원 미만인 경우에는 제1항
-제2호의 가산세를 적용하지 아니한다 .&lt;신설 2019. 12.31., 2020. 12.29.&gt;
-[전문개정 2011. 12.31.]
-[제목개정 2020. 12.22.]
-제51조(국세환급금의 충당과 환급 )①~④&lt;생략 &gt;
-⑤원천징수의무자가 원천징수하여 납부한 세액에서 환급받을 환급세액이 있는 
-경우 그 환급액은 그 원천징수의무자가 원천징수하여 납부하여야 할 세액에 충
-당(다른 세목의 원천징수세액에의 충당은 「소득세법」에 따른 원천징수이행상황
-신고서에 그 충당·조정명세를 적어 신고한 경우에만 할 수 있다 )하고 남은 금액
-을 환급한다 .다만 ,그 원천징수의무자가 그 환급액을 즉시 환급해 줄 것을 요
-구하는 경우나 원천징수하여 납부하여야 할 세액이 없는 경우에는 즉시 환급한다 .
-&lt;개정 2010.12.27&gt;
-&lt;이하 생략 &gt;- 345 -2.소득세법
-제2조(납세의무 )①다음 각 호의 어느 하나에 해당하는 개인은 이 법에 따라 
-각자의 소득에 대한 소득세를 납부할 의무를 진다 .
-1.거주자
-2.비거주자로서 국내원천소득 (國內源泉所得 )이 있는 개인
-②다음 각 호의 어느 하나에 해당하는 자는 이 법에 따라 원천징수한 소득세
-를 납부할 의무를 진다 .
-1.거주자
-2.비거주자
-3.내국법인
-4.외국법인의 국내지점 또는 국내영업소 (출장소 ,그 밖에 이에 준하는 것을 포
-함한다 .이하 같다 )
-5.그 밖에 이 법에서 정하는 원천징수의무자
-③「국세기본법」제13조제 1항에 따른 법인 아닌 단체 중 같은 조 제4항에 따</t>
-  </si>
-  <si>
-    <t>거주자와 비거주자가 소득세를 납부할 의무가 있는 경우는?</t>
-  </si>
-  <si>
-    <t>각자의 소득에 대한 소득세를 납부할 의무를 진다.</t>
-  </si>
-  <si>
-    <t>각자의 소득에 대한 소득세를 납부할 의무를 진다 .
-1.거주자
-2.비거주자로서 국내원천소득 (國內源泉所得 )이 있는 개인
-②다음 각 호의 어느 하나에 해당하는 자는 이 법에 따라 원천징수한 소득세
-를 납부할 의무를 진다 .
-1.거주자
-2.비거주자
-3.내국법인
-4.외국법인의 국내지점 또는 국내영업소 (출장소 ,그 밖에 이에 준하는 것을 포
-함한다 .이하 같다 )
-5.그 밖에 이 법에서 정하는 원천징수의무자
-③「국세기본법」제13조제 1항에 따른 법인 아닌 단체 중 같은 조 제4항에 따
-른 법인으로 보는 단체 (이하 “법인으로 보는 단체 ”라 한다 )외의 법인 아닌 단
-체는 국내에 주사무소 또는 사업의 실질적 관리장소를 둔 경우에는 1거주자로 ,
-그 밖의 경우에는 1비거주자로 보아 이 법을 적용한다 .다만 ,다음 각 호의 어
-느 하나에 해당하는 경우에는 소득구분에 따라 해당 단체의 각 구성원별로 이 
-법 또는 「법인세법」에 따라 소득에 대한 소득세 또는 법인세 [해당 구성원이 
-「법인세법」에 따른 법인 (법인으로 보는 단체를 포함한다 )인 경우로 한정한다 .
-이하 이 조에서 같다 ]를 납부할 의무를 진다 .&lt;개정 2010. 12.27., 2013. 1.1.,
-2018. 12.31.&gt;
-1.구성원 간 이익의 분배비율이 정하여져 있고 해당 구성원별로 이익의 분배
-비율이 확인되는 경우
-2.구성원 간 이익의 분배비율이 정하여져 있지 아니하나 사실상 구성원별로 
-이익이 분배되는 것으로 확인되는 경우
-④제3항에도 불구하고 해당 단체의 전체 구성원 중 일부 구성원의 분배비율만 
-확인되거나 일부 구성원에게만 이익이 분배되는 것으로 확인되는 경우에는 다
-음 각 호의 구분에 따라 소득세 또는 법인세를 납부할 의무를 진다 .&lt;신설 
-2018. 12.31.&gt;
-1.확인되는 부분 :해당 구성원별로 소득세 또는 법인세에 대한 납세의무 부담- 346 -2.확인되지 아니하는 부분 :해당 단체를 1거주자 또는 1비거주자로 보아 소득
-세에 대한 납세의무 부담
-⑤제3항 및 제4항에도 불구하고 법인으로 보는 단체 외의 법인 아닌 단체에 
-해당하는 국외투자기구 (투자권유를 하여 모은 금전 등을 가지고 재산적 가치가 
-있는 투자대상자산을 취득 ,처분하거나 그 밖의 방법으로 운용하고 그 결과를 
-투자자에게 배분하여 귀속시키는 투자행위를 하는 기구로서 국외에서 설립된 
-기구를 말한다 .이하 같다 )를 제119조의 2제1항제 2호에 따라 국내원천소득의 실
-질귀속자로 보는 경우 그 국외투자기구는 1비거주자로서 소득세를 납부할 의무
-를 진다 .&lt;신설 2018. 12.31.&gt;
-제7조(원천징수 등의 경우의 납세지 )①원천징수하는 소득세의 납세지는 다음 
-각 호에 따른다 .&lt;개정 2012.1.1.&gt;
-1.원천징수하는 자가 거주자인 경우 :그 거주자의 주된 사업장 소재지 .다만 ,
-주된 사업장 외의 사업장에서 원천징수를 하는 경우에는 그 사업장의 소재
-지,사업장이 없는 경우에는 그 거주자의 주소지 또는 거소지로 한다 .
-2.원천징수하는 자가 비거주자인 경우 :그 비거주자의 주된 국내사업장 소재지 .
-다만 ,주된 국내사업장 외의 국내사업장에서 원천징수를 하는 경우에는 그 
-국내사업장의 소재지 ,국내사업장이 없는 경우에는 그 비거주자의 거류지 (居
-留地 )또는 체류지로 한다 .
-3.원천징수하는 자가 법인인 경우 :그 법인의 본점 또는 주사무소의 소재지
-4.원천징수하는 자가 법인인 경우로서 그 법인의 지점 ,영업소 ,그 밖의 사업장
-이 독립채산제 (獨立採算制 )에 따라 독자적으로 회계사무를 처리하는 경우 :제
-3호에도 불구하고 그 사업장의 소재지 (그 사업장의 소재지가 국외에 있는 경
-우는 제외한다 ).다만 ,대통령령으로 정하는 경우에는 그 법인의 본점 또는 
-주사무소의 소재지를 소득세 원천징수세액의 납세지로 할 수 있다 .
-&lt;이하 생략 &gt;
-제16조(이자소득 )①이자소득은 해당 과세기간에 발생한 다음 각 호의 소득으
-로 한다 .&lt;개정 2010. 3.22., 2012. 1.1.,2016. 12.20., 2020. 12.29.&gt;
-1.국가나 지방자치단체가 발행한 채권 또는 증권의 이자와 할인액
-2.내국법인이 발행한 채권 또는 증권의 이자와 할인액
-2의2.~13.&lt;생략 &gt;- 347 -②이자소득금액은 해당 과세기간의 총수입금액으로 한다 .
-③제1항 각 호에 따른 이자소득 및 제2항에 따른 이자소득금액의 범위에 관하
-여 필요한 사항은 대통령령으로 정한다 .[전문개정 2009. 12.31.]
-제46조(채권 등에 대한 소득금액의 계산 특례 )①거주자가 제16조 제1항 제1호
-ㆍ제 2호ㆍ제 5호 및 제6호에 해당하는 채권 또는 증권과 타인에게 양도가 가능한 
-증권으로서 대통령령으로 정하는 것(이하 이 조,제133조의 2및 제156조의 3에서 
-“채권등 ”이라 한다 )의 발행법인으로부터 해당 채권등에서 발생하는 이자 또는 
-할인액 (이하 이 조 ,제133조의 2및 제 156조의 3에서 “이자등 ”이라 한다 )을 지급 [전
-환사채의 주식전환 ,교환사채의 주식교환 및 신주인수권부사채의 신주인수권행
-사(신주 발행대금을 해당 신주인수권부사채로 납입하는 경우만 해당한다 )및「자
-본시장과 금융투자업에 관한 법률」제4조 제7항 제3호ㆍ제 3호의 2및 제3호의 3에 
-해당하는 채권등이 주식으로 전환ㆍ상환되는 경우를 포함한다 .이하 같다 ]받거나 
-해당 채권등을 매도 (증여ㆍ변제 및 출자 등으로 채권등의 소유권 또는 이자소득
-의 수급권의 변동이 있는 경우와 매도를 위탁하거나 중개 또는 알선시키는 경우
-를 포함하되 ,환매조건부채권매매거래 등 대통령령으로 정하는 경우는 제외한다 .
-이하 제133조의 2에서 같다 )하는 경우에는 거주자에게 그 보유기간별로 귀속되는 
-이자등 상당액을 해당 거주자의 제16조에 따른 이자소득으로 보아 소득금액을 
-계산한다 .&lt;개정 2010.12.27., 2012.1.1., 2020.12.29.&gt;
-②제1항을 적용할 때 해당 거주자가 해당 채권등을 보유한 기간을 대통령령으
-로 정하는 바에 따라 입증하지 못하는 경우에는 제133조의 2제1항에 따른 원천
-징수기간의 이자등 상당액이 해당 거주자에게 귀속되는 것으로 보아 소득금액</t>
-  </si>
-  <si>
-    <t>제81조의 11에 따르면 지급명세서를 기한 내 제출하지 않은 경우 가산세는 얼마인가요?</t>
-  </si>
-  <si>
-    <t>지급금액의 100분의 1</t>
-  </si>
-  <si>
-    <t>이하 제133조의 2에서 같다 )하는 경우에는 거주자에게 그 보유기간별로 귀속되는 
-이자등 상당액을 해당 거주자의 제16조에 따른 이자소득으로 보아 소득금액을 
-계산한다 .&lt;개정 2010.12.27., 2012.1.1., 2020.12.29.&gt;
-②제1항을 적용할 때 해당 거주자가 해당 채권등을 보유한 기간을 대통령령으
-로 정하는 바에 따라 입증하지 못하는 경우에는 제133조의 2제1항에 따른 원천
-징수기간의 이자등 상당액이 해당 거주자에게 귀속되는 것으로 보아 소득금액
-을 계산한다 .&lt;개정 2010. 12.27.&gt;
-③제1항 및 제2항에 따른 이자등 상당액의 계산방법과 그 밖에 필요한 사항은 
-대통령령으로 정한다 .[전문개정 2009. 12.31.]
-제81조의 11(지급명세서 제출 불성실 가산세 )①제164조,제164조의 2또는 「법
-인세법」제120조,제120조의 2에 따른 지급명세서 (이하 이 조에서 “지급명세서 ”
-라 한다 )또는 이 법 제164조의 3에 따른 근로소득간이지급명세서 (이하 이 조에
-서 “근로소득간이지급명세서 ”라 한다 )를 제출하여야 할 자가 다음 각 호의 어느 
-하나에 해당하는 경우에는 다음 각 호의 구분에 따른 금액을 가산세로 해당 과- 348 -세기간의 종합소득 결정세액에 더하여 납부하여야 한다.다만,「조세특례제한법」
-제90조의 2에 따라 가산세가 부과되는 분에 대해서는 그러하지 아니하다 .&lt;개정 
-2020. 12.29.&gt;
-1.지급명세서 또는 근로소득간이지급명세서 (이하 이 조에서 “지급명세서등 ”이
-라 한다 )를 기한까지 제출하지 아니한 경우
-가.지급명세서의 경우:제출하지 아니한 분의 지급금액의 100분의 1(제출기한이 
-지난 후 3개월 이내에 제출하는 경우에는 지급금액의 1천분의 5로 한다)
-나.근로소득간이지급명세서의 경우 :제출하지 아니한 분의 지급금액의 1만분
-의 25(제출기한이 지난 후 3개월 이내에 제출하는 경우에는 지급금액의 
-10만분의 125로 한다 )
-2.제출된 지급명세서등이 대통령령으로 정하는 불분명한 경우에 해당하거나 제
-출된 지급명세서등에 기재된 지급금액이 사실과 다른 경우
-가.지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금액의 100분의 1
-나.근로소득간이지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금
-액의 1만분의 25
-②제1항에 따른 가산세는 종합소득산출세액이 없는 경우에도 적용한다 .
-[본조신설 2019. 12.31.]
-제85조(징수와 환급 )①~②&lt;생략 &gt;
-③납세지 관할 세무서장은 원천징수의무자가 징수하였거나 징수하여야 할 세
-액을 그 기한까지 납부하지 아니하였거나 미달하게 납부한 경우에는 그 징수하
-여야 할 세액에 「국세기본법」제47조의 5제1항에 따른 가산세액을 더한 금액
-을 그 세액으로 하여 그 원천징수의무자로부터 징수하여야 한다 .다만 ,원천징
-수의무자가 원천징수를 하지 아니한 경우로서 다음 각 호의 어느 하나에 해당
-하는 경우에는 「국세기본법」제47조의 5제1항에 따른 가산세액만을 징수한다 .
-&lt;개정 2012.1.1., 2013.1.1.&gt;
-1.납세의무자가 신고·납부한 과세표준금액에 원천징수하지 아니한 원천징수대
-상 소득금액이 이미 산입된 경우
-2.원천징수하지 아니한 원천징수대상 소득금액에 대해서 납세의무자의 관할 세
-무서장이 제80조 및 제114조에 따라 그 납세의무자에게 직접 소득세를 부과·
-징수하는 경우
-&lt;이하 생략 &gt;- 349 -제86조(소액부징수 )다음 각 호의 어느 하나에 해당하는 경우에는 해당 소득세를 
-징수하지 아니한다 .&lt;개정 2012.1.1., 2014.1.1.&gt;
-1.제127조(같은 조 제1항제 1호는 제외한다 )에 따른 원천징수세액이 1천원 미만
-인 경우
-2.제150조에 따른 납세조합의 징수세액이 1천원 미만인 경우
-3.삭제 &lt;2013.1.1.&gt;
-4.제65조에 따른 중간예납세액이 30만원 미만인 경우
-[전문개정 2009.12.31.]
-[제목개정 2014.1.1.]
-제119조(비거주자의 국내원천소득 )비거주자의 국내원천소득은 다음 각 호와 같
-이 구분한다 .&lt;개정 2010. 12.27., 2012. 1.1.,2013. 1.1.,2015. 12.15., 2016.
-12.20., 2018. 12.31., 2019. 12.31., 2020. 12.29.&gt;
-1.국내원천 이자소득 :다음 각 목의 어느 하나에 해당하는 소득으로서 제16조
-제1항에서 규정하는 이자 (같은 항 제7호의 소득은 제외한다 ).다만 ,거주자 
-또는 내국법인의 국외사업장을 위하여 그 국외사업장이 직접 차용한 차입금
-의 이자는 제외한다 .
-가.국가 ,지방자치단체 (지방자치단체조합을 포함한다 .이하 제156조제 1항제 1
-호가목에서 같다 ),거주자 ,내국법인 ,「법인세법」제94조에서 규정하는 
-외국법인의 국내사업장 또는 제120조에서 규정하는 비거주자의 국내사업
-장으로부터 받는 소득
-나.외국법인 또는 비거주자로부터 받는 소득으로서 그 소득을 지급하는 외국
-법인 또는 비거주자의 국내사업장과 실질적으로 관련하여 그 국내사업장
-의 소득금액을 계산할 때 손금 또는 필요경비에 산입되는 것
-&lt;이하 생략 &gt;
-제127조(원천징수의무 )①국내에서 거주자나 비거주자에게 다음 각 호의 어느 
-하나에 해당하는 소득을 지급하는 자(제3호의 소득을 지급하는 자의 경우에는 
-사업자 등 대통령령으로 정하는 자로 한정한다 )는 이 절의 규정에 따라 그 거
-주자나 비거주자에 대한 소득세를 원천징수하여야 한다 .&lt;개정 2009.12.31,
-2010.12.27, 2015.12.15&gt;
-1.이자소득- 350 -2.~8.&lt;생략 &gt;
-②제1항에 따른 원천징수를 하여야 할 자 (제1항 제 3호에 따른 소득의 경우에는 
-사업자 등 대통령령으로 정하는 자로 한정한다 )를 대리하거나 그 위임을 받은 
-자의 행위는 수권 (授權 )또는 위임의 범위에서 본인 또는 위임인의 행위로 보아 
-제1항을 적용한다 .&lt;개정 2009.12.31, 2010.12.27&gt;
-③~⑥&lt;생략 &gt;
-⑦제1항부터 제6항까지의 규정에 따라 원천징수를 하여야 할 자를 "원천징수
-의무자 "라 한다 .&lt;개정 2010.12.27&gt;
-&lt;이하 생략 &gt;</t>
-  </si>
-  <si>
-    <t>원천징수의무자가 원천징수한 소득세를 납부해야 하는 기한은 언제인가요?</t>
-  </si>
-  <si>
-    <t>다음 달 10일까지</t>
-  </si>
-  <si>
-    <t>1.이자소득- 350 -2.~8.&lt;생략 &gt;
-②제1항에 따른 원천징수를 하여야 할 자 (제1항 제 3호에 따른 소득의 경우에는 
-사업자 등 대통령령으로 정하는 자로 한정한다 )를 대리하거나 그 위임을 받은 
-자의 행위는 수권 (授權 )또는 위임의 범위에서 본인 또는 위임인의 행위로 보아 
-제1항을 적용한다 .&lt;개정 2009.12.31, 2010.12.27&gt;
-③~⑥&lt;생략 &gt;
-⑦제1항부터 제6항까지의 규정에 따라 원천징수를 하여야 할 자를 "원천징수
-의무자 "라 한다 .&lt;개정 2010.12.27&gt;
-&lt;이하 생략 &gt;
-제128조(원천징수세액의 납부 )①원천징수의무자는 원천징수한 소득세를 그 징
-수일이 속하는 달의 다음 달 10일까지 대통령령으로 정하는 바에 따라 원천징
-수 관할 세무서 ,한국은행 또는 체신관서에 납부하여야 한다 .&lt;개정 2010.12.27&gt;
-&lt;이하 생략 &gt;
-제129조(원천징수세율 )①원천징수의무자가 제127조제 1항 각 호에 따른 소득을 
-지급하여 소득세를 원천징수할 때 적용하는 세율 (이하 “원천징수세율 ”이라 한
-다)은 다음 각 호의 구분에 따른다 .&lt;개정 2010. 12.27., 2013. 1.1.,2014. 1.1.,
-2014. 12.23., 2017. 12.19., 2018. 12.31., 2019. 12.31., 2020. 12.29.&gt;
-1.이자소득에 대해서는 다음에 규정하는 세율
-가.삭제 &lt;2017. 12.19.&gt;
-나.비영업대금의 이익에 대해서는 100분의 25.다만 ,「온라인투자연계금융업 
-및 이용자 보호에 관한 법률」에 따라 금융위원회에 등록한 온라인투자연
-계금융업자를 통하여 지급받는 이자소득에 대해서는 100분의 14로 한다 .
-다.제16조제 1항제 10호에 따른 직장공제회 초과반환금에 대해서는 기본세율
-라.그 밖의 이자소득에 대해서는 100분의 14
-&lt;이하 생략 &gt;
-제130조(이자소득 또는 배당소득에 대한 원천징수시기 및 방법 )원천징수의무
-자가 이자소득 또는 배당소득을 지급할 때에는 그 지급금액에 원천징수세율을 적용
-하여 계산한 소득세를 원천징수한다 .[전문개정 2009.12.31.] [제목개정 2010.12.27.]- 351 -제133조(이자소득 등에 대한 원천징수영수증의 발급 )①국내에서 이자소득 또
-는 배당소득을 지급하는 원천징수의무자는 이를 지급할 때 소득을 받는 자에게 
-그 이자소득 또는 배당소득의 금액과 그 밖에 필요한 사항을 적은 기획재정부
-령으로 정하는 원천징수영수증을 발급하여야 한다 .다만 ,원천징수의무자가 지
-급한 날이 속하는 과세기간의 다음 연도 3월 31일까지 이자소득 또는 배당소득
-을 받는 자에게 그 이자소득 또는 배당소득의 금액과 그 밖에 필요한 사항을 
-대통령령으로 정하는 바에 따라 통지하는 경우에는 해당 원천징수영수증을 발
-급한 것으로 본다 .&lt;개정 2010. 12.27., 2020. 6.9.&gt;
-&lt;이하 생략 &gt;
-제156조(비거주자의 국내원천소득에 대한 원천징수의 특례 )①제119조 제1호
-ㆍ제 2호ㆍ제 4호부터 제6호까지 및 제9호부터 제12호까지의 규정에 따른 국내원
-천소득으로서 국내사업장과 실질적으로 관련되지 아니하거나 그 국내사업장에 
-귀속되지 아니한 소득의 금액 (국내사업장이 없는 비거주자에게 지급하는 금액을 
-포함한다 )을 비거주자에게 지급하는 자(제119조제 9호에 따른 국내원천 부동산등
-양도소득을 지급하는 거주자 및 비거주자는 제외한다 )는 제127조에도 불구하고 
-그 소득을 지급할 때에 다음 각 호의 금액을 그 비거주자의 국내원천소득에 대
-한 소득세로서 원천징수하여 그 원천징수한 날이 속하는 달의 다음 달 10일까
-지 대통령령으로 정하는 바에 따라 원천징수 관할 세무서 ,한국은행 또는 체신
-관서에 납부하여야 한다 .&lt;개정 2013. 1.1.,2016. 12.20., 2018. 12.31., 2019.
-12.31.&gt;
-1.제119조 제1호에 따른 국내원천 이자소득 :다음 각 목의 구분에 따른 금액
-가.국가ㆍ지방자치단체 및 내국법인이 발행하는 채권에서 발생하는 이자소
-득:지급금액의 100분의 14
-나.가목 외의 이자소득 :지급금액의 100분의 20
-2.~8.&lt;생략 &gt;
-②외국인의 국내 투자자금의 변동성이 확대되어 외환부문의 건전성을 해치는 
-등 금융시장에 불안이 초래되고 통화정책 수행을 어렵게 하거나 어렵게 할 우
-려가 있어 긴급히 필요하다고 인정될 때에는 비거주자의 소득 중 다음 각 호의 
-소득에 대해서는 제1항의 세율을 대통령령으로 정하는 바에 따라 인하하거나 
-영의 세율로 할 수 있다 .이 경우 기획재정부장관은 인하할 세율과 그 필요성에 - 352 -관한 내용을 국회 소관 상임위원회에 사전에 보고하여야 한다 .&lt;신설 2010. 12.
-27., 2018. 12.31.&gt;
-1.제119조 제1호에 따른 국내원천 이자소득 중「국채법」제5조 제1항에 따라 
-발행하는 국채 및 대통령령으로 정하는 채권 (이하 이 조에서 “국채등 ”이라 
-한다 )에서 발생하는 소득
-2.제119조 제11호에 따른 국내원천 유가증권양도소득 중 국채등의 양도로 인하
-여 발생하는 소득
-③제1항에서 규정하는 국내원천소득이 국외에서 지급되는 경우에 그 지급자가 
-국내에 주소 ,거소 ,본점 ,주사무소 또는 국내사업장 (「법인세법」제94조에 규
-정된 국내사업장을 포함한다 )을 둔 경우에는 그 지급자가 해당 국내원천소득을 
-국내에서 지급하는 것으로 보고 제1항을 적용한다 .&lt;개정 2010. 12.27.&gt;
-④국내사업장이 없는 비거주자에게 외국차관자금으로 제119조 제1호ㆍ제 5호ㆍ
-제6호 및 제10호의 국내원천소득을 지급하는 자는 해당 계약조건에 따라 그 소
-득을 자기가 직접 지급하지 아니하는 경우에도 그 계약상의 지급 조건에 따라 
-그 소득이 지급될 때마다 제1항에 따른 원천징수를 하여야 한다 .&lt;개정 2010.
-12.27., 2013. 1.1.&gt;
-&lt;이하 생략 &gt;
-제156조의 3(비거주자의 채권등에 대한 원천징수의 특례 )제156조 제1항을 적용
-받는 비거주자에게 채권등의 이자등을 지급하는 자 또는 해당 비거주자로부터 
-채권등을 매수 (증여·변제 및 출자 등으로 채권등의 소유권 또는 이자소득의 수</t>
-  </si>
-  <si>
-    <t>제156조의 3에 따르면 비거주자의 채권등에 대한 원천징수는 어떤 경우에 적용되지 않습니까?</t>
-  </si>
-  <si>
-    <t>환매조건부채권매매거래 등 대통령령으로 정하는 경우</t>
-  </si>
-  <si>
-    <t>제6호 및 제10호의 국내원천소득을 지급하는 자는 해당 계약조건에 따라 그 소
-득을 자기가 직접 지급하지 아니하는 경우에도 그 계약상의 지급 조건에 따라 
-그 소득이 지급될 때마다 제1항에 따른 원천징수를 하여야 한다 .&lt;개정 2010.
-12.27., 2013. 1.1.&gt;
-&lt;이하 생략 &gt;
-제156조의 3(비거주자의 채권등에 대한 원천징수의 특례 )제156조 제1항을 적용
-받는 비거주자에게 채권등의 이자등을 지급하는 자 또는 해당 비거주자로부터 
-채권등을 매수 (증여·변제 및 출자 등으로 채권등의 소유권 또는 이자소득의 수
-급권의 변동이 있는 경우와 매도를 위탁받거나 중개·알선하는 경우를 포함하되 ,
-환매조건부채권매매거래 등 대통령령으로 정하는 경우는 제외한다 )하는 자는 그 
-비거주자의 보유기간을 고려하여 대통령령으로 정하는 바에 따라 원천징수를 
-하여야 한다 .&lt;개정 2013.1.1.&gt;
-[전문개정 2009.12.31.]
-제156조의 4(특정지역 비거주자에 대한 원천징수 절차 특례 )①제156조,제156
-조의 3및 제156조의 6에 따른 원천징수의무자는 기획재정부장관이 고시하는 국
-가 또는 지역에 소재하는 비거주자의 국내원천소득 중 제119조제 1호,제2호,같
-은 조 제9호나목 ,같은 조 제10호 또는 제11호에 따른 소득에 대하여 소득세로
-서 원천징수하는 경우에는 제156조의 2및 조세조약에 따른 비과세ㆍ면제 또는 
-제한세율에 관한 규정에도 불구하고 제156조 제1항 각 호에 따른 세율을 우선 - 353 -적용하여 원천징수하여야 한다 .다만 ,대통령령으로 정하는 바에 따라 조세조약
-에 따른 비과세ㆍ면제 또는 제한세율에 관한 규정을 적용받을 수 있음을 국세
-청장이 사전 승인하는 경우에는 그러하지 아니하다 .&lt;개정 2012. 1.1.&gt;
-②제1항에서 규정한 국내원천소득을 실질적으로 귀속받는 자(그 대리인 또는 
-「국세기본법」제82조에 따른 납세관리인을 포함한다 )가 그 소득에 대하여 조
-세조약에 따른 비과세ㆍ면제 또는 제한세율에 관한 규정을 적용받으려는 경우
-에는 제1항에 따라 세액이 원천징수된 날이 속하는 달의 말일부터 5년 이내에 
-대통령령으로 정하는 바에 따라 원천징수의무자의 납세지 관할 세무서장에게 
-경정을 청구할 수 있다 .다만 ,「국세기본법」제45조의 2제2항 각 호의 어느 
-하나에 해당하는 사유가 발생하였을 때에는 본문에도 불구하고 그 사유가 발생
-한 것을 안 날부터 3개월 이내에 경정을 청구할 수 있다 .&lt;개정 2016. 12.20.,
-2019. 12.31.&gt;
-③제2항에 따른 경정의 청구를 받은 세무서장은 그 청구를 받은 날부터 6개월 
-이내에 과세표준과 세액을 경정하거나 경정하여야 할 이유가 없다는 뜻을 그 
-청구를 한 자에게 알려야 한다 .
-[전문개정 2009. 12.31.]
-[제목개정 2018. 12.31.]
-제156조의 8(이자·배당 및 사용료에 대한 세율의 적용 특례 )①조세조약의 규정
-상 비거주자의 국내원천소득 중 이자 ,배당 또는 사용료소득에 대해서는 제한세
-율과 다음 각 호의 어느 하나에 규정된 세율 중 낮은 세율을 적용한다 .
-1.조세조약의 대상 조세에 지방소득세가 포함되지 아니하는 경우에는 제156조 
-제1항 제 1호,제2호 및 제6호에서 규정하는 세율
-2.조세조약의 대상 조세에 지방소득세가 포함되는 경우에는 제156조 제1항 제1
-호,제2호 및 제6호에서 규정하는 세율에「지방세법」제103조의 18제1항의 
-원천징수하는 소득세의 100분의 10을 반영한 세율
-②제1항에도 불구하고 제156조의 4제1항에 해당하는 경우에는 제156조의 4제1
-항에 따라 원천징수한다 .이 경우 제156조의 4제3항에 따라 과세표준과 세액을 
-경정하는 경우에는 제한세율과 제1항 각 호의 어느 하나에 규정된 세율 중 낮
-은 세율을 적용한다 .
-[본조신설 2020. 12.29.]
-제164조(지급명세서의 제출 )①제2조에 따라 소득세 납세의무가 있는 개인에게 
-다음 각 호의 어느 하나에 해당하는 소득을 국내에서 지급하는 자(법인 ,제127조 - 354 -제5항에 따라 소득의 지급을 대리하거나 그 지급 권한을 위임 또는 위탁받은 자 
-및 제150조에 따른 납세조합 ,제7조 또는「법인세법」제9조에 따라 원천징수세액
-의 납세지를 본점 또는 주사무소의 소재지로 하는 자와「부가가치세법」제8조 
-제3항 후단에 따른 사업자 단위 과세 사업자를 포함한다 )는 대통령령으로 정하
-는 바에 따라 지급명세서를 그 지급일 (제131조,제135조,제144조의 5또는 제147
-조를 적용받는 소득에 대해서는 해당 소득에 대한 과세기간 종료일을 말한다 .이
-하 이 항에서 같다 )이 속하는 과세기간의 다음 연도 2월 말일 (제3호에 따른 사업
-소득과 제 4호에 따른 근로소득 또는 퇴직소득 ,제6호에 따른 기타소득 중 종교인
-소득 및 제7호에 따른 봉사료의 경우에는 다음 연도 3월 10일,휴업 ,폐업 또는 
-해산한 경우에는 휴업일 ,폐업일 또는 해산일이 속하는 달의 다음다음 달 말일 )
-까지 원천징수 관할 세무서장 ,지방국세청장 또는 국세청장에게 제출하여야 한
-다.다만 ,제4호의 근로소득 중 대통령령으로 정하는 일용근로자의 근로소득의 
-경우에는 그 지급일이 속하는 분기의 마지막 달의 다음 달 말일 (휴업 ,폐업 또는 
-해산한 경우에는 휴업일 ,폐업일 또는 해산일이 속하는 분기의 마지막 달의 다음 
-달 말일 )까지 지급명세서를 제출하여야 한다 .&lt;개정 2010.12.27., 2013.1.1.,
-2013.6.7., 2015.12.15., 2018.12.31., 2019.12.31.&gt;
-1.이자소득
-2.~8.&lt;생략 &gt;
-②제1항 각 호의 소득 중 대통령령으로 정하는 소득에 대해서는 제1항을 적용
-하지 아니할 수 있다 .
-③제1항에 따라 지급명세서를 제출하여야 하는 자는 지급명세서의 기재 사항
-을 「국세기본법」제2조제 18호에 따른 정보통신망에 의하여 제출하거나 디스
-켓 등 전자적 정보저장매체로 제출하여야 한다 .이 경우 제1항 각 호의 소득 중 
-대통령령으로 정하는 소득을 지급하는 자는 「조세특례제한법」제126조의 3에 
-따른 현금영수증 발급장치 등 대통령령으로 정하는 방법을 통하여 제출할 수 있다 .</t>
-  </si>
-  <si>
-    <t>제164조의 2에 따르면 비거주자의 국내원천소득에 대한 지급명세서를 제출해야 하는 기한은 언제인가요?</t>
-  </si>
-  <si>
-    <t>그 지급일이 속하는 과세기간의 다음 연도 2월 말일</t>
-  </si>
-  <si>
-    <t>1.이자소득
-2.~8.&lt;생략 &gt;
-②제1항 각 호의 소득 중 대통령령으로 정하는 소득에 대해서는 제1항을 적용
-하지 아니할 수 있다 .
-③제1항에 따라 지급명세서를 제출하여야 하는 자는 지급명세서의 기재 사항
-을 「국세기본법」제2조제 18호에 따른 정보통신망에 의하여 제출하거나 디스
-켓 등 전자적 정보저장매체로 제출하여야 한다 .이 경우 제1항 각 호의 소득 중 
-대통령령으로 정하는 소득을 지급하는 자는 「조세특례제한법」제126조의 3에 
-따른 현금영수증 발급장치 등 대통령령으로 정하는 방법을 통하여 제출할 수 있다 .
-④국세청장은 제 3항에도 불구하고 대통령령으로 정하는 바에 따라 일정 업종 또는 
-일정 규모 이하에 해당되는 자에게는 지급명세서를 문서로 제출하게 할 수 있다.
-&lt;이하 생략 &gt;
-[전문개정 2009. 12.31.]
-제164조의 2(비거주자의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
-제119조에 따른 국내원천소득을 비거주자에게 지급하는 자(「자본시장과 금융투- 355 -자업에 관한 법률」에 따라 주식을 상장하는 경우로서 상장 전 이미 발행된 주
-식을 양도하는 경우에는 그 주식을 발행한 법인을 말한다 )는 지급명세서를 납세
-지 관할 세무서장에게 그 지급일이 속하는 과세기간의 다음 연도 2월 말일 (제
-119조 제7호 또는 제8호에 따른 소득의 경우에는 다음 연도 3월 10일,휴업 또
-는 폐업한 경우에는 휴업일 또는 폐업일이 속하는 달의 다음다음 달 말일 )까지 
-이를 제출하여야 한다 .다만 ,제156조의 2에 따라 비과세ㆍ면제대상임이 확인되
-는 소득 등 대통령령으로 정하는 소득을 지급하는 경우에는 그러하지 아니한다 .
-&lt;개정 2013. 1.1.,2020. 12.29.&gt;
-②제1항에 따른 지급명세서의 제출에 관하여는 제 164조를 준용한다 .
-[전문개정 2009. 12.31.]- 356 - 3.소득세법 시행령
-제22조의 2(국채 등의 이자소득 )①국가가 발행한 채권이 원금과 이자가 분리되는 
-경우에는 원금에 해당하는 채권 및 이자에 해당하는 채권의 할인액은 이를 법 제
-16조제 1항제 1호의 규정에 따른 채권의 할인액으로 본다 .
-②다음 각 호의 채권을 공개시장에서 통합발행 (일정 기간 동안 추가하여 발행할 
-채권의 표면금리와 만기 등 발행조건을 통일하여 발행하는 것을 말한다 )하는 경
-우 해당 채권의 매각가액과 액면가액과의 차액은 법 제 16조 제 1항 제 1호 또는 제
-2호에 따른 이자 및 할인액에 포함되지 아니하는 것으로 한다 .&lt;개정 2008.2.22.,
-2010.2.18., 2014.12.30.&gt;
-1.국채
-2.「한국산업은행법」제23조에 따른 산업금융채권
-3.「예금자보호법」제26조의 2및 동법 제26조의 3의 규정에 따른 예금보험기금
-채권과 예금보험기금채권상환기금채권
-4.「한국은행법」제69조에 따른 한국은행통화안정증권
-③국가가 발행한 채권으로서 그 원금이 물가에 연동되는 채권 (이하 "물가연동국
-고채 "라 한다 )의 경우 해당 채권의 원금증가분은 법 제16조제 1항제 1호에 따른 이
-자 및 할인액에 포함된다 .&lt;신설 2007.2.28., 2013.2.15., 2016.2.17.&gt;
-[전문개정 2006.2.9.]
-제45조(이자소득의 수입시기 )이자소득의 수입시기는 다음 각 호에 따른 날로 한
-다.&lt;개정 1995.12.30., 1996.12.31., 1997.12.31., 1998.12.31., 2001.12.31., 2003.12.30.,
-2005.2.19., 2007.2.28., 2009.2.4., 2010.2.18., 2012.2.2., 2013.2.15., 2015.2.3.&gt;
-1.법 제16조 제1항 제 12호 및 제13호에 따른 이자와 할인액 
-약정에 따른 상환일 .다만 ,기일 전에 상환하는 때에는 그 상환일
-2.법 제46조 제1항의 규정에 의한 채권등으로서 무기명인 것의 이자와 할인액 
-그 지급을 받은 날
-3.법 제46조 제1항의 규정에 의한 채권등으로서 기명인 것의 이자와 할인액 
-약정에 의한 지급일
-4.~9의 2.&lt;생략 &gt;
-10.제193조의 2에 따른 채권 등의 보유기간이자등상당액 해당 채권 등의 매도일 
-또는 이자 등의 지급일- 357 -11.제1호 내지 제10호의 이자소득이 발생하는 상속재산이 상속되거나 증여되는 
-경우 상속개시일 또는 증여일
-제102조(채권등의 범위등 )①법 제46조제 1항에서 "대통령령으로 정하는 것"이란 
-이자 또는 할인액을 발생시키는 증권 (다음 각 호의 증권을 포함하는 것으로 하
-되,법률에 따라 소득세가 면제된 채권등은 제외한다 )을 말한다 .&lt;개정 
-1996.12.31., 1998.4.1., 1999.12.31., 2003.12.30., 2005.2.19., 2007.2.28., 2008.2.29.,
-2009.2.4., 2009.12.31., 2010.2.18., 2010.12.30.&gt;
-&lt;각호 생략 &gt;
-②&lt;생략 &gt;
-③법 제46조 제1항에 따른 이자 등 상당액은 제193조의 2제3항의 보유기간이
-자등상당액 중 해당 거주자에게 그 보유기간별로 귀속되는 이자등 상당액을 말
-한다 .&lt;개정 2010.2.18., 2010.12.30.&gt;
-④법 제46조 제1항에서 "환매조건부채권매매거래 등 대통령령으로 정하는 경
-우"란 다음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말한다 .
-&lt;신설 2010.6.8., 2016.2.17.&gt;
-1.거주자가 일정기간 후에 일정가격으로 환매수할 것을 조건으로 하여 채권등
-을 매도하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래에 해
-당하는 사실이 「자본시장과 금융투자업에 관한 법률 」제294조에 따른 한국
-예탁결제원의 계좌를 통하여 확인되는 경우
-2.거주자가 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 
-채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래
-에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관한 
-법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중개업
-자를 말한다 .이하 같다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한
-다)을 통하여 확인되는 경우</t>
-  </si>
-  <si>
-    <t>당하는 사실이 「자본시장과 금융투자업에 관한 법률 」제294조에 따른 한국
-예탁결제원의 계좌를 통하여 확인되는 경우
-2.거주자가 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 
-채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래
-에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관한 
-법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중개업
-자를 말한다 .이하 같다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한
-다)을 통하여 확인되는 경우
-⑤제4항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
-반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득에 상당하
-는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우나 제4항 각 호의 거
-래가 혼합되는 경우에는 최초 매도자 또는 최초 대여자를 말한다 )에게 귀속되는 
-것으로 보아 법 제46조 및 제133조의2를 적용한다 .&lt;신설 2010.6.8., 2012.2.2., 2016.2.17.&gt;- 358 -⑥~⑦&lt;생략 &gt;
-⑧법 제46조 제2항에 따른 보유기간 입증방법은 다음 각 호의 방법에 따른다 .
-&lt;개정 1998.4.1, 2000.12.29, 2005.2.19, 2008.2.29, 2010.2.18&gt;
-1.채권 등을 금융회사 등에 개설된 계좌에 의하여 거래하는 경우
-해당 금융회사 등의 전산처리체계 또는 통장원장으로 확인하는 방법
-2.제1호외의 경우
-법인으로부터 채권 등을 매수한 때에는 당해 법인이 발급하는 기획재정부령
-이 정하는 채권 등 매출확인서에 의하며 ,개인으로부터 채권 등을 매수한 경
-우에는「공증인법」의 규정에 의한 공증인이 작성한 공정증서 (거래당사자의 
-성명·주소·주민등록번호·매매일자·채권 등의 종류와 발행번호·액면금액을 기재
-한 것에 한한다 )에 의하여 확인하는 방법
-⑨ &lt;생략 &gt;
-⑩법 제46조 및 제133조의 2를 적용할 때 금융회사 등의 승낙을 받아 채권 등
-을 매도하는 경우에는 해당 금융회사 등이 매도를 중개한 것으로 본다 .&lt;개정 
-2010.2.18&gt;
-&lt;이하 생략 &gt;
-제185조(원천징수세액의 납부 )①법 제127조의 규정에 의한 원천징수의무자는 
-원천징수한 소득세를 법 제128조의 규정에 의한 기한내에「국세징수법」에 의
-한 납부서와 함께 원천징수 관할세무서·한국은행 또는 체신관서에 납부하여야 
-하며 ,기획재정부령이 정하는 원천징수이행상황신고서를 원천징수 관할세무서장
-에게 제출 (국세정보통신망에 의한 제출을 포함한다 )하여야 한다 .&lt;개정 
-1996.12.31, 1997.12.31, 1998.4.1, 2004.3.17, 2005.2.19, 2008.2.29&gt;
-②제1항의 원천징수이행상황신고서에는 원천징수하여 납부할 세액이 없는 자
-에 대한 것도 포함하여야 한다 .&lt;개정 1996.12.31, 1997.12.31.&gt;
-제193조(원천징수영수증의 교부 )①~② &lt;생략 &gt;
-③법 제133조 제1항 단서에서 “대통령령으로 정하는 바에 따라 통지하는 경
-우”란 다음 각 호의 어느 하나에 해당하는 경우를 말한다 .이 경우 지급받은 이
-자소득 및 배당소득의 연간합계액과 원천징수세액명세 및 원천징수의무자의 사
-업자등록번호와 그 상호 또는 법인명 (이하 이 조에서 “사업자등록번호등 ”이라 한다)- 359 -을 기재하거나 통보하는 때에도 원천징수영수증을 발급한 것으로 본다.&lt;개정 1995.
-12.30.,1997. 12.31.,1998. 12.31.,1999. 12.31.,2010. 2.18.,2021. 1.5.&gt;
-1.금융회사 등이 이자소득이나 배당소득을 받은 자의 통장 또는 금융거래명세
-서에 그 지급내용과 원천징수의무자의 사업자등록번호 등을 기재하여 통보하
-는 경우
-2.금융회사 등이 이자소득이나 배당소득을 받는 자로부터 신청을 받아 그 지급
-내용과 원천징수의무자의 사업자등록번호 등을 우편 ,전자계산조직을 이용한 
-정보통신 또는 팩스로 통보하여 주는 경우
-④법 제133조 제2항 본문에서 "대통령령으로 정하는 금액 이하인 경우 "란 계좌
-별로 1년간 발생한 이자소득 또는 배당소득금액이 1백만원 이하인 경우를 말한
-다.&lt;개정 2000.12.29, 2010.2.18.&gt;
-제207조(비거주자에 대한 원천징수세액의 납부 )①법 제156조의 규정에 의하여 
-징수한 원천징수세액의 납부에 관하여는 제185조의 규정을 준용한다 .다만 ,원
-천징수의무자가 국내에 주소·거소·본점·주사무소 또는 국내사업장 (외국법인의 
-국내사업장을 포함한다 )이 없는 경우에는 「국세기본법」제82조의 규정에 의
-한 납세관리인을 정하여 관할세무서장에게 신고하여야 한다 .&lt;개정 2002.12.30.,
-2005.2.19., 2013.2.15.&gt;
-②법 제156조 제1항 제4호 단서에서 “국외에서 제공하는 인적용역 중 대통령
-령으로 정하는 용역 ”이란 국외에서 제공하는 제179조 제6항 제2호에 해당하는 
-용역을 말한다 .&lt;신설 2017. 2.3.,2019. 2.12.&gt;
-③법 제156조 제1항 제5호에 따라 원천징수하는 금액을 계산할 때 양도자가 
-법 제121조 제2항에 따라 소득세를 신고ㆍ납부한 후 양수자가 법 제156조 제1
-항에 따라 원천징수하는 경우에는 해당 양도자가 신고ㆍ납부한 세액을 뺀 금액
-으로 한다 .&lt;신설 2009. 2.4.,2010. 2.18., 2017. 2.3.,2019. 2.12.&gt;
-④법 제156조 제13항에서 “대통령령으로 정하는 시기 ”란 다음 각 호의 어느 
-하나에 해당하는 날을 말한다 .&lt;신설 2003. 12.30., 2005. 2.19., 2009. 2.4.,
-2010. 2.18., 2012. 2.2.,2017. 2.3.&gt;
-1.「법인세법 시행령」제88조 제1항 제8호 가목 및 같은 항 제8호의 2(합병ㆍ분
-할의 경우로 한정한다 )의 경우 :법인이 합병으로 인하여 소멸한 경우에는 
-그 합병등기를 한 날,법인이 분할 또는 분할합병으로 인하여 소멸 또는 존
-속하는 경우에는 그 분할등기 또는 분할합병등기를 한 날- 360 -2.&lt;생략 &gt;
-⑤주식 또는 출자지분을 발행한 내국법인은 법 제119조 제12호 자목에 따른</t>
-  </si>
-  <si>
-    <t>법인이 합병으로 인하여 소멸한 경우, 합병등기를 한 날은 언제인가요?</t>
-  </si>
-  <si>
-    <t>합병등기를 한 날</t>
-  </si>
-  <si>
-    <t>2010. 2.18., 2012. 2.2.,2017. 2.3.&gt;
-1.「법인세법 시행령」제88조 제1항 제8호 가목 및 같은 항 제8호의 2(합병ㆍ분
-할의 경우로 한정한다 )의 경우 :법인이 합병으로 인하여 소멸한 경우에는 
-그 합병등기를 한 날,법인이 분할 또는 분할합병으로 인하여 소멸 또는 존
-속하는 경우에는 그 분할등기 또는 분할합병등기를 한 날- 360 -2.&lt;생략 &gt;
-⑤주식 또는 출자지분을 발행한 내국법인은 법 제119조 제12호 자목에 따른 
-국내원천 기타소득을 제4항에 따른 시기에 원천징수하여야 한다 .&lt;개정 2010.
-2.18., 2012. 2.2.,2017. 2.3.,2019. 2.12.&gt;
-⑥법 제 156조 제15항에서 “대통령령으로 정하는 바에 따라 그 소득에 대한 소득
-세를 미리 납부하였거나 그 소득이 비과세 또는 과세미달되는 것임을 증명하는 
-경우 ”란 비거주자가 법 제6조 제2항에 따른 납세지 관할 세무서장에게 기획재정
-부령이 정하는 양도소득세 신고납부 (비과세 또는 과세미달 )확인 신청서에 당해 
-부동산에 대한 등기부등본ㆍ매매계약서를 첨부하여 신청하고 ,그 확인을 받아 이
-를 원천징수의무자에게 제출하는 경우를 말한다 .&lt;신설 2006. 2.9.,2008. 2.22.,
-2008. 2.29.,2009. 2.4.,2010. 2.18., 2012. 2.2.,2017. 2.3.&gt;
-제207조의 3(비거주자의 채권등의 이자등에 대한 원천징수특례 )①법 제156조 
-제1항을 적용받는 비거주자에 대하여 채권등의 이자등을 지급하는 자 또는 채
-권등의 이자등을 지급받기 전에 비거주자로부터 채권등을 매수하는 자는 그 이
-자등의 지급금액에 대하여 법·「조세특례제한법」또는 조세조약에 따른 세율
-(이하 이 조에서 "적용세율 "이라 한다 )을 적용하는 경우에 그 지급금액에 다음 
-각 호의 세율을 적용하여 계산한 금액을 원천징수하여야 한다 .이 경우 제1호에 
-따른 적용세율이 법 제129조 제1항 제1호에 따른 세율보다 높은 경우로서 당해 
-비거주자가 채권등의 보유기간을 입증하지 못하는 경우에는 지급금액 전액을 
-당해 비거주자의 보유기간이자등상당액으로 보며 ,제1호에 따른 적용세율이 법 
-제129조 제1항 제1호에 따른 세율보다 낮은 경우로서 당해 비거주자가 채권등
-의 보유기간을 입증하지 못하는 경우에는 당해 비거주자의 보유기간이자등상당
-액은 없는 것으로 본다 .&lt;개정 2009.2.4.&gt;
-1.지급금액 중 해당 비거주자의 보유기간이자등상당액에 대하여는 해당 비거주
-자에 대한 적용세율
-2.지급금액 중 제1호의 보유기간이자등상당액을 차감한 금액에 대하여는 법 제
-129조 제 1항 제1호에 따른 세율
-②제1항을 적용할 때 제190조는 비거주자의 채권등의 이자등에 대한 지급시기
-에 관하여 준용하고 ,제102조 및 제193조의 2는 채권등의 보유기간계산 ,보유기
-간이자등상당액의 계산방법 및 보유기간 입증방법에 관하여 준용하며 ,제207조 
-제1항은 원천징수세액납부에 관하여 준용한다 .&lt;개정 2010.2.18.&gt;- 361 -③법 제156조의 3에서 "환매조건부채권매매거래 등 대통령령으로 정하는 경우 "
-란 다음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말한다 .
-&lt;개정 2010.6.8., 2016.2.17.&gt;
-1.비거주자가 일정기간 후에 일정가격으로 환매수할 것을 조건으로 하여 채권
-등을 매도하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래에 
-해당하는 사실이 「자본시장과 금융투자업에 관한 법률」제294조에 따른 한
-국예탁결제원의 계좌를 통하여 확인되는 경우
-2.비거주자가 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으
-로 채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거
-래에 해당하는 사실이 채권대차거래중개기관이 작성한 거래 원장 (전자적 형
-태의 원장을 포함한다 )을 통하여 확인되는 경우
-④제3항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
-반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득에 상당하
-는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우나 제3항 각 호의 거
-래가 혼합되는 경우에는 최초 매도자 또는 최초 대여자를 말한다 )에게 귀속되는 
-것으로 보아 법 제46조·제133조의 2및 제156조의 3을 적용한다 .&lt;개정 2010.6.8.,
-2013.2.15., 2016.2.17.&gt;
-&lt;이하 생략 &gt;
-제213조(지급명세서 및 근로소득간이지급명세서의 제출 )①법 제164조 제1항에 
-따른 지급명세서 및 법 제164조의 3제1항에 따른 근로소득간이지급명세서는 그 
-소득을 지급받는 소득자별로 구분하되 ,그 서식은 기획재정부령으로 정한다 .
-&lt;개정 2019. 2.12.&gt; &lt;이하 생략 &gt;
-제214조(지급명세서 및 근로소득간이지급명세서 제출의 면제 등)①다음 각 호의 어
-느 하나에 해당하는 소득에 대해서는 법 제164조 제1항을 적용하지 않는다 .&lt;개정 
-2006. 2.9.,2008. 2.22.,2008. 2.29.,2010. 2.18.,2017. 12.29.,2021. 2.17.&gt;
-1.법 제12조 제5호의 규정에 따라 비과세되는 기타소득 .다만 ,제19조 제3항 제
-3호에 따른 금액 및 물품은 제외한다 .
-2.법 제21조 제1항 제2호에 해당하는 기타소득으로서 1건당 당첨금품의 가액이 
-10만원 이하인 경우
-2의2.법 제12조 제3호 가목부터 사목까지 ,카목,타목,하목,너목,러목,버목 및 저목의 소득- 362 -  2의3. 제12조 제2호부터 제4호까지 및 제 8호의 소득
-  3. 그 밖에 기획재정부령으로 정하는 소득 
-  &lt; 이하 생략 &gt;
-제216조의 2(비거주자의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
-법 제119조에 따른 국내원천소득을 비거주자에게 지급하는 자는 법 제164조의 2
-에 따라 납세지 관할세무서장에게 기획재정부령으로 정하는 지급명세서 (이하 
-이 조에서 "지급명세서 "라 한다)를 제출하여야 한다.다만,다음 각 호의 어느 하
-나에 해당하는 소득에 대하여는 그러하지 아니하다 .&lt;개정 2001.12.31., 2005.2.19.,</t>
-  </si>
-  <si>
-    <t>비거주자의 국내원천소득에 대한 지급명세서를 제출해야 하는 경우는?</t>
-  </si>
-  <si>
-    <t>법 제119조에 따른 국내원천소득을 비거주자에게 지급하는 경우</t>
-  </si>
-  <si>
-    <t>3. 그 밖에 기획재정부령으로 정하는 소득 
-  &lt; 이하 생략 &gt;
-제216조의 2(비거주자의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
-법 제119조에 따른 국내원천소득을 비거주자에게 지급하는 자는 법 제164조의 2
-에 따라 납세지 관할세무서장에게 기획재정부령으로 정하는 지급명세서 (이하 
-이 조에서 "지급명세서 "라 한다)를 제출하여야 한다.다만,다음 각 호의 어느 하
-나에 해당하는 소득에 대하여는 그러하지 아니하다 .&lt;개정 2001.12.31., 2005.2.19.,
-2006.2.9., 2008.2.29., 2009.2.4., 2010.2.18., 2013.2.15., 2014.2.21.&gt;&lt; 단서 생략 &gt;
-②&lt;생략 &gt;
-③법 제46조 또는 제156조 제6항에 따라 소득세를 원천징수하는 경우에는 해당 
-원천징수의무자가 그 지급금액에 대한 지급명세서를 제출하여야 한다 .&lt;신설 
-2001.12.31., 2009.2.4., 2012.2.2.&gt;
-④법 제119조 제1호·제2호·제11호 및 법 제156조의5의 소득에 대하여 제출하는 지급
-명세서는 따로 기획재정부령으로 정할 수 있다.&lt;개정 2008.2.22., 2008.2.29., 2010.2.18.&gt;
-⑤&lt;생략 &gt;
-⑥비거주자의 국내원천소득 등에 대한 지급명세서 제출에 관하여는 제215조 
-및 제 216조를 준용한다 .&lt;개정 2009.2.4., 2010.2.18.&gt;
-[본조신설 2000.12.29.]
-[제목개정 2008.2.22.]
-제217조(이자ㆍ배당ㆍ금융투자소득에 대한 원천징수부의 비치ㆍ기록 )①국내
-에서 이자소득 또는 배당소득을 지급하는 원천징수의무자는 기획재정부령이 정
-하는 이자ㆍ배당원천징수부를 비치ㆍ기록하여야 한다 .&lt;개정 2021. 2.17.&gt;
-②국내에서 금융투자소득을 지급하는 원천징수의무자는 기획재정부령으로 정
-하는 금융투자소득원천징수부를 비치ㆍ기록해야 한다 .&lt;신설 2021. 2.17.&gt;
-③제1항 및 제2항에 따른 원천징수부를 전산처리된 테이프 또는 디스크 등으
-로 수록ㆍ보관하여 항시 출력이 가능한 상태에 둔 때에는 원천징수부를 비치ㆍ
-기록한 것으로 본다 .&lt;신설 2021. 2.17.&gt;
-[제목개정 2021. 2.17.]
-[시행일 :2023. 1.1.]제217조제 2항- 363 -4.소득세법 시행규칙
-제97조(지급명세서제출의무의 면제 )영 제214조 제1항 제3호에서 “기획재정부령
-으로 정하는 소득 ”이란 다음 각 호의 어느 하나에 해당하는 것을 말한다 .&lt;개정 
-2009. 4.14., 2014. 3.14., 2015. 3.13., 2020. 3.13.&gt;
-1.법 제21조 제1항 제4호에 해당하는 기타소득으로서 1건당 환급금이 200만원 
-미만 (체육진흥투표권의 경우 10만원 이하 )인 경우
-2.법 제84조에 따라 소득세가 과세되지 아니하는 기타소득 .다만 ,법 제21조 제
-1항 제15호 및 제 19호에 따른 기타소득을 제외한다 .
-3.영 제184조의 2제1호의 2의 규정에 의한 안마시술소에서 제공하는 용역에 대
-한 소득으로서 안마시술소가 소득세를 원천징수하는 소득
-[적용일자 2004. 1.1.부터 ]
-[제목개정 2009. 4.14.]
-제97조의 2(비거주자의 국내원천소득등에 대한 지급명세서 제출의무면제 )영 제
-216조의 2제1항 제8호에서 "기획재정부령으로 정하는 소득 "이란 다음 각호의 소
-득을 말한다 .&lt;개정 2009.4.14.&gt;
-1.예금 등의 잔액이 30만원 미만으로서 1년 이상 거래가 없는 계좌에서 발생하
-는 이자소득 또는 배당소득
-2.계좌별로 1년간 발생한 이자소득 또는 배당소득이 3만원 미만인 경우의 당해 
-소득
-3.법 제 119조 제7호의 국내원천소득으로서 일용근로자의 소득
-[본조신설 2002.4.13.]
-[제목개정 2009.4.14.]- 364 -5.법인세법
-제3조(납세의무자 )①다음 각 호의 법인은 이 법에 따라 그 소득에 대한 법인세
-를 납부할 의무가 있다 .&lt;개정 2010. 12.30.&gt;
-1.내국법인
-2.국내원천소득 (國內源泉所得 )이 있는 외국법인
-②내국법인 중 국가와 지방자치단체 (지방자치단체조합을 포함한다 .이하 같다 )
-는 그 소득에 대한 법인세를 납부할 의무가 없다 .&lt;개정 2018. 12.24.&gt;
-③연결법인은 제76조의 14제1항에 따른 각 연결사업연도의 소득에 대한 법인
-세(각 연결법인의 제55조의 2에 따른 토지등 양도소득에 대한 법인세 및 「조세
-특례제한법」제100조의 32에 따른 투자ㆍ상생협력 촉진을 위한 과세특례를 적
-용하여 계산한 법인세를 포함한다 )를 연대하여 납부할 의무가 있다 .&lt;개정 
-2010. 12.30., 2014. 12.23., 2017. 12.19., 2018. 12.24.&gt;
-④이 법에 따라 법인세를 원천징수하는 자는 해당 법인세를 납부할 의무가 있다.
-&lt;개정 2018. 12.24.&gt;
-[제목개정 2018. 12.24.]
-[제2조에서 이동 ,종전 제 3조는 제4조로 이동 &lt;2018. 12.24.&gt;]
-제71조(징수 및 환급 )①납세지 관할 세무서장은 내국법인이 제64조에 따라 각 
-사업연도의 소득에 대한 법인세로서 납부하여야 할 세액의 전부 또는 일부를 
-납부하지 아니하면 그 미납된 법인세액을 「국세징수법」에 따라 징수하여야 
-한다 .&lt;개정 2013. 1.1.&gt;
-②납세지 관할 세무서장은 내국법인이 제63조 및 제63조의 2에 따라 납부하여
-야 할 중간예납세액의 전부 또는 일부를 납부하지 아니하면 그 미납된 중간예
-납세액을 「국세징수법」에 따라 징수하여야 한다 .다만 ,중간예납세액을 납부
-하지 아니한 법인이 제63조의 2제2항 제2호에 해당하는 경우에는 중간예납세액
-을 결정하여 「국세징수법」에 따라 징수하여야 한다 .&lt;개정 2013. 1.1.,2018.
-12.24.&gt;
-③납세지 관할 세무서장은 제73조 및 제73조의 2에 따른 원천징수의무자가 그 
-징수하여야 할 세액을 징수하지 아니하였거나 징수한 세액을 기한까지 납부하
-지 아니하면 지체 없이 원천징수의무자로부터 그 원천징수의무자가 원천징수하
-여 납부하여야 할 세액에 상당하는 금액에 「국세기본법」제47조의 5제1항에 - 365 -따른 가산세액을 더한 금액을 법인세로서 징수하여야 한다 .다만 ,원천징수의무</t>
-  </si>
-  <si>
-    <t>납세지 관할 세무서장이 원천징수의무자로부터 징수해야 하는 금액은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>원천징수의무자가 원천징수하여 납부해야 할 세액에 상당하는 금액과 가산세액</t>
-  </si>
-  <si>
-    <t>을 결정하여 「국세징수법」에 따라 징수하여야 한다 .&lt;개정 2013. 1.1.,2018.
-12.24.&gt;
-③납세지 관할 세무서장은 제73조 및 제73조의 2에 따른 원천징수의무자가 그 
-징수하여야 할 세액을 징수하지 아니하였거나 징수한 세액을 기한까지 납부하
-지 아니하면 지체 없이 원천징수의무자로부터 그 원천징수의무자가 원천징수하
-여 납부하여야 할 세액에 상당하는 금액에 「국세기본법」제47조의 5제1항에 - 365 -따른 가산세액을 더한 금액을 법인세로서 징수하여야 한다 .다만 ,원천징수의무
-자가 원천징수를 하지 아니한 경우로서 납세의무자가 그 법인세액을 이미 납부
-한 경우에는 원천징수의무자에게 그 가산세만 징수한다 .&lt;개정 2011. 12.31.,
-2018. 12.24.&gt;
-④납세지 관할 세무서장은 제63조,제63조의 2,제69조,제73조 또는 제73조의 2
-에 따라 중간예납ㆍ수시부과 또는 원천징수한 법인세액이 각 사업연도의 소득
-에 대한 법인세액 (가산세를 포함한다 )을 초과하는 경우 그 초과하는 금액은 
-「국세기본법」제51조에 따라 환급하거나 다른 국세 및 강제징수비에 충당하
-여야 한다 .&lt;개정 2018. 12.24., 2020. 12.22.&gt;
-[전문개정 2010. 12.30.]
-제73조(내국법인의 이자소득 등에 대한 원천징수 )①내국법인 (대통령령으로 정
-하는 금융회사 등의 대통령령으로 정하는 소득은 제외한다 )에 다음 각 호의 금
-액을 지급하는 자(이하 이 조에서 “원천징수의무자 ”라 한다 )는 그 지급하는 금
-액에 100분의 14(「소득세법」제16조 제1항 제11호의 비영업대금의 이익인 경
-우에는 100분의 25)의 세율을 적용하여 계산한 금액에 상당하는 법인세 (1천원 
-이상인 경우만 해당한다 )를 원천징수하여 그 징수일이 속하는 달의 다음 달 10
-일까지 납세지 관할 세무서등에 납부하여야 한다 .&lt;개정 2018. 12.24., 2019. 12.
-31.&gt;
-1.「소득세법」제16조 제1항에 따른 이자소득의 금액 (금융보험업을 하는 법인
-의 수입금액을 포함한다 )
-2.「소득세법」제17조 제1항 제5호에 따른 집합투자기구로부터의 이익 중 
-「자본시장과 금융투자업에 관한 법률」에 따른 투자신탁의 이익 (이하 “투자
-신탁의 이익 ”이라 한다 )의 금액
-②제1항에도 불구하고 법인세가 부과되지 아니하거나 면제되는 소득 등 대통
-령령으로 정하는 소득에 대해서는 법인세를 원천징수하지 아니한다 .&lt;신설 
-2018. 12.24.&gt;
-③제1항을 적용할 때 같은 항 각 호의 소득금액이 「자본시장과 금융투자업에 
-관한 법률」에 따른 투자신탁재산에 귀속되는 시점에는 해당 소득금액이 지급
-되지 아니한 것으로 보아 원천징수하지 아니한다 .&lt;개정 2010. 12.30.,2018. 12.24.&gt;
-④제1항을 적용할 때 원천징수의무자를 대리하거나 그 위임을 받은 자의 행위
-는 수권(授權) 또는 위임의 범위에서 본인 또는 위임인의 행위로 본다. &lt;개정 - 366 -2010. 12.30., 2018. 12.24.&gt;
-⑤제1항을 적용할 때 대통령령으로 정하는 금융회사 등이 내국법인 (거주자를 
-포함한다 .이하 이 항에서 같다 )이 발행한 어음이나 채무증서를 인수ㆍ매매ㆍ중
-개 또는 대리하는 경우에는 금융회사 등과 그 내국법인 간에 대리 또는 위임의 
-관계가 있는 것으로 본다 .&lt;개정 2010. 12.30., 2018. 12.24.&gt;
-⑥제1항을 적용할 때 외국법인이 발행한 채권 또는 증권에서 발생하는 제1항 
-각 호의 소득을 내국법인에 지급하는 경우에는 국내에서 그 지급을 대리하거나 
-그 지급권한을 위임받거나 위탁받은 자가 그 소득에 대한 법인세를 원천징수하
-여야 한다 .&lt;신설 2013. 1.1.,2018. 12.24.&gt;
-⑦상시 고용인원수 및 업종 등을 고려하여 대통령령으로 정하는 원천징수의무
-자는 제1항에도 불구하고 원천징수한 법인세를 대통령령으로 정하는 바에 따라 
-그 징수일이 속하는 반기 (半期 )의 마지막 달의 다음 달 10일까지 납부할 수 있
-다.&lt;개정 2010. 12.30.&gt;
-⑧제1항부터 제7항까지의 규정을 적용할 때 이자소득의 지급시기 ,법인세 원천
-징수대상소득의 범위 및 금액의 계산 ,원천징수세액의 계산 및 납부와 원천징수
-의무자의 범위 등에 관하여 필요한 사항은 대통령령으로 정한다 .&lt;개정 2010.
-12.30., 2013. 1.1.,2018. 12.24.&gt;
-[제목개정 2010. 12.30.]
-[제목개정 2018. 12.24.]
-제73조의 2(내국법인의 채권등의 보유기간 이자상당액에 대한 원천징수 )①내
-국법인이 「소득세법」제46조 제1항에 따른 채권등 또는 투자신탁의 수익증권
-(이하 “원천징수대상채권등 ”이라 한다 )을 타인에게 매도 (중개ㆍ알선과 그 밖에 
-대통령령으로 정하는 경우를 포함하되 ,환매조건부 채권매매 등 대통령령으로 
-정하는 경우는 제외한다 .이하 이 조,제74조 및 제 75조의 18에서 같다 )하는 경우 
-그 내국법인은 대통령령으로 정하는 바에 따라 계산한 해당 원천징수대상채권
-등의 보유기간에 따른 이자 ,할인액 및 투자신탁의 이익 (이하 이 조 및 제98조
-의3에서 “이자등 ”이라 한다 )의 금액에 100분의 14의 세율을 적용하여 계산한 금
-액에 상당하는 법인세 (1천원 이상인 경우만 해당한다 )를 원천징수하여 그 징수
-일이 속하는 달의 다음 달 10일까지 납세지 관할 세무서등에 납부하여야 한다 .
-이 경우 해당 내국법인을 원천징수의무자로 보아 이 법을 적용한다 .&lt;개정 
-2020. 12.22.&gt;
-②제1항에도 불구하고 법인세가 부과되지 아니하거나 면제되는 소득 등 대통- 367 -령령으로 정하는 소득에 대해서는 법인세를 원천징수하지 아니한다 .
-③제1항을 적용할 때 다음 각 호의 법인에 원천징수대상채권등을 매도하는 경
-우로서 당사자 간의 약정이 있을 때에는 그 약정에 따라 원천징수의무자를 대
-리하거나 그 위임을 받은 자의 행위는 수권 또는 위임의 범위에서 본인 또는 
-위임인의 행위로 본다 .
-1.대통령령으로 정하는 금융회사 등
-2.「자본시장과 금융투자업에 관한 법률」에 따른 집합투자업자
-④제1항을 적용할 때 「자본시장과 금융투자업에 관한 법률」에 따른 신탁재</t>
-  </si>
-  <si>
-    <t>제74조에 따르면 원천징수의무자가 납세의무자로부터 법인세를 원천징수한 경우, 무엇을 발급해야 합니까?</t>
-  </si>
-  <si>
-    <t>원천징수영수증</t>
-  </si>
-  <si>
-    <t>③제1항을 적용할 때 다음 각 호의 법인에 원천징수대상채권등을 매도하는 경
-우로서 당사자 간의 약정이 있을 때에는 그 약정에 따라 원천징수의무자를 대
-리하거나 그 위임을 받은 자의 행위는 수권 또는 위임의 범위에서 본인 또는 
-위임인의 행위로 본다 .
-1.대통령령으로 정하는 금융회사 등
-2.「자본시장과 금융투자업에 관한 법률」에 따른 집합투자업자
-④제1항을 적용할 때 「자본시장과 금융투자업에 관한 법률」에 따른 신탁재
-산에 속한 원천징수대상채권등을 매도하는 경우 같은 법에 따른 신탁업자와 다
-음 각 호의 구분에 따른 자 간에 대리 또는 위임의 관계가 있는 것으로 본다 .
-&lt;개정 2020. 12.22.&gt;
-1.제5조 제1항에 따른 신탁재산 :해당 신탁재산의 수익자
-2.제5조 제3항에 따른 신탁재산 :해당 신탁재산의 위탁자
-⑤원천징수의무의 위임ㆍ대리 및 납부에 관하여는 제73조 제4항부터 제7항까
-지의 규정을 준용한다 .
-⑥제1항부터 제4항까지의 규정을 적용할 때 원천징수대상채권등의 보유기간의 
-계산 등에 필요한 사항은 대통령령으로 정한다 .
-[본조신설 2018. 12.24.]
-제74조(원천징수영수증의 발급 )①제73조 및 제73조의 2에 따라 원천징수의무자
-가 납세의무자로부터 법인세를 원천징수한 경우에는 그 납세의무자에게 대통령
-령으로 정하는 바에 따라 원천징수영수증을 발급하여야 한다.&lt;개정 2018. 12.24.&gt;
-②제1항을 적용할 때 제73조의 2에 따라 원천징수대상채권등의 매도에 따른 이
-자상당액에 대한 원천징수의무자가 납세의무자로서 납부한 법인세액에 대하여
-는 해당 법인을 납세의무자로 본다 .&lt;개정 2018. 12.24.&gt;
-③제1항에 따른 원천징수영수증 발급에 필요한 사항은 대통령령으로 정한다 .
-[전문개정 2010. 12.30.]
-제75조의 7(지급명세서 제출 불성실 가산세 )①제120조,제120조의 2,「소득세
-법」제164조,제164조의 2에 따른 지급명세서 또는 같은 법 제164조의 3에 따른 
-근로소득간이지급명세서 (이하 이 항에서 “명세서 ”라 한다 )를 제출하여야 할 자
-가 다음 각 호의 어느 하나에 해당하는 경우에는 다음 각 호의 구분에 따른 금- 368 -액을 가산세로 해당 사업연도의 법인세액에 더하여 납부하여야 한다 .&lt;개정 
-2020. 12.22.&gt;
-1.명세서를 기한까지 제출하지 아니한 경우
-가.지급명세서의 경우:제출하지 아니한 분의 지급금액의 100분의 1(제출기한이 
-지난 후 3개월 이내에 제출하는 경우에는 지급금액의 1천분의 5로 한다)
-나.근로소득간이지급명세서의 경우 :제출하지 아니한 분의 지급금액의 1만분
-의 25(제출기한이 지난 후 3개월 이내에 제출하는 경우에는 지급금액의 
-10만분의 125로 한다 )
-2.제출된 명세서가 대통령령으로 정하는 불분명한 경우에 해당하거나 제출된 
-명세서에 기재된 지급금액이 사실과 다른 경우
-가.지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금액의 100분의 1
-나.근로소득간이지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금
-액의 1만분의 25
-②제1항에 따른 가산세는 산출세액이 없는 경우에도 적용한다 .
-③제1항을 적용할 때 법인이 합병ㆍ분할 또는 해산하는 경우 지급금액에 관하
-여 필요한 사항은 대통령령으로 정한다 .
-[본조신설 2018. 12.24.]
-제93조(외국법인의 국내원천소득 )외국법인의 국내원천소득은 다음 각 호와 같
-이 구분한다 .&lt;개정 2011. 12.31., 2015. 12.15., 2016. 12.20., 2018. 12.24.,
-2019. 12.31., 2020. 12.22.&gt;
-1.국내원천 이자소득 :다음 각 목의 어느 하나에 해당하는 소득으로서 「소득
-세법」제16조제 1항에 따른 이자소득 (같은 항 제7호의 소득은 제외한다 )과 
-그 밖의 대금의 이자 및 신탁의 이익 .다만 ,거주자 또는 내국법인의 국외사
-업장을 위하여 그 국외사업장이 직접 차용한 차입금의 이자는 제외한다 .
-가.국가 ,지방자치단체 ,거주자 ,내국법인 또는 외국법인의 국내사업장이나 
-「소득세법」제120조에 따른 비거주자의 국내사업장으로부터 지급받는 소득
-&lt;이하 생략 &gt;
-제98조(외국법인에 대한 원천징수 또는 징수의 특례 )①외국법인에 대하여 제
-93조 제1호ㆍ제 2호 및 제4호부터 제10호까지의 규정에 따른 국내원천소득으로
-서 국내사업장과 실질적으로 관련되지 아니하거나 그 국내사업장에 귀속되지 
-아니하는 소득의 금액 (국내사업장이 없는 외국법인에 지급하는 금액을 포함한- 369 -다)을 지급하는 자(제93조 제7호에 따른 국내원천 부동산등양도소득의 금액을 
-지급하는 거주자 및 비거주자는 제외한다 )는 제97조에도 불구하고 그 지급을 할 
-때에 다음 각 호의 구분에 따른 금액을 해당 법인의 각 사업연도의 소득에 대
-한 법인세로서 원천징수하여 그 원천징수한 날이 속하는 달의 다음 달 10일까
-지 대통령령으로 정하는 바에 따라 납세지 관할 세무서등에 납부하여야 한다 .
-&lt;개정 2013. 1.1.,2016. 12.20., 2018. 12.24., 2019. 12.31.&gt;
-1.제93조 제1호에 따른 국내원천 이자소득 :다음 각 목의 구분에 따른 금액
-가.국가ㆍ지방자치단체 및 내국법인이 발행하는 채권에서 발생하는 이자소득 :
-지급금액의 100분의 14
-나.가목 외의 이자소득 :지급금액의 100분의 20
-2.~8.&lt;생략 &gt;
-②외국인의 국내 투자자금의 변동성이 확대되어 외환부문의 건전성을 해치는 
-등 금융시장에 불안이 초래되고 통화정책 수행을 어렵게 하거나 어렵게 할 우
-려가 있어 긴급히 필요하다고 인정될 때에는 외국법인의 소득 중 다음 각 호의 
-소득에 대해서는 제1항의 세율을 대통령령으로 정하는 바에 따라 인하하거나 
-영의 세율로 할 수 있다 .이 경우 기획재정부장관은 인하할 세율과 그 필요성에 
-관한 내용을 국회 소관 상임위원회에 사전에 보고하여야 한다 .&lt;개정 2011. 12.
-31., 2018. 12.24.&gt;
-1.제93조 제1호에 따른 국내원천 이자소득 중 「국채법」제5조제 1항에 따라 발
-행하는 국채 및 대통령령으로 정하는 채권 (이하 이 조에서 “국채등 ”이라 한
-다)에서 발생하는 소득</t>
-  </si>
-  <si>
-    <t>소득에 대한 세율을 인하하거나 영의 세율로 할 수 있는 주체는 누구인가?</t>
-  </si>
-  <si>
-    <t>대통령령</t>
-  </si>
-  <si>
-    <t>소득에 대해서는 제1항의 세율을 대통령령으로 정하는 바에 따라 인하하거나 
-영의 세율로 할 수 있다 .이 경우 기획재정부장관은 인하할 세율과 그 필요성에 
-관한 내용을 국회 소관 상임위원회에 사전에 보고하여야 한다 .&lt;개정 2011. 12.
-31., 2018. 12.24.&gt;
-1.제93조 제1호에 따른 국내원천 이자소득 중 「국채법」제5조제 1항에 따라 발
-행하는 국채 및 대통령령으로 정하는 채권 (이하 이 조에서 “국채등 ”이라 한
-다)에서 발생하는 소득
-2.제93조 제9호에 따른 국내원천 유가증권양도소득 중 국채 등의 양도로 인하
-여 발생하는 소득
-③삭제 &lt;2011. 12.31.&gt;
-④납세지 관할 세무서장은 원천징수의무자가 제1항 및 제5항부터 제12항까지
-의 규정에 따라 외국법인의 각 사업연도의 소득에 대한 법인세로서 원천징수하
-여야 할 금액을 원천징수하지 아니하였거나 원천징수한 금액을 제1항에 따른 
-기한까지 납부하지 아니하면 지체 없이 국세징수의 예에 따라 원천징수의무자
-로부터 그 징수하는 금액에 「국세기본법」제47조의 5제1항에 따른 금액을 가
-산하여 법인세로 징수하여야 한다 .&lt;개정 2011. 12.31.&gt;
-&lt;이하 생략 &gt;
-제98조의 3(외국법인의 원천징수대상채권 등에 대한 원천징수의 특례 )①외국- 370 -법인 (제98조 제1항을 적용받는 외국법인을 말한다 .이하 이 조에서 같다 )에게 
-원천징수대상채권 등의 이자 등을 지급하는 자 또는 원천징수대상채권 등의 이
-자 등을 지급받기 전에 외국법인으로부터 원천징수대상채권 등을 매수 (중개·알
-선,그 밖에 대통령령으로 정하는 경우를 포함하되 ,환매조건부 채권매매 거래 
-등 대통령령으로 정하는 경우는 제외한다 .이하 이 조에서 같다 )하는 자는 그 
-외국법인의 보유기간을 고려하여 대통령령으로 정하는 바에 따라 원천징수하여
-야 한다 .&lt;개정 2010.12.30&gt;
-&lt;이하 생략 &gt;
-제120조(지급명세서의 제출의무 )①내국법인에 「소득세법」제127조 제1항 제1
-호 또는 제2호의 소득을 지급하는 자 (제73조 제 4항부터 제 6항까지 및 제73조의 2
-에 따라 원천징수를 하여야 하는 자를 포함한다 )는 대통령령으로 정하는 바에 
-따라 납세지 관할 세무서장에게 지급명세서를 제출하여야 한다 .이 경우 「자본
-시장과 금융투자업에 관한 법률」의 적용을 받는 법인의 신탁재산에 귀속되는 
-소득은 제5조 제4항에도 불구하고 그 법인에 소득이 지급된 것으로 보아 해당 
-소득을 지급하는 자는 지급명세서를 제출하여야 한다 .&lt;개정 2011. 12. 31.,
-2013. 1.1.,2018. 12.24., 2020. 12.22.&gt;
-②제1항에 따른 지급명세서의 제출에 관하여는 「소득세법」제164조를 준용한다 .
-[전문개정 2010. 12.30.]
-제120조의 2(외국법인의 국내원천소득 등에 대한 지급명세서 제출의무의 특례 )
-①제93조에 따른 국내원천소득을 외국법인에 지급하는 자(「자본시장과 금융투
-자업에 관한 법률」에 따라 주식을 상장하는 경우로서 상장 전 이미 발행된 주
-식을 양도하는 경우에는 그 주식을 발행한 법인을 말한다 )는 지급명세서를 납세
-지 관할 세무서장에게 그 지급일이 속하는 연도의 다음 연도 2월 말일 (휴업하거
-나 폐업한 경우에는 휴업일 또는 폐업일이 속하는 달의 다음다음 달 말일 )까지 
-제출하여야 한다 .다만 ,제98조의 4에 따라 비과세 또는 면제대상임이 확인되는 
-소득 등 대통령령으로 정하는 소득을 지급하는 경우에는 그러하지 아니하다 .
-&lt;개정 2020. 12.22.&gt;
-②제1항에 따른 지급명세서의 제출에 관하여는 「소득세법」제164조를 준용한다 .
-[전문개정 2010. 12.30.]- 371 -6.법인세법 시행령
-제7조(납세지의 범위 ))①~③&lt;생략 &gt;
-④법 제9조 제3항에서 “대통령령으로 정하는 장소 ”란 국내원천소득이 발생하
-는 장소중 당해 외국법인이 납세지로 신고하는 장소를 말한다 .이 경우 그 신고
-는 2이상의 국내원천소득이 발생하게 된 날부터 1월 이내에 기획재정부령이 
-정하는 납세지신고서에 의하여 납세지 관할세무서장에게 하여야 한다 .&lt;개정 
-2008. 2.29., 2011. 6.3.&gt;
-⑤건설업 등을 영위하는 외국법인의 국내사업장이 영해에 소재하는 이유 등으
-로 국내사업장을 납세지로 하는 것이 곤란한 경우에는 국내의 등기부상 소재지
-를 납세지로 한다 .다만 ,등기부상 소재지가 없으면 국내에서 그 사업에 관한 
-업무를 총괄하는 장소를 납세지로 한다 .&lt;신설 2009. 2.4.&gt;
-⑥법 제9조 제4항 본문에서 “대통령령으로 정하는 해당 원천징수의무자의 소
-재지 ”란 다음 각 호의 구분에 따른 장소를 말한다 .&lt;신설 2019. 2.12.&gt;
-1.원천징수의무자가 개인인 경우 :「소득세법」제7조 제1항 제1호 및 제2호에 
-따른 소재지
-2.원천징수의무자가 법인인 경우 :다음 각 목의 장소
-가.해당 법인의 본점ㆍ주사무소 또는 국내에 본점이나 주사무소가 소재하지 
-않는 경우에는 사업의 실질적 관리장소 (이하 “본점등 ”이라 한다 )의 소재
-지(법인으로 보는 단체의 경우에는 제1항에 따른 소재지로 ,외국법인의 
-경우에는 해당 법인의 주된 국내사업장의 소재지로 한다 )
-나.가목에도 불구하고 법인의 지점ㆍ영업소 또는 그 밖의 사업장이 독립채산
-제에 의해 독자적으로 회계사무를 처리하는 경우에는 그 사업장의 소재지
-(그 사업장의 소재지가 국외에 있는 경우는 제외한다 ).다만 ,법인이 지점
-ㆍ영업소 또는 그 밖의 사업장에서 지급하는 소득에 대한 원천징수세액을 
-본점등에서 전자계산조직 등에 의해 일괄계산하는 경우로서 본점등의 관
-할 세무서장에게 신고하거나 「부가가치세법」제8조 제3항 및 제4항에 
-따라 사업자단위로 관할 세무서장에게 등록한 경우에는 해당 법인의 본점
-등의 소재지로 한다 .
-⑦법 제9조 제4항 단서에서 “대통령령으로 정하는 장소 ”란 다음 각 호의 구분
-에 따른 장소를 말한다 .&lt;신설 2019. 2.12.&gt;
-1.법 제93조 제7호 나목에 따른 국내원천 부동산등양도소득 및 이 영 제132조 - 372 -제8항 각 호의 어느 하나에 해당하는 소득이 있는 경우 :해당 유가증권을 발</t>
-  </si>
-  <si>
-    <t>할 세무서장에게 신고하거나 「부가가치세법」제8조 제3항 및 제4항에 
-따라 사업자단위로 관할 세무서장에게 등록한 경우에는 해당 법인의 본점
-등의 소재지로 한다 .
-⑦법 제9조 제4항 단서에서 “대통령령으로 정하는 장소 ”란 다음 각 호의 구분
-에 따른 장소를 말한다 .&lt;신설 2019. 2.12.&gt;
-1.법 제93조 제7호 나목에 따른 국내원천 부동산등양도소득 및 이 영 제132조 - 372 -제8항 각 호의 어느 하나에 해당하는 소득이 있는 경우 :해당 유가증권을 발
-행한 내국법인 또는 외국법인의 국내사업장의 소재지
-2.제1호 외의 경우 :국세청장이 지정하는 장소
-⑧제6항 제2호 나목 단서에 따라 일괄계산하여 신고하는 절차에 관하여 필요
-한 사항은 기획재정부령으로 정한다 .&lt;신설 2019. 2.12.&gt;
-[제6조에서 이동 &lt;2019. 2.12.&gt; ]
-제111조(내국법인의 이자소득 등에 대한 원천징수 )①법 제73조 제1항 각 호 
-외의 부분에서 “대통령령으로 정하는 금융회사 등의 대통령령으로 정하는 소
-득”이란 다음 각 호의 법인에 지급하는 소득을 말하며 ,법 제73조의 2제1항 전단
-에 따른 원천징수대상채권등 (「주식ㆍ사채 등의 전자등록에 관한 법률」제59조 
-각 호 외의 부분 전단에 따른 단기사채등 중 같은 법 제2조 제1호 나목에 해당
-하는 것으로서 만기 1개월 이내의 것은 제외한다 )의 이자등 (법 제73조의 2제1항 
-전단에 따른 이자등을 말한다 .이하 이 조,제113조 및 제138조의 3에서 같다 )을 
-「자본시장과 금융투자업에 관한 법률」에 따른 투자회사 및 제16호의 자본확
-충목적회사가 아닌 법인에 지급하는 경우는 제외한다 .&lt;개정 2002. 12. 30.,
-2003. 12.30., 2005. 2.19., 2005. 12.30., 2008. 2.22., 2008. 2.29., 2009. 2.4.,
-2009. 6.8.,2009. 12.31., 2010. 2.18., 2015. 10.23., 2019. 2.12., 2019. 7.1.,
-2020. 2.11., 2021. 2.17.&gt;
-1.제61조 제2항 제 1호부터 제 28호까지의 법인
-2.「한국은행법」에 의한 한국은행
-3.「자본시장과 금융투자업에 관한 법률」에 따른 집합투자업자
-4.「자본시장과 금융투자업에 관한 법률」에 따른 투자회사 ,투자목적회사 ,투
-자유한회사 및 투자합자회사 (같은 법 제9조 제19항 제1호에 따른 경영참여형 
-사모집합투자기구는 제외한다 )
-5.「농업협동조합법」에 의한 조합
-6.「수산업협동조합법 」에 따른 조합
-7.「산림조합법」에 따른 조합
-8.「신용협동조합법」에 따른 조합 및 신용협동조합중앙회
-9.「새마을금고법」에 따른 금고
-10.「자본시장과 금융투자업에 관한 법률」에 따른 증권금융회사
-11.거래소 (위약손해공동기금으로 한정한다 )- 373 -12.「자본시장과 금융투자업에 관한 법률」에 따른 한국예탁결제원
-13.「한국투자공사법」에 따른 한국투자공사
-14.「국가재정법」의 적용을 받는 기금 (법인 또는 법인으로 보는 단체에 한정
-한다 )
-15.법률에 따라 자금대부사업을 주된 목적으로 하는 법인 또는 기금 (다른 사업
-과 구분 경리되는 것에 한정한다 )
-16.「조세특례제한법」제104조의 3제1항에 따른 자본확충목적회사
-17.그 밖에 기획재정부령으로 정하는 금융보험업을 영위하는 법인
-②법 제73조 제2항에서 “법인세가 부과되지 아니하거나 면제되는 소득 등 대
-통령령으로 정하는 소득 ”이란 다음 각 호의 소득을 말한다 .&lt;개정 1999. 12.31.,
-2000. 3.28., 2000. 12.29., 2001. 12.31., 2003. 11.29., 2003. 12.30., 2005. 2.
-19., 2007. 2.28., 2008. 2.22., 2008. 2.29., 2009. 2.4.,2009. 9.21., 2009. 12.
-31., 2015. 6.30., 2019. 2.12., 2019. 6.25.&gt;
-1.법인세가 부과되지 아니하거나 면제되는 소득
-2.삭제 &lt;2009. 2.4.&gt;
-3.신고한 과세표준에 이미 산입된 미지급 소득
-4.법령 또는 정관에 의하여 비영리법인이 회원 또는 조합원에게 대부한 융자금
-과 비영리법인이 당해 비영리법인의 연합회 또는 중앙회에 예탁한 예탁금에 
-대한 이자수입
-5.법률에 따라 설립된 기금을 관리ㆍ운용하는 법인으로서 기획재정부령으로 정
-하는 법인 (이하 이 호에서 “기금운용법인 ”이라 한다 )과 법률에 따라 공제사
-업을 영위하는 법인으로서 기획재정부령으로 정하는 법인 중 건강보험ㆍ연금
-관리 및 공제사업을 영위하는 비영리내국법인 (기금운용법인의 경우에는 해당 
-기금사업에 한정한다 )이 「국채법」에 따라 등록하거나 「주식ㆍ사채 등의 
-전자등록에 관한 법률」에 따라 전자등록한 다음 각 목의 국공채 등을 발행
-일부터 이자지급일 또는 상환일까지 계속하여 등록ㆍ보유함으로써 발생한 이
-자 및 할인액
-가.국가 또는 지방자치단체가 발행한 채권 또는 증권
-나.「한국은행 통화안정증권법 」에 의하여 한국은행이 발행한 통화안정증권
-다.기획재정부령이 정하는 채권 또는 증권
-&lt;이하 생략 &gt;- 374 -제113조(내국법인의 채권등 보유기간 이자상당액에 대한 원천징수 )①법 제73
-조 및 제73조의 2를 적용할 때 채권등의 이자등 (채권등의 이자등을 지급받기 전
-에 매도하는 경우에는 채권등을 매도하는 경우의 이자등을 말한다 )에 대한 원천
-징수대상소득은 내국법인이 채권등 (「자본시장과 금융투자업에 관한 법률」에 
-따른 신탁업자가 운용하는 신탁재산에 귀속되는 채권등을 포함한다 )을 취득하여 
-보유한 기간에 발생한 소득으로 한다 .&lt;개정 2005. 2.19., 2009. 2.4.,2019. 2.
-12.&gt;
-②제1항의 규정을 적용함에 있어서 채권등을 취득하여 보유한 기간에 발생한 
-소득은 채권등의 액면가액 등에 제1호 각목의 기간과 제2호 각목의 이자율 등
-을 적용하여 계산한 금액 (이하 이 조,제114조의 2및 제138조의 3에서 “보유기간
-이자상당액 ”이라 한다 )으로 한다 .&lt;개정 2000. 5.16., 2000. 12.29., 2001. 12.</t>
-  </si>
-  <si>
-    <t>보유한 기간에 발생한 소득으로 한다 .&lt;개정 2005. 2.19., 2009. 2.4.,2019. 2.
-12.&gt;
-②제1항의 규정을 적용함에 있어서 채권등을 취득하여 보유한 기간에 발생한 
-소득은 채권등의 액면가액 등에 제1호 각목의 기간과 제2호 각목의 이자율 등
-을 적용하여 계산한 금액 (이하 이 조,제114조의 2및 제138조의 3에서 “보유기간
-이자상당액 ”이라 한다 )으로 한다 .&lt;개정 2000. 5.16., 2000. 12.29., 2001. 12.
-31., 2005. 2.19., 2005. 12.30., 2006. 2.9.,2008. 2.29., 2010. 2.18., 2013. 2.
-15.&gt;
-1.채권등을 보유한 기간
-가.채권등의 이자소득금액을 지급받기 전에 매도하는 경우에는 당해 채권등
-을 취득한 날 또는 직전 이자소득금액의 계산기간종료일의 다음날부터 매
-도하는 날(매도하기 위하여 알선ㆍ중개 또는 위탁하는 경우에는 실제로 
-매도하는 날)까지의 기간 .다만 ,취득한 날 또는 직전 이자소득금액의 계
-산기간종료일부터 매도하는 날 전일까지로 기간을 계산하는 약정이 있는 
-경우에는 그 기간으로 한다 .
-나.채권등의 이자소득금액을 지급받는 경우에는 당해 채권등을 취득한 날 또
-는 직전 이자소득금액의 계산기간종료일의 다음날부터 이자소득금액의 계
-산기간종료일까지의 기간 .다만 ,취득한 날 또는 직전 이자소득금액의 계
-산기간종료일부터 매도하는 날 전일까지로 기간을 계산하는 약정이 있는 
-경우에는 그 기간으로 한다 .
-2.적용이자율
-가.당해 채권등의 이자계산기간에 대하여 약정된 이자계산방식에 의한 이자
-율에 발행시의 할인율을 가산하고 할증률을 차감한 이자율 .다만 ,공개시
-장에서 발행하는 「소득세법 시행령」제22조의 2제1항 및 제2항의 채권
-의 경우에는 발행시의 할인율과 할증률을 가감하지 아니한다 .
-나.만기상환일에 각 이자계산기간에 대한 보장이율을 추가로 지급하는 조건
-이 있는 전환사채ㆍ교환사채 또는 신주인수권부사채의 경우에는 가목의 - 375 -이자율에 당해 추가지급이율을 가산한 이자율 .다만 ,전환사채 또는 교환
-사채를 주식으로 전환청구 또는 교환청구한 경우로서 이자지급의 약정이 
-있는 경우에는 전환청구일 또는 교환청구일부터는 기획재정부령이 정하는 
-바에 따라 당해 약정이자율로 한다 .
-③~⑤&lt;생략 &gt;
-⑥법인이 「소득세법 시행령」제190조 제1호에 규정하는 날에 원천징수하는 
-채권등 (이하 “선이자지급방식의 채권등 ”이라 한다 )을 취득한 후 사업연도가 종
-료되어 원천징수된 세액을 전액 공제하여 법인세를 신고하였으나 그 후의 사업
-연도중 해당 채권등의 만기상환일이 도래하기 전에 이를 매도함으로써 해당 사
-업연도전에 공제한 원천징수세액이 제2항을 준용하여 계산한 보유기간이자상당
-액에 대한 세액을 초과하는 경우에는 그 초과하는 금액을 해당 채권등을 매도
-한 날이 속하는 사업연도의 법인세에 가산하여 납부하여야 한다 .&lt;개정 2000.
-12.29., 2005. 2.19., 2009. 2.4.&gt;
-⑦법인이 취득일이 서로 다른 동일종목의 채권등을 매도하는 경우 제2항제 1호의 
-기간계산방법은 제74조 제1항 제1호 가목 내지 다목을 준용하는 방법 또는 기획
-재정부령이 정하는 방법중 하나를 선택하여 적용할 수 있으며 ,당해 법인은 이를 
-다음 각호의 1의 기한내에 납세지 관할세무서장에게 신고하여 계속적으로 적용하
-여야 한다 .이 경우 법인이 보유기간의 계산방법을 신고하지 아니하거나 신고한 
-방법과 상이한 방법을 적용하여 계산한 경우에는 제74조 제1항 제1호 나목의 방
-법을 준용하여 보유기간을 계산한다 .&lt;개정 2000.12.29., 2008.2.29.&gt;
-1.보유기간이자상당액에 대한 원천징수세액납부일
-2.보유기간이자상당액에 대한 법인세 과세표준신고일
-⑧제1항부터 제7항까지의 규정을 적용할 때 채권등의 보유기간 확인에 관하여
-는 「소득세법 시행령」제102조 제 8항을 준용한다 .&lt;개정 2010. 2.18.&gt;
-⑨~⑩&lt;생략 &gt;
-⑪법인이 선이자지급방식의 채권등 (채권등의 매출시 세금을 원천징수한 채권등
-에 한정한다 .이하 이 항에서 같다 )을 이자계산기간 중에 매도하는 경우 해당 
-법인 (금융회사 등이 해당 채권등의 매도를 중개하는 경우에는 해당 금융회사 등
-을 말한다 )은 중도 매도일에 해당 채권등을 새로이 매출한 것으로 보아 이자등
-을 계산하여 세액을 원천징수하여야 한다 .&lt;신설 2001. 12. 31., 2009. 2.4.,
-2010. 2.18.&gt;- 376 -⑫법 제73조의 2제3항 제1호에서 “대통령령으로 정하는 금융회사 등”이란 제
-61조 제2항 각 호의 법인을 말한다 .&lt;개정 2019. 2.12.&gt;
-⑬제3항의 규정에 의하여 채권등의 매도로 보는 경우 관리하는 재산의 보유기
-간이자상당액에 대한 원천징수에 관하여는 당해 재산을 관리하는 법인이 채권
-등을 매도하는 것으로 본다 .&lt;신설 2005. 2.19.&gt;
-&lt;이하 생략 &gt;
-제114조의 2(환매조건부채권매매거래 등의 원천징수 및 환급 등)①법 제73조
-의2제1항 전단에서 “환매조건부 채권매매 등 대통령령으로 정하는 경우 ”란 다
-음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말한다 .&lt;개정 
-2011. 3.31., 2016. 2.12., 2019. 2.12., 2021. 2.17.&gt;
-1.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 
-해당하는 금융회사 등과 이 영 제111조 제1항 각 호의 어느 하나에 해당하는 
-법인이 일정기간 후에 일정가격으로 환매수 또는 환매도할 것을 조건으로 하
-여 채권등을 매도 또는 매수하는 거래 (해당 거래가 연속되는 경우를 포함한
-다)로서 그 거래에 해당하는 사실이「자본시장과 금융투자업에 관한 법률」제
-294조에 따른 한국예탁결제원의 계좌 또는 같은 법 제373조에 따른 거래소의 
-거래원장 (전자적 형태의 거래원장을 포함한다 )을 통하여 확인되는 거래
-2.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 
-해당하는 금융회사 등과 이 영 제111조 제1항 각 호의 어느 하나에 해당하는</t>
-  </si>
-  <si>
-    <t>법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 채권을 대여하는 거래는 어떤 기관을 통해 확인되는가?</t>
-  </si>
-  <si>
-    <t>채권대차거래중개기관</t>
-  </si>
-  <si>
-    <t>법인이 일정기간 후에 일정가격으로 환매수 또는 환매도할 것을 조건으로 하
-여 채권등을 매도 또는 매수하는 거래 (해당 거래가 연속되는 경우를 포함한
-다)로서 그 거래에 해당하는 사실이「자본시장과 금융투자업에 관한 법률」제
-294조에 따른 한국예탁결제원의 계좌 또는 같은 법 제373조에 따른 거래소의 
-거래원장 (전자적 형태의 거래원장을 포함한다 )을 통하여 확인되는 거래
-2.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 
-해당하는 금융회사 등과 이 영 제111조 제1항 각 호의 어느 하나에 해당하는 
-법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 
-채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래
-에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관한 
-법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중개업
-자를 말한다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한다 )을 통하여 
-확인되는 거래
-②제1항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
-반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득에 상당하
-는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우 또는 제1항 각 호의 
-거래가 혼합되는 경우에는 최초 매도자 또는 대여자를 말한다 )에게 귀속되는 것
-으로 보아 법 제73조의2를 적용한다 .&lt;개정 2013. 2.15.,2016. 2.12.,2019. 2.12.&gt;- 377 -③제1항에 따른 거래를 통하여 매수자 또는 차입자 (이하 이 조에서 “매수자등 ”
-이라 한다 )가 매입 또는 차입한 채권등이 제3자에게 매도 또는 대여되는 경우에
-는 매수자등 (제111조제 1항 각 호의 어느 하나에 해당하는 법인은 제외한다 )에게 
-보유기간이자상당액에 대한 세액을 법 제73조의 2및 제98조의 3,「소득세법」
-제133조의 2및 제156조의 3에 따라 원천징수하여야 하며 ,매수자등은 원천징수당
-한 세액을 제 4항에 따라 환급받을 수 있다 .&lt;개정 2019. 2.12.&gt;
-④제3항에 따라 원천징수된 세액을 환급받으려는 매수자등은 제3자에게 매도 
-또는 대여한 채권등이 제1항에 따른 거래를 통하여 매입 또는 차입한 것임을 
-입증할 수 있는 기획재정부령으로 정하는 서류를 첨부하여 원천징수된 세액의 
-납부일이 속하는 달의 다음 달 10일까지 매수자등의 납세지 관할 세무서장에게 
-환급신청서를 제출하여야 하며 ,환급신청을 받은 관할 세무서장은 거래사실 및 
-환급신청내용을 확인한 후 즉시 환급하여야 한다 .
-[전문개정 2010. 6.8.]
-제115조(원천징수세액의 납부 )①법 제73조 및 제73조의 2에 따른 원천징수의무
-자는 원천징수한 법인세를 「국세징수법」에 따라 원천징수의무자의 납세지 관
-할세무서 등에 납부하여야 하며 ,기획재정부령으로 정하는 원천징수이행상황신
-고서를 원천징수의무자의 납세지 관할세무서장에게 제출 (국세정보통신망에 의한 
-제출을 포함한다 )하여야 한다 .&lt;개정 2004. 3.17., 2005. 2.19., 2008. 2.29.,
-2012. 2.2.,2019. 2.12.&gt;
-&lt;이하 생략 &gt;
-제117조(원천징수영수증의 교부 )①법 제74조 제1항에 따른 원천징수영수증의 
-교부에 관하여는 「소득세법」제133조를 준용한다 .&lt;개정 2005. 2.19.,2021. 2.17.&gt;
-②제1항의 규정은 선이자지급방식의 채권등에 대한 이자소득을 지급하는 법인
-이 원천징수한 법인세액에 대한 원천징수영수증의 교부에 대하여도 이를 적용
-한다 .
-제138조의 3(외국법인의 채권등의 이자등에 대한 원천징수 특례 )①법 제98조 
-제1항을 적용받는 외국법인 (이하 이 조에서 “외국법인 ”이라 한다 )에 대하여 원
-천징수대상채권등의 이자등을 지급하는 자 또는 원천징수대상채권등의 이자등
-을 지급받기 전에 외국법인으로부터 원천징수대상채권등을 매수하는 자는 그 
-지급금액에 대하여 법ㆍ「조세특례제한법」또는 조세조약에 의한 세율 (이하 이 - 378 -조에서 “적용세율 ”이라 한다 )을 적용하는 경우에 그 지급금액에 다음 각 호의 
-세율을 적용하여 계산한 금액을 원천징수하여야 한다 .이 경우 제1호의 세율이 
-법 제73조의 2제1항 전단에 따른 세율보다 높은 경우로서 해당 외국법인이 원
-천징수대상채권등의 보유기간을 입증하지 못하는 경우에는 지급금액 전액을 해
-당 외국법인의 보유기간이자상당액으로 보며 ,제1호에 따른 적용세율이 법 제73
-조의 2제1항 전단에 따른 세율보다 낮은 경우로서 해당 외국법인이 원천징수대
-상채권등의 보유기간을 입증하지 못하는 경우에는 해당 외국법인의 보유기간이
-자상당액은 이를 없는 것으로 본다 .&lt;개정 2005. 2.19., 2006. 2.9.,2010. 12.
-30., 2012. 2.2.,2019. 2.12.&gt;
-1.지급금액 중 당해 외국법인의 보유기간이자상당액에 대하여는 당해 외국법인
-에 대한 적용세율
-2.지급금액 중 제1호의 보유기간이자상당액을 차감한 금액에 대하여는 법 제73
-조의 2제1항 전단에 따른 세율
-②법 제98조의 3제1항에서 “환매조건부 채권매매 거래 등 대통령령으로 정하
-는 경우 ”란 다음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말
-한다 .&lt;개정 2010. 6.8.,2011. 6.3.,2016. 2.12.&gt;
-1.외국법인이 일정기간 후에 일정가격으로 환매수 또는 환매도할 것을 조건으
-로 하여 채권등을 매도 또는 매수하는 거래 (해당 거래가 연속되는 경우를 포
-함한다 )로서 그 거래에 해당하는 사실이 「자본시장과 금융투자업에 관한 법
-률」제294조에 따른 한국예탁결제원의 계좌를 통하여 확인되는 거래
-2.외국법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으
-로 채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거
-래에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관
-한 법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중
-개업자를 말한다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한다 )을 통
-하여 확인되는 거래</t>
-  </si>
-  <si>
-    <t>률」제294조에 따른 한국예탁결제원의 계좌를 통하여 확인되는 거래
-2.외국법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으
-로 채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거
-래에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관
-한 법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중
-개업자를 말한다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한다 )을 통
-하여 확인되는 거래
-③제2항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
-반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득 또는 배당
-소득에 상당하는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우 또는 
-제2항 각 호의 거래가 혼합되는 경우에는 최초 매도자 또는 대여자를 말한다 )에
-게 귀속되는 것으로 보아 법 제98조의3을 적용한다 .&lt;개정 2010. 6.8.,2016. 2.12.&gt;
-④제2항에 따른 거래를 통하여 매수자 또는 차입자 (이하 이 조에서 “매수자등 ”이- 379 -라 한다)가 매입 또는 차입한 채권등이 제3자에게 매도 또는 대여되는 경우에는 
-매수자등 (제111조 제1항 각 호의 어느 하나에 해당하는 법인은 제외한다 )에게 보
-유기간이자상당액에 대한 세액을 법 제73조의2및 제98조의3,「소득세법」제133
-조의2및 제156조의3에 따라 원천징수하여야 하며,매수자등은 원천징수당한 세액
-을 제5항에 따라 환급받을 수 있다.&lt;개정 2010. 6.8.,2019. 2.12.&gt;
-⑤제4항에 따라 원천징수된 세액을 환급받으려는 매수자등은 제3자에게 매도 
-또는 대여한 채권등이 제2항에 따른 거래를 통하여 매입 또는 차입한 것임을 
-입증할 수 있는 기획재정부령으로 정하는 서류를 첨부하여 원천징수된 세액의 
-납부일이 속하는 달의 다음 달 10일까지 매수자등의 납세지 관할세무서장에게 
-환급신청서를 제출하여야 하며 ,환급신청을 받은 관할세무서장은 거래사실 및 
-환급신청내용을 확인한 후 즉시 환급하여야 한다 .&lt;개정 2010. 6.8.&gt;
-⑥제111조 제6항은 외국법인의 채권등의 이자등에 대한 지급시기에 관하여 이
-를 준용하고 ,제113조의 규정은 채권등의 보유기간계산 ,보유기간이자상당액의 
-계산방법 및 보유기간 입증방법에 관하여 이를 준용하며 ,제137조 제2항의 규정
-은 원천징수세액납부에 관하여 이를 준용한다 .&lt;개정 2009. 12.31.&gt;
-⑦삭제 &lt;2005. 2.19.&gt;
-[본조신설 2000. 12.29.]
-제162조(지급명세서의 제출 )내국법인에 「소득세법」제127조 제1항 제1호 또는 
-제2호의 소득을 지급하는 자는 이 영에 다른 규정이 있는 경우를 제외하고는 
-「소득세법」제164조와 같은 법 시행령 제213조 및 같은 법 시행령 제214조의 
-규정을 준용하여 지급명세서를 납세지 관할세무서장에게 제출하여야 한다 .다
-만,다음 각 호의 소득에 대하여는 지급명세서를 제출하지 아니할 수 있다 .&lt;개
-정 2008. 2.22., 2012. 2.2.,2013. 2.15., 2019. 2.12., 2019. 7.1.&gt;
-1.제111조 제1항 각 호의 금융회사 등에 지급하는 이자소득 (같은 항에 따라 원
-천징수대상이 되는 경우는 제외한다 )
-2.「자본시장과 금융투자업에 관한 법률」에 따른 한국예탁결제원이 증권회사 
-등 예탁자에게 지급하는 법 제 16조 제1항에 따른 소득
-[제목개정 2008. 2.22.]
-제162조의 2(외국법인의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
-법 제93조에 따른 국내원천소득을 외국법인에게 지급하는 자는 법 제120조의 2
-제1항에 따라 납세지 관할세무서장에게 기획재정부령으로 정하는 지급명세서 (이
-하 이 조에서 "지급명세서 "라 한다 )를 제출하여야 한다 .&lt;단서 생략 &gt;- 380 -7.법인세법 시행규칙
-제59조(보유기간 이자상당액의 계산 등)①영 제113조 제2항 제2호 나목 단서
-에 다른 이자율의 적용에 관하여는「소득세법 시행규칙」제88조의 2를 준용한다 .
-&lt;개정 2011.2.28&gt;
-②영 제113조 제3항 단서에서 "기획재정부령이 정하는 경우 "란「자본시장과 금
-융투자업에 관한 법률 시행령」제103조 제1호에 따른 특정금전신탁이 중도해지
-되거나 그 신탁계약기간이 종료됨에 따라 해당 특정금전신탁에서 운용하던 채
-권 등을 위탁자에게 유상이체하는 경우를 말한다 .&lt;개정 2009.3.30&gt;
-③영 제113조 제7항 각호외의 부분 전단에서 "기획재정부령이 정하는 방법 "이
-라 함은 다음 각호의 1에 해당하는 방법을 말한다 .이 경우 보유기간의 계산은 
-소수점 이하 두자리까지만 할 수 있다 .&lt;개정 2001.3.28, 2008.3.31&gt;
-1.채권 등을 매도할 때마다 그 매도일 현재의 보유채권 등 및 매도채권 등의 
-취득일별 채권 등의 수에 당해채권 등의 취득일부터 매도일까지의 보유기간
-을 곱하여 계산한 기간의 합계를 채권 등의 총수로 나누어 계산하는 방법 .
-이 경우 직전 매도일 현재의 보유채권 등에 대하여는 직전 매도시에 계산한 
-평균 보유기간에 직전 매도일부터 당해매도일까지의 기간을 합한 기간을 취
-득일부터 매도일까지의 보유기간으로 한다 .
-2.가목의 기간에서 나목의 평균경과기간을 차감한 기간을 보유기간으로 하는 방법
-가.채권 등의 발행일 (발행일 이전에 매출하는 경우에는 매출일 )부터 매도일
-까지의 보유기간
-나.채권 등의 매도일 직전에 취득한 채권 등의 취득수에 발행일 (발행일이전
-에 매출하는 경우에는 매출일 )부터 취득일까지의 기간 (이하 이 목에서 "
-경과기간 "이라 한다 )을 곱한 기간과 당해채권 등의 취득 직전에 보유한 
-채권 등의 경과기간을 평균한 기간에 보유채권수를 곱한 기간의 합계를 
-채권 등의 수로 나누어 계산한 평균경과기간
-3.채권 등을 취득할 때마다 계산한 평균보유기간에 매도일까지의 기간을 합하는 방법
-제68조(원천징수의 범위 )①법 제51조의 규정에 의한 비과세소득과 다른 법률에 
-의하여 법인세가 전액 면제되는 소득에 대하여는 법 제98조의 규정에 의한 원
-천징수를 하지 아니한다 .
-②삭제 &lt;2013.2.23.&gt;- 381 -8.조세특례제한법</t>
-  </si>
-  <si>
-    <t>경과기간 "이라 한다 )을 곱한 기간과 당해채권 등의 취득 직전에 보유한 
-채권 등의 경과기간을 평균한 기간에 보유채권수를 곱한 기간의 합계를 
-채권 등의 수로 나누어 계산한 평균경과기간
-3.채권 등을 취득할 때마다 계산한 평균보유기간에 매도일까지의 기간을 합하는 방법
-제68조(원천징수의 범위 )①법 제51조의 규정에 의한 비과세소득과 다른 법률에 
-의하여 법인세가 전액 면제되는 소득에 대하여는 법 제98조의 규정에 의한 원
-천징수를 하지 아니한다 .
-②삭제 &lt;2013.2.23.&gt;- 381 -8.조세특례제한법
-제89조(세금우대종합저축에 대한 과세특례 )①거주자가 다음 각 호의 요건을 
-모두 갖춘 저축 (이하 "세금우대종합저축 "이라 한다 )에 2014년 12월 31일까지 가
-입하는 경우 해당 저축에서 발생하는 이자소득 및 배당소득에 대한 원천징수세
-율은 「소득세법」제129조에도 불구하고 100분의 9로 하고 ,그 이자소득 및 배
-당소득은 「소득세법」제14조에도 불구하고 종합소득에 대한 과세표준을 계산
-할 때 산입하지 아니하며 ,그 이자소득 및 배당소득에 대해서는 「지방세법」에 
-따른 개인지방소득세를 부과하지 아니한다 .&lt;개정 2010.1.1., 2011.7.14.,
-2011.12.31., 2014.1.1.&gt;
-1.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나
-에 해당하는 금융회사등 (이하 이 조에서 "금융회사등 "이라 한다 )이 취급하는 
-적립식 또는 거치식 저축 (집합투자증권저축ㆍ공제ㆍ보험ㆍ증권저축 및 대통령
-령으로 정하는 채권저축 등을 포함한다 )으로서 저축 가입 당시 저축자가 세금
-우대 적용을 신청할 것
-2.계약기간이 1년 이상일 것
-3.모든 금융회사등에 가입한 세금우대종합저축의 계약금액 총액이 다음 각 목
-의 어느 하나에 해당하는 금액 이하일 것.다만 ,세금우대종합저축에서 발생
-하여 원금에 전입되는 이자 및 배당 등은 세금우대종합저축으로 보되 ,계약
-금액 총액의 1명당 한도를 계산할 때에는 산입하지 아니한다 .
-가.20세 이상인 자 :1명당 1천만원
-나.제88조의 2제1항 각 호의 어느 하나에 해당하는 자 :1명당 3천만원
-②~⑥&lt;생략 &gt;
-⑦세금우대종합저축을 계약일부터 1년 이내에 해지 또는 인출하거나 그 권리
-를 이전하는 경우 해당 원천징수의무자는 제1항 각 호 외의 부분을 적용하
-여 원천징수한 세액과 「소득세법」제129조를 적용하여 계산한 세액의 차
-액을 제146조의 2에 따라 추징하여야 한다 .다만 ,가입자의 사망ㆍ해외이주 
-등 대통령령으로 정하는 부득이한 사유가 있는 경우에는 그러하지 아니하다.
-&lt;개정 2010. 1.1.,2020. 12.29.&gt;
-⑧세금우대종합저축의 계약금액 총액의 계산방법과 운용ㆍ관리 방법 ,그 밖에 
-필요한 사항은 대통령령으로 정한다 .&lt;개정 2010. 1.1.&gt;
-[전문개정 1999. 12.28.] [제목개정 2010. 1.1.]- 382 -9.조세특례제한법 시행령
-제83조(세금우대종합저축에 대한 원천징수의 특례 )①법 제89조 제1항 제1호에
-서 “대통령령으로 정하는 채권저축 ”이란 다음 각호의 요건을 갖춘 저축을 말한
-다.&lt;개정 2001. 12.31., 2005. 2.19., 2010. 2.18., 2019. 6.25.&gt;
-1.「소득세법」제46조 제1항에서 규정하는 채권 또는 증권 (이하 이 항에서 
-“채권등 ”이라 한다 )으로서 상환기간이 1년 이상인 채권등을 「금융실명거래 
-및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 해당하는 금융
-기관에 계좌를 개설하여 1년 이상 계속하여 전자등록 (「주식ㆍ사채 등의 전
-자등록에 관한 법률」제2조제 2호에 따른 전자등록을 말한다 .이하 같다 )하여 
-보유하거나 예탁할 것
-2.금융기관으로부터 환매기간에 따른 사전약정이율을 적용하여 환매수 또는 환
-매도를 조건으로 취득하는 채권등이 아닐 것
-3.채권등을 계좌에서 인출하지 아니할 것.채권등을 인출한 경우에는 인출한 
-날부터 당해 채권등에 대하여 세금우대종합저축을 해지한 것으로 본다 .
-&lt;이하 생략 &gt;- 383 -10.지방세법
-제74조(정의 )주민세에서 사용하는 용어의 뜻은 다음 각 호와 같다 .&lt;개정 2014.
-1.1.,2018. 12.31., 2020. 12.29.&gt;
-1.“개인분 ”이란 지방자치단체에 주소를 둔 개인에 대하여 부과하는 주민세를 
-말한다 .
-2.“사업소분 ”이란 지방자치단체에 소재한 사업소 및 그 연면적을 과세표준으로 
-하여 부과하는 주민세를 말한다 .
-3.“종업원분 ”이란 지방자치단체에 소재한 사업소 종업원의 급여총액을 과세표
-준으로 하여 부과하는 주민세를 말한다 .
-4.“사업소 ”란 인적 및 물적 설비를 갖추고 계속하여 사업 또는 사무가 이루어
-지는 장소를 말한다 .
-5.“사업주 ”란 지방자치단체에 사업소를 둔 자를 말한다 .
-6.“사업소 연면적 ”이란 대통령령으로 정하는 사업소용 건축물의 연면적을 말한
-다.
-7.“종업원의 급여총액 ”이란 사업소의 종업원에게 지급하는 봉급 ,임금 ,상여금 
-및 이에 준하는 성질을 가지는 급여로서 대통령령으로 정하는 것을 말한다 .
-8.“종업원 ”이란 사업소에 근무하거나 사업소로부터 급여를 지급받는 임직원 ,
-그 밖의 종사자로서 대통령령으로 정하는 사람을 말한다 .
-제75조(납세의무자 )①개인분의 납세의무자는 과세기준일 현재 지방자치단체에 
-주소 (외국인의 경우에는 「출입국관리법」에 따른 체류지를 말한다 .이하 이 장
-에서 같다 )를 둔 개인으로 한다 .다만 ,다음 각 호의 어느 하나에 해당하는 사람
-은 제외한다 .&lt;개정 2020. 12.29.&gt;
-1.「국민기초생활 보장법 」에 따른 수급자
-2.「민법」에 따른 미성년자 (그 미성년자가 성년자와 「주민등록법」상 같은 
-세대를 구성하고 있는 경우는 제외한다 )
-3.「주민등록법」에 따른 세대원 및 이에 준하는 개인으로서 대통령령으로 정
-하는 사람
-4.「출입국관리법」제31조에 따른 외국인등록을 한 날부터 1년이 경과되지 아
-니한 외국인- 384 -②사업소분의 납세의무자는 과세기준일 현재 다음 각 호의 어느 하나에 해당
-하는 사업주 (과세기준일 현재 1년 이상 계속하여 휴업하고 있는 자는 제외한다 )</t>
-  </si>
-  <si>
-    <t>사업소분의 납세의무자는 과세기준일 현재 어떤 조건을 만족하는 사업주인가요?</t>
-  </si>
-  <si>
-    <t>과세기준일 현재 1년 이상 계속하여 휴업하고 있는 자는 제외한 사업주</t>
-  </si>
-  <si>
-    <t>1.「국민기초생활 보장법 」에 따른 수급자
-2.「민법」에 따른 미성년자 (그 미성년자가 성년자와 「주민등록법」상 같은 
-세대를 구성하고 있는 경우는 제외한다 )
-3.「주민등록법」에 따른 세대원 및 이에 준하는 개인으로서 대통령령으로 정
-하는 사람
-4.「출입국관리법」제31조에 따른 외국인등록을 한 날부터 1년이 경과되지 아
-니한 외국인- 384 -②사업소분의 납세의무자는 과세기준일 현재 다음 각 호의 어느 하나에 해당
-하는 사업주 (과세기준일 현재 1년 이상 계속하여 휴업하고 있는 자는 제외한다 )
-로 한다 .다만 ,사업소용 건축물의 소유자와 사업주가 다른 경우에는 대통령령
-으로 정하는 바에 따라 건축물의 소유자에게 제2차 납세의무를 지울 수 있다 .
-&lt;개정 2018. 12.31., 2020. 12.29.&gt;
-1.지방자치단체에 대통령령으로 정하는 규모 이상의 사업소를 둔 개인
-2.지방자치단체에 사업소를 둔 법인 (법인세의 과세대상이 되는 법인격 없는 사
-단ㆍ재단 및 단체를 포함한다 .이하 이 장에서 같다 )
-③종업원분의 납세의무자는 종업원에게 급여를 지급하는 사업주로 한다 .&lt;신설
-2014. 1.1.&gt;
-제76조(납세지 )①개인분의 납세지는 과세기준일 현재 주소지로 한다 .&lt;개정 
-2020. 12.29.&gt;
-②사업소분의 납세지는 과세기준일 현재 각 사업소 소재지로 한다 .&lt;개정 
-2020. 12.29.&gt;
-③종업원분의 납세지는 급여를 지급한 날 (월 2회 이상 급여를 지급하는 경우에
-는 마지막으로 급여를 지급한 날을 말한다 )현재의 사업소 소재지 (사업소를 폐
-업하는 경우에는 폐업하는 날 현재의 사업소 소재지를 말한다 )로 한다 .&lt;신설 
-2014. 1.1.,2018. 12.31., 2020. 12.29.&gt;
-제77조(비과세 )①다음 각 호의 어느 하나에 해당하는 자에 대하여는 주민세를 
-부과하지 아니한다 .
-1.국가 ,지방자치단체 및 지방자치단체조합
-2.주한외국정부기관ㆍ주한국제기구ㆍ 「외국 민간원조단체에 관한 법률」에 따
-른 외국 민간원조단체 (이하 “주한외국원조단체 ”라 한다 )및 주한외국정부기
-관ㆍ주한국제기구에 근무하는 외국인 .다만 ,대한민국의 정부기관ㆍ국제기구 
-또는 대한민국의 정부기관ㆍ국제기구에 근무하는 대한민국의 국민에게 주민
-세와 동일한 성격의 조세를 부과하는 국가와 그 국적을 가진 외국인 및 그 
-국가의 정부 또는 원조단체의 재산에 대하여는 주민세를 부과한다 .
-②삭제 &lt;2019. 12.31.&gt;
-③삭제 &lt;2018. 12.31.&gt;- 385 -제78조(세율 )개인분의 세율은 1만원을 초과하지 아니하는 범위에서 지방자치단
-체의 장이 조례로 정한다 .
-[전문개정 2020. 12.29.]
-제79조(징수방법 등)①개인분은 납세지를 관할하는 지방자치단체의 장이 보통
-징수의 방법으로 징수한다 .&lt;개정 2020. 12.29.&gt;
-②개인분의 과세기준일은 매년 7월 1일로 한다.&lt;개정 2018. 12.31.,2020. 12.29.&gt;
-③개인분의 납기는 매년 8월 16일부터 8월 31일까지로 한다.&lt;개정 2020. 12.29.&gt;
-제103조의 13(특별징수의무 )①「소득세법」또는 「조세특례제한법」에 따른 원
-천징수의무자가 거주자로부터 소득세를 원천징수하는 경우에는 대통령령으로 
-정하는 바에 따라 원천징수하는 소득세 (「조세특례제한법」및 다른 법률에 따
-라 조세감면 또는 중과세 등의 조세특례가 적용되는 경우에는 이를 적용한 소
-득세 )의 100분의 10에 해당하는 금액을 소득세 원천징수와 동시에 개인지방소득
-세로 특별징수하여야 한다 .이 경우 같은 법에 따른 원천징수의무자는 개인지방
-소득세의 특별징수의무자 (이하 이 절에서 “특별징수의무자 ”라 한다 )로 한다 .
-②특별징수의무자가 제1항에 따라 개인지방소득세를 특별징수하였을 경우에는 
-그 징수일이 속하는 달의 다음 달 10일까지 납세지를 관할하는 지방자치단체에 
-납부하여야 한다 .다만 ,「소득세법」제128조 제2항에 따라 원천징수한 소득세
-를 반기 (半期 )별로 납부하는 경우에는 반기의 마지막 달의 다음 달 10일까지 반
-기의 마지막 달 말일 현재의 납세지 관할 지방자치단체에 납부할 수 있다 .&lt;개정
-2020. 12.29.&gt;
-③제1항에 따른 개인지방소득세의 특별징수의무자가 제89조 제3항 제3호부터 
-제5호까지의 규정에 따라 납부한 지방자치단체별 특별징수세액에 오류가 있음
-을 발견하였을 때에는 그 과부족분을 대통령령으로 정하는 바에 따라 해당 지
-방자치단체에 납부하여야 할 특별징수세액에서 가감하여야 한다 .이 경우 가감
-으로 인하여 추가로 납부하는 특별징수세액에 대하여는 「지방세기본법」제56
-조에 따른 가산세를 부과하지 아니하며 ,환급하는 세액에 대하여는 지방세환급
-가산금을 지급하지 아니한다 .&lt;개정 2016. 12.27.&gt;
-④개인지방소득세의 특별징수에 관하여 이 법에 특별한 규정이 있는 경우를 
-제외하고는 「소득세법」에 따른 원천징수에 관한 규정을 준용한다 .
-[본조신설 2014. 1.1.]- 386 -제103조의 29(특별징수의무 )①「법인세법」제73조 및 제73조의 2에 따른 원천징
-수의무자가 내국법인으로부터 법인세를 원천징수하는 경우에는 원천징수하는 
-법인세 (「조세특례제한법」및 다른 법률에 따라 조세감면 또는 중과세 등의 조
-세특례가 적용되는 경우에는 이를 적용한 법인세 )의 100분의 10에 해당하는 금
-액을 법인지방소득세로 특별징수하여야 한다 .&lt;개정 2018. 12.24.&gt;
-②제1항에 따라 특별징수를 하여야 하는 자를 “특별징수의무자 ”라 한다 .
-③특별징수의무자는 특별징수한 지방소득세를 그 징수일이 속하는 달의 다음 
-달 10일까지 대통령령으로 정하는 바에 따라 관할 지방자치단체에 납부하여야 
-한다 .
-④특별징수의무자가 징수하였거나 징수하여야 할 세액을 제3항에 따른 납부기
-한까지 납부하지 아니하거나 과소납부한 경우에는 「지방세기본법」제56조에 
-따라 산출한 금액을 가산세로 부과하며 ,특별징수의무자가 징수하지 아니한 경
-우로서 납세의무자가 그 법인지방소득세액을 이미 납부한 경우에는 특별징수의
-무자에게 그 가산세액만을 부과한다 .다만 ,국가 또는 지방자치단체와 그 밖에</t>
-  </si>
-  <si>
-    <t>특별징수의무자가 징수한 지방소득세를 납부해야 하는 기한은 언제인가요?</t>
-  </si>
-  <si>
-    <t>징수일이 속하는 달의 다음 달 10일까지</t>
-  </si>
-  <si>
-    <t>③특별징수의무자는 특별징수한 지방소득세를 그 징수일이 속하는 달의 다음 
-달 10일까지 대통령령으로 정하는 바에 따라 관할 지방자치단체에 납부하여야 
-한다 .
-④특별징수의무자가 징수하였거나 징수하여야 할 세액을 제3항에 따른 납부기
-한까지 납부하지 아니하거나 과소납부한 경우에는 「지방세기본법」제56조에 
-따라 산출한 금액을 가산세로 부과하며 ,특별징수의무자가 징수하지 아니한 경
-우로서 납세의무자가 그 법인지방소득세액을 이미 납부한 경우에는 특별징수의
-무자에게 그 가산세액만을 부과한다 .다만 ,국가 또는 지방자치단체와 그 밖에 
-대통령령으로 정하는 자가 특별징수의무자인 경우에는 특별징수 의무불이행을 
-이유로 하는 가산세는 부과하지 아니한다 .&lt;개정 2016. 12.27., 2018. 12.31.&gt;
-⑤법인지방소득세의 특별징수에 관하여 이 법에 특별한 규정이 있는 경우를 
-제외하고는 「법인세법」에 따른 원천징수에 관한 규정을 준용한다 .
-[본조신설 2014. 1.1.]
-제103조의 60(소액 징수면제 )지방소득세로 징수할 세액이 고지서 1장당 2천원 미
-만인 경우에는 그 지방소득세를 징수하지 아니한다 .[전문개정 2018. 12.31.]- 387 -11.지방세법 시행령
-제100조의 5(특별징수의무 )①법 제103조의 13제1항 후단에 따른 특별징수의무자
-(이하 이 절에서 "특별징수의무자 "라 한다 )는 법 제103조의 13제2항에 따라 징수
-한 특별징수세액을 납부하는 경우에는 납부서에 계산서와 명세서를 첨부하여야 
-한다 .
-②제1항에도 불구하고 개인지방소득세의 특별징수의무자가 징수한 특별징수세
-액을 납부할 때에는 근로소득 ,이자소득 ,「소득세법」제20조의 3제1항 제1호 
-및 제2호에 따른 연금소득과 「국민건강보험법」에 따른 국민건강보험공단이 
-지급하는 사업소득에 대해서는 그 명세서를 첨부하지 아니할 수 있다 .다만 ,과
-세권자가 납세증명 발급 등 민원처리를 위하여 개인별 납세실적 파악이 필요하
-여 명세서 제출을 요구하는 경우에는 첨부하여야 한다 .
-③개인지방소득세의 특별징수의무자가 법 제103조의 13제3항 전단에 따라 해
-당 지방자치단체별 특별징수세액에서 오류를 발견하였을 때에는 그 과부족분 (過
-不足分 )을 오류를 발견한 날의 다음 달 10일까지 관할 지방자치단체에 납부하여
-야 할 특별징수세액에서 가감하여야 한다 .이 경우 그 남는 부분이 관할 지방자
-치단체에 납부하여야 할 다음 달의 특별징수세액을 초과하는 경우에는 그 다음 
-달의 특별징수세액에서 조정할 수 있다 .[본조신설 2014.3.14.]
-제100조의 19(특별징수의무 )①법 제103조의 29제2항에 따른 특별징수의무자 (이하 
-이 조에서 “특별징수의무자 ”라 한다 )는 같은 조 제3항에 따라 징수한 특별징수
-세액을 행정안전부령으로 정하는 납부서로 납부하여야 한다 .&lt;개정 2015. 6.1.,
-2017. 7.26.&gt;
-②특별징수의무자는 납세의무자별로 행정안전부령으로 정하는 법인지방소득세 
-특별징수명세서를 특별징수일이 속하는 해의 다음 해 2월 말일 (특별징수의무자
-가 휴업 ,폐업 및 해산한 경우에는 휴업 ,폐업 및 해산일이 속하는 달 말일의 
-다음 날부터 2개월이 되는 날)까지 특별징수의무자 소재지 관할 지방자치단체의 
-장에게 제출하여야 한다 .이 경우 특별징수의무자 소재지 관할 지방자치단체의 
-장은 특별징수의무자의 소재지와 납세의무자의 사업장 소재지가 다른 경우 납
-세의무자의 사업장 소재지 관할 지방자치단체의 장에게 해당 지방법인소득세 
-특별징수명세서를 통보하여야 한다.&lt;신설 2015. 6.1.,2017. 7.26.,2018. 12.31.&gt;- 388 -③특별징수의무자는 제2항 전단에 따른 법인지방소득세 특별징수명세서를 다
-음 각 호의 어느 하나에 해당하는 방법으로 제출하여야 한다 .&lt;신설 2015. 6.1.&gt;
-1.출력하거나 디스켓 등 전자적 정보저장매체에 저장하여 인편 또는 우편으로 제출
-2.「지방세기본법」제2조 제 1항 제 28호에 따른 지방세정보통신망으로 제출
-④특별징수의무자는 납세의무자로부터 법인지방소득세를 특별징수한 경우에는 
-그 납세의무자에게 행정안전부령으로 정하는 법인지방소득세 특별징수영수증을 
-발급하여야 한다 .다만 ,「법인세법」제73조 및 제73조의 2에 따른 원천징수의
-무자가 같은 법 제74조에 따른 원천징수영수증을 발급할 때 법인지방소득세 특
-별징수액과 그 납세지 정보를 포함하여 발급하는 경우에는 해당 법인지방소득
-세 특별징수영수증을 발급한 것으로 본다 .&lt;신설 2015. 6.1.,2017. 7.26., 2019.
-2.12.&gt;
-⑤제4항 본문에도 불구하고 「법인세법」제73조 및 제73조의 2에 따른 이자소
-득금액 또는 배당소득금액이 계좌별로 1년간 1백만원 이하로 발생한 경우에는 
-법인지방소득세 특별징수영수증을 발급하지 아니할 수 있다 .다만 ,납세의무자
-가 법인지방소득세 특별징수영수증의 발급을 요구하는 경우에는 이를 발급하여
-야 한다 .&lt;신설 2015. 6.1.,2019. 2.12.&gt;
-⑥법 제103조의 29제4항 단서에서 “대통령령으로 정하는 자”란 주한 미국군을 
-말한다 .&lt;신설 2019. 2.8.&gt;
-[본조신설 2014. 3.14.]- 389 -12.농어촌특별세법
-제5조(과세표준과 세율 )①농어촌특별세는 다음 각 호의 과세표준에 대한 세율을 
-곱하여 계산한 금액을 그 세액으로 한다 .&lt;개정 1994.12.22., 1998.12.28.,
-1999.12.28., 2000.12.29., 2001.12.29., 2005.1.5., 2007.12.31., 2010.12.30., 2013.5.28.&gt;
-②「조세특례제한법」제72조 제1항에 따른 조합법인 등의 경우에는 제1호에 
-규정된 세액에서 제2호에 규정된 세액을 차감한 금액을 감면을 받는 세액으로 
-보아 제 1항 제1호를 적용한다 .&lt;개정 2010.12.30.&gt;
-1.해당 법인의 각 사업연도 과세표준금액에 「법인세법」제55조 제1항에 규정
-된 세율을 적용하여 계산한 법인세액
-2.해당 법인의 각 사업연도 과세표준금액에 「조세특례제한법」제72조 제1항
-에 규정된 세율을 적용하여 계산한 법인세액</t>
-  </si>
-  <si>
-    <t>조세특례제한법 제72조 제1항에 따른 조합법인 등의 경우, 감면을 받는 세액을 계산할 때 적용되는 세액은 무엇인가요?</t>
-  </si>
-  <si>
-    <t>제1호에 규정된 세액에서 제2호에 규정된 세액을 차감한 금액</t>
-  </si>
-  <si>
-    <t>②「조세특례제한법」제72조 제1항에 따른 조합법인 등의 경우에는 제1호에 
-규정된 세액에서 제2호에 규정된 세액을 차감한 금액을 감면을 받는 세액으로 
-보아 제 1항 제1호를 적용한다 .&lt;개정 2010.12.30.&gt;
-1.해당 법인의 각 사업연도 과세표준금액에 「법인세법」제55조 제1항에 규정
-된 세율을 적용하여 계산한 법인세액
-2.해당 법인의 각 사업연도 과세표준금액에 「조세특례제한법」제72조 제1항
-에 규정된 세율을 적용하여 계산한 법인세액
-③비과세 및 소득공제를 받는 경우에는 대통령령으로 정하는 계산방법에 의하여 
-계산한 금액을 감면을 받는 세액으로 보아 제1항 제1호를 적용한다 .&lt;개정 2010.12.30.&gt;- 390 -④「조세특례제한법」에 따라 이자소득·배당소득에 대한 소득세가 부과되지 
-아니하거나 소득세특례세율이 적용되는 경우에는 제1호에 규정된 세액에서 제2
-호에 규정된 세액을 차감한 금액을 감면을 받는 세액으로 보아 제1항 제2호를 
-적용한다 .&lt;개정 2010.12.30.&gt;
-1.이자소득·배당소득에 다음 각 목의 어느 하나의 율을 곱하여 계산한 금액
-가.이자소득의 경우에는 100분의 14
-나.배당소득의 경우에는 100분의 14
-2.「조세특례제한법」에 따라 납부하는 소득세액 (소득세가 부과되지 아니하는 
-경우에는 영으로 한다 )
-⑤제1항 제6호에도 불구하고「지방세법」제15조 제2항에 해당하는 경우에는 같은 항
-에 따라 계산한 취득세액을 제1항 제6호의 과세표준으로 본다.&lt;신설 2010.12.30.&gt;
-제6조(납세지 )농어촌특별세의 납세지는 해당 본세의 납세지로 한다 .
-[전문개정 2010.12.30.]
-제7조(신고·납부 등)①제5조 제1항 제1호에 따른 농어촌특별세는 해당 본세를 
-신고·납부 (중간예납은 제외한다 )하는 때에 그에 대한 농어촌특별세도 함께 신
-고·납부하여야 하며 ,신고·납부할 본세가 없는 경우에는 해당 본세의 신고·납부
-의 예에 따라 신고·납부하여야 한다 .다만 ,제3항이 적용되는 경우에는 그러하지 
-아니하다 .&lt;개정 2010.12.30.&gt;
-②제1항에도 불구하고 「법인세법」에 따른 연결납세방식을 적용받는 법인의 
-경우에는 같은 법 제1조 제9호에 따른 연결모법인이 신고ㆍ납부하여야 한다 .이 
-경우 그 납부의무에 관하여는 「법인세법」제3조 제3항을 준용한다 .&lt;신설 
-2011. 12.31., 2018. 12.24.&gt;
-③「소득세법」에 따른 원천징수의무자가 제5조 제1항 제1호 또는 제2호를 적
-용받는 소득금액을 지급하는 때에는 「소득세법」의 원천징수의 예에 따라 농
-어촌특별세를 징수하여 신고·납부하여야 한다 .&lt;개정 2010.12.30.&gt;
-④제5조 제1항 제4호부터 제8호까지의 규정에 따른 농어촌특별세는 해당 본세를 신고·납
-부하거나 거래징수 (「증권거래세법」제9조에 따른 거래징수를 말한다 .이하 같다)하여 납부
-하는 때에 그에 대한 농어촌특별세도 함께 신고·납부하여야 한다.&lt;개정 2010.12.30.&gt;
-⑤제1항부터 제4항까지의 규정에 따른 신고·납부 등에 관하여 필요한 사항은 
-대통령령으로 정한다 .&lt;개정 2010.12.30., 2011.12.31.&gt;
-[제목개정 2010.12.30.]- 391 -13. 국고금관리법
-제47조(국고금의 끝수 계산 )①국고금의 수입 또는 지출에서 10원 미만의 끝수
-가 있을 때에는 그 끝수는 계산하지 아니하고 ,전액이 10원 미만일 때에도 그 
-전액을 계산하지 아니한다 .다만 ,대통령령으로 정하는 경우에는 그러하지 아니
-하다 .
-②국세의 과세표준액을 산정할 때 1원 미만의 끝수가 있으면 이를 계산하지 
-아니한다 .
-③지방자치단체 ,그 밖에 대통령령으로 정하는 공공단체와 공공기관의 경우에
-는 제1항 및 제2항을 준용할 수 있다 .다만 ,「한국산업은행법」에 따른 한국산
-업은행 등 대통령령으로 정하는 공공기관의 경우에는 그러하지 아니하다 .
-[전문개정 2011.4.4]2021년 한국은행 증권업무해설 집필진
-목 록 원고집필 담당
-Ⅰ. 국채 업무  
-  제1장 국채 제도 개요
-  제2장 국채의 발행 
-  제3장 국채의 상환 
-  제4장 국고채전문딜러 제도 
-  제5장 국채 원금・이자 분리거래제도 (STRIPS)  
-Ⅱ 통화안정증권 업무 
-  제1장 업무 개요 
-  제2장 통화안정증권의 발행 
-  제3장 통화안정증권의 등록 
-  제4장 통화안정증권의 상환 
-  제5장 발행 및 상환의 회계처리  
-  제6장 통합발행 회계처리 예시 
-Ⅲ 국공채 매매 및 대차 업무  
-  제1장 업무 개요 
-  제2장 환매조건부채권(RP) 매매 
-  제3장 증권 단순매매  
-  제4장 증권대차 차  장 김 혜 경
-조사역 염 지 인
-〃   이 경 숙
-〃   박 미 애
-과  장 신 성 욱
-조사역 박 나 라
-〃   최 인 실
-과  장 신 성 욱
-조사역 박 나 라
-〃   최 인 실목 록 집 필 자
-Ⅳ 채권 관련 원천징수 업무  
-  제1장 채권 과세제도 개요
-  제2장 채권관련 원천징수제도
-  제3장 국채 및 통화안정증권관련 원천징수업무  
-Ⅴ 수입인지  업무
-  제1장 수입인지 제도 개요 
-  제2장 수입인지 수급 및 판매 
-  제3장 수입인지 판매대금 회수 및 국고 납입
-  제4장 수입인지 판매인 관리 및 보고
-Ⅵ 정부유가증권  업무
-  제1장 업무 개요 
-  제2장 정부유가증권 수급 및 관리 
-  제3장 정부유가증권 수탁 및 환부
-  제4장 정부유가증권 월계대사 및 계산보고
-  제5장 정부유가증권 관련 기타 업무 
-Ⅶ 징발보상증권 관련 업무
-  제1장 업무 개요 
-  제2장 징발보상증권 발행 및 상환
-  제3장 징발보상금의 공탁 
-  제4장 징발재산의 환매 차  장 김 혜 경
-과  장 신 성 욱
-조사역 박 나 라
-〃   염 지 인
-〃   이 경 숙
-〃   최 인 실
-〃   박 미 애
-과  장 박 경 호
-〃   김    수
-과  장 박 경 호
-〃   김    수
-과  장 박 경 호
-〃   김    수목 록 집 필 자
-Ⅷ 현물보관 업무  
-  제1장 증권 과목
-  제2장 증권 출납, 관리, 폐기 및 현송
-  제3장 시재검사  
-Ⅸ 증권 커스터디 (Custody)  업무
-  제1장 한국은행 증권 커스터디 업무 개요
-  제2장 증권 커스터디 약정체결 절차</t>
-  </si>
-  <si>
-    <t>제4장 징발재산의 환매 차  장 김 혜 경
-과  장 신 성 욱
-조사역 박 나 라
-〃   염 지 인
-〃   이 경 숙
-〃   최 인 실
-〃   박 미 애
-과  장 박 경 호
-〃   김    수
-과  장 박 경 호
-〃   김    수
-과  장 박 경 호
-〃   김    수목 록 집 필 자
-Ⅷ 현물보관 업무  
-  제1장 증권 과목
-  제2장 증권 출납, 관리, 폐기 및 현송
-  제3장 시재검사  
-Ⅸ 증권 커스터디 (Custody)  업무
-  제1장 한국은행 증권 커스터디 업무 개요
-  제2장 증권 커스터디 약정체결 절차
-  제3장 증권 커스터디 업무 세부절차  
-  제4장 유관기관의 역할 및 프로세스
-  제5장 BOK-CS 등 관련 시스템
-  제6장 SWIFT 메세지  
-Ⅹ참고 자료  
-  제1장 채권의 종류  
-  제2장 전자증권제도의 개요
-  제3장 증권업무 이자소득세 원천징수 관련 세법조항과  장 박 경 호
-〃   김    수
-과  장 박 경 호
-〃   고 태 호
-조사역 송 병 헌
-〃   이 보 미
-차  장 김 혜 경
-과  장 신 성 욱
-조사역 박 나 라
-〃   염 지 인
-〃   이 경 숙
-〃   최 인 실
-〃   박 미 애</t>
   </si>
 </sst>
 </file>
@@ -10178,18 +8096,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="150.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -10228,10 +8145,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10239,13 +8156,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10253,13 +8170,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10267,13 +8184,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10281,13 +8198,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10295,13 +8212,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10309,13 +8226,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10323,13 +8240,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10337,13 +8254,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10351,13 +8268,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10365,13 +8282,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10379,13 +8296,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10393,13 +8310,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10407,13 +8324,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10421,13 +8338,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10435,13 +8352,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10449,13 +8366,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10463,13 +8380,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10477,13 +8394,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10491,13 +8408,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10505,13 +8422,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10519,13 +8436,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10533,13 +8450,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -10547,13 +8464,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10561,13 +8478,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10575,13 +8492,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10589,13 +8506,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10603,13 +8520,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10617,13 +8534,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10631,13 +8548,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -10645,13 +8562,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -10659,13 +8576,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -10673,13 +8590,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10687,13 +8604,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -10701,13 +8618,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -10715,13 +8632,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -10729,13 +8646,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -10743,13 +8660,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -10757,13 +8674,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -10771,13 +8688,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -10785,13 +8702,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -10799,13 +8716,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -10813,13 +8730,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -10827,13 +8744,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -10841,13 +8758,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -10855,13 +8772,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -10869,13 +8786,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -10883,13 +8800,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -10897,13 +8814,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -10911,13 +8828,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -10925,13 +8842,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -10939,13 +8856,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -10953,13 +8870,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -10967,13 +8884,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -10981,13 +8898,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -10995,13 +8912,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11009,13 +8926,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -11023,13 +8940,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -11037,13 +8954,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -11051,13 +8968,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -11065,13 +8982,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -11079,13 +8996,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -11093,13 +9010,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -11107,13 +9024,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11121,13 +9038,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -11135,13 +9052,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -11149,13 +9066,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -11163,13 +9080,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -11177,13 +9094,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -11191,363 +9108,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" t="s">
-        <v>208</v>
-      </c>
-      <c r="D73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" t="s">
         <v>211</v>
-      </c>
-      <c r="D74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>216</v>
-      </c>
-      <c r="C76" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>222</v>
-      </c>
-      <c r="C78" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>225</v>
-      </c>
-      <c r="C79" t="s">
-        <v>226</v>
-      </c>
-      <c r="D79" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" t="s">
-        <v>229</v>
-      </c>
-      <c r="D80" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>231</v>
-      </c>
-      <c r="C81" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>234</v>
-      </c>
-      <c r="C82" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>241</v>
-      </c>
-      <c r="C85" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" t="s">
-        <v>248</v>
-      </c>
-      <c r="D87" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" t="s">
-        <v>251</v>
-      </c>
-      <c r="D88" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>255</v>
-      </c>
-      <c r="C91" t="s">
-        <v>256</v>
-      </c>
-      <c r="D91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C94" t="s">
-        <v>261</v>
-      </c>
-      <c r="D94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>263</v>
-      </c>
-      <c r="C95" t="s">
-        <v>264</v>
-      </c>
-      <c r="D95" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>266</v>
-      </c>
-      <c r="C96" t="s">
-        <v>267</v>
-      </c>
-      <c r="D96" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/langchain_study/korea_bank/2021_korea_bank.xlsx
+++ b/langchain_study/korea_bank/2021_korea_bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="285">
   <si>
     <t>chunk_num</t>
   </si>
@@ -7750,6 +7750,2133 @@
 국채법 [시행 2015.7.1, 2014.12.30 일부개정 ]
 제8조(국채의 등록 및 등록의 말소 )①제5조에 따라 발행된 국채는 증권 (證券 )을 발
 행하지 아니하고 전산정보처리조직을 이용하여 국채등록부에 전자적인 방식에 의하</t>
+  </si>
+  <si>
+    <t>고객관리계좌는 무엇을 관리하기 위해 개설하는 계좌인가요?</t>
+  </si>
+  <si>
+    <t>고객관리계좌는 계좌관리기관이 고객계좌부 등록 증권을 관리하기 위해 개설하는 계좌입니다.</t>
+  </si>
+  <si>
+    <t>□고객관리계좌는 계좌관리기관이 고객계좌부 등록 증권을 관리하기 위해 전자
+등록기관에 개설하는 계좌이며 ,계좌부 기재에 법적효력은 없음
+- 331 -&lt;그림Ⅹ-1&gt;채권 전자등록발행 절차
+&lt;그림Ⅹ-2&gt; 채권의 전자등록 발행 흐름도
+- 332 -&lt;표Ⅹ-9&gt;채권별 등록과 관련된 법률
+국채법 [시행 2015.7.1, 2014.12.30 일부개정 ]
+제8조(국채의 등록 및 등록의 말소 )①제5조에 따라 발행된 국채는 증권 (證券 )을 발
+행하지 아니하고 전산정보처리조직을 이용하여 국채등록부에 전자적인 방식에 의하
+여 기명식 (記名式 )또는 무기명식 (無記名式 )으로 등록한다 .다만 ,전시·사변이나 이
+에 준하는 국가비상사태 등의 경우에는 기명식 또는 무기명식 증권을 발행할 수 있다.
+②제1항에 따라 등록한 국채는 원금의 상환 ,제13조에 따른 매입·교환 ,시효로 인
+한 소멸 등으로 국채에 대한 권리가 소멸된 경우에는 그 등록을 말소한다 .
+③제1항과 제2항에 따른 등록 및 등록의 말소 업무를 수행하는 기관은 「한국은행
+법」에 따른 한국은행 (이하 "한국은행 "이라 한다 )으로 한다 .
+④제1항과 제2항에 따른 국채의 등록 ,등록 사항의 변경 및 등록의 말소와 증권의 
+발행 등에 필요한 사항은 대통령령으로 정한다 .
+제9조(등록국채의 이전 등)①제8조에 따라 등록한 국채 (이하 "등록국채 "라 한다 )를 
+이전 (移轉 )하거나 등록국채에 질권 (質權 )을 설정한 경우에는 그 이전 사실 또는 질
+권 설정 사실을 등록하지 아니하면 정부나 그 밖의 제3자에게 대항할 수 없다 .
+②등록국채를 법령에 따라 담보로 제공하기 위하여 공탁 (供託 )하거나 임치 (任置 )하
+는 경우에는 그 공탁 또는 임치 사실을 등록함으로써 등록국채의 담보 제공을 대신
+할 수 있다 .
+③제1항과 제2항에 따른 등록국채의 이전 또는 질권의 설정 및 담보 제공의 절차
+와 등록의 말소에 관하여 필요한 사항은 대통령령으로 정한다 .
+제10조(국채 등록의 정지 )①기획재정부장관은 권리 이전을 원인으로 하여 제9조에 
+따른 등록을 할 때에는 국채의 상환기일 또는 국채에 대한 이자 지급기일이 되기 전 
+1개월 이내의 기간 동안 대통령령으로 정하는 바에 따라 그 등록을 정지할 수 있다 .
+다만 ,상속 ,유증 (遺贈 )및 강제집행의 경우에는 그러하지 아니하다 .
+②제9조제 3항에 따른 등록의 말소를 정지하는 경우에는 제1항을 준용한다 .- 333 -주식ㆍ사채 등의 전자등록에 관한 법률 [시행 2019. 9.16,2016. 3.22,제정 ]
+제2조(정의 )이 법에서 사용하는 용어의 뜻은 다음과 같다 .
+1.“주식등 ”이란 다음 각 목의 어느 하나에 해당하는 것을 말한다 .
+가.주식
+나.사채 (「신탁법」에 따른 신탁사채 및 「자본시장과 금융투자업에 관한 법률」
+에 따른 조건부자본증권을 포함한다 )
+다.국채
+라.지방채
+마.법률에 따라 직접 설립된 법인이 발행하는 채무증권에 표시되어야 할 권리
+바~거.&lt;생 략&gt;
+2.“전자등록 ”이란 주식등의 종류 ,종목 ,금액 ,권리자 및 권리 내용 등 주식등에 관
+한 권리의 발생ㆍ변경ㆍ소멸에 관한 정보를 전자등록계좌부에 전자적 방식으로 
+기재하는 것을 말한다 .
+3.“전자등록계좌부 ”란 주식등에 관한 권리의 발생ㆍ변경ㆍ소멸에 대한 정보를 전자
+적 방식으로 편성한 장부로서 다음 각 목의 장부를 말한다 .
+가.제22조제 2항에 따라 작성되는 고객계좌부 (이하 “고객계좌부 ”라 한다 )
+나.제23조제 2항에 따라 작성되는 계좌관리기관등 자기계좌부 (自己計座簿 )(이하 
+“계좌관리기관등 자기계좌부 ”라 한다 )
+4.“전자등록주식등 ”이란 전자등록계좌부에 전자등록된 주식등을 말한다 .
+5.“권리자 ”란 전자등록주식등의 소유자 또는 질권자 ,그 밖에 전자등록주식등에 이
+해관계가 있는 자로서 대통령령으로 정하는 자를 말한다 .
+6.“전자등록기관 ”이란 주식등의 전자등록에 관한 제도의 운영을 위하여 제5조제 1항
+에 따라 허가를 받은 자를 말한다 .
+7.“계좌관리기관 ”이란 제19조 각 호의 어느 하나에 해당하는 자로서 제22조제 1항에 
+따른 고객계좌를 관리하는 자를 말한다 .
+제5조(전자등록업의 허가 )①전자등록업을 하려는 자는 전자등록의 대상이 되는 주
+식등의 범위를 구성요소로 하여 대통령령으로 정하는 업무 단위 (이하 “전자등록업 
+허가업무 단위 ”라 한다 )의 전부 또는 일부를 선택하여 금융위원회 및 법무부장관으
+로부터 하나의 전자등록업허가를 받아야 한다 .&lt;이하생략 &gt;
+제19조(계좌관리기관 )다음 각 호의 어느 하나에 해당하는 자는 계좌관리기관이 될 수 
+있다 .
+1~2. &lt;생 략&gt;
+3.「한국은행법」에 따른 한국은행 (이하 “한국은행 ”이라 한다 )
+&lt;이하생략 &gt;- 334 -제21조(발행인관리계좌의 개설 등)①다음 각 호의 어느 하나에 해당하는 자는 전
+자등록기관에 발행인관리계좌를 개설하여야 한다 .
+1.주식등을 전자등록의 방법으로 새로 발행하려는 자
+2.이미 주권 (株券 ),그 밖에 대통령령으로 정하는 증권 또는 증서 (이하 “주권등 ”이
+라 한다 )가 발행된 주식등의 권리자에게 전자등록의 방법으로 주식등을 보유하
+게 하거나 취득하게 하려는 자
+3.그 밖에 제1호 및 제2호에 준하는 자로서 대통령령으로 정하는 자
+②제1항에 따라 발행인관리계좌가 개설된 경우 전자등록기관은 다음 각 호의 사항
+을 기록하여 발행인 (제1항 각 호의 어느 하나에 해당하는 자로서 같은 항에 따라 발
+행인관리계좌를 개설한 자를 말한다 .이하 같다 )별로 발행인관리계좌부를 작성하여야 
+한다 .
+1.발행인의 명칭 및 사업자등록번호 ,그 밖에 발행인을 식별할 수 있는 정보로서 
+대통령령으로 정하는 정보
+2.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
+3.그 밖에 발행인관리계좌부에 기록할 필요가 있는 사항으로서 대통령령으로 정하는 
+사항
+③제2항에 따라 작성된 발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 
+또는 금액이 다음 각 호의 어느 하나에 해당하는 장부에 기재된 주식등의 종목별 수
+량 또는 금액과 다른 경우에는 그 장부에 기재된 수량 또는 금액을 기준으로 한다 .
+1.주주명부</t>
+  </si>
+  <si>
+    <t>발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 또는 금액이 다른 장부와 다른 경우 기준이 되는 장부는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 또는 금액이 다른 장부와 다른 경우 기준이 되는 장부는 주주명부, 수익자명부, 국채법, 국고금 관리법 또는 한국은행 통화안정증권법에 따른 등록부입니다.</t>
+  </si>
+  <si>
+    <t>한다 .
+1.발행인의 명칭 및 사업자등록번호 ,그 밖에 발행인을 식별할 수 있는 정보로서 
+대통령령으로 정하는 정보
+2.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
+3.그 밖에 발행인관리계좌부에 기록할 필요가 있는 사항으로서 대통령령으로 정하는 
+사항
+③제2항에 따라 작성된 발행인관리계좌부에 기록된 전자등록주식등의 종목별 수량 
+또는 금액이 다음 각 호의 어느 하나에 해당하는 장부에 기재된 주식등의 종목별 수
+량 또는 금액과 다른 경우에는 그 장부에 기재된 수량 또는 금액을 기준으로 한다 .
+1.주주명부
+2.수익자명부 (「신탁법」제79조에 따른 수익자명부 또는 「자본시장과 금융투자업
+에 관한 법률」제189조에 따른 수익자명부를 말한다 )
+3.「국채법」,「국고금 관리법」또는 「한국은행 통화안정증권법」에 따른 등록부
+4.그 밖에 주식등의 권리자에 관한 장부로서 대통령령으로 정하는 장부
+④발행인은 제2항 각 호의 사항이 변경된 경우에는 지체 없이 그 내용을 전자등록
+기관에 통지하여야 하고 ,전자등록기관은 그 통지 내용에 따라 지체 없이 발행인관
+리계좌부의 기록을 변경하여야 한다 .
+⑤전자등록기관은 제4항에 따라 발행인관리계좌부의 기록이 변경된 경우에는 지체 
+없이 다음 각 호의 조치를 하여야 한다 .
+1.변경 내용의 계좌관리기관에 대한 통지
+2.고객관리계좌부의 기록 및 계좌관리기관등 자기계좌부의 전자등록의 변경
+⑥계좌관리기관은 제5항 제1호의 통지를 받으면 지체 없이 그 통지 내용에 따라 고
+객계좌부의 전자등록을 변경하여야 한다 .- 335 -제22조(고객계좌 및 고객관리계좌의 개설 등)①전자등록주식등의 권리자가 되려는 
+자는 계좌관리기관에 고객계좌를 개설하여야 한다 .
+②제1항에 따라 고객계좌가 개설된 경우 계좌관리기관은 다음 각 호의 사항을 전자
+등록하여 권리자별로 고객계좌부를 작성하여야 한다 .
+1.권리자의 성명 또는 명칭 및 주소
+2.발행인의 명칭
+3.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
+4.전자등록주식등에 질권이 설정된 경우에는 그 사실
+5.전자등록주식등이 신탁재산인 경우에는 그 사실
+6.전자등록주식등의 처분이 제한되는 경우에는 그에 관한 사항
+7.그 밖에 고객계좌부에 등록할 필요가 있는 사항으로서 대통령령으로 정하는 사항
+③계좌관리기관은 제2항의 고객계좌부에 전자등록된 전자등록주식등의 총수량 또는 
+총금액을 관리하기 위하여 전자등록기관에 고객관리계좌를 개설하여야 한다 .
+④제3항에 따라 고객관리계좌가 개설된 경우 전자등록기관은 다음 각 호의 사항을 
+기록하여 계좌관리기관별로 고객관리계좌부를 작성하여야 한다 .
+1.계좌관리기관의 명칭 및 주소
+2.전자등록주식등의 종류 ,종목 및 종목별 수량 또는 금액
+3.그 밖에 고객관리계좌부에 등록할 필요가 있는 사항으로서 대통령령으로 정하는 
+사항
+제23조(계좌관리기관등 자기계좌의 개설 등)①제22조 제1항에도 불구하고 계좌관리
+기관 ,법률에 따라 설립된 기금 ,그 밖에 전자등록기관에 주식등을 전자등록할 필요
+가 있는 자로서 대통령령으로 정하는 자(이하 “계좌관리기관등 ”이라 한다 )가 전자등
+록주식등의 권리자가 되려는 경우에는 전자등록기관에 계좌관리기관등 자기계좌를 
+개설할 수 있다 .
+②제1항에 따라 계좌관리기관등 자기계좌가 개설된 경우 전자등록기관은 다음 각 
+호의 사항을 전자등록하여 계좌관리기관등 자기계좌부를 작성하여야 한다 .
+1.계좌관리기관등의 성명 또는 명칭 및 주소
+2.제22조 제2항 제2호부터 제6호까지의 규정에 따른 사항
+3.그 밖에 계좌관리기관등 자기계좌부에 등록할 필요가 있는 사항으로서 대통령령
+으로 정하는 사항- 336 -제24조(전자등록의 신청 등)①주식등의 전자등록은 발행인이나 권리자의 신청 또
+는 관공서의 촉탁에 따라 한다 .다만 ,이 법에 다른 규정이 있는 경우에는 전자등록
+기관 또는 계좌관리기관이 직권으로 할 수 있다 .
+②주식등의 전자등록은 이 법에 다른 규정이 없으면 발행인이나 권리자 단독으로 
+신청한다 .
+③관공서의 촉탁에 따라 전자등록을 하는 경우에 대해서는 신청에 따른 전자등록에 
+관한 규정을 준용한다 .
+제30조(계좌간 대체의 전자등록 )①전자등록주식등의 양도 (다음 각 호의 어느 하나에 
+해당하는 경우를 포함한다 )를 위하여 계좌간 대체를 하려는 자는 해당 전자등록주식
+등이 전자등록된 전자등록기관 또는 계좌관리기관에 계좌간 대체의 전자등록을 신청
+하여야 한다 .
+1.제29조 제2항 제1호부터 제3호까지의 어느 하나에 해당하는 경우
+2.상속ㆍ합병 등을 원인으로 전자등록주식등의 포괄승계를 받은 자가 자기의 전자
+등록계좌로 그 전자등록주식등을 이전하는 경우
+3.그 밖에 계좌간 대체가 필요하다고 인정되는 경우로서 대통령령으로 정하는 경우
+②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
+이 전자등록계좌부에 해당 전자등록주식등의 계좌간 대체의 전자등록을 하여야 한다 .
+&lt;이하생략 &gt;
+제31조(질권 설정 및 말소의 전자등록 )①전자등록주식등에 질권을 설정하거나 말소
+하려는 자는 해당 전자등록주식등이 전자등록된 전자등록기관 또는 계좌관리기관에 
+질권 설정 또는 말소의 전자등록을 신청하여야 한다 .
+②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
+이 해당 전자등록주식등이 질물 (質物 )이라는 사실과 질권자를 질권설정자의 전자등
+록계좌부에 전자등록하는 방법으로 해당 전자등록주식등에 질권 설정 또는 말소의 
+전자등록을 하여야 한다 .
+&lt;이하생략 &gt;
+제32조(신탁재산이라는 사실의 표시 및 말소의 전자등록 )①전자등록주식등에 대하
+여 신탁재산이라는 사실을 표시하거나 그 표시를 말소하려는 자는 해당 전자등록주
+식등이 전자등록된 전자등록기관 또는 계좌관리기관에 신탁재산이라는 사실의 표시 
+또는 말소의 전자등록을 신청하여야 한다 .
+②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
+이 해당 전자등록주식등이 신탁재산이라는 사실을 전자등록계좌부에 표시하거나 말
+소하는 전자등록을 하여야 한다 .</t>
+  </si>
+  <si>
+    <t>전자등록주식등에 대하여 신탁재산이라는 사실을 표시하거나 말소하려는 자는 어디에 신청하여야 하나요?</t>
+  </si>
+  <si>
+    <t>전자등록주식등에 대하여 신탁재산이라는 사실을 표시하거나 말소하려는 자는 해당 전자등록주식등이 전자등록된 전자등록기관 또는 계좌관리기관에 신청하여야 합니다.</t>
+  </si>
+  <si>
+    <t>전자등록을 하여야 한다 .
+&lt;이하생략 &gt;
+제32조(신탁재산이라는 사실의 표시 및 말소의 전자등록 )①전자등록주식등에 대하
+여 신탁재산이라는 사실을 표시하거나 그 표시를 말소하려는 자는 해당 전자등록주
+식등이 전자등록된 전자등록기관 또는 계좌관리기관에 신탁재산이라는 사실의 표시 
+또는 말소의 전자등록을 신청하여야 한다 .
+②제1항에 따라 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
+이 해당 전자등록주식등이 신탁재산이라는 사실을 전자등록계좌부에 표시하거나 말
+소하는 전자등록을 하여야 한다 .
+&lt;이하생략 &gt;- 337 -제33조(권리의 소멸 등에 따른 변경·말소의 전자등록 )①다음 각 호의 어느 하나에 
+해당하는 사유로 제25조부터 제27조까지의 규정에 따른 신규 전자등록을 변경하거
+나 말소하려는 자는 해당 전자등록주식등이 전자등록된 전자등록기관 또는 계좌관
+리기관에 신규 전자등록의 변경ㆍ말소의 전자등록을 신청하여야 한다 .
+1.원리금ㆍ상환금 지급 등으로 인한 전자등록주식등에 관한 권리의 전부 또는 일
+부의 소멸
+2~5. &lt;생 략&gt;
+②제1항에 따른 전자등록 신청을 받은 전자등록기관 또는 계좌관리기관은 지체 없
+이 전자등록주식등에 관한 권리 내용을 변경하거나 말소하는 전자등록을 하여야 한
+다.
+&lt;이하생략 &gt;
+제35조(전자등록의 효력 )①전자등록계좌부에 전자등록된 자는 해당 전자등록주식등
+에 대하여 전자등록된 권리를 적법하게 가지는 것으로 추정한다 .
+②전자등록주식등을 양도하는 경우에는 제30조에 따른 계좌간 대체의 전자등록을 
+하여야 그 효력이 발생한다 .
+③전자등록주식등을 질권의 목적으로 하는 경우에는 제31조에 따른 질권 설정의 전
+자등록을 하여야 입질의 효력이 발생한다 .이 경우「상법」제340조 제1항에 따른 주
+식의 등록질 (登錄質 )의 경우 질권자의 성명을 주권에 기재하는 것에 대해서는 그 성
+명을 전자등록계좌부에 전자등록하는 것으로 갈음한다 .
+④전자등록주식등의 신탁은 제32조에 따라 해당 전자등록주식등이 신탁재산이라는 
+사실을 전자등록함으로써 제3자에게 대항할 수 있다 .
+⑤선의 (善意 )로 중대한 과실 없이 전자등록계좌부의 권리 내용을 신뢰하고 소유자 
+또는 질권자로 전자등록된 자는 해당 전자등록주식등에 대한 권리를 적법하게 취득
+한다 .
+제38조(전자등록기관을 통한 권리 행사 )①전자등록주식등의 권리자는 전자등록기관
+을 통하여 배당금ㆍ원리금ㆍ상환금 등의 수령 ,그 밖에 주식등에 관한 권리를 행사
+할 수 있다 .
+②제1항에 따라 권리를 행사하려는 전자등록주식등의 권리자는 전자등록기관을 통
+하여 권리를 행사한다는 뜻과 권리 행사의 내용을 구체적으로 밝혀 전자등록기관에 
+신청하여야 한다 .이 경우 고객계좌부에 전자등록된 권리자는 계좌관리기관을 통하
+여 신청하여야 한다 .
+③전자등록주식등의 발행인은 제1항에 따른 전자등록기관을 통한 권리 행사를 위하
+여 대통령령으로 정하는 사항을 지체 없이 전자등록기관에 통지하여야 한다 .
+④&lt;생 략&gt;- 338 -제42조(초과분에 대한 해소 의무 등)①계좌관리기관은 제1호의 총수량 또는 총금
+액이 제2호의 총수량 또는 총금액을 초과하는 경우에는 대통령령으로 정하는 바에 
+따라 지체 없이 그 초과분을 해소하여야 한다 .
+1.고객계좌부에 전자등록된 주식등의 종목별 총수량 또는 총금액
+2.고객관리계좌부에 기록된 전자등록주식등의 종목별 총수량 또는 총금액
+②전자등록기관은 제1호의 총수량 또는 총금액이 제2호의 총수량 또는 총금액을 초
+과하는 경우에는 대통령령으로 정하는 바에 따라 지체 없이 그 초과분을 해소하여야 
+한다 .
+1.계좌관리기관등 자기계좌부에 전자등록된 주식등의 종목별 총수량 또는 총금액
+과 고객관리계좌부에 기록된 전자등록주식등의 종목별 총수량 또는 총금액의 합
+2.발행인관리계좌부에 기록된 전자등록주식등의 종목별 총수량 또는 총금액
+③제1항 또는 제2항에 따른 초과분에 대한 해소 의무의 전부 또는 일부를 이행하지 
+아니한 경우에는 계좌관리기관과 전자등록기관은 대통령령으로 정하는 방법 및 절차
+에 따라 그 초과분을 해소하여야 한다 .
+④제1항부터 제3항까지의 규정에 따른 초과분에 대한 해소 의무의 전부 또는 일부
+를 이행하지 아니한 경우에는 제1항 또는 제2항에 따라 해소 의무가 있는 계좌관리
+기관 또는 전자등록기관이 대통령령으로 정하는 바에 따라 해소되지 아니한 초과분
+에 해당하는 전자등록주식등에 대하여 지급되는 원리금 ,배당금 ,그 밖에 대통령령으
+로 정하는 금액을 지급할 의무를 진다 .
+⑤제1항부터 제4항까지의 규정에 따른 의무를 이행한 계좌관리기관 또는 전자등록
+기관은 각각 해당 초과분 발생에 책임이 있는 자에게 구상권 (求償權 )을 행사할 수 
+있다 .
+⑥계좌관리기관은 전자등록기관에 개설한 계좌를 폐쇄한 이후에도 제3항에 따른 해
+소 의무를 부담한다 .다만 ,계좌를 폐쇄한 때부터 5년이 지난 경우에는 해당 의무가 
+소멸한다 .
+제43조(초과분에 대한 권리 행사의 제한 )①제42조 제1항에 따른 초과분이 발생한 
+경우에는 같은 항에 따른 의무가 이행될 때까지 그 의무가 발생한 계좌관리기관의 
+고객계좌부에 해당 전자등록주식등의 권리자로 전자등록된 자로서 대통령령으로 정
+하는 자는 대통령령으로 정하는 바에 따라 산정된 수량 또는 금액에 대한 권리를 발
+행인에게 주장할 수 없다 .
+②제42조 제2항에 따른 초과분이 발생한 경우에는 같은 항에 따른 의무가 이행될 
+때까지 해당 전자등록주식등의 권리자로 전자등록된 자로서 대통령령으로 정하는 자
+는 대통령령으로 정하는 바에 따라 산정된 수량 또는 금액에 대한 권리를 발행인에
+게 주장할 수 없다 .- 339 -③제1항 또는 제2항에 따른 권리 행사의 제한으로 해당 전자등록주식등의 권리자
+에게 손해가 발생한 경우 제42조제 1항 또는 제2항에 따른 해소 의무를 부담하는 자
+는 해당 손해를 배상하여야 한다 .
+④제3항에 따른 손해배상 의무의 전부 또는 일부가 이행되지 아니한 경우에는 계좌
+관리기관 및 전자등록기관은 연대하여 배상할 책임이 있다 .이 경우 제42조제 5항 
+및 제6항을 준용한다 .</t>
+  </si>
+  <si>
+    <t>전자등록기관은 어떤 경우에 계좌간 대체의 전자등록을 제한할 수 있나요?</t>
+  </si>
+  <si>
+    <t>전자등록기관은 계좌관리기관의 파산, 해산, 그 밖에 대통령령으로 정하는 사유가 발생한 경우 계좌간 대체의 전자등록을 제한할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>는 대통령령으로 정하는 바에 따라 산정된 수량 또는 금액에 대한 권리를 발행인에
+게 주장할 수 없다 .- 339 -③제1항 또는 제2항에 따른 권리 행사의 제한으로 해당 전자등록주식등의 권리자
+에게 손해가 발생한 경우 제42조제 1항 또는 제2항에 따른 해소 의무를 부담하는 자
+는 해당 손해를 배상하여야 한다 .
+④제3항에 따른 손해배상 의무의 전부 또는 일부가 이행되지 아니한 경우에는 계좌
+관리기관 및 전자등록기관은 연대하여 배상할 책임이 있다 .이 경우 제42조제 5항 
+및 제6항을 준용한다 .
+제47조(계좌간 대체의 전자등록 제한 )전자등록기관은 계좌관리기관의 파산ㆍ해산 ,그 
+밖에 대통령령으로 정하는 사유가 발생한 경우 대통령령으로 정하는 기준 및 방법에 
+따라 고객계좌부에 전자등록된 전자등록주식등의 계좌간 대체의 전자등록을 제한할 
+수 있다 .
+제72조(한국은행에 관한 특례 )①한국은행은 다음 각 호의 어느 하나에 해당하는 것
+(이하 이 조에서 “국채등 ”이라 한다 )의 소유자가 되려는 자가 국채등의 발행을 청구
+하는 경우에는 그 소유자가 되려는 자의 신청으로 이들을 갈음하여 전자등록기관을 
+명의인으로 하는 국채등의 등록 (「국채법」,「국고금 관리법」또는 「한국은행 통
+화안정증권법」에 따른 등록을 말한다 )을 할 수 있다 .
+1.「국채법」에 따른 국고채권
+2.「국고금 관리법」에 따른 재정증권
+3.「한국은행 통화안정증권법」에 따른 통화안정증권
+②한국은행은 제1항에 따라 전자등록기관의 명의로 등록된 국채등이 이 법에 따라 
+소유자의 명의로 전자등록될 수 있도록 제1항의 등록 내용을 전자등록기관에 통
+지하여야 한다 .이 경우 제25조 및 제26조를 준용한다 .
+부칙 &lt;제14096호,2016. 3.22.&gt;
+제2조(다른 법률의 폐지 )①「공사채 등록법」은 폐지한다 .
+②「전자단기사채등의 발행 및 유통에 관한 법률」은 폐지한다 .
+한국은행통화안정증권법 [시행 2016.6.3, 2016.3.2 일부개정 ]
+제3조(무기명증권과 등록증권 )②제2조에 따라 발행된 통화안정증권은 증권 (證券 )을 
+발행하지 아니하고 전산정보처리조직을 이용하여 통화안정증권등록부에 전자적인 방
+식에 의하여 기명식 (記名式 )또는 무기명식 (無記名式 )으로 등록한다 .다만 ,전시ㆍ사변
+이나 이에 준하는 국가비상사태 등의 경우에는 기명식 또는 무기명식 증권을 발행할 
+수 있다 .
+④제2항에 따른 등록 업무를 수행하는 기관은 한국은행으로 한다 .- 340 -&lt;표Ⅹ-10&gt;예탁결제제도 관련 용어 정리
+(1)예탁
+□대체성이 있는 유가증권을 예탁받아 혼합보관하고 ,예탁유가증권에 대한 권리 이
+전을 계좌간 대체방식에 의해 처리하는 것으로 혼장임치 83)와 위임의 혼합계약임
+(2)계좌대체
+□증권의 권리이전 ,질권 설정 등을 실물 이동 없이 계좌부상 대체기재로 완료하는 
+것을 의미
+□「자본시장과 금융투자업에 관한 법률」에 따라 계좌대체만으로도 증권의 권리가 
+실제로 이전하는 효력이 발생
+(3)반환
+□예탁자나 고객은 언제든지 예탁증권을 반환 청구할 수 있으나 ,이는 예탁했던 증
+권의 반환을 청구하는 것이 아니라 동종 ,동량의 증권을 반환 청구하는 것임
+□반환이 완료되면 반환된 증권은 예탁된 해당 유가증권 물량에서 차감되며 예탁
+유가증권에 대한 공유지분 보유도 소멸됨
+(4)공유권
+□예탁기관이 예탁받은 유가증권을 혼합보관함에 따라 예탁자 (예탁자의 고객 포함 )
+는 예탁유가증권의 종류 ,종목 ,수량에 따라 공유지분을 가지는 것으로 추정
+83)증권을 예탁 받음에 있어 동종의 증권을 혼합하여 보관하고 반환할 때에도 동종,동량의 유
+가증권을 반환하는 것을 의미(예탁자는 예탁유가증권에 대해 공유지분 보유)- 341 -&lt;표Ⅹ-11&gt;예탁결제제도의 변천
+시행연월 내   용
+1973. 2「증권거래법」제127조의 2(대체결제업무의 허가 )신설
+1974.12「증권거래법」제127조의 2(대체결제업무의 허가 )개정
+집중예탁제도 신설 및 집중예탁을 통한 대체결제를 할 수 있는  
+‘대체결제회사 ’설립의 근거 마련
+1974.12. ‘한국증권대체결제 (주)’(현 ‘한국예탁결제원 ’의 전신 )설립
+1994. 4.「증권거래법」제173조(설립 )개정으로 증권예탁원을 법인으로  
+설립하도록 별도의 조항 신설
+1995. 9.「유가증권의 장외거래에 관한 규정」제21조(결제방법 )제3항   
+신설로 기관투자자들의 장외거래시 증권예탁원으로의 집중예탁  
+을 유도
+1995.12.증권예탁원 ,한국은행 원화당좌예금 계좌개설 및 금융결제망   
+가입
+1999. 4.「증권거래법」제44조의 4(고객예탁유가증권 등의 예탁 )신설
+증권회사에서 보유하게 되는 고객 또는 보유자산의 유가증권  
+등을 모두 증권예탁원에 예탁하도록 강제
+1999.12「유가증권의 장외거래에 관한 규정」제5조(결제방법 )제3항에
+채권과 대금의 동시결제 (DVP)규정
+2009. 2「자본시장과 금융투자업에 관한 법률」을 제정하여 금융투자  
+업자의 고유재산 또는 투자자 소유의 증권을 한국예탁결제원에
+집중 예탁하도록 규정
+2012. 2.장내외 국채결제를 위한 일중 RP제도 도입
+2013. 1.전자단기사채업무 개시
+2013. 7.코넥스 (KONEX) 시장 결제서비스 개시
+2016. 4.외국통화의 원활한 결제를 위하여 「외국환거래규정」제11조의
+21제1항의 청산은행을 대금결제은행으로 추가 지정
+2016. 9.한국예탁결제원을 전자증권등록기관으로 허가
+2017. 9.청산결제리스크관리시스템 구축 사업 완료 
+2019. 9.「전자증권법」시행- 342 -&lt;표Ⅹ-12&gt;예탁 관련 법률
+자본시장과 금융투자업에 관한 법률 [시행 2021.4.6, 2021.1.5 일부개정]  
+제61조(소유증권의 예탁 )①금융투자업자 (겸영금융투자업자를 제외한다 .이하 이 조
+에서 같다 )는 그 고유재산을 운용함에 따라 소유하게 되는 증권 (대통령령으로 정하
+는 것을 포함한다 )을 예탁결제원에 지체 없이 예탁하여야 한다 .다만 ,해당 증권의 
+유통 가능성 ,다른 법령에 따른 유통방법이 있는지 여부 ,예탁의 실행 가능성 등을 
+고려하여 대통령령으로 정하는 경우에는 예탁결제원에 예탁하지 아니할 수 있다 .
+&lt;개정 2013.5.28.&gt;</t>
+  </si>
+  <si>
+    <t>금융투자업자가 소유한 증권을 예탁결제원에 예탁하지 않아도 되는 경우는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>금융투자업자가 소유한 증권을 예탁결제원에 예탁하지 않아도 되는 경우는 해당 증권의 유통 가능성, 다른 법령에 따른 유통방법이 있는지 여부, 예탁의 실행 가능성 등을 고려하여 대통령령으로 정하는 경우입니다.</t>
+  </si>
+  <si>
+    <t>자본시장과 금융투자업에 관한 법률 [시행 2021.4.6, 2021.1.5 일부개정]  
+제61조(소유증권의 예탁 )①금융투자업자 (겸영금융투자업자를 제외한다 .이하 이 조
+에서 같다 )는 그 고유재산을 운용함에 따라 소유하게 되는 증권 (대통령령으로 정하
+는 것을 포함한다 )을 예탁결제원에 지체 없이 예탁하여야 한다 .다만 ,해당 증권의 
+유통 가능성 ,다른 법령에 따른 유통방법이 있는지 여부 ,예탁의 실행 가능성 등을 
+고려하여 대통령령으로 정하는 경우에는 예탁결제원에 예탁하지 아니할 수 있다 .
+&lt;개정 2013.5.28.&gt;
+②금융투자업자가 제1항 본문에 따라 외화증권 (「외국환거래법」제3조 제1항 제8
+호의 외화증권을 말한다 .이하 같다 )을 예탁결제원에 예탁하는 경우에는 대통령령
+으로 정하는 방법에 따라 예탁하여야 한다 .&lt;신설 2013.5.28.&gt;
+제75조(투자자 예탁증권의 예탁 )①투자매매업자 또는 투자중개업자는 금융투자상품
+의 매매 ,그 밖의 거래에 따라 보관하게 되는 투자자 소유의 증권 (대통령령으로 정
+하는 것을 포함한다 )을 예탁결제원에 지체 없이 예탁하여야 한다 .다만 ,해당 증권
+의 유통 가능성 ,다른 법령에 따른 유통방법이 있는지 여부 ,예탁의 실행 가능성 등
+을 고려하여 대통령령으로 정하는 경우에는 예탁결제원에 예탁하지 아니할 수 있다 .
+&lt;개정 2013.5.28.&gt;
+②투자매매업자 또는 투자중개업자가 제1항 본문에 따라 외화증권을 예탁결제원에 
+예탁하는 경우에는 대통령령으로 정하는 방법에 따라 예탁하여야 한다.&lt;신설 2013.5.28.&gt;- 343 -  증권업무 이자소득세 원천징수 관련 세법조항 제3장
+1.국세기본법
+제21조 (납세의무의 성립시기 )①②&lt;생략 &gt;
+③다음 각 호의 국세를 납부할 의무의 성립시기는 제2항에도 불구하고 다음 각 
+호의 구분에 따른다 .
+1.원천징수하는 소득세ㆍ법인세 :소득금액 또는 수입금액을 지급하는 때
+2.~4.&lt;생략 &gt;[전문개정 2018. 12.31.]
+제47조(가산세 부과 )①정부는 세법에서 규정한 의무를 위반한 자에게 이 법 또
+는 세법에서 정하는 바에 따라 가산세를 부과할 수 있다 .
+②가산세는 해당 의무가 규정된 세법의 해당 국세의 세목 (稅目 )으로 한다 .다만 ,
+해당 국세를 감면하는 경우에는 가산세는 그 감면대상에 포함시키지 아니하는 
+것으로 한다.
+③가산세는 납부할 세액에 가산하거나 환급받을 세액에서 공제한다 .&lt;신설 2011.
+12.31.&gt; [전문개정 2010. 1.1.]
+제47조의 5(원천징수 등 납부지연가산세 )①국세를 징수하여 납부할 의무를 지는 
+자가 징수하여야 할 세액 (제2항 제2호의 경우에는 징수한 세액 )을 법정납부기한
+까지 납부하지 아니하거나 과소납부한 경우에는 납부하지 아니한 세액 또는 과
+소납부분 세액의 100분의 50(제1호의 금액과 제2호 중 법정납부기한의 다음 날
+부터 납부고지일까지의 기간에 해당하는 금액을 합한 금액은 100분의 10)에 상
+당하는 금액을 한도로 하여 다음 각 호의 금액을 합한 금액을 가산세로 한다 .
+&lt;개정 2013. 1.1.,2019. 12.31., 2020. 12.29.&gt;
+1.납부하지 아니한 세액 또는 과소납부분 세액의 100분의 3에 상당하는 금액
+2.납부하지 아니한 세액 또는 과소납부분 세액 ×법정납부기한의 다음 날부터 
+납부일까지의 기간 (납부고지일부터 납부고지서에 따른 납부기한까지의 기간은 
+제외한다 )×금융회사 등이 연체대출금에 대하여 적용하는 이자율 등을 고려
+하여 대통령령으로 정하는 이자율
+②제1항에서 “국세를 징수하여 납부할 의무 ”란 다음 각 호의 어느 하나에 해당
+하는 의무를 말한다 .&lt;개정 2013. 6.7.&gt;- 344 -1.「소득세법」또는 「법인세법」에 따라 소득세 또는 법인세를 원천징수하여 
+납부할 의무
+2.~3.&lt;생략 &gt;
+③제1항에도 불구하고 다음 각 호의 어느 하나에 해당하는 경우에는 제1항을 
+적용하지 아니한다 .&lt;개정 2013. 1.1.&gt;
+1.~2.&lt;생략 &gt;
+3.「소득세법」또는 「법인세법」에 따라 소득세 또는 법인세를 원천징수하여
+야 할 자가 국가 ,지방자치단체 또는 지방자치단체조합인 경우 (「소득세법」
+제128조의 2에 해당하는 경우는 제외한다 )
+④제1항을 적용할 때 납부고지서에 따른 납부기한의 다음 날부터 납부일까지의 
+기간 (「국세징수법」제13조에 따라 지정납부기한과 독촉장에서 정하는 기한을 
+연장한 경우에는 그 연장기간은 제외한다 )이 5년을 초과하는 경우에는 그 기간
+은 5년으로 한다 .&lt;신설 2019. 12.31., 2020. 12.29.&gt;
+⑤체납된 국세의 납부고지서별ㆍ세목별 세액이 100만원 미만인 경우에는 제1항
+제2호의 가산세를 적용하지 아니한다 .&lt;신설 2019. 12.31., 2020. 12.29.&gt;
+[전문개정 2011. 12.31.]
+[제목개정 2020. 12.22.]
+제51조(국세환급금의 충당과 환급 )①~④&lt;생략 &gt;
+⑤원천징수의무자가 원천징수하여 납부한 세액에서 환급받을 환급세액이 있는 
+경우 그 환급액은 그 원천징수의무자가 원천징수하여 납부하여야 할 세액에 충
+당(다른 세목의 원천징수세액에의 충당은 「소득세법」에 따른 원천징수이행상황
+신고서에 그 충당·조정명세를 적어 신고한 경우에만 할 수 있다 )하고 남은 금액
+을 환급한다 .다만 ,그 원천징수의무자가 그 환급액을 즉시 환급해 줄 것을 요
+구하는 경우나 원천징수하여 납부하여야 할 세액이 없는 경우에는 즉시 환급한다 .
+&lt;개정 2010.12.27&gt;
+&lt;이하 생략 &gt;- 345 -2.소득세법
+제2조(납세의무 )①다음 각 호의 어느 하나에 해당하는 개인은 이 법에 따라 
+각자의 소득에 대한 소득세를 납부할 의무를 진다 .
+1.거주자
+2.비거주자로서 국내원천소득 (國內源泉所得 )이 있는 개인
+②다음 각 호의 어느 하나에 해당하는 자는 이 법에 따라 원천징수한 소득세
+를 납부할 의무를 진다 .
+1.거주자
+2.비거주자
+3.내국법인
+4.외국법인의 국내지점 또는 국내영업소 (출장소 ,그 밖에 이에 준하는 것을 포
+함한다 .이하 같다 )
+5.그 밖에 이 법에서 정하는 원천징수의무자
+③「국세기본법」제13조제 1항에 따른 법인 아닌 단체 중 같은 조 제4항에 따</t>
+  </si>
+  <si>
+    <t>거주자와 비거주자의 소득세 납부 의무는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>거주자와 비거주자는 각자의 소득에 대한 소득세를 납부할 의무를 집니다.</t>
+  </si>
+  <si>
+    <t>각자의 소득에 대한 소득세를 납부할 의무를 진다 .
+1.거주자
+2.비거주자로서 국내원천소득 (國內源泉所得 )이 있는 개인
+②다음 각 호의 어느 하나에 해당하는 자는 이 법에 따라 원천징수한 소득세
+를 납부할 의무를 진다 .
+1.거주자
+2.비거주자
+3.내국법인
+4.외국법인의 국내지점 또는 국내영업소 (출장소 ,그 밖에 이에 준하는 것을 포
+함한다 .이하 같다 )
+5.그 밖에 이 법에서 정하는 원천징수의무자
+③「국세기본법」제13조제 1항에 따른 법인 아닌 단체 중 같은 조 제4항에 따
+른 법인으로 보는 단체 (이하 “법인으로 보는 단체 ”라 한다 )외의 법인 아닌 단
+체는 국내에 주사무소 또는 사업의 실질적 관리장소를 둔 경우에는 1거주자로 ,
+그 밖의 경우에는 1비거주자로 보아 이 법을 적용한다 .다만 ,다음 각 호의 어
+느 하나에 해당하는 경우에는 소득구분에 따라 해당 단체의 각 구성원별로 이 
+법 또는 「법인세법」에 따라 소득에 대한 소득세 또는 법인세 [해당 구성원이 
+「법인세법」에 따른 법인 (법인으로 보는 단체를 포함한다 )인 경우로 한정한다 .
+이하 이 조에서 같다 ]를 납부할 의무를 진다 .&lt;개정 2010. 12.27., 2013. 1.1.,
+2018. 12.31.&gt;
+1.구성원 간 이익의 분배비율이 정하여져 있고 해당 구성원별로 이익의 분배
+비율이 확인되는 경우
+2.구성원 간 이익의 분배비율이 정하여져 있지 아니하나 사실상 구성원별로 
+이익이 분배되는 것으로 확인되는 경우
+④제3항에도 불구하고 해당 단체의 전체 구성원 중 일부 구성원의 분배비율만 
+확인되거나 일부 구성원에게만 이익이 분배되는 것으로 확인되는 경우에는 다
+음 각 호의 구분에 따라 소득세 또는 법인세를 납부할 의무를 진다 .&lt;신설 
+2018. 12.31.&gt;
+1.확인되는 부분 :해당 구성원별로 소득세 또는 법인세에 대한 납세의무 부담- 346 -2.확인되지 아니하는 부분 :해당 단체를 1거주자 또는 1비거주자로 보아 소득
+세에 대한 납세의무 부담
+⑤제3항 및 제4항에도 불구하고 법인으로 보는 단체 외의 법인 아닌 단체에 
+해당하는 국외투자기구 (투자권유를 하여 모은 금전 등을 가지고 재산적 가치가 
+있는 투자대상자산을 취득 ,처분하거나 그 밖의 방법으로 운용하고 그 결과를 
+투자자에게 배분하여 귀속시키는 투자행위를 하는 기구로서 국외에서 설립된 
+기구를 말한다 .이하 같다 )를 제119조의 2제1항제 2호에 따라 국내원천소득의 실
+질귀속자로 보는 경우 그 국외투자기구는 1비거주자로서 소득세를 납부할 의무
+를 진다 .&lt;신설 2018. 12.31.&gt;
+제7조(원천징수 등의 경우의 납세지 )①원천징수하는 소득세의 납세지는 다음 
+각 호에 따른다 .&lt;개정 2012.1.1.&gt;
+1.원천징수하는 자가 거주자인 경우 :그 거주자의 주된 사업장 소재지 .다만 ,
+주된 사업장 외의 사업장에서 원천징수를 하는 경우에는 그 사업장의 소재
+지,사업장이 없는 경우에는 그 거주자의 주소지 또는 거소지로 한다 .
+2.원천징수하는 자가 비거주자인 경우 :그 비거주자의 주된 국내사업장 소재지 .
+다만 ,주된 국내사업장 외의 국내사업장에서 원천징수를 하는 경우에는 그 
+국내사업장의 소재지 ,국내사업장이 없는 경우에는 그 비거주자의 거류지 (居
+留地 )또는 체류지로 한다 .
+3.원천징수하는 자가 법인인 경우 :그 법인의 본점 또는 주사무소의 소재지
+4.원천징수하는 자가 법인인 경우로서 그 법인의 지점 ,영업소 ,그 밖의 사업장
+이 독립채산제 (獨立採算制 )에 따라 독자적으로 회계사무를 처리하는 경우 :제
+3호에도 불구하고 그 사업장의 소재지 (그 사업장의 소재지가 국외에 있는 경
+우는 제외한다 ).다만 ,대통령령으로 정하는 경우에는 그 법인의 본점 또는 
+주사무소의 소재지를 소득세 원천징수세액의 납세지로 할 수 있다 .
+&lt;이하 생략 &gt;
+제16조(이자소득 )①이자소득은 해당 과세기간에 발생한 다음 각 호의 소득으
+로 한다 .&lt;개정 2010. 3.22., 2012. 1.1.,2016. 12.20., 2020. 12.29.&gt;
+1.국가나 지방자치단체가 발행한 채권 또는 증권의 이자와 할인액
+2.내국법인이 발행한 채권 또는 증권의 이자와 할인액
+2의2.~13.&lt;생략 &gt;- 347 -②이자소득금액은 해당 과세기간의 총수입금액으로 한다 .
+③제1항 각 호에 따른 이자소득 및 제2항에 따른 이자소득금액의 범위에 관하
+여 필요한 사항은 대통령령으로 정한다 .[전문개정 2009. 12.31.]
+제46조(채권 등에 대한 소득금액의 계산 특례 )①거주자가 제16조 제1항 제1호
+ㆍ제 2호ㆍ제 5호 및 제6호에 해당하는 채권 또는 증권과 타인에게 양도가 가능한 
+증권으로서 대통령령으로 정하는 것(이하 이 조,제133조의 2및 제156조의 3에서 
+“채권등 ”이라 한다 )의 발행법인으로부터 해당 채권등에서 발생하는 이자 또는 
+할인액 (이하 이 조 ,제133조의 2및 제 156조의 3에서 “이자등 ”이라 한다 )을 지급 [전
+환사채의 주식전환 ,교환사채의 주식교환 및 신주인수권부사채의 신주인수권행
+사(신주 발행대금을 해당 신주인수권부사채로 납입하는 경우만 해당한다 )및「자
+본시장과 금융투자업에 관한 법률」제4조 제7항 제3호ㆍ제 3호의 2및 제3호의 3에 
+해당하는 채권등이 주식으로 전환ㆍ상환되는 경우를 포함한다 .이하 같다 ]받거나 
+해당 채권등을 매도 (증여ㆍ변제 및 출자 등으로 채권등의 소유권 또는 이자소득
+의 수급권의 변동이 있는 경우와 매도를 위탁하거나 중개 또는 알선시키는 경우
+를 포함하되 ,환매조건부채권매매거래 등 대통령령으로 정하는 경우는 제외한다 .
+이하 제133조의 2에서 같다 )하는 경우에는 거주자에게 그 보유기간별로 귀속되는 
+이자등 상당액을 해당 거주자의 제16조에 따른 이자소득으로 보아 소득금액을 
+계산한다 .&lt;개정 2010.12.27., 2012.1.1., 2020.12.29.&gt;
+②제1항을 적용할 때 해당 거주자가 해당 채권등을 보유한 기간을 대통령령으
+로 정하는 바에 따라 입증하지 못하는 경우에는 제133조의 2제1항에 따른 원천
+징수기간의 이자등 상당액이 해당 거주자에게 귀속되는 것으로 보아 소득금액</t>
+  </si>
+  <si>
+    <t>거주자가 보유기간을 입증하지 못하는 경우 이자소득은 어떻게 계산되나요?</t>
+  </si>
+  <si>
+    <t>거주자가 보유기간을 입증하지 못하는 경우, 제133조의 2제1항에 따른 원천징수기간의 이자등 상당액이 해당 거주자에게 귀속되는 것으로 보아 소득금액을 계산합니다.</t>
+  </si>
+  <si>
+    <t>이하 제133조의 2에서 같다 )하는 경우에는 거주자에게 그 보유기간별로 귀속되는 
+이자등 상당액을 해당 거주자의 제16조에 따른 이자소득으로 보아 소득금액을 
+계산한다 .&lt;개정 2010.12.27., 2012.1.1., 2020.12.29.&gt;
+②제1항을 적용할 때 해당 거주자가 해당 채권등을 보유한 기간을 대통령령으
+로 정하는 바에 따라 입증하지 못하는 경우에는 제133조의 2제1항에 따른 원천
+징수기간의 이자등 상당액이 해당 거주자에게 귀속되는 것으로 보아 소득금액
+을 계산한다 .&lt;개정 2010. 12.27.&gt;
+③제1항 및 제2항에 따른 이자등 상당액의 계산방법과 그 밖에 필요한 사항은 
+대통령령으로 정한다 .[전문개정 2009. 12.31.]
+제81조의 11(지급명세서 제출 불성실 가산세 )①제164조,제164조의 2또는 「법
+인세법」제120조,제120조의 2에 따른 지급명세서 (이하 이 조에서 “지급명세서 ”
+라 한다 )또는 이 법 제164조의 3에 따른 근로소득간이지급명세서 (이하 이 조에
+서 “근로소득간이지급명세서 ”라 한다 )를 제출하여야 할 자가 다음 각 호의 어느 
+하나에 해당하는 경우에는 다음 각 호의 구분에 따른 금액을 가산세로 해당 과- 348 -세기간의 종합소득 결정세액에 더하여 납부하여야 한다.다만,「조세특례제한법」
+제90조의 2에 따라 가산세가 부과되는 분에 대해서는 그러하지 아니하다 .&lt;개정 
+2020. 12.29.&gt;
+1.지급명세서 또는 근로소득간이지급명세서 (이하 이 조에서 “지급명세서등 ”이
+라 한다 )를 기한까지 제출하지 아니한 경우
+가.지급명세서의 경우:제출하지 아니한 분의 지급금액의 100분의 1(제출기한이 
+지난 후 3개월 이내에 제출하는 경우에는 지급금액의 1천분의 5로 한다)
+나.근로소득간이지급명세서의 경우 :제출하지 아니한 분의 지급금액의 1만분
+의 25(제출기한이 지난 후 3개월 이내에 제출하는 경우에는 지급금액의 
+10만분의 125로 한다 )
+2.제출된 지급명세서등이 대통령령으로 정하는 불분명한 경우에 해당하거나 제
+출된 지급명세서등에 기재된 지급금액이 사실과 다른 경우
+가.지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금액의 100분의 1
+나.근로소득간이지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금
+액의 1만분의 25
+②제1항에 따른 가산세는 종합소득산출세액이 없는 경우에도 적용한다 .
+[본조신설 2019. 12.31.]
+제85조(징수와 환급 )①~②&lt;생략 &gt;
+③납세지 관할 세무서장은 원천징수의무자가 징수하였거나 징수하여야 할 세
+액을 그 기한까지 납부하지 아니하였거나 미달하게 납부한 경우에는 그 징수하
+여야 할 세액에 「국세기본법」제47조의 5제1항에 따른 가산세액을 더한 금액
+을 그 세액으로 하여 그 원천징수의무자로부터 징수하여야 한다 .다만 ,원천징
+수의무자가 원천징수를 하지 아니한 경우로서 다음 각 호의 어느 하나에 해당
+하는 경우에는 「국세기본법」제47조의 5제1항에 따른 가산세액만을 징수한다 .
+&lt;개정 2012.1.1., 2013.1.1.&gt;
+1.납세의무자가 신고·납부한 과세표준금액에 원천징수하지 아니한 원천징수대
+상 소득금액이 이미 산입된 경우
+2.원천징수하지 아니한 원천징수대상 소득금액에 대해서 납세의무자의 관할 세
+무서장이 제80조 및 제114조에 따라 그 납세의무자에게 직접 소득세를 부과·
+징수하는 경우
+&lt;이하 생략 &gt;- 349 -제86조(소액부징수 )다음 각 호의 어느 하나에 해당하는 경우에는 해당 소득세를 
+징수하지 아니한다 .&lt;개정 2012.1.1., 2014.1.1.&gt;
+1.제127조(같은 조 제1항제 1호는 제외한다 )에 따른 원천징수세액이 1천원 미만
+인 경우
+2.제150조에 따른 납세조합의 징수세액이 1천원 미만인 경우
+3.삭제 &lt;2013.1.1.&gt;
+4.제65조에 따른 중간예납세액이 30만원 미만인 경우
+[전문개정 2009.12.31.]
+[제목개정 2014.1.1.]
+제119조(비거주자의 국내원천소득 )비거주자의 국내원천소득은 다음 각 호와 같
+이 구분한다 .&lt;개정 2010. 12.27., 2012. 1.1.,2013. 1.1.,2015. 12.15., 2016.
+12.20., 2018. 12.31., 2019. 12.31., 2020. 12.29.&gt;
+1.국내원천 이자소득 :다음 각 목의 어느 하나에 해당하는 소득으로서 제16조
+제1항에서 규정하는 이자 (같은 항 제7호의 소득은 제외한다 ).다만 ,거주자 
+또는 내국법인의 국외사업장을 위하여 그 국외사업장이 직접 차용한 차입금
+의 이자는 제외한다 .
+가.국가 ,지방자치단체 (지방자치단체조합을 포함한다 .이하 제156조제 1항제 1
+호가목에서 같다 ),거주자 ,내국법인 ,「법인세법」제94조에서 규정하는 
+외국법인의 국내사업장 또는 제120조에서 규정하는 비거주자의 국내사업
+장으로부터 받는 소득
+나.외국법인 또는 비거주자로부터 받는 소득으로서 그 소득을 지급하는 외국
+법인 또는 비거주자의 국내사업장과 실질적으로 관련하여 그 국내사업장
+의 소득금액을 계산할 때 손금 또는 필요경비에 산입되는 것
+&lt;이하 생략 &gt;
+제127조(원천징수의무 )①국내에서 거주자나 비거주자에게 다음 각 호의 어느 
+하나에 해당하는 소득을 지급하는 자(제3호의 소득을 지급하는 자의 경우에는 
+사업자 등 대통령령으로 정하는 자로 한정한다 )는 이 절의 규정에 따라 그 거
+주자나 비거주자에 대한 소득세를 원천징수하여야 한다 .&lt;개정 2009.12.31,
+2010.12.27, 2015.12.15&gt;
+1.이자소득- 350 -2.~8.&lt;생략 &gt;
+②제1항에 따른 원천징수를 하여야 할 자 (제1항 제 3호에 따른 소득의 경우에는 
+사업자 등 대통령령으로 정하는 자로 한정한다 )를 대리하거나 그 위임을 받은 
+자의 행위는 수권 (授權 )또는 위임의 범위에서 본인 또는 위임인의 행위로 보아 
+제1항을 적용한다 .&lt;개정 2009.12.31, 2010.12.27&gt;
+③~⑥&lt;생략 &gt;
+⑦제1항부터 제6항까지의 규정에 따라 원천징수를 하여야 할 자를 "원천징수
+의무자 "라 한다 .&lt;개정 2010.12.27&gt;
+&lt;이하 생략 &gt;</t>
+  </si>
+  <si>
+    <t>원천징수의무자는 원천징수한 소득세를 언제까지 납부해야 하나요?</t>
+  </si>
+  <si>
+    <t>원천징수의무자는 원천징수한 소득세를 그 징수일이 속하는 달의 다음 달 10일까지 납부해야 합니다.</t>
+  </si>
+  <si>
+    <t>1.이자소득- 350 -2.~8.&lt;생략 &gt;
+②제1항에 따른 원천징수를 하여야 할 자 (제1항 제 3호에 따른 소득의 경우에는 
+사업자 등 대통령령으로 정하는 자로 한정한다 )를 대리하거나 그 위임을 받은 
+자의 행위는 수권 (授權 )또는 위임의 범위에서 본인 또는 위임인의 행위로 보아 
+제1항을 적용한다 .&lt;개정 2009.12.31, 2010.12.27&gt;
+③~⑥&lt;생략 &gt;
+⑦제1항부터 제6항까지의 규정에 따라 원천징수를 하여야 할 자를 "원천징수
+의무자 "라 한다 .&lt;개정 2010.12.27&gt;
+&lt;이하 생략 &gt;
+제128조(원천징수세액의 납부 )①원천징수의무자는 원천징수한 소득세를 그 징
+수일이 속하는 달의 다음 달 10일까지 대통령령으로 정하는 바에 따라 원천징
+수 관할 세무서 ,한국은행 또는 체신관서에 납부하여야 한다 .&lt;개정 2010.12.27&gt;
+&lt;이하 생략 &gt;
+제129조(원천징수세율 )①원천징수의무자가 제127조제 1항 각 호에 따른 소득을 
+지급하여 소득세를 원천징수할 때 적용하는 세율 (이하 “원천징수세율 ”이라 한
+다)은 다음 각 호의 구분에 따른다 .&lt;개정 2010. 12.27., 2013. 1.1.,2014. 1.1.,
+2014. 12.23., 2017. 12.19., 2018. 12.31., 2019. 12.31., 2020. 12.29.&gt;
+1.이자소득에 대해서는 다음에 규정하는 세율
+가.삭제 &lt;2017. 12.19.&gt;
+나.비영업대금의 이익에 대해서는 100분의 25.다만 ,「온라인투자연계금융업 
+및 이용자 보호에 관한 법률」에 따라 금융위원회에 등록한 온라인투자연
+계금융업자를 통하여 지급받는 이자소득에 대해서는 100분의 14로 한다 .
+다.제16조제 1항제 10호에 따른 직장공제회 초과반환금에 대해서는 기본세율
+라.그 밖의 이자소득에 대해서는 100분의 14
+&lt;이하 생략 &gt;
+제130조(이자소득 또는 배당소득에 대한 원천징수시기 및 방법 )원천징수의무
+자가 이자소득 또는 배당소득을 지급할 때에는 그 지급금액에 원천징수세율을 적용
+하여 계산한 소득세를 원천징수한다 .[전문개정 2009.12.31.] [제목개정 2010.12.27.]- 351 -제133조(이자소득 등에 대한 원천징수영수증의 발급 )①국내에서 이자소득 또
+는 배당소득을 지급하는 원천징수의무자는 이를 지급할 때 소득을 받는 자에게 
+그 이자소득 또는 배당소득의 금액과 그 밖에 필요한 사항을 적은 기획재정부
+령으로 정하는 원천징수영수증을 발급하여야 한다 .다만 ,원천징수의무자가 지
+급한 날이 속하는 과세기간의 다음 연도 3월 31일까지 이자소득 또는 배당소득
+을 받는 자에게 그 이자소득 또는 배당소득의 금액과 그 밖에 필요한 사항을 
+대통령령으로 정하는 바에 따라 통지하는 경우에는 해당 원천징수영수증을 발
+급한 것으로 본다 .&lt;개정 2010. 12.27., 2020. 6.9.&gt;
+&lt;이하 생략 &gt;
+제156조(비거주자의 국내원천소득에 대한 원천징수의 특례 )①제119조 제1호
+ㆍ제 2호ㆍ제 4호부터 제6호까지 및 제9호부터 제12호까지의 규정에 따른 국내원
+천소득으로서 국내사업장과 실질적으로 관련되지 아니하거나 그 국내사업장에 
+귀속되지 아니한 소득의 금액 (국내사업장이 없는 비거주자에게 지급하는 금액을 
+포함한다 )을 비거주자에게 지급하는 자(제119조제 9호에 따른 국내원천 부동산등
+양도소득을 지급하는 거주자 및 비거주자는 제외한다 )는 제127조에도 불구하고 
+그 소득을 지급할 때에 다음 각 호의 금액을 그 비거주자의 국내원천소득에 대
+한 소득세로서 원천징수하여 그 원천징수한 날이 속하는 달의 다음 달 10일까
+지 대통령령으로 정하는 바에 따라 원천징수 관할 세무서 ,한국은행 또는 체신
+관서에 납부하여야 한다 .&lt;개정 2013. 1.1.,2016. 12.20., 2018. 12.31., 2019.
+12.31.&gt;
+1.제119조 제1호에 따른 국내원천 이자소득 :다음 각 목의 구분에 따른 금액
+가.국가ㆍ지방자치단체 및 내국법인이 발행하는 채권에서 발생하는 이자소
+득:지급금액의 100분의 14
+나.가목 외의 이자소득 :지급금액의 100분의 20
+2.~8.&lt;생략 &gt;
+②외국인의 국내 투자자금의 변동성이 확대되어 외환부문의 건전성을 해치는 
+등 금융시장에 불안이 초래되고 통화정책 수행을 어렵게 하거나 어렵게 할 우
+려가 있어 긴급히 필요하다고 인정될 때에는 비거주자의 소득 중 다음 각 호의 
+소득에 대해서는 제1항의 세율을 대통령령으로 정하는 바에 따라 인하하거나 
+영의 세율로 할 수 있다 .이 경우 기획재정부장관은 인하할 세율과 그 필요성에 - 352 -관한 내용을 국회 소관 상임위원회에 사전에 보고하여야 한다 .&lt;신설 2010. 12.
+27., 2018. 12.31.&gt;
+1.제119조 제1호에 따른 국내원천 이자소득 중「국채법」제5조 제1항에 따라 
+발행하는 국채 및 대통령령으로 정하는 채권 (이하 이 조에서 “국채등 ”이라 
+한다 )에서 발생하는 소득
+2.제119조 제11호에 따른 국내원천 유가증권양도소득 중 국채등의 양도로 인하
+여 발생하는 소득
+③제1항에서 규정하는 국내원천소득이 국외에서 지급되는 경우에 그 지급자가 
+국내에 주소 ,거소 ,본점 ,주사무소 또는 국내사업장 (「법인세법」제94조에 규
+정된 국내사업장을 포함한다 )을 둔 경우에는 그 지급자가 해당 국내원천소득을 
+국내에서 지급하는 것으로 보고 제1항을 적용한다 .&lt;개정 2010. 12.27.&gt;
+④국내사업장이 없는 비거주자에게 외국차관자금으로 제119조 제1호ㆍ제 5호ㆍ
+제6호 및 제10호의 국내원천소득을 지급하는 자는 해당 계약조건에 따라 그 소
+득을 자기가 직접 지급하지 아니하는 경우에도 그 계약상의 지급 조건에 따라 
+그 소득이 지급될 때마다 제1항에 따른 원천징수를 하여야 한다 .&lt;개정 2010.
+12.27., 2013. 1.1.&gt;
+&lt;이하 생략 &gt;
+제156조의 3(비거주자의 채권등에 대한 원천징수의 특례 )제156조 제1항을 적용
+받는 비거주자에게 채권등의 이자등을 지급하는 자 또는 해당 비거주자로부터 
+채권등을 매수 (증여·변제 및 출자 등으로 채권등의 소유권 또는 이자소득의 수</t>
+  </si>
+  <si>
+    <t>제156조의 3에 따르면 비거주자의 채권등에 대한 원천징수는 어떻게 해야 하나요?</t>
+  </si>
+  <si>
+    <t>제156조의 3에 따르면 비거주자의 채권등에 대한 원천징수는 그 비거주자의 보유기간을 고려하여 대통령령으로 정하는 바에 따라 원천징수를 해야 합니다.</t>
+  </si>
+  <si>
+    <t>제6호 및 제10호의 국내원천소득을 지급하는 자는 해당 계약조건에 따라 그 소
+득을 자기가 직접 지급하지 아니하는 경우에도 그 계약상의 지급 조건에 따라 
+그 소득이 지급될 때마다 제1항에 따른 원천징수를 하여야 한다 .&lt;개정 2010.
+12.27., 2013. 1.1.&gt;
+&lt;이하 생략 &gt;
+제156조의 3(비거주자의 채권등에 대한 원천징수의 특례 )제156조 제1항을 적용
+받는 비거주자에게 채권등의 이자등을 지급하는 자 또는 해당 비거주자로부터 
+채권등을 매수 (증여·변제 및 출자 등으로 채권등의 소유권 또는 이자소득의 수
+급권의 변동이 있는 경우와 매도를 위탁받거나 중개·알선하는 경우를 포함하되 ,
+환매조건부채권매매거래 등 대통령령으로 정하는 경우는 제외한다 )하는 자는 그 
+비거주자의 보유기간을 고려하여 대통령령으로 정하는 바에 따라 원천징수를 
+하여야 한다 .&lt;개정 2013.1.1.&gt;
+[전문개정 2009.12.31.]
+제156조의 4(특정지역 비거주자에 대한 원천징수 절차 특례 )①제156조,제156
+조의 3및 제156조의 6에 따른 원천징수의무자는 기획재정부장관이 고시하는 국
+가 또는 지역에 소재하는 비거주자의 국내원천소득 중 제119조제 1호,제2호,같
+은 조 제9호나목 ,같은 조 제10호 또는 제11호에 따른 소득에 대하여 소득세로
+서 원천징수하는 경우에는 제156조의 2및 조세조약에 따른 비과세ㆍ면제 또는 
+제한세율에 관한 규정에도 불구하고 제156조 제1항 각 호에 따른 세율을 우선 - 353 -적용하여 원천징수하여야 한다 .다만 ,대통령령으로 정하는 바에 따라 조세조약
+에 따른 비과세ㆍ면제 또는 제한세율에 관한 규정을 적용받을 수 있음을 국세
+청장이 사전 승인하는 경우에는 그러하지 아니하다 .&lt;개정 2012. 1.1.&gt;
+②제1항에서 규정한 국내원천소득을 실질적으로 귀속받는 자(그 대리인 또는 
+「국세기본법」제82조에 따른 납세관리인을 포함한다 )가 그 소득에 대하여 조
+세조약에 따른 비과세ㆍ면제 또는 제한세율에 관한 규정을 적용받으려는 경우
+에는 제1항에 따라 세액이 원천징수된 날이 속하는 달의 말일부터 5년 이내에 
+대통령령으로 정하는 바에 따라 원천징수의무자의 납세지 관할 세무서장에게 
+경정을 청구할 수 있다 .다만 ,「국세기본법」제45조의 2제2항 각 호의 어느 
+하나에 해당하는 사유가 발생하였을 때에는 본문에도 불구하고 그 사유가 발생
+한 것을 안 날부터 3개월 이내에 경정을 청구할 수 있다 .&lt;개정 2016. 12.20.,
+2019. 12.31.&gt;
+③제2항에 따른 경정의 청구를 받은 세무서장은 그 청구를 받은 날부터 6개월 
+이내에 과세표준과 세액을 경정하거나 경정하여야 할 이유가 없다는 뜻을 그 
+청구를 한 자에게 알려야 한다 .
+[전문개정 2009. 12.31.]
+[제목개정 2018. 12.31.]
+제156조의 8(이자·배당 및 사용료에 대한 세율의 적용 특례 )①조세조약의 규정
+상 비거주자의 국내원천소득 중 이자 ,배당 또는 사용료소득에 대해서는 제한세
+율과 다음 각 호의 어느 하나에 규정된 세율 중 낮은 세율을 적용한다 .
+1.조세조약의 대상 조세에 지방소득세가 포함되지 아니하는 경우에는 제156조 
+제1항 제 1호,제2호 및 제6호에서 규정하는 세율
+2.조세조약의 대상 조세에 지방소득세가 포함되는 경우에는 제156조 제1항 제1
+호,제2호 및 제6호에서 규정하는 세율에「지방세법」제103조의 18제1항의 
+원천징수하는 소득세의 100분의 10을 반영한 세율
+②제1항에도 불구하고 제156조의 4제1항에 해당하는 경우에는 제156조의 4제1
+항에 따라 원천징수한다 .이 경우 제156조의 4제3항에 따라 과세표준과 세액을 
+경정하는 경우에는 제한세율과 제1항 각 호의 어느 하나에 규정된 세율 중 낮
+은 세율을 적용한다 .
+[본조신설 2020. 12.29.]
+제164조(지급명세서의 제출 )①제2조에 따라 소득세 납세의무가 있는 개인에게 
+다음 각 호의 어느 하나에 해당하는 소득을 국내에서 지급하는 자(법인 ,제127조 - 354 -제5항에 따라 소득의 지급을 대리하거나 그 지급 권한을 위임 또는 위탁받은 자 
+및 제150조에 따른 납세조합 ,제7조 또는「법인세법」제9조에 따라 원천징수세액
+의 납세지를 본점 또는 주사무소의 소재지로 하는 자와「부가가치세법」제8조 
+제3항 후단에 따른 사업자 단위 과세 사업자를 포함한다 )는 대통령령으로 정하
+는 바에 따라 지급명세서를 그 지급일 (제131조,제135조,제144조의 5또는 제147
+조를 적용받는 소득에 대해서는 해당 소득에 대한 과세기간 종료일을 말한다 .이
+하 이 항에서 같다 )이 속하는 과세기간의 다음 연도 2월 말일 (제3호에 따른 사업
+소득과 제 4호에 따른 근로소득 또는 퇴직소득 ,제6호에 따른 기타소득 중 종교인
+소득 및 제7호에 따른 봉사료의 경우에는 다음 연도 3월 10일,휴업 ,폐업 또는 
+해산한 경우에는 휴업일 ,폐업일 또는 해산일이 속하는 달의 다음다음 달 말일 )
+까지 원천징수 관할 세무서장 ,지방국세청장 또는 국세청장에게 제출하여야 한
+다.다만 ,제4호의 근로소득 중 대통령령으로 정하는 일용근로자의 근로소득의 
+경우에는 그 지급일이 속하는 분기의 마지막 달의 다음 달 말일 (휴업 ,폐업 또는 
+해산한 경우에는 휴업일 ,폐업일 또는 해산일이 속하는 분기의 마지막 달의 다음 
+달 말일 )까지 지급명세서를 제출하여야 한다 .&lt;개정 2010.12.27., 2013.1.1.,
+2013.6.7., 2015.12.15., 2018.12.31., 2019.12.31.&gt;
+1.이자소득
+2.~8.&lt;생략 &gt;
+②제1항 각 호의 소득 중 대통령령으로 정하는 소득에 대해서는 제1항을 적용
+하지 아니할 수 있다 .
+③제1항에 따라 지급명세서를 제출하여야 하는 자는 지급명세서의 기재 사항
+을 「국세기본법」제2조제 18호에 따른 정보통신망에 의하여 제출하거나 디스
+켓 등 전자적 정보저장매체로 제출하여야 한다 .이 경우 제1항 각 호의 소득 중 
+대통령령으로 정하는 소득을 지급하는 자는 「조세특례제한법」제126조의 3에 
+따른 현금영수증 발급장치 등 대통령령으로 정하는 방법을 통하여 제출할 수 있다 .</t>
+  </si>
+  <si>
+    <t>비거주자의 국내원천소득에 대한 지급명세서를 제출해야 하는 기한은 언제인가요?</t>
+  </si>
+  <si>
+    <t>비거주자의 국내원천소득에 대한 지급명세서를 제출해야 하는 기한은 그 지급일이 속하는 과세기간의 다음 연도 2월 말일까지입니다.</t>
+  </si>
+  <si>
+    <t>1.이자소득
+2.~8.&lt;생략 &gt;
+②제1항 각 호의 소득 중 대통령령으로 정하는 소득에 대해서는 제1항을 적용
+하지 아니할 수 있다 .
+③제1항에 따라 지급명세서를 제출하여야 하는 자는 지급명세서의 기재 사항
+을 「국세기본법」제2조제 18호에 따른 정보통신망에 의하여 제출하거나 디스
+켓 등 전자적 정보저장매체로 제출하여야 한다 .이 경우 제1항 각 호의 소득 중 
+대통령령으로 정하는 소득을 지급하는 자는 「조세특례제한법」제126조의 3에 
+따른 현금영수증 발급장치 등 대통령령으로 정하는 방법을 통하여 제출할 수 있다 .
+④국세청장은 제 3항에도 불구하고 대통령령으로 정하는 바에 따라 일정 업종 또는 
+일정 규모 이하에 해당되는 자에게는 지급명세서를 문서로 제출하게 할 수 있다.
+&lt;이하 생략 &gt;
+[전문개정 2009. 12.31.]
+제164조의 2(비거주자의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
+제119조에 따른 국내원천소득을 비거주자에게 지급하는 자(「자본시장과 금융투- 355 -자업에 관한 법률」에 따라 주식을 상장하는 경우로서 상장 전 이미 발행된 주
+식을 양도하는 경우에는 그 주식을 발행한 법인을 말한다 )는 지급명세서를 납세
+지 관할 세무서장에게 그 지급일이 속하는 과세기간의 다음 연도 2월 말일 (제
+119조 제7호 또는 제8호에 따른 소득의 경우에는 다음 연도 3월 10일,휴업 또
+는 폐업한 경우에는 휴업일 또는 폐업일이 속하는 달의 다음다음 달 말일 )까지 
+이를 제출하여야 한다 .다만 ,제156조의 2에 따라 비과세ㆍ면제대상임이 확인되
+는 소득 등 대통령령으로 정하는 소득을 지급하는 경우에는 그러하지 아니한다 .
+&lt;개정 2013. 1.1.,2020. 12.29.&gt;
+②제1항에 따른 지급명세서의 제출에 관하여는 제 164조를 준용한다 .
+[전문개정 2009. 12.31.]- 356 - 3.소득세법 시행령
+제22조의 2(국채 등의 이자소득 )①국가가 발행한 채권이 원금과 이자가 분리되는 
+경우에는 원금에 해당하는 채권 및 이자에 해당하는 채권의 할인액은 이를 법 제
+16조제 1항제 1호의 규정에 따른 채권의 할인액으로 본다 .
+②다음 각 호의 채권을 공개시장에서 통합발행 (일정 기간 동안 추가하여 발행할 
+채권의 표면금리와 만기 등 발행조건을 통일하여 발행하는 것을 말한다 )하는 경
+우 해당 채권의 매각가액과 액면가액과의 차액은 법 제 16조 제 1항 제 1호 또는 제
+2호에 따른 이자 및 할인액에 포함되지 아니하는 것으로 한다 .&lt;개정 2008.2.22.,
+2010.2.18., 2014.12.30.&gt;
+1.국채
+2.「한국산업은행법」제23조에 따른 산업금융채권
+3.「예금자보호법」제26조의 2및 동법 제26조의 3의 규정에 따른 예금보험기금
+채권과 예금보험기금채권상환기금채권
+4.「한국은행법」제69조에 따른 한국은행통화안정증권
+③국가가 발행한 채권으로서 그 원금이 물가에 연동되는 채권 (이하 "물가연동국
+고채 "라 한다 )의 경우 해당 채권의 원금증가분은 법 제16조제 1항제 1호에 따른 이
+자 및 할인액에 포함된다 .&lt;신설 2007.2.28., 2013.2.15., 2016.2.17.&gt;
+[전문개정 2006.2.9.]
+제45조(이자소득의 수입시기 )이자소득의 수입시기는 다음 각 호에 따른 날로 한
+다.&lt;개정 1995.12.30., 1996.12.31., 1997.12.31., 1998.12.31., 2001.12.31., 2003.12.30.,
+2005.2.19., 2007.2.28., 2009.2.4., 2010.2.18., 2012.2.2., 2013.2.15., 2015.2.3.&gt;
+1.법 제16조 제1항 제 12호 및 제13호에 따른 이자와 할인액 
+약정에 따른 상환일 .다만 ,기일 전에 상환하는 때에는 그 상환일
+2.법 제46조 제1항의 규정에 의한 채권등으로서 무기명인 것의 이자와 할인액 
+그 지급을 받은 날
+3.법 제46조 제1항의 규정에 의한 채권등으로서 기명인 것의 이자와 할인액 
+약정에 의한 지급일
+4.~9의 2.&lt;생략 &gt;
+10.제193조의 2에 따른 채권 등의 보유기간이자등상당액 해당 채권 등의 매도일 
+또는 이자 등의 지급일- 357 -11.제1호 내지 제10호의 이자소득이 발생하는 상속재산이 상속되거나 증여되는 
+경우 상속개시일 또는 증여일
+제102조(채권등의 범위등 )①법 제46조제 1항에서 "대통령령으로 정하는 것"이란 
+이자 또는 할인액을 발생시키는 증권 (다음 각 호의 증권을 포함하는 것으로 하
+되,법률에 따라 소득세가 면제된 채권등은 제외한다 )을 말한다 .&lt;개정 
+1996.12.31., 1998.4.1., 1999.12.31., 2003.12.30., 2005.2.19., 2007.2.28., 2008.2.29.,
+2009.2.4., 2009.12.31., 2010.2.18., 2010.12.30.&gt;
+&lt;각호 생략 &gt;
+②&lt;생략 &gt;
+③법 제46조 제1항에 따른 이자 등 상당액은 제193조의 2제3항의 보유기간이
+자등상당액 중 해당 거주자에게 그 보유기간별로 귀속되는 이자등 상당액을 말
+한다 .&lt;개정 2010.2.18., 2010.12.30.&gt;
+④법 제46조 제1항에서 "환매조건부채권매매거래 등 대통령령으로 정하는 경
+우"란 다음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말한다 .
+&lt;신설 2010.6.8., 2016.2.17.&gt;
+1.거주자가 일정기간 후에 일정가격으로 환매수할 것을 조건으로 하여 채권등
+을 매도하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래에 해
+당하는 사실이 「자본시장과 금융투자업에 관한 법률 」제294조에 따른 한국
+예탁결제원의 계좌를 통하여 확인되는 경우
+2.거주자가 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 
+채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래
+에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관한 
+법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중개업
+자를 말한다 .이하 같다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한
+다)을 통하여 확인되는 경우</t>
+  </si>
+  <si>
+    <t>법 제46조 제2항에 따른 보유기간 입증방법은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>법 제46조 제2항에 따른 보유기간 입증방법은 금융회사 등의 전산처리체계 또는 통장원장으로 확인하는 방법과 법인 또는 개인으로부터 채권 등을 매수한 경우 해당 법인이 발급하는 매출확인서나 공증인이 작성한 공정증서로 확인하는 방법입니다.</t>
+  </si>
+  <si>
+    <t>당하는 사실이 「자본시장과 금융투자업에 관한 법률 」제294조에 따른 한국
+예탁결제원의 계좌를 통하여 확인되는 경우
+2.거주자가 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 
+채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래
+에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관한 
+법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중개업
+자를 말한다 .이하 같다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한
+다)을 통하여 확인되는 경우
+⑤제4항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
+반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득에 상당하
+는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우나 제4항 각 호의 거
+래가 혼합되는 경우에는 최초 매도자 또는 최초 대여자를 말한다 )에게 귀속되는 
+것으로 보아 법 제46조 및 제133조의2를 적용한다 .&lt;신설 2010.6.8., 2012.2.2., 2016.2.17.&gt;- 358 -⑥~⑦&lt;생략 &gt;
+⑧법 제46조 제2항에 따른 보유기간 입증방법은 다음 각 호의 방법에 따른다 .
+&lt;개정 1998.4.1, 2000.12.29, 2005.2.19, 2008.2.29, 2010.2.18&gt;
+1.채권 등을 금융회사 등에 개설된 계좌에 의하여 거래하는 경우
+해당 금융회사 등의 전산처리체계 또는 통장원장으로 확인하는 방법
+2.제1호외의 경우
+법인으로부터 채권 등을 매수한 때에는 당해 법인이 발급하는 기획재정부령
+이 정하는 채권 등 매출확인서에 의하며 ,개인으로부터 채권 등을 매수한 경
+우에는「공증인법」의 규정에 의한 공증인이 작성한 공정증서 (거래당사자의 
+성명·주소·주민등록번호·매매일자·채권 등의 종류와 발행번호·액면금액을 기재
+한 것에 한한다 )에 의하여 확인하는 방법
+⑨ &lt;생략 &gt;
+⑩법 제46조 및 제133조의 2를 적용할 때 금융회사 등의 승낙을 받아 채권 등
+을 매도하는 경우에는 해당 금융회사 등이 매도를 중개한 것으로 본다 .&lt;개정 
+2010.2.18&gt;
+&lt;이하 생략 &gt;
+제185조(원천징수세액의 납부 )①법 제127조의 규정에 의한 원천징수의무자는 
+원천징수한 소득세를 법 제128조의 규정에 의한 기한내에「국세징수법」에 의
+한 납부서와 함께 원천징수 관할세무서·한국은행 또는 체신관서에 납부하여야 
+하며 ,기획재정부령이 정하는 원천징수이행상황신고서를 원천징수 관할세무서장
+에게 제출 (국세정보통신망에 의한 제출을 포함한다 )하여야 한다 .&lt;개정 
+1996.12.31, 1997.12.31, 1998.4.1, 2004.3.17, 2005.2.19, 2008.2.29&gt;
+②제1항의 원천징수이행상황신고서에는 원천징수하여 납부할 세액이 없는 자
+에 대한 것도 포함하여야 한다 .&lt;개정 1996.12.31, 1997.12.31.&gt;
+제193조(원천징수영수증의 교부 )①~② &lt;생략 &gt;
+③법 제133조 제1항 단서에서 “대통령령으로 정하는 바에 따라 통지하는 경
+우”란 다음 각 호의 어느 하나에 해당하는 경우를 말한다 .이 경우 지급받은 이
+자소득 및 배당소득의 연간합계액과 원천징수세액명세 및 원천징수의무자의 사
+업자등록번호와 그 상호 또는 법인명 (이하 이 조에서 “사업자등록번호등 ”이라 한다)- 359 -을 기재하거나 통보하는 때에도 원천징수영수증을 발급한 것으로 본다.&lt;개정 1995.
+12.30.,1997. 12.31.,1998. 12.31.,1999. 12.31.,2010. 2.18.,2021. 1.5.&gt;
+1.금융회사 등이 이자소득이나 배당소득을 받은 자의 통장 또는 금융거래명세
+서에 그 지급내용과 원천징수의무자의 사업자등록번호 등을 기재하여 통보하
+는 경우
+2.금융회사 등이 이자소득이나 배당소득을 받는 자로부터 신청을 받아 그 지급
+내용과 원천징수의무자의 사업자등록번호 등을 우편 ,전자계산조직을 이용한 
+정보통신 또는 팩스로 통보하여 주는 경우
+④법 제133조 제2항 본문에서 "대통령령으로 정하는 금액 이하인 경우 "란 계좌
+별로 1년간 발생한 이자소득 또는 배당소득금액이 1백만원 이하인 경우를 말한
+다.&lt;개정 2000.12.29, 2010.2.18.&gt;
+제207조(비거주자에 대한 원천징수세액의 납부 )①법 제156조의 규정에 의하여 
+징수한 원천징수세액의 납부에 관하여는 제185조의 규정을 준용한다 .다만 ,원
+천징수의무자가 국내에 주소·거소·본점·주사무소 또는 국내사업장 (외국법인의 
+국내사업장을 포함한다 )이 없는 경우에는 「국세기본법」제82조의 규정에 의
+한 납세관리인을 정하여 관할세무서장에게 신고하여야 한다 .&lt;개정 2002.12.30.,
+2005.2.19., 2013.2.15.&gt;
+②법 제156조 제1항 제4호 단서에서 “국외에서 제공하는 인적용역 중 대통령
+령으로 정하는 용역 ”이란 국외에서 제공하는 제179조 제6항 제2호에 해당하는 
+용역을 말한다 .&lt;신설 2017. 2.3.,2019. 2.12.&gt;
+③법 제156조 제1항 제5호에 따라 원천징수하는 금액을 계산할 때 양도자가 
+법 제121조 제2항에 따라 소득세를 신고ㆍ납부한 후 양수자가 법 제156조 제1
+항에 따라 원천징수하는 경우에는 해당 양도자가 신고ㆍ납부한 세액을 뺀 금액
+으로 한다 .&lt;신설 2009. 2.4.,2010. 2.18., 2017. 2.3.,2019. 2.12.&gt;
+④법 제156조 제13항에서 “대통령령으로 정하는 시기 ”란 다음 각 호의 어느 
+하나에 해당하는 날을 말한다 .&lt;신설 2003. 12.30., 2005. 2.19., 2009. 2.4.,
+2010. 2.18., 2012. 2.2.,2017. 2.3.&gt;
+1.「법인세법 시행령」제88조 제1항 제8호 가목 및 같은 항 제8호의 2(합병ㆍ분
+할의 경우로 한정한다 )의 경우 :법인이 합병으로 인하여 소멸한 경우에는 
+그 합병등기를 한 날,법인이 분할 또는 분할합병으로 인하여 소멸 또는 존
+속하는 경우에는 그 분할등기 또는 분할합병등기를 한 날- 360 -2.&lt;생략 &gt;
+⑤주식 또는 출자지분을 발행한 내국법인은 법 제119조 제12호 자목에 따른</t>
+  </si>
+  <si>
+    <t>법인이 합병으로 인하여 소멸한 경우 합병등기를 한 날은 언제인가요?</t>
+  </si>
+  <si>
+    <t>법인이 합병으로 인하여 소멸한 경우 합병등기를 한 날은 그 합병등기를 한 날입니다.</t>
+  </si>
+  <si>
+    <t>2010. 2.18., 2012. 2.2.,2017. 2.3.&gt;
+1.「법인세법 시행령」제88조 제1항 제8호 가목 및 같은 항 제8호의 2(합병ㆍ분
+할의 경우로 한정한다 )의 경우 :법인이 합병으로 인하여 소멸한 경우에는 
+그 합병등기를 한 날,법인이 분할 또는 분할합병으로 인하여 소멸 또는 존
+속하는 경우에는 그 분할등기 또는 분할합병등기를 한 날- 360 -2.&lt;생략 &gt;
+⑤주식 또는 출자지분을 발행한 내국법인은 법 제119조 제12호 자목에 따른 
+국내원천 기타소득을 제4항에 따른 시기에 원천징수하여야 한다 .&lt;개정 2010.
+2.18., 2012. 2.2.,2017. 2.3.,2019. 2.12.&gt;
+⑥법 제 156조 제15항에서 “대통령령으로 정하는 바에 따라 그 소득에 대한 소득
+세를 미리 납부하였거나 그 소득이 비과세 또는 과세미달되는 것임을 증명하는 
+경우 ”란 비거주자가 법 제6조 제2항에 따른 납세지 관할 세무서장에게 기획재정
+부령이 정하는 양도소득세 신고납부 (비과세 또는 과세미달 )확인 신청서에 당해 
+부동산에 대한 등기부등본ㆍ매매계약서를 첨부하여 신청하고 ,그 확인을 받아 이
+를 원천징수의무자에게 제출하는 경우를 말한다 .&lt;신설 2006. 2.9.,2008. 2.22.,
+2008. 2.29.,2009. 2.4.,2010. 2.18., 2012. 2.2.,2017. 2.3.&gt;
+제207조의 3(비거주자의 채권등의 이자등에 대한 원천징수특례 )①법 제156조 
+제1항을 적용받는 비거주자에 대하여 채권등의 이자등을 지급하는 자 또는 채
+권등의 이자등을 지급받기 전에 비거주자로부터 채권등을 매수하는 자는 그 이
+자등의 지급금액에 대하여 법·「조세특례제한법」또는 조세조약에 따른 세율
+(이하 이 조에서 "적용세율 "이라 한다 )을 적용하는 경우에 그 지급금액에 다음 
+각 호의 세율을 적용하여 계산한 금액을 원천징수하여야 한다 .이 경우 제1호에 
+따른 적용세율이 법 제129조 제1항 제1호에 따른 세율보다 높은 경우로서 당해 
+비거주자가 채권등의 보유기간을 입증하지 못하는 경우에는 지급금액 전액을 
+당해 비거주자의 보유기간이자등상당액으로 보며 ,제1호에 따른 적용세율이 법 
+제129조 제1항 제1호에 따른 세율보다 낮은 경우로서 당해 비거주자가 채권등
+의 보유기간을 입증하지 못하는 경우에는 당해 비거주자의 보유기간이자등상당
+액은 없는 것으로 본다 .&lt;개정 2009.2.4.&gt;
+1.지급금액 중 해당 비거주자의 보유기간이자등상당액에 대하여는 해당 비거주
+자에 대한 적용세율
+2.지급금액 중 제1호의 보유기간이자등상당액을 차감한 금액에 대하여는 법 제
+129조 제 1항 제1호에 따른 세율
+②제1항을 적용할 때 제190조는 비거주자의 채권등의 이자등에 대한 지급시기
+에 관하여 준용하고 ,제102조 및 제193조의 2는 채권등의 보유기간계산 ,보유기
+간이자등상당액의 계산방법 및 보유기간 입증방법에 관하여 준용하며 ,제207조 
+제1항은 원천징수세액납부에 관하여 준용한다 .&lt;개정 2010.2.18.&gt;- 361 -③법 제156조의 3에서 "환매조건부채권매매거래 등 대통령령으로 정하는 경우 "
+란 다음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말한다 .
+&lt;개정 2010.6.8., 2016.2.17.&gt;
+1.비거주자가 일정기간 후에 일정가격으로 환매수할 것을 조건으로 하여 채권
+등을 매도하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래에 
+해당하는 사실이 「자본시장과 금융투자업에 관한 법률」제294조에 따른 한
+국예탁결제원의 계좌를 통하여 확인되는 경우
+2.비거주자가 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으
+로 채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거
+래에 해당하는 사실이 채권대차거래중개기관이 작성한 거래 원장 (전자적 형
+태의 원장을 포함한다 )을 통하여 확인되는 경우
+④제3항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
+반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득에 상당하
+는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우나 제3항 각 호의 거
+래가 혼합되는 경우에는 최초 매도자 또는 최초 대여자를 말한다 )에게 귀속되는 
+것으로 보아 법 제46조·제133조의 2및 제156조의 3을 적용한다 .&lt;개정 2010.6.8.,
+2013.2.15., 2016.2.17.&gt;
+&lt;이하 생략 &gt;
+제213조(지급명세서 및 근로소득간이지급명세서의 제출 )①법 제164조 제1항에 
+따른 지급명세서 및 법 제164조의 3제1항에 따른 근로소득간이지급명세서는 그 
+소득을 지급받는 소득자별로 구분하되 ,그 서식은 기획재정부령으로 정한다 .
+&lt;개정 2019. 2.12.&gt; &lt;이하 생략 &gt;
+제214조(지급명세서 및 근로소득간이지급명세서 제출의 면제 등)①다음 각 호의 어
+느 하나에 해당하는 소득에 대해서는 법 제164조 제1항을 적용하지 않는다 .&lt;개정 
+2006. 2.9.,2008. 2.22.,2008. 2.29.,2010. 2.18.,2017. 12.29.,2021. 2.17.&gt;
+1.법 제12조 제5호의 규정에 따라 비과세되는 기타소득 .다만 ,제19조 제3항 제
+3호에 따른 금액 및 물품은 제외한다 .
+2.법 제21조 제1항 제2호에 해당하는 기타소득으로서 1건당 당첨금품의 가액이 
+10만원 이하인 경우
+2의2.법 제12조 제3호 가목부터 사목까지 ,카목,타목,하목,너목,러목,버목 및 저목의 소득- 362 -  2의3. 제12조 제2호부터 제4호까지 및 제 8호의 소득
+  3. 그 밖에 기획재정부령으로 정하는 소득 
+  &lt; 이하 생략 &gt;
+제216조의 2(비거주자의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
+법 제119조에 따른 국내원천소득을 비거주자에게 지급하는 자는 법 제164조의 2
+에 따라 납세지 관할세무서장에게 기획재정부령으로 정하는 지급명세서 (이하 
+이 조에서 "지급명세서 "라 한다)를 제출하여야 한다.다만,다음 각 호의 어느 하
+나에 해당하는 소득에 대하여는 그러하지 아니하다 .&lt;개정 2001.12.31., 2005.2.19.,</t>
+  </si>
+  <si>
+    <t>비거주자의 국내원천소득 등에 대한 지급명세서를 제출해야 하는 경우는 언제인가요?</t>
+  </si>
+  <si>
+    <t>비거주자의 국내원천소득 등에 대한 지급명세서를 제출해야 하는 경우는 법 제119조에 따른 국내원천소득을 비거주자에게 지급하는 경우입니다.</t>
+  </si>
+  <si>
+    <t>3. 그 밖에 기획재정부령으로 정하는 소득 
+  &lt; 이하 생략 &gt;
+제216조의 2(비거주자의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
+법 제119조에 따른 국내원천소득을 비거주자에게 지급하는 자는 법 제164조의 2
+에 따라 납세지 관할세무서장에게 기획재정부령으로 정하는 지급명세서 (이하 
+이 조에서 "지급명세서 "라 한다)를 제출하여야 한다.다만,다음 각 호의 어느 하
+나에 해당하는 소득에 대하여는 그러하지 아니하다 .&lt;개정 2001.12.31., 2005.2.19.,
+2006.2.9., 2008.2.29., 2009.2.4., 2010.2.18., 2013.2.15., 2014.2.21.&gt;&lt; 단서 생략 &gt;
+②&lt;생략 &gt;
+③법 제46조 또는 제156조 제6항에 따라 소득세를 원천징수하는 경우에는 해당 
+원천징수의무자가 그 지급금액에 대한 지급명세서를 제출하여야 한다 .&lt;신설 
+2001.12.31., 2009.2.4., 2012.2.2.&gt;
+④법 제119조 제1호·제2호·제11호 및 법 제156조의5의 소득에 대하여 제출하는 지급
+명세서는 따로 기획재정부령으로 정할 수 있다.&lt;개정 2008.2.22., 2008.2.29., 2010.2.18.&gt;
+⑤&lt;생략 &gt;
+⑥비거주자의 국내원천소득 등에 대한 지급명세서 제출에 관하여는 제215조 
+및 제 216조를 준용한다 .&lt;개정 2009.2.4., 2010.2.18.&gt;
+[본조신설 2000.12.29.]
+[제목개정 2008.2.22.]
+제217조(이자ㆍ배당ㆍ금융투자소득에 대한 원천징수부의 비치ㆍ기록 )①국내
+에서 이자소득 또는 배당소득을 지급하는 원천징수의무자는 기획재정부령이 정
+하는 이자ㆍ배당원천징수부를 비치ㆍ기록하여야 한다 .&lt;개정 2021. 2.17.&gt;
+②국내에서 금융투자소득을 지급하는 원천징수의무자는 기획재정부령으로 정
+하는 금융투자소득원천징수부를 비치ㆍ기록해야 한다 .&lt;신설 2021. 2.17.&gt;
+③제1항 및 제2항에 따른 원천징수부를 전산처리된 테이프 또는 디스크 등으
+로 수록ㆍ보관하여 항시 출력이 가능한 상태에 둔 때에는 원천징수부를 비치ㆍ
+기록한 것으로 본다 .&lt;신설 2021. 2.17.&gt;
+[제목개정 2021. 2.17.]
+[시행일 :2023. 1.1.]제217조제 2항- 363 -4.소득세법 시행규칙
+제97조(지급명세서제출의무의 면제 )영 제214조 제1항 제3호에서 “기획재정부령
+으로 정하는 소득 ”이란 다음 각 호의 어느 하나에 해당하는 것을 말한다 .&lt;개정 
+2009. 4.14., 2014. 3.14., 2015. 3.13., 2020. 3.13.&gt;
+1.법 제21조 제1항 제4호에 해당하는 기타소득으로서 1건당 환급금이 200만원 
+미만 (체육진흥투표권의 경우 10만원 이하 )인 경우
+2.법 제84조에 따라 소득세가 과세되지 아니하는 기타소득 .다만 ,법 제21조 제
+1항 제15호 및 제 19호에 따른 기타소득을 제외한다 .
+3.영 제184조의 2제1호의 2의 규정에 의한 안마시술소에서 제공하는 용역에 대
+한 소득으로서 안마시술소가 소득세를 원천징수하는 소득
+[적용일자 2004. 1.1.부터 ]
+[제목개정 2009. 4.14.]
+제97조의 2(비거주자의 국내원천소득등에 대한 지급명세서 제출의무면제 )영 제
+216조의 2제1항 제8호에서 "기획재정부령으로 정하는 소득 "이란 다음 각호의 소
+득을 말한다 .&lt;개정 2009.4.14.&gt;
+1.예금 등의 잔액이 30만원 미만으로서 1년 이상 거래가 없는 계좌에서 발생하
+는 이자소득 또는 배당소득
+2.계좌별로 1년간 발생한 이자소득 또는 배당소득이 3만원 미만인 경우의 당해 
+소득
+3.법 제 119조 제7호의 국내원천소득으로서 일용근로자의 소득
+[본조신설 2002.4.13.]
+[제목개정 2009.4.14.]- 364 -5.법인세법
+제3조(납세의무자 )①다음 각 호의 법인은 이 법에 따라 그 소득에 대한 법인세
+를 납부할 의무가 있다 .&lt;개정 2010. 12.30.&gt;
+1.내국법인
+2.국내원천소득 (國內源泉所得 )이 있는 외국법인
+②내국법인 중 국가와 지방자치단체 (지방자치단체조합을 포함한다 .이하 같다 )
+는 그 소득에 대한 법인세를 납부할 의무가 없다 .&lt;개정 2018. 12.24.&gt;
+③연결법인은 제76조의 14제1항에 따른 각 연결사업연도의 소득에 대한 법인
+세(각 연결법인의 제55조의 2에 따른 토지등 양도소득에 대한 법인세 및 「조세
+특례제한법」제100조의 32에 따른 투자ㆍ상생협력 촉진을 위한 과세특례를 적
+용하여 계산한 법인세를 포함한다 )를 연대하여 납부할 의무가 있다 .&lt;개정 
+2010. 12.30., 2014. 12.23., 2017. 12.19., 2018. 12.24.&gt;
+④이 법에 따라 법인세를 원천징수하는 자는 해당 법인세를 납부할 의무가 있다.
+&lt;개정 2018. 12.24.&gt;
+[제목개정 2018. 12.24.]
+[제2조에서 이동 ,종전 제 3조는 제4조로 이동 &lt;2018. 12.24.&gt;]
+제71조(징수 및 환급 )①납세지 관할 세무서장은 내국법인이 제64조에 따라 각 
+사업연도의 소득에 대한 법인세로서 납부하여야 할 세액의 전부 또는 일부를 
+납부하지 아니하면 그 미납된 법인세액을 「국세징수법」에 따라 징수하여야 
+한다 .&lt;개정 2013. 1.1.&gt;
+②납세지 관할 세무서장은 내국법인이 제63조 및 제63조의 2에 따라 납부하여
+야 할 중간예납세액의 전부 또는 일부를 납부하지 아니하면 그 미납된 중간예
+납세액을 「국세징수법」에 따라 징수하여야 한다 .다만 ,중간예납세액을 납부
+하지 아니한 법인이 제63조의 2제2항 제2호에 해당하는 경우에는 중간예납세액
+을 결정하여 「국세징수법」에 따라 징수하여야 한다 .&lt;개정 2013. 1.1.,2018.
+12.24.&gt;
+③납세지 관할 세무서장은 제73조 및 제73조의 2에 따른 원천징수의무자가 그 
+징수하여야 할 세액을 징수하지 아니하였거나 징수한 세액을 기한까지 납부하
+지 아니하면 지체 없이 원천징수의무자로부터 그 원천징수의무자가 원천징수하
+여 납부하여야 할 세액에 상당하는 금액에 「국세기본법」제47조의 5제1항에 - 365 -따른 가산세액을 더한 금액을 법인세로서 징수하여야 한다 .다만 ,원천징수의무</t>
+  </si>
+  <si>
+    <t>내국법인이 원천징수해야 하는 법인세율은 몇 퍼센트인가요?</t>
+  </si>
+  <si>
+    <t>내국법인이 원천징수해야 하는 법인세율은 14%입니다.</t>
+  </si>
+  <si>
+    <t>을 결정하여 「국세징수법」에 따라 징수하여야 한다 .&lt;개정 2013. 1.1.,2018.
+12.24.&gt;
+③납세지 관할 세무서장은 제73조 및 제73조의 2에 따른 원천징수의무자가 그 
+징수하여야 할 세액을 징수하지 아니하였거나 징수한 세액을 기한까지 납부하
+지 아니하면 지체 없이 원천징수의무자로부터 그 원천징수의무자가 원천징수하
+여 납부하여야 할 세액에 상당하는 금액에 「국세기본법」제47조의 5제1항에 - 365 -따른 가산세액을 더한 금액을 법인세로서 징수하여야 한다 .다만 ,원천징수의무
+자가 원천징수를 하지 아니한 경우로서 납세의무자가 그 법인세액을 이미 납부
+한 경우에는 원천징수의무자에게 그 가산세만 징수한다 .&lt;개정 2011. 12.31.,
+2018. 12.24.&gt;
+④납세지 관할 세무서장은 제63조,제63조의 2,제69조,제73조 또는 제73조의 2
+에 따라 중간예납ㆍ수시부과 또는 원천징수한 법인세액이 각 사업연도의 소득
+에 대한 법인세액 (가산세를 포함한다 )을 초과하는 경우 그 초과하는 금액은 
+「국세기본법」제51조에 따라 환급하거나 다른 국세 및 강제징수비에 충당하
+여야 한다 .&lt;개정 2018. 12.24., 2020. 12.22.&gt;
+[전문개정 2010. 12.30.]
+제73조(내국법인의 이자소득 등에 대한 원천징수 )①내국법인 (대통령령으로 정
+하는 금융회사 등의 대통령령으로 정하는 소득은 제외한다 )에 다음 각 호의 금
+액을 지급하는 자(이하 이 조에서 “원천징수의무자 ”라 한다 )는 그 지급하는 금
+액에 100분의 14(「소득세법」제16조 제1항 제11호의 비영업대금의 이익인 경
+우에는 100분의 25)의 세율을 적용하여 계산한 금액에 상당하는 법인세 (1천원 
+이상인 경우만 해당한다 )를 원천징수하여 그 징수일이 속하는 달의 다음 달 10
+일까지 납세지 관할 세무서등에 납부하여야 한다 .&lt;개정 2018. 12.24., 2019. 12.
+31.&gt;
+1.「소득세법」제16조 제1항에 따른 이자소득의 금액 (금융보험업을 하는 법인
+의 수입금액을 포함한다 )
+2.「소득세법」제17조 제1항 제5호에 따른 집합투자기구로부터의 이익 중 
+「자본시장과 금융투자업에 관한 법률」에 따른 투자신탁의 이익 (이하 “투자
+신탁의 이익 ”이라 한다 )의 금액
+②제1항에도 불구하고 법인세가 부과되지 아니하거나 면제되는 소득 등 대통
+령령으로 정하는 소득에 대해서는 법인세를 원천징수하지 아니한다 .&lt;신설 
+2018. 12.24.&gt;
+③제1항을 적용할 때 같은 항 각 호의 소득금액이 「자본시장과 금융투자업에 
+관한 법률」에 따른 투자신탁재산에 귀속되는 시점에는 해당 소득금액이 지급
+되지 아니한 것으로 보아 원천징수하지 아니한다 .&lt;개정 2010. 12.30.,2018. 12.24.&gt;
+④제1항을 적용할 때 원천징수의무자를 대리하거나 그 위임을 받은 자의 행위
+는 수권(授權) 또는 위임의 범위에서 본인 또는 위임인의 행위로 본다. &lt;개정 - 366 -2010. 12.30., 2018. 12.24.&gt;
+⑤제1항을 적용할 때 대통령령으로 정하는 금융회사 등이 내국법인 (거주자를 
+포함한다 .이하 이 항에서 같다 )이 발행한 어음이나 채무증서를 인수ㆍ매매ㆍ중
+개 또는 대리하는 경우에는 금융회사 등과 그 내국법인 간에 대리 또는 위임의 
+관계가 있는 것으로 본다 .&lt;개정 2010. 12.30., 2018. 12.24.&gt;
+⑥제1항을 적용할 때 외국법인이 발행한 채권 또는 증권에서 발생하는 제1항 
+각 호의 소득을 내국법인에 지급하는 경우에는 국내에서 그 지급을 대리하거나 
+그 지급권한을 위임받거나 위탁받은 자가 그 소득에 대한 법인세를 원천징수하
+여야 한다 .&lt;신설 2013. 1.1.,2018. 12.24.&gt;
+⑦상시 고용인원수 및 업종 등을 고려하여 대통령령으로 정하는 원천징수의무
+자는 제1항에도 불구하고 원천징수한 법인세를 대통령령으로 정하는 바에 따라 
+그 징수일이 속하는 반기 (半期 )의 마지막 달의 다음 달 10일까지 납부할 수 있
+다.&lt;개정 2010. 12.30.&gt;
+⑧제1항부터 제7항까지의 규정을 적용할 때 이자소득의 지급시기 ,법인세 원천
+징수대상소득의 범위 및 금액의 계산 ,원천징수세액의 계산 및 납부와 원천징수
+의무자의 범위 등에 관하여 필요한 사항은 대통령령으로 정한다 .&lt;개정 2010.
+12.30., 2013. 1.1.,2018. 12.24.&gt;
+[제목개정 2010. 12.30.]
+[제목개정 2018. 12.24.]
+제73조의 2(내국법인의 채권등의 보유기간 이자상당액에 대한 원천징수 )①내
+국법인이 「소득세법」제46조 제1항에 따른 채권등 또는 투자신탁의 수익증권
+(이하 “원천징수대상채권등 ”이라 한다 )을 타인에게 매도 (중개ㆍ알선과 그 밖에 
+대통령령으로 정하는 경우를 포함하되 ,환매조건부 채권매매 등 대통령령으로 
+정하는 경우는 제외한다 .이하 이 조,제74조 및 제 75조의 18에서 같다 )하는 경우 
+그 내국법인은 대통령령으로 정하는 바에 따라 계산한 해당 원천징수대상채권
+등의 보유기간에 따른 이자 ,할인액 및 투자신탁의 이익 (이하 이 조 및 제98조
+의3에서 “이자등 ”이라 한다 )의 금액에 100분의 14의 세율을 적용하여 계산한 금
+액에 상당하는 법인세 (1천원 이상인 경우만 해당한다 )를 원천징수하여 그 징수
+일이 속하는 달의 다음 달 10일까지 납세지 관할 세무서등에 납부하여야 한다 .
+이 경우 해당 내국법인을 원천징수의무자로 보아 이 법을 적용한다 .&lt;개정 
+2020. 12.22.&gt;
+②제1항에도 불구하고 법인세가 부과되지 아니하거나 면제되는 소득 등 대통- 367 -령령으로 정하는 소득에 대해서는 법인세를 원천징수하지 아니한다 .
+③제1항을 적용할 때 다음 각 호의 법인에 원천징수대상채권등을 매도하는 경
+우로서 당사자 간의 약정이 있을 때에는 그 약정에 따라 원천징수의무자를 대
+리하거나 그 위임을 받은 자의 행위는 수권 또는 위임의 범위에서 본인 또는 
+위임인의 행위로 본다 .
+1.대통령령으로 정하는 금융회사 등
+2.「자본시장과 금융투자업에 관한 법률」에 따른 집합투자업자
+④제1항을 적용할 때 「자본시장과 금융투자업에 관한 법률」에 따른 신탁재</t>
+  </si>
+  <si>
+    <t>제74조에 따르면 원천징수의무자가 납세의무자로부터 법인세를 원천징수한 경우 무엇을 발급해야 하나요?</t>
+  </si>
+  <si>
+    <t>제74조에 따르면 원천징수의무자가 납세의무자로부터 법인세를 원천징수한 경우 원천징수영수증을 발급해야 합니다.</t>
+  </si>
+  <si>
+    <t>③제1항을 적용할 때 다음 각 호의 법인에 원천징수대상채권등을 매도하는 경
+우로서 당사자 간의 약정이 있을 때에는 그 약정에 따라 원천징수의무자를 대
+리하거나 그 위임을 받은 자의 행위는 수권 또는 위임의 범위에서 본인 또는 
+위임인의 행위로 본다 .
+1.대통령령으로 정하는 금융회사 등
+2.「자본시장과 금융투자업에 관한 법률」에 따른 집합투자업자
+④제1항을 적용할 때 「자본시장과 금융투자업에 관한 법률」에 따른 신탁재
+산에 속한 원천징수대상채권등을 매도하는 경우 같은 법에 따른 신탁업자와 다
+음 각 호의 구분에 따른 자 간에 대리 또는 위임의 관계가 있는 것으로 본다 .
+&lt;개정 2020. 12.22.&gt;
+1.제5조 제1항에 따른 신탁재산 :해당 신탁재산의 수익자
+2.제5조 제3항에 따른 신탁재산 :해당 신탁재산의 위탁자
+⑤원천징수의무의 위임ㆍ대리 및 납부에 관하여는 제73조 제4항부터 제7항까
+지의 규정을 준용한다 .
+⑥제1항부터 제4항까지의 규정을 적용할 때 원천징수대상채권등의 보유기간의 
+계산 등에 필요한 사항은 대통령령으로 정한다 .
+[본조신설 2018. 12.24.]
+제74조(원천징수영수증의 발급 )①제73조 및 제73조의 2에 따라 원천징수의무자
+가 납세의무자로부터 법인세를 원천징수한 경우에는 그 납세의무자에게 대통령
+령으로 정하는 바에 따라 원천징수영수증을 발급하여야 한다.&lt;개정 2018. 12.24.&gt;
+②제1항을 적용할 때 제73조의 2에 따라 원천징수대상채권등의 매도에 따른 이
+자상당액에 대한 원천징수의무자가 납세의무자로서 납부한 법인세액에 대하여
+는 해당 법인을 납세의무자로 본다 .&lt;개정 2018. 12.24.&gt;
+③제1항에 따른 원천징수영수증 발급에 필요한 사항은 대통령령으로 정한다 .
+[전문개정 2010. 12.30.]
+제75조의 7(지급명세서 제출 불성실 가산세 )①제120조,제120조의 2,「소득세
+법」제164조,제164조의 2에 따른 지급명세서 또는 같은 법 제164조의 3에 따른 
+근로소득간이지급명세서 (이하 이 항에서 “명세서 ”라 한다 )를 제출하여야 할 자
+가 다음 각 호의 어느 하나에 해당하는 경우에는 다음 각 호의 구분에 따른 금- 368 -액을 가산세로 해당 사업연도의 법인세액에 더하여 납부하여야 한다 .&lt;개정 
+2020. 12.22.&gt;
+1.명세서를 기한까지 제출하지 아니한 경우
+가.지급명세서의 경우:제출하지 아니한 분의 지급금액의 100분의 1(제출기한이 
+지난 후 3개월 이내에 제출하는 경우에는 지급금액의 1천분의 5로 한다)
+나.근로소득간이지급명세서의 경우 :제출하지 아니한 분의 지급금액의 1만분
+의 25(제출기한이 지난 후 3개월 이내에 제출하는 경우에는 지급금액의 
+10만분의 125로 한다 )
+2.제출된 명세서가 대통령령으로 정하는 불분명한 경우에 해당하거나 제출된 
+명세서에 기재된 지급금액이 사실과 다른 경우
+가.지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금액의 100분의 1
+나.근로소득간이지급명세서의 경우 :불분명하거나 사실과 다른 분의 지급금
+액의 1만분의 25
+②제1항에 따른 가산세는 산출세액이 없는 경우에도 적용한다 .
+③제1항을 적용할 때 법인이 합병ㆍ분할 또는 해산하는 경우 지급금액에 관하
+여 필요한 사항은 대통령령으로 정한다 .
+[본조신설 2018. 12.24.]
+제93조(외국법인의 국내원천소득 )외국법인의 국내원천소득은 다음 각 호와 같
+이 구분한다 .&lt;개정 2011. 12.31., 2015. 12.15., 2016. 12.20., 2018. 12.24.,
+2019. 12.31., 2020. 12.22.&gt;
+1.국내원천 이자소득 :다음 각 목의 어느 하나에 해당하는 소득으로서 「소득
+세법」제16조제 1항에 따른 이자소득 (같은 항 제7호의 소득은 제외한다 )과 
+그 밖의 대금의 이자 및 신탁의 이익 .다만 ,거주자 또는 내국법인의 국외사
+업장을 위하여 그 국외사업장이 직접 차용한 차입금의 이자는 제외한다 .
+가.국가 ,지방자치단체 ,거주자 ,내국법인 또는 외국법인의 국내사업장이나 
+「소득세법」제120조에 따른 비거주자의 국내사업장으로부터 지급받는 소득
+&lt;이하 생략 &gt;
+제98조(외국법인에 대한 원천징수 또는 징수의 특례 )①외국법인에 대하여 제
+93조 제1호ㆍ제 2호 및 제4호부터 제10호까지의 규정에 따른 국내원천소득으로
+서 국내사업장과 실질적으로 관련되지 아니하거나 그 국내사업장에 귀속되지 
+아니하는 소득의 금액 (국내사업장이 없는 외국법인에 지급하는 금액을 포함한- 369 -다)을 지급하는 자(제93조 제7호에 따른 국내원천 부동산등양도소득의 금액을 
+지급하는 거주자 및 비거주자는 제외한다 )는 제97조에도 불구하고 그 지급을 할 
+때에 다음 각 호의 구분에 따른 금액을 해당 법인의 각 사업연도의 소득에 대
+한 법인세로서 원천징수하여 그 원천징수한 날이 속하는 달의 다음 달 10일까
+지 대통령령으로 정하는 바에 따라 납세지 관할 세무서등에 납부하여야 한다 .
+&lt;개정 2013. 1.1.,2016. 12.20., 2018. 12.24., 2019. 12.31.&gt;
+1.제93조 제1호에 따른 국내원천 이자소득 :다음 각 목의 구분에 따른 금액
+가.국가ㆍ지방자치단체 및 내국법인이 발행하는 채권에서 발생하는 이자소득 :
+지급금액의 100분의 14
+나.가목 외의 이자소득 :지급금액의 100분의 20
+2.~8.&lt;생략 &gt;
+②외국인의 국내 투자자금의 변동성이 확대되어 외환부문의 건전성을 해치는 
+등 금융시장에 불안이 초래되고 통화정책 수행을 어렵게 하거나 어렵게 할 우
+려가 있어 긴급히 필요하다고 인정될 때에는 외국법인의 소득 중 다음 각 호의 
+소득에 대해서는 제1항의 세율을 대통령령으로 정하는 바에 따라 인하하거나 
+영의 세율로 할 수 있다 .이 경우 기획재정부장관은 인하할 세율과 그 필요성에 
+관한 내용을 국회 소관 상임위원회에 사전에 보고하여야 한다 .&lt;개정 2011. 12.
+31., 2018. 12.24.&gt;
+1.제93조 제1호에 따른 국내원천 이자소득 중 「국채법」제5조제 1항에 따라 발
+행하는 국채 및 대통령령으로 정하는 채권 (이하 이 조에서 “국채등 ”이라 한
+다)에서 발생하는 소득</t>
+  </si>
+  <si>
+    <t>기획재정부장관이 국회 소관 상임위원회에 사전에 보고해야 하는 내용은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>기획재정부장관이 국회 소관 상임위원회에 사전에 보고해야 하는 내용은 인하할 세율과 그 필요성에 관한 내용입니다.</t>
+  </si>
+  <si>
+    <t>소득에 대해서는 제1항의 세율을 대통령령으로 정하는 바에 따라 인하하거나 
+영의 세율로 할 수 있다 .이 경우 기획재정부장관은 인하할 세율과 그 필요성에 
+관한 내용을 국회 소관 상임위원회에 사전에 보고하여야 한다 .&lt;개정 2011. 12.
+31., 2018. 12.24.&gt;
+1.제93조 제1호에 따른 국내원천 이자소득 중 「국채법」제5조제 1항에 따라 발
+행하는 국채 및 대통령령으로 정하는 채권 (이하 이 조에서 “국채등 ”이라 한
+다)에서 발생하는 소득
+2.제93조 제9호에 따른 국내원천 유가증권양도소득 중 국채 등의 양도로 인하
+여 발생하는 소득
+③삭제 &lt;2011. 12.31.&gt;
+④납세지 관할 세무서장은 원천징수의무자가 제1항 및 제5항부터 제12항까지
+의 규정에 따라 외국법인의 각 사업연도의 소득에 대한 법인세로서 원천징수하
+여야 할 금액을 원천징수하지 아니하였거나 원천징수한 금액을 제1항에 따른 
+기한까지 납부하지 아니하면 지체 없이 국세징수의 예에 따라 원천징수의무자
+로부터 그 징수하는 금액에 「국세기본법」제47조의 5제1항에 따른 금액을 가
+산하여 법인세로 징수하여야 한다 .&lt;개정 2011. 12.31.&gt;
+&lt;이하 생략 &gt;
+제98조의 3(외국법인의 원천징수대상채권 등에 대한 원천징수의 특례 )①외국- 370 -법인 (제98조 제1항을 적용받는 외국법인을 말한다 .이하 이 조에서 같다 )에게 
+원천징수대상채권 등의 이자 등을 지급하는 자 또는 원천징수대상채권 등의 이
+자 등을 지급받기 전에 외국법인으로부터 원천징수대상채권 등을 매수 (중개·알
+선,그 밖에 대통령령으로 정하는 경우를 포함하되 ,환매조건부 채권매매 거래 
+등 대통령령으로 정하는 경우는 제외한다 .이하 이 조에서 같다 )하는 자는 그 
+외국법인의 보유기간을 고려하여 대통령령으로 정하는 바에 따라 원천징수하여
+야 한다 .&lt;개정 2010.12.30&gt;
+&lt;이하 생략 &gt;
+제120조(지급명세서의 제출의무 )①내국법인에 「소득세법」제127조 제1항 제1
+호 또는 제2호의 소득을 지급하는 자 (제73조 제 4항부터 제 6항까지 및 제73조의 2
+에 따라 원천징수를 하여야 하는 자를 포함한다 )는 대통령령으로 정하는 바에 
+따라 납세지 관할 세무서장에게 지급명세서를 제출하여야 한다 .이 경우 「자본
+시장과 금융투자업에 관한 법률」의 적용을 받는 법인의 신탁재산에 귀속되는 
+소득은 제5조 제4항에도 불구하고 그 법인에 소득이 지급된 것으로 보아 해당 
+소득을 지급하는 자는 지급명세서를 제출하여야 한다 .&lt;개정 2011. 12. 31.,
+2013. 1.1.,2018. 12.24., 2020. 12.22.&gt;
+②제1항에 따른 지급명세서의 제출에 관하여는 「소득세법」제164조를 준용한다 .
+[전문개정 2010. 12.30.]
+제120조의 2(외국법인의 국내원천소득 등에 대한 지급명세서 제출의무의 특례 )
+①제93조에 따른 국내원천소득을 외국법인에 지급하는 자(「자본시장과 금융투
+자업에 관한 법률」에 따라 주식을 상장하는 경우로서 상장 전 이미 발행된 주
+식을 양도하는 경우에는 그 주식을 발행한 법인을 말한다 )는 지급명세서를 납세
+지 관할 세무서장에게 그 지급일이 속하는 연도의 다음 연도 2월 말일 (휴업하거
+나 폐업한 경우에는 휴업일 또는 폐업일이 속하는 달의 다음다음 달 말일 )까지 
+제출하여야 한다 .다만 ,제98조의 4에 따라 비과세 또는 면제대상임이 확인되는 
+소득 등 대통령령으로 정하는 소득을 지급하는 경우에는 그러하지 아니하다 .
+&lt;개정 2020. 12.22.&gt;
+②제1항에 따른 지급명세서의 제출에 관하여는 「소득세법」제164조를 준용한다 .
+[전문개정 2010. 12.30.]- 371 -6.법인세법 시행령
+제7조(납세지의 범위 ))①~③&lt;생략 &gt;
+④법 제9조 제3항에서 “대통령령으로 정하는 장소 ”란 국내원천소득이 발생하
+는 장소중 당해 외국법인이 납세지로 신고하는 장소를 말한다 .이 경우 그 신고
+는 2이상의 국내원천소득이 발생하게 된 날부터 1월 이내에 기획재정부령이 
+정하는 납세지신고서에 의하여 납세지 관할세무서장에게 하여야 한다 .&lt;개정 
+2008. 2.29., 2011. 6.3.&gt;
+⑤건설업 등을 영위하는 외국법인의 국내사업장이 영해에 소재하는 이유 등으
+로 국내사업장을 납세지로 하는 것이 곤란한 경우에는 국내의 등기부상 소재지
+를 납세지로 한다 .다만 ,등기부상 소재지가 없으면 국내에서 그 사업에 관한 
+업무를 총괄하는 장소를 납세지로 한다 .&lt;신설 2009. 2.4.&gt;
+⑥법 제9조 제4항 본문에서 “대통령령으로 정하는 해당 원천징수의무자의 소
+재지 ”란 다음 각 호의 구분에 따른 장소를 말한다 .&lt;신설 2019. 2.12.&gt;
+1.원천징수의무자가 개인인 경우 :「소득세법」제7조 제1항 제1호 및 제2호에 
+따른 소재지
+2.원천징수의무자가 법인인 경우 :다음 각 목의 장소
+가.해당 법인의 본점ㆍ주사무소 또는 국내에 본점이나 주사무소가 소재하지 
+않는 경우에는 사업의 실질적 관리장소 (이하 “본점등 ”이라 한다 )의 소재
+지(법인으로 보는 단체의 경우에는 제1항에 따른 소재지로 ,외국법인의 
+경우에는 해당 법인의 주된 국내사업장의 소재지로 한다 )
+나.가목에도 불구하고 법인의 지점ㆍ영업소 또는 그 밖의 사업장이 독립채산
+제에 의해 독자적으로 회계사무를 처리하는 경우에는 그 사업장의 소재지
+(그 사업장의 소재지가 국외에 있는 경우는 제외한다 ).다만 ,법인이 지점
+ㆍ영업소 또는 그 밖의 사업장에서 지급하는 소득에 대한 원천징수세액을 
+본점등에서 전자계산조직 등에 의해 일괄계산하는 경우로서 본점등의 관
+할 세무서장에게 신고하거나 「부가가치세법」제8조 제3항 및 제4항에 
+따라 사업자단위로 관할 세무서장에게 등록한 경우에는 해당 법인의 본점
+등의 소재지로 한다 .
+⑦법 제9조 제4항 단서에서 “대통령령으로 정하는 장소 ”란 다음 각 호의 구분
+에 따른 장소를 말한다 .&lt;신설 2019. 2.12.&gt;
+1.법 제93조 제7호 나목에 따른 국내원천 부동산등양도소득 및 이 영 제132조 - 372 -제8항 각 호의 어느 하나에 해당하는 소득이 있는 경우 :해당 유가증권을 발</t>
+  </si>
+  <si>
+    <t>법 제9조 제4항 단서에서 '대통령령으로 정하는 장소'란 무엇인가요?</t>
+  </si>
+  <si>
+    <t>법 제9조 제4항 단서에서 '대통령령으로 정하는 장소'란 국내원천 부동산등양도소득이 있는 경우 해당 유가증권을 발행한 내국법인 또는 외국법인의 국내사업장의 소재지, 그 외의 경우 국세청장이 지정하는 장소를 말합니다.</t>
+  </si>
+  <si>
+    <t>할 세무서장에게 신고하거나 「부가가치세법」제8조 제3항 및 제4항에 
+따라 사업자단위로 관할 세무서장에게 등록한 경우에는 해당 법인의 본점
+등의 소재지로 한다 .
+⑦법 제9조 제4항 단서에서 “대통령령으로 정하는 장소 ”란 다음 각 호의 구분
+에 따른 장소를 말한다 .&lt;신설 2019. 2.12.&gt;
+1.법 제93조 제7호 나목에 따른 국내원천 부동산등양도소득 및 이 영 제132조 - 372 -제8항 각 호의 어느 하나에 해당하는 소득이 있는 경우 :해당 유가증권을 발
+행한 내국법인 또는 외국법인의 국내사업장의 소재지
+2.제1호 외의 경우 :국세청장이 지정하는 장소
+⑧제6항 제2호 나목 단서에 따라 일괄계산하여 신고하는 절차에 관하여 필요
+한 사항은 기획재정부령으로 정한다 .&lt;신설 2019. 2.12.&gt;
+[제6조에서 이동 &lt;2019. 2.12.&gt; ]
+제111조(내국법인의 이자소득 등에 대한 원천징수 )①법 제73조 제1항 각 호 
+외의 부분에서 “대통령령으로 정하는 금융회사 등의 대통령령으로 정하는 소
+득”이란 다음 각 호의 법인에 지급하는 소득을 말하며 ,법 제73조의 2제1항 전단
+에 따른 원천징수대상채권등 (「주식ㆍ사채 등의 전자등록에 관한 법률」제59조 
+각 호 외의 부분 전단에 따른 단기사채등 중 같은 법 제2조 제1호 나목에 해당
+하는 것으로서 만기 1개월 이내의 것은 제외한다 )의 이자등 (법 제73조의 2제1항 
+전단에 따른 이자등을 말한다 .이하 이 조,제113조 및 제138조의 3에서 같다 )을 
+「자본시장과 금융투자업에 관한 법률」에 따른 투자회사 및 제16호의 자본확
+충목적회사가 아닌 법인에 지급하는 경우는 제외한다 .&lt;개정 2002. 12. 30.,
+2003. 12.30., 2005. 2.19., 2005. 12.30., 2008. 2.22., 2008. 2.29., 2009. 2.4.,
+2009. 6.8.,2009. 12.31., 2010. 2.18., 2015. 10.23., 2019. 2.12., 2019. 7.1.,
+2020. 2.11., 2021. 2.17.&gt;
+1.제61조 제2항 제 1호부터 제 28호까지의 법인
+2.「한국은행법」에 의한 한국은행
+3.「자본시장과 금융투자업에 관한 법률」에 따른 집합투자업자
+4.「자본시장과 금융투자업에 관한 법률」에 따른 투자회사 ,투자목적회사 ,투
+자유한회사 및 투자합자회사 (같은 법 제9조 제19항 제1호에 따른 경영참여형 
+사모집합투자기구는 제외한다 )
+5.「농업협동조합법」에 의한 조합
+6.「수산업협동조합법 」에 따른 조합
+7.「산림조합법」에 따른 조합
+8.「신용협동조합법」에 따른 조합 및 신용협동조합중앙회
+9.「새마을금고법」에 따른 금고
+10.「자본시장과 금융투자업에 관한 법률」에 따른 증권금융회사
+11.거래소 (위약손해공동기금으로 한정한다 )- 373 -12.「자본시장과 금융투자업에 관한 법률」에 따른 한국예탁결제원
+13.「한국투자공사법」에 따른 한국투자공사
+14.「국가재정법」의 적용을 받는 기금 (법인 또는 법인으로 보는 단체에 한정
+한다 )
+15.법률에 따라 자금대부사업을 주된 목적으로 하는 법인 또는 기금 (다른 사업
+과 구분 경리되는 것에 한정한다 )
+16.「조세특례제한법」제104조의 3제1항에 따른 자본확충목적회사
+17.그 밖에 기획재정부령으로 정하는 금융보험업을 영위하는 법인
+②법 제73조 제2항에서 “법인세가 부과되지 아니하거나 면제되는 소득 등 대
+통령령으로 정하는 소득 ”이란 다음 각 호의 소득을 말한다 .&lt;개정 1999. 12.31.,
+2000. 3.28., 2000. 12.29., 2001. 12.31., 2003. 11.29., 2003. 12.30., 2005. 2.
+19., 2007. 2.28., 2008. 2.22., 2008. 2.29., 2009. 2.4.,2009. 9.21., 2009. 12.
+31., 2015. 6.30., 2019. 2.12., 2019. 6.25.&gt;
+1.법인세가 부과되지 아니하거나 면제되는 소득
+2.삭제 &lt;2009. 2.4.&gt;
+3.신고한 과세표준에 이미 산입된 미지급 소득
+4.법령 또는 정관에 의하여 비영리법인이 회원 또는 조합원에게 대부한 융자금
+과 비영리법인이 당해 비영리법인의 연합회 또는 중앙회에 예탁한 예탁금에 
+대한 이자수입
+5.법률에 따라 설립된 기금을 관리ㆍ운용하는 법인으로서 기획재정부령으로 정
+하는 법인 (이하 이 호에서 “기금운용법인 ”이라 한다 )과 법률에 따라 공제사
+업을 영위하는 법인으로서 기획재정부령으로 정하는 법인 중 건강보험ㆍ연금
+관리 및 공제사업을 영위하는 비영리내국법인 (기금운용법인의 경우에는 해당 
+기금사업에 한정한다 )이 「국채법」에 따라 등록하거나 「주식ㆍ사채 등의 
+전자등록에 관한 법률」에 따라 전자등록한 다음 각 목의 국공채 등을 발행
+일부터 이자지급일 또는 상환일까지 계속하여 등록ㆍ보유함으로써 발생한 이
+자 및 할인액
+가.국가 또는 지방자치단체가 발행한 채권 또는 증권
+나.「한국은행 통화안정증권법 」에 의하여 한국은행이 발행한 통화안정증권
+다.기획재정부령이 정하는 채권 또는 증권
+&lt;이하 생략 &gt;- 374 -제113조(내국법인의 채권등 보유기간 이자상당액에 대한 원천징수 )①법 제73
+조 및 제73조의 2를 적용할 때 채권등의 이자등 (채권등의 이자등을 지급받기 전
+에 매도하는 경우에는 채권등을 매도하는 경우의 이자등을 말한다 )에 대한 원천
+징수대상소득은 내국법인이 채권등 (「자본시장과 금융투자업에 관한 법률」에 
+따른 신탁업자가 운용하는 신탁재산에 귀속되는 채권등을 포함한다 )을 취득하여 
+보유한 기간에 발생한 소득으로 한다 .&lt;개정 2005. 2.19., 2009. 2.4.,2019. 2.
+12.&gt;
+②제1항의 규정을 적용함에 있어서 채권등을 취득하여 보유한 기간에 발생한 
+소득은 채권등의 액면가액 등에 제1호 각목의 기간과 제2호 각목의 이자율 등
+을 적용하여 계산한 금액 (이하 이 조,제114조의 2및 제138조의 3에서 “보유기간
+이자상당액 ”이라 한다 )으로 한다 .&lt;개정 2000. 5.16., 2000. 12.29., 2001. 12.</t>
+  </si>
+  <si>
+    <t>보유기간이자상당액이란 무엇인가요?</t>
+  </si>
+  <si>
+    <t>보유기간이자상당액은 채권 등을 취득하여 보유한 기간에 발생한 소득을 의미합니다.</t>
+  </si>
+  <si>
+    <t>보유한 기간에 발생한 소득으로 한다 .&lt;개정 2005. 2.19., 2009. 2.4.,2019. 2.
+12.&gt;
+②제1항의 규정을 적용함에 있어서 채권등을 취득하여 보유한 기간에 발생한 
+소득은 채권등의 액면가액 등에 제1호 각목의 기간과 제2호 각목의 이자율 등
+을 적용하여 계산한 금액 (이하 이 조,제114조의 2및 제138조의 3에서 “보유기간
+이자상당액 ”이라 한다 )으로 한다 .&lt;개정 2000. 5.16., 2000. 12.29., 2001. 12.
+31., 2005. 2.19., 2005. 12.30., 2006. 2.9.,2008. 2.29., 2010. 2.18., 2013. 2.
+15.&gt;
+1.채권등을 보유한 기간
+가.채권등의 이자소득금액을 지급받기 전에 매도하는 경우에는 당해 채권등
+을 취득한 날 또는 직전 이자소득금액의 계산기간종료일의 다음날부터 매
+도하는 날(매도하기 위하여 알선ㆍ중개 또는 위탁하는 경우에는 실제로 
+매도하는 날)까지의 기간 .다만 ,취득한 날 또는 직전 이자소득금액의 계
+산기간종료일부터 매도하는 날 전일까지로 기간을 계산하는 약정이 있는 
+경우에는 그 기간으로 한다 .
+나.채권등의 이자소득금액을 지급받는 경우에는 당해 채권등을 취득한 날 또
+는 직전 이자소득금액의 계산기간종료일의 다음날부터 이자소득금액의 계
+산기간종료일까지의 기간 .다만 ,취득한 날 또는 직전 이자소득금액의 계
+산기간종료일부터 매도하는 날 전일까지로 기간을 계산하는 약정이 있는 
+경우에는 그 기간으로 한다 .
+2.적용이자율
+가.당해 채권등의 이자계산기간에 대하여 약정된 이자계산방식에 의한 이자
+율에 발행시의 할인율을 가산하고 할증률을 차감한 이자율 .다만 ,공개시
+장에서 발행하는 「소득세법 시행령」제22조의 2제1항 및 제2항의 채권
+의 경우에는 발행시의 할인율과 할증률을 가감하지 아니한다 .
+나.만기상환일에 각 이자계산기간에 대한 보장이율을 추가로 지급하는 조건
+이 있는 전환사채ㆍ교환사채 또는 신주인수권부사채의 경우에는 가목의 - 375 -이자율에 당해 추가지급이율을 가산한 이자율 .다만 ,전환사채 또는 교환
+사채를 주식으로 전환청구 또는 교환청구한 경우로서 이자지급의 약정이 
+있는 경우에는 전환청구일 또는 교환청구일부터는 기획재정부령이 정하는 
+바에 따라 당해 약정이자율로 한다 .
+③~⑤&lt;생략 &gt;
+⑥법인이 「소득세법 시행령」제190조 제1호에 규정하는 날에 원천징수하는 
+채권등 (이하 “선이자지급방식의 채권등 ”이라 한다 )을 취득한 후 사업연도가 종
+료되어 원천징수된 세액을 전액 공제하여 법인세를 신고하였으나 그 후의 사업
+연도중 해당 채권등의 만기상환일이 도래하기 전에 이를 매도함으로써 해당 사
+업연도전에 공제한 원천징수세액이 제2항을 준용하여 계산한 보유기간이자상당
+액에 대한 세액을 초과하는 경우에는 그 초과하는 금액을 해당 채권등을 매도
+한 날이 속하는 사업연도의 법인세에 가산하여 납부하여야 한다 .&lt;개정 2000.
+12.29., 2005. 2.19., 2009. 2.4.&gt;
+⑦법인이 취득일이 서로 다른 동일종목의 채권등을 매도하는 경우 제2항제 1호의 
+기간계산방법은 제74조 제1항 제1호 가목 내지 다목을 준용하는 방법 또는 기획
+재정부령이 정하는 방법중 하나를 선택하여 적용할 수 있으며 ,당해 법인은 이를 
+다음 각호의 1의 기한내에 납세지 관할세무서장에게 신고하여 계속적으로 적용하
+여야 한다 .이 경우 법인이 보유기간의 계산방법을 신고하지 아니하거나 신고한 
+방법과 상이한 방법을 적용하여 계산한 경우에는 제74조 제1항 제1호 나목의 방
+법을 준용하여 보유기간을 계산한다 .&lt;개정 2000.12.29., 2008.2.29.&gt;
+1.보유기간이자상당액에 대한 원천징수세액납부일
+2.보유기간이자상당액에 대한 법인세 과세표준신고일
+⑧제1항부터 제7항까지의 규정을 적용할 때 채권등의 보유기간 확인에 관하여
+는 「소득세법 시행령」제102조 제 8항을 준용한다 .&lt;개정 2010. 2.18.&gt;
+⑨~⑩&lt;생략 &gt;
+⑪법인이 선이자지급방식의 채권등 (채권등의 매출시 세금을 원천징수한 채권등
+에 한정한다 .이하 이 항에서 같다 )을 이자계산기간 중에 매도하는 경우 해당 
+법인 (금융회사 등이 해당 채권등의 매도를 중개하는 경우에는 해당 금융회사 등
+을 말한다 )은 중도 매도일에 해당 채권등을 새로이 매출한 것으로 보아 이자등
+을 계산하여 세액을 원천징수하여야 한다 .&lt;신설 2001. 12. 31., 2009. 2.4.,
+2010. 2.18.&gt;- 376 -⑫법 제73조의 2제3항 제1호에서 “대통령령으로 정하는 금융회사 등”이란 제
+61조 제2항 각 호의 법인을 말한다 .&lt;개정 2019. 2.12.&gt;
+⑬제3항의 규정에 의하여 채권등의 매도로 보는 경우 관리하는 재산의 보유기
+간이자상당액에 대한 원천징수에 관하여는 당해 재산을 관리하는 법인이 채권
+등을 매도하는 것으로 본다 .&lt;신설 2005. 2.19.&gt;
+&lt;이하 생략 &gt;
+제114조의 2(환매조건부채권매매거래 등의 원천징수 및 환급 등)①법 제73조
+의2제1항 전단에서 “환매조건부 채권매매 등 대통령령으로 정하는 경우 ”란 다
+음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말한다 .&lt;개정 
+2011. 3.31., 2016. 2.12., 2019. 2.12., 2021. 2.17.&gt;
+1.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 
+해당하는 금융회사 등과 이 영 제111조 제1항 각 호의 어느 하나에 해당하는 
+법인이 일정기간 후에 일정가격으로 환매수 또는 환매도할 것을 조건으로 하
+여 채권등을 매도 또는 매수하는 거래 (해당 거래가 연속되는 경우를 포함한
+다)로서 그 거래에 해당하는 사실이「자본시장과 금융투자업에 관한 법률」제
+294조에 따른 한국예탁결제원의 계좌 또는 같은 법 제373조에 따른 거래소의 
+거래원장 (전자적 형태의 거래원장을 포함한다 )을 통하여 확인되는 거래
+2.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 
+해당하는 금융회사 등과 이 영 제111조 제1항 각 호의 어느 하나에 해당하는</t>
+  </si>
+  <si>
+    <t>법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 채권을 대여하는 거래는 무엇을 통해 확인되는가?</t>
+  </si>
+  <si>
+    <t>법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 채권을 대여하는 거래는 채권대차거래중개기관이 작성한 거래 원장을 통해 확인됩니다.</t>
+  </si>
+  <si>
+    <t>법인이 일정기간 후에 일정가격으로 환매수 또는 환매도할 것을 조건으로 하
+여 채권등을 매도 또는 매수하는 거래 (해당 거래가 연속되는 경우를 포함한
+다)로서 그 거래에 해당하는 사실이「자본시장과 금융투자업에 관한 법률」제
+294조에 따른 한국예탁결제원의 계좌 또는 같은 법 제373조에 따른 거래소의 
+거래원장 (전자적 형태의 거래원장을 포함한다 )을 통하여 확인되는 거래
+2.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 
+해당하는 금융회사 등과 이 영 제111조 제1항 각 호의 어느 하나에 해당하는 
+법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으로 
+채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거래
+에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관한 
+법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중개업
+자를 말한다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한다 )을 통하여 
+확인되는 거래
+②제1항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
+반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득에 상당하
+는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우 또는 제1항 각 호의 
+거래가 혼합되는 경우에는 최초 매도자 또는 대여자를 말한다 )에게 귀속되는 것
+으로 보아 법 제73조의2를 적용한다 .&lt;개정 2013. 2.15.,2016. 2.12.,2019. 2.12.&gt;- 377 -③제1항에 따른 거래를 통하여 매수자 또는 차입자 (이하 이 조에서 “매수자등 ”
+이라 한다 )가 매입 또는 차입한 채권등이 제3자에게 매도 또는 대여되는 경우에
+는 매수자등 (제111조제 1항 각 호의 어느 하나에 해당하는 법인은 제외한다 )에게 
+보유기간이자상당액에 대한 세액을 법 제73조의 2및 제98조의 3,「소득세법」
+제133조의 2및 제156조의 3에 따라 원천징수하여야 하며 ,매수자등은 원천징수당
+한 세액을 제 4항에 따라 환급받을 수 있다 .&lt;개정 2019. 2.12.&gt;
+④제3항에 따라 원천징수된 세액을 환급받으려는 매수자등은 제3자에게 매도 
+또는 대여한 채권등이 제1항에 따른 거래를 통하여 매입 또는 차입한 것임을 
+입증할 수 있는 기획재정부령으로 정하는 서류를 첨부하여 원천징수된 세액의 
+납부일이 속하는 달의 다음 달 10일까지 매수자등의 납세지 관할 세무서장에게 
+환급신청서를 제출하여야 하며 ,환급신청을 받은 관할 세무서장은 거래사실 및 
+환급신청내용을 확인한 후 즉시 환급하여야 한다 .
+[전문개정 2010. 6.8.]
+제115조(원천징수세액의 납부 )①법 제73조 및 제73조의 2에 따른 원천징수의무
+자는 원천징수한 법인세를 「국세징수법」에 따라 원천징수의무자의 납세지 관
+할세무서 등에 납부하여야 하며 ,기획재정부령으로 정하는 원천징수이행상황신
+고서를 원천징수의무자의 납세지 관할세무서장에게 제출 (국세정보통신망에 의한 
+제출을 포함한다 )하여야 한다 .&lt;개정 2004. 3.17., 2005. 2.19., 2008. 2.29.,
+2012. 2.2.,2019. 2.12.&gt;
+&lt;이하 생략 &gt;
+제117조(원천징수영수증의 교부 )①법 제74조 제1항에 따른 원천징수영수증의 
+교부에 관하여는 「소득세법」제133조를 준용한다 .&lt;개정 2005. 2.19.,2021. 2.17.&gt;
+②제1항의 규정은 선이자지급방식의 채권등에 대한 이자소득을 지급하는 법인
+이 원천징수한 법인세액에 대한 원천징수영수증의 교부에 대하여도 이를 적용
+한다 .
+제138조의 3(외국법인의 채권등의 이자등에 대한 원천징수 특례 )①법 제98조 
+제1항을 적용받는 외국법인 (이하 이 조에서 “외국법인 ”이라 한다 )에 대하여 원
+천징수대상채권등의 이자등을 지급하는 자 또는 원천징수대상채권등의 이자등
+을 지급받기 전에 외국법인으로부터 원천징수대상채권등을 매수하는 자는 그 
+지급금액에 대하여 법ㆍ「조세특례제한법」또는 조세조약에 의한 세율 (이하 이 - 378 -조에서 “적용세율 ”이라 한다 )을 적용하는 경우에 그 지급금액에 다음 각 호의 
+세율을 적용하여 계산한 금액을 원천징수하여야 한다 .이 경우 제1호의 세율이 
+법 제73조의 2제1항 전단에 따른 세율보다 높은 경우로서 해당 외국법인이 원
+천징수대상채권등의 보유기간을 입증하지 못하는 경우에는 지급금액 전액을 해
+당 외국법인의 보유기간이자상당액으로 보며 ,제1호에 따른 적용세율이 법 제73
+조의 2제1항 전단에 따른 세율보다 낮은 경우로서 해당 외국법인이 원천징수대
+상채권등의 보유기간을 입증하지 못하는 경우에는 해당 외국법인의 보유기간이
+자상당액은 이를 없는 것으로 본다 .&lt;개정 2005. 2.19., 2006. 2.9.,2010. 12.
+30., 2012. 2.2.,2019. 2.12.&gt;
+1.지급금액 중 당해 외국법인의 보유기간이자상당액에 대하여는 당해 외국법인
+에 대한 적용세율
+2.지급금액 중 제1호의 보유기간이자상당액을 차감한 금액에 대하여는 법 제73
+조의 2제1항 전단에 따른 세율
+②법 제98조의 3제1항에서 “환매조건부 채권매매 거래 등 대통령령으로 정하
+는 경우 ”란 다음 각 호의 어느 하나에 해당하거나 각 호가 혼합되는 거래를 말
+한다 .&lt;개정 2010. 6.8.,2011. 6.3.,2016. 2.12.&gt;
+1.외국법인이 일정기간 후에 일정가격으로 환매수 또는 환매도할 것을 조건으
+로 하여 채권등을 매도 또는 매수하는 거래 (해당 거래가 연속되는 경우를 포
+함한다 )로서 그 거래에 해당하는 사실이 「자본시장과 금융투자업에 관한 법
+률」제294조에 따른 한국예탁결제원의 계좌를 통하여 확인되는 거래
+2.외국법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으
+로 채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거
+래에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관
+한 법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중
+개업자를 말한다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한다 )을 통
+하여 확인되는 거래</t>
+  </si>
+  <si>
+    <t>외국법인이 채권을 대여하는 거래가 확인되는 방법은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>외국법인이 채권을 대여하는 거래는 채권대차거래중개기관이 작성한 거래 원장을 통해 확인됩니다.</t>
+  </si>
+  <si>
+    <t>률」제294조에 따른 한국예탁결제원의 계좌를 통하여 확인되는 거래
+2.외국법인이 일정기간 후에 같은 종류로서 같은 양의 채권을 반환받는 조건으
+로 채권을 대여하는 거래 (해당 거래가 연속되는 경우를 포함한다 )로서 그 거
+래에 해당하는 사실이 채권대차거래중개기관 (「자본시장과 금융투자업에 관
+한 법률」에 따른 한국예탁결제원 ,증권금융회사 ,투자매매업자 또는 투자중
+개업자를 말한다 )이 작성한 거래 원장 (전자적 형태의 원장을 포함한다 )을 통
+하여 확인되는 거래
+③제2항에 따른 거래의 경우 채권등을 매도 또는 대여한 날부터 환매수 또는 
+반환받은 날까지의 기간 동안 그 채권등으로부터 발생하는 이자소득 또는 배당
+소득에 상당하는 금액은 매도자 또는 대여자 (해당 거래가 연속되는 경우 또는 
+제2항 각 호의 거래가 혼합되는 경우에는 최초 매도자 또는 대여자를 말한다 )에
+게 귀속되는 것으로 보아 법 제98조의3을 적용한다 .&lt;개정 2010. 6.8.,2016. 2.12.&gt;
+④제2항에 따른 거래를 통하여 매수자 또는 차입자 (이하 이 조에서 “매수자등 ”이- 379 -라 한다)가 매입 또는 차입한 채권등이 제3자에게 매도 또는 대여되는 경우에는 
+매수자등 (제111조 제1항 각 호의 어느 하나에 해당하는 법인은 제외한다 )에게 보
+유기간이자상당액에 대한 세액을 법 제73조의2및 제98조의3,「소득세법」제133
+조의2및 제156조의3에 따라 원천징수하여야 하며,매수자등은 원천징수당한 세액
+을 제5항에 따라 환급받을 수 있다.&lt;개정 2010. 6.8.,2019. 2.12.&gt;
+⑤제4항에 따라 원천징수된 세액을 환급받으려는 매수자등은 제3자에게 매도 
+또는 대여한 채권등이 제2항에 따른 거래를 통하여 매입 또는 차입한 것임을 
+입증할 수 있는 기획재정부령으로 정하는 서류를 첨부하여 원천징수된 세액의 
+납부일이 속하는 달의 다음 달 10일까지 매수자등의 납세지 관할세무서장에게 
+환급신청서를 제출하여야 하며 ,환급신청을 받은 관할세무서장은 거래사실 및 
+환급신청내용을 확인한 후 즉시 환급하여야 한다 .&lt;개정 2010. 6.8.&gt;
+⑥제111조 제6항은 외국법인의 채권등의 이자등에 대한 지급시기에 관하여 이
+를 준용하고 ,제113조의 규정은 채권등의 보유기간계산 ,보유기간이자상당액의 
+계산방법 및 보유기간 입증방법에 관하여 이를 준용하며 ,제137조 제2항의 규정
+은 원천징수세액납부에 관하여 이를 준용한다 .&lt;개정 2009. 12.31.&gt;
+⑦삭제 &lt;2005. 2.19.&gt;
+[본조신설 2000. 12.29.]
+제162조(지급명세서의 제출 )내국법인에 「소득세법」제127조 제1항 제1호 또는 
+제2호의 소득을 지급하는 자는 이 영에 다른 규정이 있는 경우를 제외하고는 
+「소득세법」제164조와 같은 법 시행령 제213조 및 같은 법 시행령 제214조의 
+규정을 준용하여 지급명세서를 납세지 관할세무서장에게 제출하여야 한다 .다
+만,다음 각 호의 소득에 대하여는 지급명세서를 제출하지 아니할 수 있다 .&lt;개
+정 2008. 2.22., 2012. 2.2.,2013. 2.15., 2019. 2.12., 2019. 7.1.&gt;
+1.제111조 제1항 각 호의 금융회사 등에 지급하는 이자소득 (같은 항에 따라 원
+천징수대상이 되는 경우는 제외한다 )
+2.「자본시장과 금융투자업에 관한 법률」에 따른 한국예탁결제원이 증권회사 
+등 예탁자에게 지급하는 법 제 16조 제1항에 따른 소득
+[제목개정 2008. 2.22.]
+제162조의 2(외국법인의 국내원천소득 등에 대한 지급명세서 제출의무 특례 )①
+법 제93조에 따른 국내원천소득을 외국법인에게 지급하는 자는 법 제120조의 2
+제1항에 따라 납세지 관할세무서장에게 기획재정부령으로 정하는 지급명세서 (이
+하 이 조에서 "지급명세서 "라 한다 )를 제출하여야 한다 .&lt;단서 생략 &gt;- 380 -7.법인세법 시행규칙
+제59조(보유기간 이자상당액의 계산 등)①영 제113조 제2항 제2호 나목 단서
+에 다른 이자율의 적용에 관하여는「소득세법 시행규칙」제88조의 2를 준용한다 .
+&lt;개정 2011.2.28&gt;
+②영 제113조 제3항 단서에서 "기획재정부령이 정하는 경우 "란「자본시장과 금
+융투자업에 관한 법률 시행령」제103조 제1호에 따른 특정금전신탁이 중도해지
+되거나 그 신탁계약기간이 종료됨에 따라 해당 특정금전신탁에서 운용하던 채
+권 등을 위탁자에게 유상이체하는 경우를 말한다 .&lt;개정 2009.3.30&gt;
+③영 제113조 제7항 각호외의 부분 전단에서 "기획재정부령이 정하는 방법 "이
+라 함은 다음 각호의 1에 해당하는 방법을 말한다 .이 경우 보유기간의 계산은 
+소수점 이하 두자리까지만 할 수 있다 .&lt;개정 2001.3.28, 2008.3.31&gt;
+1.채권 등을 매도할 때마다 그 매도일 현재의 보유채권 등 및 매도채권 등의 
+취득일별 채권 등의 수에 당해채권 등의 취득일부터 매도일까지의 보유기간
+을 곱하여 계산한 기간의 합계를 채권 등의 총수로 나누어 계산하는 방법 .
+이 경우 직전 매도일 현재의 보유채권 등에 대하여는 직전 매도시에 계산한 
+평균 보유기간에 직전 매도일부터 당해매도일까지의 기간을 합한 기간을 취
+득일부터 매도일까지의 보유기간으로 한다 .
+2.가목의 기간에서 나목의 평균경과기간을 차감한 기간을 보유기간으로 하는 방법
+가.채권 등의 발행일 (발행일 이전에 매출하는 경우에는 매출일 )부터 매도일
+까지의 보유기간
+나.채권 등의 매도일 직전에 취득한 채권 등의 취득수에 발행일 (발행일이전
+에 매출하는 경우에는 매출일 )부터 취득일까지의 기간 (이하 이 목에서 "
+경과기간 "이라 한다 )을 곱한 기간과 당해채권 등의 취득 직전에 보유한 
+채권 등의 경과기간을 평균한 기간에 보유채권수를 곱한 기간의 합계를 
+채권 등의 수로 나누어 계산한 평균경과기간
+3.채권 등을 취득할 때마다 계산한 평균보유기간에 매도일까지의 기간을 합하는 방법
+제68조(원천징수의 범위 )①법 제51조의 규정에 의한 비과세소득과 다른 법률에 
+의하여 법인세가 전액 면제되는 소득에 대하여는 법 제98조의 규정에 의한 원
+천징수를 하지 아니한다 .
+②삭제 &lt;2013.2.23.&gt;- 381 -8.조세특례제한법</t>
+  </si>
+  <si>
+    <t>세금우대종합저축에 가입할 때 적용되는 원천징수세율은 몇 퍼센트인가요?</t>
+  </si>
+  <si>
+    <t>세금우대종합저축에 가입할 때 적용되는 원천징수세율은 9%입니다.</t>
+  </si>
+  <si>
+    <t>경과기간 "이라 한다 )을 곱한 기간과 당해채권 등의 취득 직전에 보유한 
+채권 등의 경과기간을 평균한 기간에 보유채권수를 곱한 기간의 합계를 
+채권 등의 수로 나누어 계산한 평균경과기간
+3.채권 등을 취득할 때마다 계산한 평균보유기간에 매도일까지의 기간을 합하는 방법
+제68조(원천징수의 범위 )①법 제51조의 규정에 의한 비과세소득과 다른 법률에 
+의하여 법인세가 전액 면제되는 소득에 대하여는 법 제98조의 규정에 의한 원
+천징수를 하지 아니한다 .
+②삭제 &lt;2013.2.23.&gt;- 381 -8.조세특례제한법
+제89조(세금우대종합저축에 대한 과세특례 )①거주자가 다음 각 호의 요건을 
+모두 갖춘 저축 (이하 "세금우대종합저축 "이라 한다 )에 2014년 12월 31일까지 가
+입하는 경우 해당 저축에서 발생하는 이자소득 및 배당소득에 대한 원천징수세
+율은 「소득세법」제129조에도 불구하고 100분의 9로 하고 ,그 이자소득 및 배
+당소득은 「소득세법」제14조에도 불구하고 종합소득에 대한 과세표준을 계산
+할 때 산입하지 아니하며 ,그 이자소득 및 배당소득에 대해서는 「지방세법」에 
+따른 개인지방소득세를 부과하지 아니한다 .&lt;개정 2010.1.1., 2011.7.14.,
+2011.12.31., 2014.1.1.&gt;
+1.「금융실명거래 및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나
+에 해당하는 금융회사등 (이하 이 조에서 "금융회사등 "이라 한다 )이 취급하는 
+적립식 또는 거치식 저축 (집합투자증권저축ㆍ공제ㆍ보험ㆍ증권저축 및 대통령
+령으로 정하는 채권저축 등을 포함한다 )으로서 저축 가입 당시 저축자가 세금
+우대 적용을 신청할 것
+2.계약기간이 1년 이상일 것
+3.모든 금융회사등에 가입한 세금우대종합저축의 계약금액 총액이 다음 각 목
+의 어느 하나에 해당하는 금액 이하일 것.다만 ,세금우대종합저축에서 발생
+하여 원금에 전입되는 이자 및 배당 등은 세금우대종합저축으로 보되 ,계약
+금액 총액의 1명당 한도를 계산할 때에는 산입하지 아니한다 .
+가.20세 이상인 자 :1명당 1천만원
+나.제88조의 2제1항 각 호의 어느 하나에 해당하는 자 :1명당 3천만원
+②~⑥&lt;생략 &gt;
+⑦세금우대종합저축을 계약일부터 1년 이내에 해지 또는 인출하거나 그 권리
+를 이전하는 경우 해당 원천징수의무자는 제1항 각 호 외의 부분을 적용하
+여 원천징수한 세액과 「소득세법」제129조를 적용하여 계산한 세액의 차
+액을 제146조의 2에 따라 추징하여야 한다 .다만 ,가입자의 사망ㆍ해외이주 
+등 대통령령으로 정하는 부득이한 사유가 있는 경우에는 그러하지 아니하다.
+&lt;개정 2010. 1.1.,2020. 12.29.&gt;
+⑧세금우대종합저축의 계약금액 총액의 계산방법과 운용ㆍ관리 방법 ,그 밖에 
+필요한 사항은 대통령령으로 정한다 .&lt;개정 2010. 1.1.&gt;
+[전문개정 1999. 12.28.] [제목개정 2010. 1.1.]- 382 -9.조세특례제한법 시행령
+제83조(세금우대종합저축에 대한 원천징수의 특례 )①법 제89조 제1항 제1호에
+서 “대통령령으로 정하는 채권저축 ”이란 다음 각호의 요건을 갖춘 저축을 말한
+다.&lt;개정 2001. 12.31., 2005. 2.19., 2010. 2.18., 2019. 6.25.&gt;
+1.「소득세법」제46조 제1항에서 규정하는 채권 또는 증권 (이하 이 항에서 
+“채권등 ”이라 한다 )으로서 상환기간이 1년 이상인 채권등을 「금융실명거래 
+및 비밀보장에 관한 법률」제2조 제1호 각 목의 어느 하나에 해당하는 금융
+기관에 계좌를 개설하여 1년 이상 계속하여 전자등록 (「주식ㆍ사채 등의 전
+자등록에 관한 법률」제2조제 2호에 따른 전자등록을 말한다 .이하 같다 )하여 
+보유하거나 예탁할 것
+2.금융기관으로부터 환매기간에 따른 사전약정이율을 적용하여 환매수 또는 환
+매도를 조건으로 취득하는 채권등이 아닐 것
+3.채권등을 계좌에서 인출하지 아니할 것.채권등을 인출한 경우에는 인출한 
+날부터 당해 채권등에 대하여 세금우대종합저축을 해지한 것으로 본다 .
+&lt;이하 생략 &gt;- 383 -10.지방세법
+제74조(정의 )주민세에서 사용하는 용어의 뜻은 다음 각 호와 같다 .&lt;개정 2014.
+1.1.,2018. 12.31., 2020. 12.29.&gt;
+1.“개인분 ”이란 지방자치단체에 주소를 둔 개인에 대하여 부과하는 주민세를 
+말한다 .
+2.“사업소분 ”이란 지방자치단체에 소재한 사업소 및 그 연면적을 과세표준으로 
+하여 부과하는 주민세를 말한다 .
+3.“종업원분 ”이란 지방자치단체에 소재한 사업소 종업원의 급여총액을 과세표
+준으로 하여 부과하는 주민세를 말한다 .
+4.“사업소 ”란 인적 및 물적 설비를 갖추고 계속하여 사업 또는 사무가 이루어
+지는 장소를 말한다 .
+5.“사업주 ”란 지방자치단체에 사업소를 둔 자를 말한다 .
+6.“사업소 연면적 ”이란 대통령령으로 정하는 사업소용 건축물의 연면적을 말한
+다.
+7.“종업원의 급여총액 ”이란 사업소의 종업원에게 지급하는 봉급 ,임금 ,상여금 
+및 이에 준하는 성질을 가지는 급여로서 대통령령으로 정하는 것을 말한다 .
+8.“종업원 ”이란 사업소에 근무하거나 사업소로부터 급여를 지급받는 임직원 ,
+그 밖의 종사자로서 대통령령으로 정하는 사람을 말한다 .
+제75조(납세의무자 )①개인분의 납세의무자는 과세기준일 현재 지방자치단체에 
+주소 (외국인의 경우에는 「출입국관리법」에 따른 체류지를 말한다 .이하 이 장
+에서 같다 )를 둔 개인으로 한다 .다만 ,다음 각 호의 어느 하나에 해당하는 사람
+은 제외한다 .&lt;개정 2020. 12.29.&gt;
+1.「국민기초생활 보장법 」에 따른 수급자
+2.「민법」에 따른 미성년자 (그 미성년자가 성년자와 「주민등록법」상 같은 
+세대를 구성하고 있는 경우는 제외한다 )
+3.「주민등록법」에 따른 세대원 및 이에 준하는 개인으로서 대통령령으로 정
+하는 사람
+4.「출입국관리법」제31조에 따른 외국인등록을 한 날부터 1년이 경과되지 아
+니한 외국인- 384 -②사업소분의 납세의무자는 과세기준일 현재 다음 각 호의 어느 하나에 해당
+하는 사업주 (과세기준일 현재 1년 이상 계속하여 휴업하고 있는 자는 제외한다 )</t>
+  </si>
+  <si>
+    <t>국민기초생활 보장법에 따른 수급자는 누구인가요?</t>
+  </si>
+  <si>
+    <t>국민기초생활 보장법에 따른 수급자는 국민기초생활 보장법에 따른 수급자입니다.</t>
+  </si>
+  <si>
+    <t>1.「국민기초생활 보장법 」에 따른 수급자
+2.「민법」에 따른 미성년자 (그 미성년자가 성년자와 「주민등록법」상 같은 
+세대를 구성하고 있는 경우는 제외한다 )
+3.「주민등록법」에 따른 세대원 및 이에 준하는 개인으로서 대통령령으로 정
+하는 사람
+4.「출입국관리법」제31조에 따른 외국인등록을 한 날부터 1년이 경과되지 아
+니한 외국인- 384 -②사업소분의 납세의무자는 과세기준일 현재 다음 각 호의 어느 하나에 해당
+하는 사업주 (과세기준일 현재 1년 이상 계속하여 휴업하고 있는 자는 제외한다 )
+로 한다 .다만 ,사업소용 건축물의 소유자와 사업주가 다른 경우에는 대통령령
+으로 정하는 바에 따라 건축물의 소유자에게 제2차 납세의무를 지울 수 있다 .
+&lt;개정 2018. 12.31., 2020. 12.29.&gt;
+1.지방자치단체에 대통령령으로 정하는 규모 이상의 사업소를 둔 개인
+2.지방자치단체에 사업소를 둔 법인 (법인세의 과세대상이 되는 법인격 없는 사
+단ㆍ재단 및 단체를 포함한다 .이하 이 장에서 같다 )
+③종업원분의 납세의무자는 종업원에게 급여를 지급하는 사업주로 한다 .&lt;신설
+2014. 1.1.&gt;
+제76조(납세지 )①개인분의 납세지는 과세기준일 현재 주소지로 한다 .&lt;개정 
+2020. 12.29.&gt;
+②사업소분의 납세지는 과세기준일 현재 각 사업소 소재지로 한다 .&lt;개정 
+2020. 12.29.&gt;
+③종업원분의 납세지는 급여를 지급한 날 (월 2회 이상 급여를 지급하는 경우에
+는 마지막으로 급여를 지급한 날을 말한다 )현재의 사업소 소재지 (사업소를 폐
+업하는 경우에는 폐업하는 날 현재의 사업소 소재지를 말한다 )로 한다 .&lt;신설 
+2014. 1.1.,2018. 12.31., 2020. 12.29.&gt;
+제77조(비과세 )①다음 각 호의 어느 하나에 해당하는 자에 대하여는 주민세를 
+부과하지 아니한다 .
+1.국가 ,지방자치단체 및 지방자치단체조합
+2.주한외국정부기관ㆍ주한국제기구ㆍ 「외국 민간원조단체에 관한 법률」에 따
+른 외국 민간원조단체 (이하 “주한외국원조단체 ”라 한다 )및 주한외국정부기
+관ㆍ주한국제기구에 근무하는 외국인 .다만 ,대한민국의 정부기관ㆍ국제기구 
+또는 대한민국의 정부기관ㆍ국제기구에 근무하는 대한민국의 국민에게 주민
+세와 동일한 성격의 조세를 부과하는 국가와 그 국적을 가진 외국인 및 그 
+국가의 정부 또는 원조단체의 재산에 대하여는 주민세를 부과한다 .
+②삭제 &lt;2019. 12.31.&gt;
+③삭제 &lt;2018. 12.31.&gt;- 385 -제78조(세율 )개인분의 세율은 1만원을 초과하지 아니하는 범위에서 지방자치단
+체의 장이 조례로 정한다 .
+[전문개정 2020. 12.29.]
+제79조(징수방법 등)①개인분은 납세지를 관할하는 지방자치단체의 장이 보통
+징수의 방법으로 징수한다 .&lt;개정 2020. 12.29.&gt;
+②개인분의 과세기준일은 매년 7월 1일로 한다.&lt;개정 2018. 12.31.,2020. 12.29.&gt;
+③개인분의 납기는 매년 8월 16일부터 8월 31일까지로 한다.&lt;개정 2020. 12.29.&gt;
+제103조의 13(특별징수의무 )①「소득세법」또는 「조세특례제한법」에 따른 원
+천징수의무자가 거주자로부터 소득세를 원천징수하는 경우에는 대통령령으로 
+정하는 바에 따라 원천징수하는 소득세 (「조세특례제한법」및 다른 법률에 따
+라 조세감면 또는 중과세 등의 조세특례가 적용되는 경우에는 이를 적용한 소
+득세 )의 100분의 10에 해당하는 금액을 소득세 원천징수와 동시에 개인지방소득
+세로 특별징수하여야 한다 .이 경우 같은 법에 따른 원천징수의무자는 개인지방
+소득세의 특별징수의무자 (이하 이 절에서 “특별징수의무자 ”라 한다 )로 한다 .
+②특별징수의무자가 제1항에 따라 개인지방소득세를 특별징수하였을 경우에는 
+그 징수일이 속하는 달의 다음 달 10일까지 납세지를 관할하는 지방자치단체에 
+납부하여야 한다 .다만 ,「소득세법」제128조 제2항에 따라 원천징수한 소득세
+를 반기 (半期 )별로 납부하는 경우에는 반기의 마지막 달의 다음 달 10일까지 반
+기의 마지막 달 말일 현재의 납세지 관할 지방자치단체에 납부할 수 있다 .&lt;개정
+2020. 12.29.&gt;
+③제1항에 따른 개인지방소득세의 특별징수의무자가 제89조 제3항 제3호부터 
+제5호까지의 규정에 따라 납부한 지방자치단체별 특별징수세액에 오류가 있음
+을 발견하였을 때에는 그 과부족분을 대통령령으로 정하는 바에 따라 해당 지
+방자치단체에 납부하여야 할 특별징수세액에서 가감하여야 한다 .이 경우 가감
+으로 인하여 추가로 납부하는 특별징수세액에 대하여는 「지방세기본법」제56
+조에 따른 가산세를 부과하지 아니하며 ,환급하는 세액에 대하여는 지방세환급
+가산금을 지급하지 아니한다 .&lt;개정 2016. 12.27.&gt;
+④개인지방소득세의 특별징수에 관하여 이 법에 특별한 규정이 있는 경우를 
+제외하고는 「소득세법」에 따른 원천징수에 관한 규정을 준용한다 .
+[본조신설 2014. 1.1.]- 386 -제103조의 29(특별징수의무 )①「법인세법」제73조 및 제73조의 2에 따른 원천징
+수의무자가 내국법인으로부터 법인세를 원천징수하는 경우에는 원천징수하는 
+법인세 (「조세특례제한법」및 다른 법률에 따라 조세감면 또는 중과세 등의 조
+세특례가 적용되는 경우에는 이를 적용한 법인세 )의 100분의 10에 해당하는 금
+액을 법인지방소득세로 특별징수하여야 한다 .&lt;개정 2018. 12.24.&gt;
+②제1항에 따라 특별징수를 하여야 하는 자를 “특별징수의무자 ”라 한다 .
+③특별징수의무자는 특별징수한 지방소득세를 그 징수일이 속하는 달의 다음 
+달 10일까지 대통령령으로 정하는 바에 따라 관할 지방자치단체에 납부하여야 
+한다 .
+④특별징수의무자가 징수하였거나 징수하여야 할 세액을 제3항에 따른 납부기
+한까지 납부하지 아니하거나 과소납부한 경우에는 「지방세기본법」제56조에 
+따라 산출한 금액을 가산세로 부과하며 ,특별징수의무자가 징수하지 아니한 경
+우로서 납세의무자가 그 법인지방소득세액을 이미 납부한 경우에는 특별징수의
+무자에게 그 가산세액만을 부과한다 .다만 ,국가 또는 지방자치단체와 그 밖에</t>
+  </si>
+  <si>
+    <t>특별징수의무자가 징수한 지방소득세를 납부해야 하는 기한은 언제인가요?</t>
+  </si>
+  <si>
+    <t>특별징수의무자는 특별징수한 지방소득세를 그 징수일이 속하는 달의 다음 달 10일까지 납부하여야 합니다.</t>
+  </si>
+  <si>
+    <t>③특별징수의무자는 특별징수한 지방소득세를 그 징수일이 속하는 달의 다음 
+달 10일까지 대통령령으로 정하는 바에 따라 관할 지방자치단체에 납부하여야 
+한다 .
+④특별징수의무자가 징수하였거나 징수하여야 할 세액을 제3항에 따른 납부기
+한까지 납부하지 아니하거나 과소납부한 경우에는 「지방세기본법」제56조에 
+따라 산출한 금액을 가산세로 부과하며 ,특별징수의무자가 징수하지 아니한 경
+우로서 납세의무자가 그 법인지방소득세액을 이미 납부한 경우에는 특별징수의
+무자에게 그 가산세액만을 부과한다 .다만 ,국가 또는 지방자치단체와 그 밖에 
+대통령령으로 정하는 자가 특별징수의무자인 경우에는 특별징수 의무불이행을 
+이유로 하는 가산세는 부과하지 아니한다 .&lt;개정 2016. 12.27., 2018. 12.31.&gt;
+⑤법인지방소득세의 특별징수에 관하여 이 법에 특별한 규정이 있는 경우를 
+제외하고는 「법인세법」에 따른 원천징수에 관한 규정을 준용한다 .
+[본조신설 2014. 1.1.]
+제103조의 60(소액 징수면제 )지방소득세로 징수할 세액이 고지서 1장당 2천원 미
+만인 경우에는 그 지방소득세를 징수하지 아니한다 .[전문개정 2018. 12.31.]- 387 -11.지방세법 시행령
+제100조의 5(특별징수의무 )①법 제103조의 13제1항 후단에 따른 특별징수의무자
+(이하 이 절에서 "특별징수의무자 "라 한다 )는 법 제103조의 13제2항에 따라 징수
+한 특별징수세액을 납부하는 경우에는 납부서에 계산서와 명세서를 첨부하여야 
+한다 .
+②제1항에도 불구하고 개인지방소득세의 특별징수의무자가 징수한 특별징수세
+액을 납부할 때에는 근로소득 ,이자소득 ,「소득세법」제20조의 3제1항 제1호 
+및 제2호에 따른 연금소득과 「국민건강보험법」에 따른 국민건강보험공단이 
+지급하는 사업소득에 대해서는 그 명세서를 첨부하지 아니할 수 있다 .다만 ,과
+세권자가 납세증명 발급 등 민원처리를 위하여 개인별 납세실적 파악이 필요하
+여 명세서 제출을 요구하는 경우에는 첨부하여야 한다 .
+③개인지방소득세의 특별징수의무자가 법 제103조의 13제3항 전단에 따라 해
+당 지방자치단체별 특별징수세액에서 오류를 발견하였을 때에는 그 과부족분 (過
+不足分 )을 오류를 발견한 날의 다음 달 10일까지 관할 지방자치단체에 납부하여
+야 할 특별징수세액에서 가감하여야 한다 .이 경우 그 남는 부분이 관할 지방자
+치단체에 납부하여야 할 다음 달의 특별징수세액을 초과하는 경우에는 그 다음 
+달의 특별징수세액에서 조정할 수 있다 .[본조신설 2014.3.14.]
+제100조의 19(특별징수의무 )①법 제103조의 29제2항에 따른 특별징수의무자 (이하 
+이 조에서 “특별징수의무자 ”라 한다 )는 같은 조 제3항에 따라 징수한 특별징수
+세액을 행정안전부령으로 정하는 납부서로 납부하여야 한다 .&lt;개정 2015. 6.1.,
+2017. 7.26.&gt;
+②특별징수의무자는 납세의무자별로 행정안전부령으로 정하는 법인지방소득세 
+특별징수명세서를 특별징수일이 속하는 해의 다음 해 2월 말일 (특별징수의무자
+가 휴업 ,폐업 및 해산한 경우에는 휴업 ,폐업 및 해산일이 속하는 달 말일의 
+다음 날부터 2개월이 되는 날)까지 특별징수의무자 소재지 관할 지방자치단체의 
+장에게 제출하여야 한다 .이 경우 특별징수의무자 소재지 관할 지방자치단체의 
+장은 특별징수의무자의 소재지와 납세의무자의 사업장 소재지가 다른 경우 납
+세의무자의 사업장 소재지 관할 지방자치단체의 장에게 해당 지방법인소득세 
+특별징수명세서를 통보하여야 한다.&lt;신설 2015. 6.1.,2017. 7.26.,2018. 12.31.&gt;- 388 -③특별징수의무자는 제2항 전단에 따른 법인지방소득세 특별징수명세서를 다
+음 각 호의 어느 하나에 해당하는 방법으로 제출하여야 한다 .&lt;신설 2015. 6.1.&gt;
+1.출력하거나 디스켓 등 전자적 정보저장매체에 저장하여 인편 또는 우편으로 제출
+2.「지방세기본법」제2조 제 1항 제 28호에 따른 지방세정보통신망으로 제출
+④특별징수의무자는 납세의무자로부터 법인지방소득세를 특별징수한 경우에는 
+그 납세의무자에게 행정안전부령으로 정하는 법인지방소득세 특별징수영수증을 
+발급하여야 한다 .다만 ,「법인세법」제73조 및 제73조의 2에 따른 원천징수의
+무자가 같은 법 제74조에 따른 원천징수영수증을 발급할 때 법인지방소득세 특
+별징수액과 그 납세지 정보를 포함하여 발급하는 경우에는 해당 법인지방소득
+세 특별징수영수증을 발급한 것으로 본다 .&lt;신설 2015. 6.1.,2017. 7.26., 2019.
+2.12.&gt;
+⑤제4항 본문에도 불구하고 「법인세법」제73조 및 제73조의 2에 따른 이자소
+득금액 또는 배당소득금액이 계좌별로 1년간 1백만원 이하로 발생한 경우에는 
+법인지방소득세 특별징수영수증을 발급하지 아니할 수 있다 .다만 ,납세의무자
+가 법인지방소득세 특별징수영수증의 발급을 요구하는 경우에는 이를 발급하여
+야 한다 .&lt;신설 2015. 6.1.,2019. 2.12.&gt;
+⑥법 제103조의 29제4항 단서에서 “대통령령으로 정하는 자”란 주한 미국군을 
+말한다 .&lt;신설 2019. 2.8.&gt;
+[본조신설 2014. 3.14.]- 389 -12.농어촌특별세법
+제5조(과세표준과 세율 )①농어촌특별세는 다음 각 호의 과세표준에 대한 세율을 
+곱하여 계산한 금액을 그 세액으로 한다 .&lt;개정 1994.12.22., 1998.12.28.,
+1999.12.28., 2000.12.29., 2001.12.29., 2005.1.5., 2007.12.31., 2010.12.30., 2013.5.28.&gt;
+②「조세특례제한법」제72조 제1항에 따른 조합법인 등의 경우에는 제1호에 
+규정된 세액에서 제2호에 규정된 세액을 차감한 금액을 감면을 받는 세액으로 
+보아 제 1항 제1호를 적용한다 .&lt;개정 2010.12.30.&gt;
+1.해당 법인의 각 사업연도 과세표준금액에 「법인세법」제55조 제1항에 규정
+된 세율을 적용하여 계산한 법인세액
+2.해당 법인의 각 사업연도 과세표준금액에 「조세특례제한법」제72조 제1항
+에 규정된 세율을 적용하여 계산한 법인세액</t>
+  </si>
+  <si>
+    <t>조세특례제한법 제72조 제1항에 따른 조합법인 등의 경우, 감면을 받는 세액을 계산할 때 적용되는 법인세법 조항은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>조세특례제한법 제72조 제1항에 따른 조합법인 등의 경우, 감면을 받는 세액을 계산할 때 적용되는 법인세법 조항은 법인세법 제55조 제1항입니다.</t>
+  </si>
+  <si>
+    <t>②「조세특례제한법」제72조 제1항에 따른 조합법인 등의 경우에는 제1호에 
+규정된 세액에서 제2호에 규정된 세액을 차감한 금액을 감면을 받는 세액으로 
+보아 제 1항 제1호를 적용한다 .&lt;개정 2010.12.30.&gt;
+1.해당 법인의 각 사업연도 과세표준금액에 「법인세법」제55조 제1항에 규정
+된 세율을 적용하여 계산한 법인세액
+2.해당 법인의 각 사업연도 과세표준금액에 「조세특례제한법」제72조 제1항
+에 규정된 세율을 적용하여 계산한 법인세액
+③비과세 및 소득공제를 받는 경우에는 대통령령으로 정하는 계산방법에 의하여 
+계산한 금액을 감면을 받는 세액으로 보아 제1항 제1호를 적용한다 .&lt;개정 2010.12.30.&gt;- 390 -④「조세특례제한법」에 따라 이자소득·배당소득에 대한 소득세가 부과되지 
+아니하거나 소득세특례세율이 적용되는 경우에는 제1호에 규정된 세액에서 제2
+호에 규정된 세액을 차감한 금액을 감면을 받는 세액으로 보아 제1항 제2호를 
+적용한다 .&lt;개정 2010.12.30.&gt;
+1.이자소득·배당소득에 다음 각 목의 어느 하나의 율을 곱하여 계산한 금액
+가.이자소득의 경우에는 100분의 14
+나.배당소득의 경우에는 100분의 14
+2.「조세특례제한법」에 따라 납부하는 소득세액 (소득세가 부과되지 아니하는 
+경우에는 영으로 한다 )
+⑤제1항 제6호에도 불구하고「지방세법」제15조 제2항에 해당하는 경우에는 같은 항
+에 따라 계산한 취득세액을 제1항 제6호의 과세표준으로 본다.&lt;신설 2010.12.30.&gt;
+제6조(납세지 )농어촌특별세의 납세지는 해당 본세의 납세지로 한다 .
+[전문개정 2010.12.30.]
+제7조(신고·납부 등)①제5조 제1항 제1호에 따른 농어촌특별세는 해당 본세를 
+신고·납부 (중간예납은 제외한다 )하는 때에 그에 대한 농어촌특별세도 함께 신
+고·납부하여야 하며 ,신고·납부할 본세가 없는 경우에는 해당 본세의 신고·납부
+의 예에 따라 신고·납부하여야 한다 .다만 ,제3항이 적용되는 경우에는 그러하지 
+아니하다 .&lt;개정 2010.12.30.&gt;
+②제1항에도 불구하고 「법인세법」에 따른 연결납세방식을 적용받는 법인의 
+경우에는 같은 법 제1조 제9호에 따른 연결모법인이 신고ㆍ납부하여야 한다 .이 
+경우 그 납부의무에 관하여는 「법인세법」제3조 제3항을 준용한다 .&lt;신설 
+2011. 12.31., 2018. 12.24.&gt;
+③「소득세법」에 따른 원천징수의무자가 제5조 제1항 제1호 또는 제2호를 적
+용받는 소득금액을 지급하는 때에는 「소득세법」의 원천징수의 예에 따라 농
+어촌특별세를 징수하여 신고·납부하여야 한다 .&lt;개정 2010.12.30.&gt;
+④제5조 제1항 제4호부터 제8호까지의 규정에 따른 농어촌특별세는 해당 본세를 신고·납
+부하거나 거래징수 (「증권거래세법」제9조에 따른 거래징수를 말한다 .이하 같다)하여 납부
+하는 때에 그에 대한 농어촌특별세도 함께 신고·납부하여야 한다.&lt;개정 2010.12.30.&gt;
+⑤제1항부터 제4항까지의 규정에 따른 신고·납부 등에 관하여 필요한 사항은 
+대통령령으로 정한다 .&lt;개정 2010.12.30., 2011.12.31.&gt;
+[제목개정 2010.12.30.]- 391 -13. 국고금관리법
+제47조(국고금의 끝수 계산 )①국고금의 수입 또는 지출에서 10원 미만의 끝수
+가 있을 때에는 그 끝수는 계산하지 아니하고 ,전액이 10원 미만일 때에도 그 
+전액을 계산하지 아니한다 .다만 ,대통령령으로 정하는 경우에는 그러하지 아니
+하다 .
+②국세의 과세표준액을 산정할 때 1원 미만의 끝수가 있으면 이를 계산하지 
+아니한다 .
+③지방자치단체 ,그 밖에 대통령령으로 정하는 공공단체와 공공기관의 경우에
+는 제1항 및 제2항을 준용할 수 있다 .다만 ,「한국산업은행법」에 따른 한국산
+업은행 등 대통령령으로 정하는 공공기관의 경우에는 그러하지 아니하다 .
+[전문개정 2011.4.4]2021년 한국은행 증권업무해설 집필진
+목 록 원고집필 담당
+Ⅰ. 국채 업무  
+  제1장 국채 제도 개요
+  제2장 국채의 발행 
+  제3장 국채의 상환 
+  제4장 국고채전문딜러 제도 
+  제5장 국채 원금・이자 분리거래제도 (STRIPS)  
+Ⅱ 통화안정증권 업무 
+  제1장 업무 개요 
+  제2장 통화안정증권의 발행 
+  제3장 통화안정증권의 등록 
+  제4장 통화안정증권의 상환 
+  제5장 발행 및 상환의 회계처리  
+  제6장 통합발행 회계처리 예시 
+Ⅲ 국공채 매매 및 대차 업무  
+  제1장 업무 개요 
+  제2장 환매조건부채권(RP) 매매 
+  제3장 증권 단순매매  
+  제4장 증권대차 차  장 김 혜 경
+조사역 염 지 인
+〃   이 경 숙
+〃   박 미 애
+과  장 신 성 욱
+조사역 박 나 라
+〃   최 인 실
+과  장 신 성 욱
+조사역 박 나 라
+〃   최 인 실목 록 집 필 자
+Ⅳ 채권 관련 원천징수 업무  
+  제1장 채권 과세제도 개요
+  제2장 채권관련 원천징수제도
+  제3장 국채 및 통화안정증권관련 원천징수업무  
+Ⅴ 수입인지  업무
+  제1장 수입인지 제도 개요 
+  제2장 수입인지 수급 및 판매 
+  제3장 수입인지 판매대금 회수 및 국고 납입
+  제4장 수입인지 판매인 관리 및 보고
+Ⅵ 정부유가증권  업무
+  제1장 업무 개요 
+  제2장 정부유가증권 수급 및 관리 
+  제3장 정부유가증권 수탁 및 환부
+  제4장 정부유가증권 월계대사 및 계산보고
+  제5장 정부유가증권 관련 기타 업무 
+Ⅶ 징발보상증권 관련 업무
+  제1장 업무 개요 
+  제2장 징발보상증권 발행 및 상환
+  제3장 징발보상금의 공탁 
+  제4장 징발재산의 환매 차  장 김 혜 경
+과  장 신 성 욱
+조사역 박 나 라
+〃   염 지 인
+〃   이 경 숙
+〃   최 인 실
+〃   박 미 애
+과  장 박 경 호
+〃   김    수
+과  장 박 경 호
+〃   김    수
+과  장 박 경 호
+〃   김    수목 록 집 필 자
+Ⅷ 현물보관 업무  
+  제1장 증권 과목
+  제2장 증권 출납, 관리, 폐기 및 현송
+  제3장 시재검사  
+Ⅸ 증권 커스터디 (Custody)  업무
+  제1장 한국은행 증권 커스터디 업무 개요
+  제2장 증권 커스터디 약정체결 절차</t>
+  </si>
+  <si>
+    <t>제4장 징발재산의 환매 차  장 김 혜 경
+과  장 신 성 욱
+조사역 박 나 라
+〃   염 지 인
+〃   이 경 숙
+〃   최 인 실
+〃   박 미 애
+과  장 박 경 호
+〃   김    수
+과  장 박 경 호
+〃   김    수
+과  장 박 경 호
+〃   김    수목 록 집 필 자
+Ⅷ 현물보관 업무  
+  제1장 증권 과목
+  제2장 증권 출납, 관리, 폐기 및 현송
+  제3장 시재검사  
+Ⅸ 증권 커스터디 (Custody)  업무
+  제1장 한국은행 증권 커스터디 업무 개요
+  제2장 증권 커스터디 약정체결 절차
+  제3장 증권 커스터디 업무 세부절차  
+  제4장 유관기관의 역할 및 프로세스
+  제5장 BOK-CS 등 관련 시스템
+  제6장 SWIFT 메세지  
+Ⅹ참고 자료  
+  제1장 채권의 종류  
+  제2장 전자증권제도의 개요
+  제3장 증권업무 이자소득세 원천징수 관련 세법조항과  장 박 경 호
+〃   김    수
+과  장 박 경 호
+〃   고 태 호
+조사역 송 병 헌
+〃   이 보 미
+차  장 김 혜 경
+과  장 신 성 욱
+조사역 박 나 라
+〃   염 지 인
+〃   이 경 숙
+〃   최 인 실
+〃   박 미 애</t>
   </si>
 </sst>
 </file>
@@ -8096,10 +10223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9117,6 +11244,356 @@
         <v>211</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" t="s">
+        <v>279</v>
+      </c>
+      <c r="D95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
